--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
   <si>
     <t>UP</t>
   </si>
@@ -117,9 +117,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Karuppu</t>
   </si>
   <si>
@@ -154,14 +151,78 @@
   </si>
   <si>
     <t>31/02/2018</t>
+  </si>
+  <si>
+    <t>A-Formula-4(Pregnant cows)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Morning and Evening equally divided</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Kadala punnakku(0.5kg)</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(0.5kg)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Thuvampottu</t>
+  </si>
+  <si>
+    <t>Gothuma nice</t>
+  </si>
+  <si>
+    <t>Booza medium</t>
+  </si>
+  <si>
+    <t>Kadala punnakku</t>
+  </si>
+  <si>
+    <t>Yellu punnakku</t>
+  </si>
+  <si>
+    <t>Paruthikottai punnakku</t>
+  </si>
+  <si>
+    <t>Price / kg</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Xavier mama</t>
+  </si>
+  <si>
+    <t>Inside vekateshwara bakery</t>
+  </si>
+  <si>
+    <t>Satyam Marasekku(Inside Venkateshwara bakery)</t>
+  </si>
+  <si>
+    <t>Feed(SKM)</t>
+  </si>
+  <si>
+    <t>17(doubt)</t>
+  </si>
+  <si>
+    <t>A-Formula-4 and 5</t>
+  </si>
+  <si>
+    <t>A-Formula-5(Milking cows)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +275,14 @@
         <bgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -271,24 +338,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,6 +376,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,7 +413,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +538,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -647,11 +748,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197872368"/>
-        <c:axId val="197875088"/>
+        <c:axId val="-1790076416"/>
+        <c:axId val="-1790075872"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="197872368"/>
+        <c:axId val="-1790076416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,14 +795,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197875088"/>
+        <c:crossAx val="-1790075872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197875088"/>
+        <c:axId val="-1790075872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197872368"/>
+        <c:crossAx val="-1790076416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,7 +942,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1052,11 +1152,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197875632"/>
-        <c:axId val="197876176"/>
+        <c:axId val="-1563694624"/>
+        <c:axId val="-1563690816"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="197875632"/>
+        <c:axId val="-1563694624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,14 +1199,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197876176"/>
+        <c:crossAx val="-1563690816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197876176"/>
+        <c:axId val="-1563690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197875632"/>
+        <c:crossAx val="-1563694624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,22 +2809,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2732,7 +2834,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2740,15 +2842,20 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2756,64 +2863,192 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="16">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="16">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="16">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="16">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="16">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2823,17 +3058,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16:I26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
@@ -2850,19 +3086,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H1" t="s">
@@ -2876,13 +3112,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43206</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <v>14.42</v>
       </c>
       <c r="D2">
@@ -2897,7 +3133,7 @@
       <c r="G2">
         <v>320.26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I2" t="s">
@@ -2908,13 +3144,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43206</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="18">
         <v>4.3499999999999996</v>
       </c>
       <c r="D3">
@@ -2929,7 +3165,7 @@
       <c r="G3">
         <v>95.87</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" t="s">
@@ -2940,13 +3176,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43207</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>8.73</v>
       </c>
       <c r="D4">
@@ -2972,13 +3208,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43207</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="18">
         <v>5.49</v>
       </c>
       <c r="D5">
@@ -3004,13 +3240,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43208</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="18">
         <v>10.18</v>
       </c>
       <c r="D6">
@@ -3025,7 +3261,7 @@
       <c r="G6">
         <v>232.3</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
@@ -3036,13 +3272,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43208</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="18">
         <v>7.69</v>
       </c>
       <c r="D7">
@@ -3057,7 +3293,7 @@
       <c r="G7">
         <v>189.48</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
@@ -3068,13 +3304,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43209</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="18">
         <v>5.99</v>
       </c>
       <c r="D8">
@@ -3089,7 +3325,7 @@
       <c r="G8">
         <v>132.01</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
@@ -3100,13 +3336,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43209</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="18">
         <v>6.37</v>
       </c>
       <c r="D9">
@@ -3121,7 +3357,7 @@
       <c r="G9">
         <v>145.36000000000001</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" t="s">
@@ -3132,13 +3368,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43210</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="18">
         <v>7.81</v>
       </c>
       <c r="D10">
@@ -3164,13 +3400,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>43210</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="18">
         <v>8.2799999999999994</v>
       </c>
       <c r="D11">
@@ -3196,13 +3432,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43211</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="18">
         <v>9.34</v>
       </c>
       <c r="D12">
@@ -3228,13 +3464,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>43211</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="18">
         <v>10.25</v>
       </c>
       <c r="D13">
@@ -3249,7 +3485,7 @@
       <c r="G13">
         <v>233.9</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I13" t="s">
@@ -3260,13 +3496,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>43212</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="18">
         <v>9.01</v>
       </c>
       <c r="D14">
@@ -3281,7 +3517,7 @@
       <c r="G14">
         <v>205.6</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I14" t="s">
@@ -3292,13 +3528,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43212</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="18">
         <v>6.43</v>
       </c>
       <c r="D15">
@@ -3313,17 +3549,17 @@
       <c r="G15">
         <v>148.63999999999999</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43213</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="18">
         <v>5.62</v>
       </c>
       <c r="D16">
@@ -3338,7 +3574,7 @@
       <c r="G16">
         <v>122.79</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I16" t="s">
@@ -3349,13 +3585,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>43213</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="18">
         <v>5.1100000000000003</v>
       </c>
       <c r="D17">
@@ -3370,7 +3606,7 @@
       <c r="G17">
         <v>121.61</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I17" t="s">
@@ -3381,13 +3617,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>43214</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="18">
         <v>8.43</v>
       </c>
       <c r="D18">
@@ -3402,7 +3638,7 @@
       <c r="G18">
         <v>185.79</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I18" t="s">
@@ -3413,13 +3649,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>43214</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="18">
         <v>7.98</v>
       </c>
       <c r="D19">
@@ -3434,7 +3670,7 @@
       <c r="G19">
         <v>191.52</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I19" t="s">
@@ -3445,13 +3681,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>43215</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="18">
         <v>8.74</v>
       </c>
       <c r="D20">
@@ -3466,7 +3702,7 @@
       <c r="G20">
         <v>199.44</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I20" t="s">
@@ -3477,13 +3713,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>43215</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="18">
         <v>5</v>
       </c>
       <c r="D21">
@@ -3498,7 +3734,7 @@
       <c r="G21">
         <v>109.25</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I21" t="s">
@@ -3509,13 +3745,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>43216</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="18">
         <v>9.6199999999999992</v>
       </c>
       <c r="D22">
@@ -3530,7 +3766,7 @@
       <c r="G22">
         <v>212.04</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I22" t="s">
@@ -3541,13 +3777,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>43216</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="18">
         <v>9.42</v>
       </c>
       <c r="D23">
@@ -3562,7 +3798,7 @@
       <c r="G23">
         <v>198.66</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I23" t="s">
@@ -3573,13 +3809,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>43217</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="18">
         <v>7.08</v>
       </c>
       <c r="D24">
@@ -3594,7 +3830,7 @@
       <c r="G24">
         <v>154.69</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I24" t="s">
@@ -3605,13 +3841,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>43217</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="18">
         <v>8.2200000000000006</v>
       </c>
       <c r="D25">
@@ -3626,7 +3862,7 @@
       <c r="G25">
         <v>181.16</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I25" t="s">
@@ -3637,13 +3873,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>43218</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="18">
         <v>9.5399999999999991</v>
       </c>
       <c r="D26">
@@ -3658,7 +3894,7 @@
       <c r="G26">
         <v>210.26</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I26" t="s">
@@ -3669,13 +3905,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>43218</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="18">
         <v>9.0399999999999991</v>
       </c>
       <c r="D27">
@@ -3690,18 +3926,18 @@
       <c r="G27">
         <v>190.65</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>43219</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="18">
         <v>9.58</v>
       </c>
       <c r="D28">
@@ -3727,35 +3963,487 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>43219</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>28</v>
+      <c r="C29" s="18">
+        <v>10.44</v>
+      </c>
+      <c r="D29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E29">
+        <v>7.3</v>
+      </c>
+      <c r="F29">
+        <v>21.09</v>
+      </c>
+      <c r="G29">
+        <v>220.17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>43220</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="19">
+        <v>10.77</v>
+      </c>
+      <c r="D30">
+        <v>4.2</v>
+      </c>
+      <c r="E30">
+        <v>7.1</v>
+      </c>
+      <c r="F30">
+        <v>21.85</v>
+      </c>
+      <c r="G30">
+        <v>230.32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>43220</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>29</v>
+      </c>
+      <c r="C31" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="D31">
+        <v>4.3</v>
+      </c>
+      <c r="E31">
+        <v>7.1</v>
+      </c>
+      <c r="F31">
+        <v>21.09</v>
+      </c>
+      <c r="G31">
+        <v>146.57</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>43105</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="D32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E32">
+        <v>7.8</v>
+      </c>
+      <c r="F32">
+        <v>23.8</v>
+      </c>
+      <c r="G32">
+        <v>199.92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>43105</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="20">
+        <v>8.51</v>
+      </c>
+      <c r="D33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33">
+        <v>23.8</v>
+      </c>
+      <c r="G33">
+        <v>202.53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>43136</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="20">
+        <v>10.24</v>
+      </c>
+      <c r="D34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E34">
+        <v>7.7</v>
+      </c>
+      <c r="F34">
+        <v>24.44</v>
+      </c>
+      <c r="G34">
+        <v>254.42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>43136</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="20">
+        <v>7.18</v>
+      </c>
+      <c r="D35">
+        <v>5.3</v>
+      </c>
+      <c r="E35">
+        <v>7.4</v>
+      </c>
+      <c r="F35">
+        <v>26.67</v>
+      </c>
+      <c r="G35">
+        <v>191.49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>43164</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="20">
+        <v>11.49</v>
+      </c>
+      <c r="D36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E36">
+        <v>7.6</v>
+      </c>
+      <c r="F36">
+        <v>22.82</v>
+      </c>
+      <c r="G36">
+        <v>262.2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>43164</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="20">
+        <v>10.09</v>
+      </c>
+      <c r="D37">
+        <v>4.5</v>
+      </c>
+      <c r="E37">
+        <v>7.5</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>242.16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>43195</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="20">
+        <v>10.66</v>
+      </c>
+      <c r="D38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38">
+        <v>7.8</v>
+      </c>
+      <c r="F38">
+        <v>24.64</v>
+      </c>
+      <c r="G38">
+        <v>262.66000000000003</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>43195</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20">
+        <v>9.17</v>
+      </c>
+      <c r="D39">
+        <v>3.7</v>
+      </c>
+      <c r="E39">
+        <v>7.7</v>
+      </c>
+      <c r="F39">
+        <v>21.09</v>
+      </c>
+      <c r="G39">
+        <v>193.39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <v>43225</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="20">
+        <v>10.11</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>7.7</v>
+      </c>
+      <c r="F40">
+        <v>22.82</v>
+      </c>
+      <c r="G40">
+        <v>230.71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>43225</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="20">
+        <v>9.89</v>
+      </c>
+      <c r="D41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E41">
+        <v>7.3</v>
+      </c>
+      <c r="F41">
+        <v>21.09</v>
+      </c>
+      <c r="G41">
+        <v>208.58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>43256</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>43256</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>43286</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <v>43286</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3778,30 +4466,30 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -3840,7 +4528,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43206</v>
       </c>
       <c r="B3">
@@ -3863,72 +4551,72 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43207</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43208</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43209</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43210</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43211</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43212</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43213</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>43214</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43215</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>43216</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>43217</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43218</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43219</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>43220</v>
       </c>
     </row>
@@ -3962,194 +4650,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>43206</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>43206</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="28">
         <v>43207</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="28">
         <v>43208</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="28">
         <v>43209</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="28">
         <v>43210</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="28">
         <v>43211</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="28">
         <v>43212</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="28">
         <v>43213</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="A26" s="28">
         <v>43214</v>
       </c>
       <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4186,29 +4874,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10">
         <v>43218</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>43218</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>43218</v>
       </c>
     </row>
@@ -4235,26 +4923,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="12">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10">
         <v>43190</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="12">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
         <v>43190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="66">
   <si>
     <t>UP</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>A-Formula-5(Milking cows)</t>
+  </si>
+  <si>
+    <t>13/5/2018</t>
+  </si>
+  <si>
+    <t>14/5/2018</t>
+  </si>
+  <si>
+    <t>15/5/2018</t>
   </si>
 </sst>
 </file>
@@ -748,11 +757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1790076416"/>
-        <c:axId val="-1790075872"/>
+        <c:axId val="-1013591136"/>
+        <c:axId val="-786863968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1790076416"/>
+        <c:axId val="-1013591136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,14 +804,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790075872"/>
+        <c:crossAx val="-786863968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1790075872"/>
+        <c:axId val="-786863968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1790076416"/>
+        <c:crossAx val="-1013591136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,11 +1161,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1563694624"/>
-        <c:axId val="-1563690816"/>
+        <c:axId val="-786867232"/>
+        <c:axId val="-786872672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1563694624"/>
+        <c:axId val="-786867232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,14 +1208,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1563690816"/>
+        <c:crossAx val="-786872672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1563690816"/>
+        <c:axId val="-786872672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1563694624"/>
+        <c:crossAx val="-786867232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3058,16 +3067,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C23"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -4385,6 +4394,21 @@
       <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C42" s="20">
+        <v>11.49</v>
+      </c>
+      <c r="D42">
+        <v>3.9</v>
+      </c>
+      <c r="E42">
+        <v>7.8</v>
+      </c>
+      <c r="F42">
+        <v>22.82</v>
+      </c>
+      <c r="G42">
+        <v>262.2</v>
+      </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
@@ -4402,6 +4426,21 @@
       <c r="B43" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="C43" s="20">
+        <v>10.35</v>
+      </c>
+      <c r="D43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E43">
+        <v>7.5</v>
+      </c>
+      <c r="F43">
+        <v>22.04</v>
+      </c>
+      <c r="G43">
+        <v>228.11</v>
+      </c>
       <c r="H43" t="s">
         <v>16</v>
       </c>
@@ -4419,6 +4458,21 @@
       <c r="B44" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C44" s="20">
+        <v>12.48</v>
+      </c>
+      <c r="D44">
+        <v>4.2</v>
+      </c>
+      <c r="E44">
+        <v>7.6</v>
+      </c>
+      <c r="F44">
+        <v>23.01</v>
+      </c>
+      <c r="G44">
+        <v>287.16000000000003</v>
+      </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
@@ -4436,6 +4490,21 @@
       <c r="B45" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="C45" s="20">
+        <v>9.69</v>
+      </c>
+      <c r="D45">
+        <v>3.9</v>
+      </c>
+      <c r="E45">
+        <v>7.7</v>
+      </c>
+      <c r="F45">
+        <v>22.04</v>
+      </c>
+      <c r="G45">
+        <v>213.56</v>
+      </c>
       <c r="H45" t="s">
         <v>16</v>
       </c>
@@ -4444,6 +4513,377 @@
       </c>
       <c r="J45" s="11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>43317</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="20">
+        <v>12.71</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>7.6</v>
+      </c>
+      <c r="F46">
+        <v>22.04</v>
+      </c>
+      <c r="G46">
+        <v>280.12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <v>43317</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="20">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E47">
+        <v>7.3</v>
+      </c>
+      <c r="F47">
+        <v>22.42</v>
+      </c>
+      <c r="G47">
+        <v>189.17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <v>43348</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="20">
+        <v>13.16</v>
+      </c>
+      <c r="D48">
+        <v>3.9</v>
+      </c>
+      <c r="E48">
+        <v>7.9</v>
+      </c>
+      <c r="F48">
+        <v>23.01</v>
+      </c>
+      <c r="G48">
+        <v>302.81</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <v>43348</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="20">
+        <v>8.59</v>
+      </c>
+      <c r="D49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E49">
+        <v>7.5</v>
+      </c>
+      <c r="F49">
+        <v>22.4</v>
+      </c>
+      <c r="G49">
+        <v>189.32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <v>43378</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="20">
+        <v>11.62</v>
+      </c>
+      <c r="D50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E50">
+        <v>7.7</v>
+      </c>
+      <c r="F50">
+        <v>23.01</v>
+      </c>
+      <c r="G50">
+        <v>267.37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>43378</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="20">
+        <v>9.56</v>
+      </c>
+      <c r="D51">
+        <v>3.8</v>
+      </c>
+      <c r="E51">
+        <v>7.7</v>
+      </c>
+      <c r="F51">
+        <v>21.85</v>
+      </c>
+      <c r="G51">
+        <v>208.88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>43409</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="20">
+        <v>12.12</v>
+      </c>
+      <c r="D52">
+        <v>4.2</v>
+      </c>
+      <c r="E52">
+        <v>7.5</v>
+      </c>
+      <c r="F52">
+        <v>22.82</v>
+      </c>
+      <c r="G52">
+        <v>276.57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>43409</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="20">
+        <v>6.8</v>
+      </c>
+      <c r="D53">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E53">
+        <v>7.5</v>
+      </c>
+      <c r="F53">
+        <v>22.04</v>
+      </c>
+      <c r="G53">
+        <v>149.87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>43439</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="20">
+        <v>14.02</v>
+      </c>
+      <c r="D54">
+        <v>3.9</v>
+      </c>
+      <c r="E54">
+        <v>7.7</v>
+      </c>
+      <c r="F54">
+        <v>22.04</v>
+      </c>
+      <c r="G54">
+        <v>309</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <v>43439</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="20">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D55">
+        <v>4.2</v>
+      </c>
+      <c r="E55">
+        <v>7.3</v>
+      </c>
+      <c r="F55">
+        <v>21.85</v>
+      </c>
+      <c r="G55">
+        <v>215.65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
     <sheet name="Milk Yield" sheetId="2" r:id="rId2"/>
     <sheet name="Temp" sheetId="3" r:id="rId3"/>
     <sheet name="Fodder" sheetId="4" r:id="rId4"/>
-    <sheet name="Vaccination" sheetId="5" r:id="rId5"/>
-    <sheet name="Pregnancy" sheetId="6" r:id="rId6"/>
-    <sheet name="Reports" sheetId="9" r:id="rId7"/>
+    <sheet name="Fodder sowing" sheetId="10" r:id="rId5"/>
+    <sheet name="Vaccination" sheetId="5" r:id="rId6"/>
+    <sheet name="Pregnancy" sheetId="6" r:id="rId7"/>
+    <sheet name="Reports" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="101">
   <si>
     <t>UP</t>
   </si>
@@ -72,15 +73,9 @@
     <t>P-Formula-1</t>
   </si>
   <si>
-    <t>Boosa(1kg)</t>
-  </si>
-  <si>
     <t>P-Formula-2</t>
   </si>
   <si>
-    <t>Boosa(7kg)</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -138,15 +133,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Cow1</t>
-  </si>
-  <si>
-    <t>Cow2</t>
-  </si>
-  <si>
-    <t>Cow3</t>
-  </si>
-  <si>
     <t>Komari</t>
   </si>
   <si>
@@ -165,9 +151,6 @@
     <t>Booza medium(2kg), Feed(2kg), Kadala punnakku(0.5kg)</t>
   </si>
   <si>
-    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(0.5kg)</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -198,18 +181,12 @@
     <t>Xavier mama</t>
   </si>
   <si>
-    <t>Inside vekateshwara bakery</t>
-  </si>
-  <si>
     <t>Satyam Marasekku(Inside Venkateshwara bakery)</t>
   </si>
   <si>
     <t>Feed(SKM)</t>
   </si>
   <si>
-    <t>17(doubt)</t>
-  </si>
-  <si>
     <t>A-Formula-4 and 5</t>
   </si>
   <si>
@@ -223,6 +200,136 @@
   </si>
   <si>
     <t>15/5/2018</t>
+  </si>
+  <si>
+    <t>Have 2 cows</t>
+  </si>
+  <si>
+    <t>Have 3 cows</t>
+  </si>
+  <si>
+    <t>Opposite to Lutheren church in Bangalore road. On the way to roundaana from busstand.</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg)</t>
+  </si>
+  <si>
+    <t>Dianese Karuppu</t>
+  </si>
+  <si>
+    <t>19/05/2018</t>
+  </si>
+  <si>
+    <t>Kauppu</t>
+  </si>
+  <si>
+    <t>Mottai</t>
+  </si>
+  <si>
+    <t>16/5/2018</t>
+  </si>
+  <si>
+    <t>17/5/2018</t>
+  </si>
+  <si>
+    <t>18/5/2018</t>
+  </si>
+  <si>
+    <t>19/5/2018</t>
+  </si>
+  <si>
+    <t>20/5/2018</t>
+  </si>
+  <si>
+    <t>on 24thMay week, I had spent 31, 500 on vaikkol</t>
+  </si>
+  <si>
+    <t>Boosa pul(1kg)</t>
+  </si>
+  <si>
+    <t>Boosa pul(7kg)</t>
+  </si>
+  <si>
+    <t>₹ 31, 500/12=₹2, 625 is for one month
+₹ 2, 625/5=₹87.5</t>
+  </si>
+  <si>
+    <t>₹ 87.5/day for 5 cows</t>
+  </si>
+  <si>
+    <t>₹ 321/day for 3 cows</t>
+  </si>
+  <si>
+    <t>₹ 228/day for 2 cows</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>Boosa on plot 4</t>
+  </si>
+  <si>
+    <t>First sowing</t>
+  </si>
+  <si>
+    <t>COFS31 on plot 2a</t>
+  </si>
+  <si>
+    <t>15/4/2018</t>
+  </si>
+  <si>
+    <t>First Urea</t>
+  </si>
+  <si>
+    <t>CO5 on plot 7 and 8</t>
+  </si>
+  <si>
+    <t>First irrigation</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>21/5/2018</t>
+  </si>
+  <si>
+    <t>22/5/2018</t>
+  </si>
+  <si>
+    <t>23/5/2018</t>
+  </si>
+  <si>
+    <t>24/5/2018</t>
+  </si>
+  <si>
+    <t>25/5/2018</t>
+  </si>
+  <si>
+    <t>26/5/2018</t>
+  </si>
+  <si>
+    <t>27/5/2018</t>
+  </si>
+  <si>
+    <t>28/5/2018</t>
+  </si>
+  <si>
+    <t>29/5/2018</t>
+  </si>
+  <si>
+    <t>30/5/2018</t>
+  </si>
+  <si>
+    <t>31/5/2018</t>
+  </si>
+  <si>
+    <t>2625/5cows/month</t>
+  </si>
+  <si>
+    <t>9630/5cows/month</t>
   </si>
 </sst>
 </file>
@@ -366,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,7 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -409,6 +515,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,11 +872,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1013591136"/>
-        <c:axId val="-786863968"/>
+        <c:axId val="749972896"/>
+        <c:axId val="749961472"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1013591136"/>
+        <c:axId val="749972896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,14 +919,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786863968"/>
+        <c:crossAx val="749961472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-786863968"/>
+        <c:axId val="749961472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013591136"/>
+        <c:crossAx val="749972896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-786867232"/>
-        <c:axId val="-786872672"/>
+        <c:axId val="749970176"/>
+        <c:axId val="749972352"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-786867232"/>
+        <c:axId val="749970176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,14 +1323,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786872672"/>
+        <c:crossAx val="749972352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-786872672"/>
+        <c:axId val="749972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786867232"/>
+        <c:crossAx val="749970176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2818,17 +2933,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2857,7 +2974,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,11 +2985,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14"/>
@@ -2883,11 +3000,11 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="14"/>
@@ -2900,42 +3017,66 @@
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,115 +3084,115 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="15">
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="16">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="15">
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="16">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="16">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="15">
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="16">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C28" s="15">
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="16">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="15">
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="15">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
-        <v>56</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3067,18 +3208,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42:C55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
@@ -3092,32 +3233,32 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3125,9 +3266,9 @@
         <v>43206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="18">
+        <v>25</v>
+      </c>
+      <c r="C2" s="17">
         <v>14.42</v>
       </c>
       <c r="D2">
@@ -3143,7 +3284,7 @@
         <v>320.26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3157,9 +3298,9 @@
         <v>43206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="18">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
         <v>4.3499999999999996</v>
       </c>
       <c r="D3">
@@ -3175,7 +3316,7 @@
         <v>95.87</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -3189,9 +3330,9 @@
         <v>43207</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="18">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17">
         <v>8.73</v>
       </c>
       <c r="D4">
@@ -3221,9 +3362,9 @@
         <v>43207</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="18">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17">
         <v>5.49</v>
       </c>
       <c r="D5">
@@ -3253,9 +3394,9 @@
         <v>43208</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17">
         <v>10.18</v>
       </c>
       <c r="D6">
@@ -3271,7 +3412,7 @@
         <v>232.3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -3285,9 +3426,9 @@
         <v>43208</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="18">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17">
         <v>7.69</v>
       </c>
       <c r="D7">
@@ -3303,7 +3444,7 @@
         <v>189.48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -3317,9 +3458,9 @@
         <v>43209</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="18">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17">
         <v>5.99</v>
       </c>
       <c r="D8">
@@ -3335,7 +3476,7 @@
         <v>132.01</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -3349,9 +3490,9 @@
         <v>43209</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="18">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17">
         <v>6.37</v>
       </c>
       <c r="D9">
@@ -3367,7 +3508,7 @@
         <v>145.36000000000001</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
@@ -3381,9 +3522,9 @@
         <v>43210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="18">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17">
         <v>7.81</v>
       </c>
       <c r="D10">
@@ -3413,9 +3554,9 @@
         <v>43210</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="18">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>8.2799999999999994</v>
       </c>
       <c r="D11">
@@ -3445,9 +3586,9 @@
         <v>43211</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="18">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17">
         <v>9.34</v>
       </c>
       <c r="D12">
@@ -3477,9 +3618,9 @@
         <v>43211</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18">
+        <v>27</v>
+      </c>
+      <c r="C13" s="17">
         <v>10.25</v>
       </c>
       <c r="D13">
@@ -3495,7 +3636,7 @@
         <v>233.9</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -3509,9 +3650,9 @@
         <v>43212</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="18">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17">
         <v>9.01</v>
       </c>
       <c r="D14">
@@ -3527,7 +3668,7 @@
         <v>205.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -3541,9 +3682,9 @@
         <v>43212</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="18">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17">
         <v>6.43</v>
       </c>
       <c r="D15">
@@ -3566,9 +3707,9 @@
         <v>43213</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="18">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17">
         <v>5.62</v>
       </c>
       <c r="D16">
@@ -3584,7 +3725,7 @@
         <v>122.79</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -3598,9 +3739,9 @@
         <v>43213</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="18">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17">
         <v>5.1100000000000003</v>
       </c>
       <c r="D17">
@@ -3616,7 +3757,7 @@
         <v>121.61</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -3630,9 +3771,9 @@
         <v>43214</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="18">
+        <v>25</v>
+      </c>
+      <c r="C18" s="17">
         <v>8.43</v>
       </c>
       <c r="D18">
@@ -3648,7 +3789,7 @@
         <v>185.79</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
@@ -3662,9 +3803,9 @@
         <v>43214</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="18">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17">
         <v>7.98</v>
       </c>
       <c r="D19">
@@ -3680,7 +3821,7 @@
         <v>191.52</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
@@ -3694,9 +3835,9 @@
         <v>43215</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17">
         <v>8.74</v>
       </c>
       <c r="D20">
@@ -3712,7 +3853,7 @@
         <v>199.44</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
@@ -3726,9 +3867,9 @@
         <v>43215</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="18">
+        <v>27</v>
+      </c>
+      <c r="C21" s="17">
         <v>5</v>
       </c>
       <c r="D21">
@@ -3744,7 +3885,7 @@
         <v>109.25</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
@@ -3758,9 +3899,9 @@
         <v>43216</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="18">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17">
         <v>9.6199999999999992</v>
       </c>
       <c r="D22">
@@ -3776,7 +3917,7 @@
         <v>212.04</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -3790,9 +3931,9 @@
         <v>43216</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="18">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17">
         <v>9.42</v>
       </c>
       <c r="D23">
@@ -3808,7 +3949,7 @@
         <v>198.66</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
@@ -3822,9 +3963,9 @@
         <v>43217</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17">
         <v>7.08</v>
       </c>
       <c r="D24">
@@ -3840,7 +3981,7 @@
         <v>154.69</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -3854,9 +3995,9 @@
         <v>43217</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18">
+        <v>27</v>
+      </c>
+      <c r="C25" s="17">
         <v>8.2200000000000006</v>
       </c>
       <c r="D25">
@@ -3872,7 +4013,7 @@
         <v>181.16</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
@@ -3886,9 +4027,9 @@
         <v>43218</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="18">
+        <v>25</v>
+      </c>
+      <c r="C26" s="17">
         <v>9.5399999999999991</v>
       </c>
       <c r="D26">
@@ -3904,7 +4045,7 @@
         <v>210.26</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
@@ -3918,9 +4059,9 @@
         <v>43218</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="18">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17">
         <v>9.0399999999999991</v>
       </c>
       <c r="D27">
@@ -3936,7 +4077,7 @@
         <v>190.65</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3944,9 +4085,9 @@
         <v>43219</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="18">
+        <v>25</v>
+      </c>
+      <c r="C28" s="17">
         <v>9.58</v>
       </c>
       <c r="D28">
@@ -3962,7 +4103,7 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3976,9 +4117,9 @@
         <v>43219</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="18">
+        <v>27</v>
+      </c>
+      <c r="C29" s="17">
         <v>10.44</v>
       </c>
       <c r="D29">
@@ -3994,7 +4135,7 @@
         <v>220.17</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -4008,9 +4149,9 @@
         <v>43220</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="19">
+        <v>25</v>
+      </c>
+      <c r="C30" s="18">
         <v>10.77</v>
       </c>
       <c r="D30">
@@ -4026,7 +4167,7 @@
         <v>230.32</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -4040,9 +4181,9 @@
         <v>43220</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="20">
+        <v>27</v>
+      </c>
+      <c r="C31" s="19">
         <v>6.95</v>
       </c>
       <c r="D31">
@@ -4058,7 +4199,7 @@
         <v>146.57</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -4068,13 +4209,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>43105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="20">
+        <v>25</v>
+      </c>
+      <c r="C32" s="19">
         <v>8.4</v>
       </c>
       <c r="D32">
@@ -4090,7 +4231,7 @@
         <v>199.92</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -4100,13 +4241,13 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>43105</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="20">
+        <v>27</v>
+      </c>
+      <c r="C33" s="19">
         <v>8.51</v>
       </c>
       <c r="D33">
@@ -4122,7 +4263,7 @@
         <v>202.53</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -4132,13 +4273,13 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>43136</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="20">
+        <v>25</v>
+      </c>
+      <c r="C34" s="19">
         <v>10.24</v>
       </c>
       <c r="D34">
@@ -4154,7 +4295,7 @@
         <v>254.42</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -4164,13 +4305,13 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>43136</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="20">
+        <v>27</v>
+      </c>
+      <c r="C35" s="19">
         <v>7.18</v>
       </c>
       <c r="D35">
@@ -4186,7 +4327,7 @@
         <v>191.49</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -4196,13 +4337,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>43164</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="20">
+        <v>25</v>
+      </c>
+      <c r="C36" s="19">
         <v>11.49</v>
       </c>
       <c r="D36">
@@ -4218,7 +4359,7 @@
         <v>262.2</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -4228,13 +4369,13 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>43164</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="20">
+        <v>27</v>
+      </c>
+      <c r="C37" s="19">
         <v>10.09</v>
       </c>
       <c r="D37">
@@ -4250,7 +4391,7 @@
         <v>242.16</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -4260,13 +4401,13 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>43195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="20">
+        <v>25</v>
+      </c>
+      <c r="C38" s="19">
         <v>10.66</v>
       </c>
       <c r="D38">
@@ -4282,7 +4423,7 @@
         <v>262.66000000000003</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
@@ -4292,13 +4433,13 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>43195</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="20">
+        <v>27</v>
+      </c>
+      <c r="C39" s="19">
         <v>9.17</v>
       </c>
       <c r="D39">
@@ -4314,7 +4455,7 @@
         <v>193.39</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -4324,13 +4465,13 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>43225</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="20">
+        <v>25</v>
+      </c>
+      <c r="C40" s="19">
         <v>10.11</v>
       </c>
       <c r="D40">
@@ -4346,7 +4487,7 @@
         <v>230.71</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
@@ -4356,13 +4497,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>43225</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="20">
+        <v>27</v>
+      </c>
+      <c r="C41" s="19">
         <v>9.89</v>
       </c>
       <c r="D41">
@@ -4378,7 +4519,7 @@
         <v>208.58</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
@@ -4388,13 +4529,13 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>43256</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="20">
+        <v>25</v>
+      </c>
+      <c r="C42" s="19">
         <v>11.49</v>
       </c>
       <c r="D42">
@@ -4410,23 +4551,23 @@
         <v>262.2</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>43256</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="20">
+        <v>27</v>
+      </c>
+      <c r="C43" s="19">
         <v>10.35</v>
       </c>
       <c r="D43">
@@ -4442,23 +4583,23 @@
         <v>228.11</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>43286</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="20">
+        <v>25</v>
+      </c>
+      <c r="C44" s="19">
         <v>12.48</v>
       </c>
       <c r="D44">
@@ -4474,23 +4615,23 @@
         <v>287.16000000000003</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43286</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="20">
+        <v>27</v>
+      </c>
+      <c r="C45" s="19">
         <v>9.69</v>
       </c>
       <c r="D45">
@@ -4506,23 +4647,23 @@
         <v>213.56</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>43317</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="20">
+        <v>25</v>
+      </c>
+      <c r="C46" s="19">
         <v>12.71</v>
       </c>
       <c r="D46">
@@ -4538,23 +4679,23 @@
         <v>280.12</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>43317</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="20">
+        <v>27</v>
+      </c>
+      <c r="C47" s="19">
         <v>8.2899999999999991</v>
       </c>
       <c r="D47">
@@ -4570,23 +4711,23 @@
         <v>189.17</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>43348</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="20">
+        <v>25</v>
+      </c>
+      <c r="C48" s="19">
         <v>13.16</v>
       </c>
       <c r="D48">
@@ -4602,23 +4743,23 @@
         <v>302.81</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>43348</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="20">
+        <v>27</v>
+      </c>
+      <c r="C49" s="19">
         <v>8.59</v>
       </c>
       <c r="D49">
@@ -4634,23 +4775,23 @@
         <v>189.32</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>43378</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="20">
+        <v>25</v>
+      </c>
+      <c r="C50" s="19">
         <v>11.62</v>
       </c>
       <c r="D50">
@@ -4666,23 +4807,23 @@
         <v>267.37</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>43378</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="20">
+        <v>27</v>
+      </c>
+      <c r="C51" s="19">
         <v>9.56</v>
       </c>
       <c r="D51">
@@ -4698,23 +4839,23 @@
         <v>208.88</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>43409</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="20">
+        <v>25</v>
+      </c>
+      <c r="C52" s="19">
         <v>12.12</v>
       </c>
       <c r="D52">
@@ -4730,23 +4871,23 @@
         <v>276.57</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>43409</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="20">
+        <v>27</v>
+      </c>
+      <c r="C53" s="19">
         <v>6.8</v>
       </c>
       <c r="D53">
@@ -4762,23 +4903,23 @@
         <v>149.87</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>43439</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="20">
+        <v>25</v>
+      </c>
+      <c r="C54" s="19">
         <v>14.02</v>
       </c>
       <c r="D54">
@@ -4794,23 +4935,23 @@
         <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>43439</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="20">
+        <v>27</v>
+      </c>
+      <c r="C55" s="19">
         <v>9.9700000000000006</v>
       </c>
       <c r="D55">
@@ -4826,64 +4967,1477 @@
         <v>215.65</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>63</v>
+      <c r="A56" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="19">
+        <v>12.82</v>
+      </c>
+      <c r="D56">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E56">
+        <v>7.3</v>
+      </c>
+      <c r="F56">
+        <v>21.09</v>
+      </c>
+      <c r="G56">
+        <v>270.37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="20">
-        <v>0</v>
+      <c r="C57" s="19">
+        <v>11.51</v>
+      </c>
+      <c r="D57">
+        <v>4.2</v>
+      </c>
+      <c r="E57">
+        <v>7.6</v>
+      </c>
+      <c r="F57">
+        <v>23.01</v>
+      </c>
+      <c r="G57">
+        <v>264.83999999999997</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>64</v>
+      <c r="A58" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="19">
+        <v>12.53</v>
+      </c>
+      <c r="D58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E58">
+        <v>7.6</v>
+      </c>
+      <c r="F58">
+        <v>22.82</v>
+      </c>
+      <c r="G58">
+        <v>285.93</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>29</v>
+      <c r="C59" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="D59">
+        <v>3.8</v>
+      </c>
+      <c r="E59">
+        <v>7.7</v>
+      </c>
+      <c r="F59">
+        <v>21.85</v>
+      </c>
+      <c r="G59">
+        <v>244.72</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>65</v>
+      <c r="A60" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="19">
+        <v>13.48</v>
+      </c>
+      <c r="D60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E60">
+        <v>7.5</v>
+      </c>
+      <c r="F60">
+        <v>22.04</v>
+      </c>
+      <c r="G60">
+        <v>297.08999999999997</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>29</v>
+      <c r="C61" s="19">
+        <v>9.68</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>7.6</v>
+      </c>
+      <c r="F61">
+        <v>22.04</v>
+      </c>
+      <c r="G61">
+        <v>213.34</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="19">
+        <v>11.88</v>
+      </c>
+      <c r="D62">
+        <v>3.9</v>
+      </c>
+      <c r="E62">
+        <v>7.7</v>
+      </c>
+      <c r="F62">
+        <v>22.04</v>
+      </c>
+      <c r="G62">
+        <v>261.83</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="19">
+        <v>11.17</v>
+      </c>
+      <c r="D63">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E63">
+        <v>7.6</v>
+      </c>
+      <c r="F63">
+        <v>22.82</v>
+      </c>
+      <c r="G63">
+        <v>254.89</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="19">
+        <v>13.2</v>
+      </c>
+      <c r="D64">
+        <v>4.2</v>
+      </c>
+      <c r="E64">
+        <v>7.3</v>
+      </c>
+      <c r="F64">
+        <v>21.85</v>
+      </c>
+      <c r="G64">
+        <v>288.42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="19">
+        <v>11.58</v>
+      </c>
+      <c r="D65">
+        <v>3.6</v>
+      </c>
+      <c r="E65">
+        <v>8.1</v>
+      </c>
+      <c r="F65">
+        <v>22.82</v>
+      </c>
+      <c r="G65">
+        <v>264.25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="19">
+        <v>9.26</v>
+      </c>
+      <c r="D66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E66">
+        <v>7.6</v>
+      </c>
+      <c r="F66">
+        <v>22.82</v>
+      </c>
+      <c r="G66">
+        <v>211.31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>53</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="D67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E67">
+        <v>7.5</v>
+      </c>
+      <c r="F67">
+        <v>23.8</v>
+      </c>
+      <c r="G67">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="19">
+        <v>14.57</v>
+      </c>
+      <c r="D68">
+        <v>3.8</v>
+      </c>
+      <c r="E68">
+        <v>7.6</v>
+      </c>
+      <c r="F68">
+        <v>21.09</v>
+      </c>
+      <c r="G68">
+        <v>307.27999999999997</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="19">
+        <v>6.21</v>
+      </c>
+      <c r="D69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E69">
+        <v>7.3</v>
+      </c>
+      <c r="F69">
+        <v>22.82</v>
+      </c>
+      <c r="G69">
+        <v>141.71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="19">
+        <v>12.03</v>
+      </c>
+      <c r="D70">
+        <v>3.4</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>21.09</v>
+      </c>
+      <c r="G70">
+        <v>253.71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="19">
+        <v>26.08</v>
+      </c>
+      <c r="D71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>26.08</v>
+      </c>
+      <c r="G71">
+        <v>243.06</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>53</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="19">
+        <v>21.85</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>7.5</v>
+      </c>
+      <c r="F72">
+        <v>21.85</v>
+      </c>
+      <c r="G72">
+        <v>306.11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="19">
+        <v>22.04</v>
+      </c>
+      <c r="D73">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E73">
+        <v>7.5</v>
+      </c>
+      <c r="F73">
+        <v>22.04</v>
+      </c>
+      <c r="G73">
+        <v>217.75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="19">
+        <v>23.59</v>
+      </c>
+      <c r="D74">
+        <v>4.2</v>
+      </c>
+      <c r="E74">
+        <v>7.5</v>
+      </c>
+      <c r="F74">
+        <v>22.82</v>
+      </c>
+      <c r="G74">
+        <v>538.82000000000005</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="19">
+        <v>13.23</v>
+      </c>
+      <c r="D75">
+        <v>4.2</v>
+      </c>
+      <c r="E75">
+        <v>7.6</v>
+      </c>
+      <c r="F75">
+        <v>23.01</v>
+      </c>
+      <c r="G75">
+        <v>304.42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>53</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="19">
+        <v>21.78</v>
+      </c>
+      <c r="D76">
+        <v>3.9</v>
+      </c>
+      <c r="E76">
+        <v>7.5</v>
+      </c>
+      <c r="F76">
+        <v>21.09</v>
+      </c>
+      <c r="G76">
+        <v>459.34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>53</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="19">
+        <v>15.73</v>
+      </c>
+      <c r="D77">
+        <v>3.4</v>
+      </c>
+      <c r="E77">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F77">
+        <v>22.82</v>
+      </c>
+      <c r="G77">
+        <v>358.95</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>53</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>7.5</v>
+      </c>
+      <c r="F78">
+        <v>21.85</v>
+      </c>
+      <c r="G78">
+        <v>338.67</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>53</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="19">
+        <v>21.9</v>
+      </c>
+      <c r="D79">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E79">
+        <v>7.8</v>
+      </c>
+      <c r="F79">
+        <v>23.8</v>
+      </c>
+      <c r="G79">
+        <v>521.22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="19">
+        <v>21.27</v>
+      </c>
+      <c r="D80">
+        <v>3.3</v>
+      </c>
+      <c r="E80">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F80">
+        <v>22.04</v>
+      </c>
+      <c r="G80">
+        <v>475.4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>53</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="19">
+        <v>17.53</v>
+      </c>
+      <c r="D81">
+        <v>3.8</v>
+      </c>
+      <c r="E81">
+        <v>7.6</v>
+      </c>
+      <c r="F81">
+        <v>22.04</v>
+      </c>
+      <c r="G81">
+        <v>386.38</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="19">
+        <v>23.99</v>
+      </c>
+      <c r="D82">
+        <v>4.3</v>
+      </c>
+      <c r="E82">
+        <v>7.2</v>
+      </c>
+      <c r="F82">
+        <v>21.85</v>
+      </c>
+      <c r="G82">
+        <v>524.17999999999995</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="19">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D83">
+        <v>3.8</v>
+      </c>
+      <c r="E83">
+        <v>7.9</v>
+      </c>
+      <c r="F83">
+        <v>22.82</v>
+      </c>
+      <c r="G83">
+        <v>399.57</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>53</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="19">
+        <v>23.3</v>
+      </c>
+      <c r="D84">
+        <v>3.9</v>
+      </c>
+      <c r="E84">
+        <v>7.9</v>
+      </c>
+      <c r="F84">
+        <v>23.01</v>
+      </c>
+      <c r="G84">
+        <v>536.13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>53</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="19">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="D85">
+        <v>4.2</v>
+      </c>
+      <c r="E85">
+        <v>7.5</v>
+      </c>
+      <c r="F85">
+        <v>22.82</v>
+      </c>
+      <c r="G85">
+        <v>423.53</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="19">
+        <v>24.25</v>
+      </c>
+      <c r="D86">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E86">
+        <v>7.5</v>
+      </c>
+      <c r="F86">
+        <v>22.04</v>
+      </c>
+      <c r="G86">
+        <v>534.47</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>53</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="19">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D87">
+        <v>3.7</v>
+      </c>
+      <c r="E87">
+        <v>7.8</v>
+      </c>
+      <c r="F87">
+        <v>21.85</v>
+      </c>
+      <c r="G87">
+        <v>413.4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>53</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="19">
+        <v>21.74</v>
+      </c>
+      <c r="D88">
+        <v>3.9</v>
+      </c>
+      <c r="E88">
+        <v>7.7</v>
+      </c>
+      <c r="F88">
+        <v>21.92</v>
+      </c>
+      <c r="G88">
+        <v>476.54</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="19">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>7.8</v>
+      </c>
+      <c r="F89">
+        <v>22.95</v>
+      </c>
+      <c r="G89">
+        <v>463.36</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>53</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="19">
+        <v>24.93</v>
+      </c>
+      <c r="D90">
+        <v>3.8</v>
+      </c>
+      <c r="E90">
+        <v>7.7</v>
+      </c>
+      <c r="F90">
+        <v>21.14</v>
+      </c>
+      <c r="G90">
+        <v>527.02</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="19">
+        <v>18.61</v>
+      </c>
+      <c r="D91">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E91">
+        <v>7.4</v>
+      </c>
+      <c r="F91">
+        <v>21.65</v>
+      </c>
+      <c r="G91">
+        <v>402.9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="19">
+        <v>25.41</v>
+      </c>
+      <c r="D92">
+        <v>4.2</v>
+      </c>
+      <c r="E92">
+        <v>7.5</v>
+      </c>
+      <c r="F92">
+        <v>21.91</v>
+      </c>
+      <c r="G92">
+        <v>556.73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E93">
+        <v>7.6</v>
+      </c>
+      <c r="F93">
+        <v>23.22</v>
+      </c>
+      <c r="G93">
+        <v>415.63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>43106</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="19">
+        <v>21.22</v>
+      </c>
+      <c r="D94">
+        <v>3.9</v>
+      </c>
+      <c r="E94">
+        <v>7.6</v>
+      </c>
+      <c r="F94">
+        <v>21.54</v>
+      </c>
+      <c r="G94">
+        <v>457.07</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>43106</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="D95">
+        <v>4.5</v>
+      </c>
+      <c r="E95">
+        <v>7.5</v>
+      </c>
+      <c r="F95">
+        <v>22.77</v>
+      </c>
+      <c r="G95">
+        <v>346.1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>53</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>43137</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="19">
+        <v>20.18</v>
+      </c>
+      <c r="D96">
+        <v>3.7</v>
+      </c>
+      <c r="E96">
+        <v>7.8</v>
+      </c>
+      <c r="F96">
+        <v>21.34</v>
+      </c>
+      <c r="G96">
+        <v>430.64</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>43137</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="19">
+        <v>14.59</v>
+      </c>
+      <c r="D97">
+        <v>4.7</v>
+      </c>
+      <c r="E97">
+        <v>7.4</v>
+      </c>
+      <c r="F97">
+        <v>22.61</v>
+      </c>
+      <c r="G97">
+        <v>329.87</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
+        <v>43165</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="19">
+        <v>22.17</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>7.7</v>
+      </c>
+      <c r="F98">
+        <v>22.56</v>
+      </c>
+      <c r="G98">
+        <v>500.15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
+        <v>43165</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
+        <v>43196</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>43196</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="20">
+        <v>43226</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
+        <v>43226</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="20">
+        <v>43257</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>43257</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>43287</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>43287</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="20">
+        <v>43318</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="20">
+        <v>43318</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4907,64 +6461,64 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5081,7 +6635,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5091,193 +6645,193 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="30">
+        <v>43206</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
-        <v>43206</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="30">
         <v>43207</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="30">
         <v>43208</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="30">
         <v>43209</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="30">
         <v>43210</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="30">
         <v>43211</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="30">
         <v>43212</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="30">
         <v>43213</v>
       </c>
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="A26" s="30">
         <v>43214</v>
       </c>
       <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5304,31 +6858,163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10">
         <v>43218</v>
@@ -5338,51 +7024,6 @@
       </c>
       <c r="D2" s="10">
         <v>43218</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5398,6 +7039,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,24 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
     <sheet name="Milk Yield" sheetId="2" r:id="rId2"/>
-    <sheet name="Temp" sheetId="3" r:id="rId3"/>
-    <sheet name="Fodder" sheetId="4" r:id="rId4"/>
-    <sheet name="Fodder sowing" sheetId="10" r:id="rId5"/>
-    <sheet name="Vaccination" sheetId="5" r:id="rId6"/>
-    <sheet name="Pregnancy" sheetId="6" r:id="rId7"/>
-    <sheet name="Reports" sheetId="9" r:id="rId8"/>
+    <sheet name="Daily Schedule" sheetId="14" r:id="rId3"/>
+    <sheet name="Money Credited" sheetId="12" r:id="rId4"/>
+    <sheet name="Milk Yield per cow" sheetId="11" r:id="rId5"/>
+    <sheet name="Purchase and sales of cows" sheetId="13" r:id="rId6"/>
+    <sheet name="Temp" sheetId="3" r:id="rId7"/>
+    <sheet name="Fodder" sheetId="4" r:id="rId8"/>
+    <sheet name="Fodder sowing" sheetId="10" r:id="rId9"/>
+    <sheet name="Vaccination" sheetId="5" r:id="rId10"/>
+    <sheet name="Pregnancy" sheetId="6" r:id="rId11"/>
+    <sheet name="Reports" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="168">
   <si>
     <t>UP</t>
   </si>
@@ -119,15 +123,6 @@
   </si>
   <si>
     <t>Motta</t>
-  </si>
-  <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>Evening</t>
   </si>
   <si>
     <t>Type</t>
@@ -287,49 +282,259 @@
     <t>First irrigation</t>
   </si>
   <si>
-    <t>Irrigation</t>
+    <t>21/5/2018</t>
+  </si>
+  <si>
+    <t>22/5/2018</t>
+  </si>
+  <si>
+    <t>23/5/2018</t>
+  </si>
+  <si>
+    <t>24/5/2018</t>
+  </si>
+  <si>
+    <t>25/5/2018</t>
+  </si>
+  <si>
+    <t>26/5/2018</t>
+  </si>
+  <si>
+    <t>27/5/2018</t>
+  </si>
+  <si>
+    <t>28/5/2018</t>
+  </si>
+  <si>
+    <t>29/5/2018</t>
+  </si>
+  <si>
+    <t>30/5/2018</t>
+  </si>
+  <si>
+    <t>31/5/2018</t>
+  </si>
+  <si>
+    <t>2625/5cows/month</t>
+  </si>
+  <si>
+    <t>9630/5cows/month</t>
+  </si>
+  <si>
+    <t>Irrigation-1</t>
+  </si>
+  <si>
+    <t>Urea-1</t>
+  </si>
+  <si>
+    <t>Urea-2</t>
+  </si>
+  <si>
+    <t>Irrigation-2</t>
+  </si>
+  <si>
+    <t>Periya karuppu</t>
+  </si>
+  <si>
+    <t>06 May '18</t>
+  </si>
+  <si>
+    <t>19 May '18</t>
+  </si>
+  <si>
+    <t>IMPS/P2A/812610940775/919786059280/Thirumalamilk</t>
+  </si>
+  <si>
+    <t>IMPS/P2A/813919353330/919786915030/Milk</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mottai </t>
+  </si>
+  <si>
+    <t>karuppu</t>
+  </si>
+  <si>
+    <t>For every 7 to 10 days, have to give water</t>
+  </si>
+  <si>
+    <t>For every 30 days or for each cut, have to put urea</t>
+  </si>
+  <si>
+    <t>A-Formula-6</t>
+  </si>
+  <si>
+    <t>P-Formula-3</t>
+  </si>
+  <si>
+    <t>Boosa pul(7kg)+Chola thattu(7kg)</t>
+  </si>
+  <si>
+    <t>Booza medium(1kg), Feed(4kg), Paruthikottai punnakku(1kg)</t>
+  </si>
+  <si>
+    <t>Dianese Vellai</t>
+  </si>
+  <si>
+    <t>14/06/2018</t>
+  </si>
+  <si>
+    <t>Kombu Karuppu</t>
+  </si>
+  <si>
+    <t>15/06/2018</t>
+  </si>
+  <si>
+    <t>13/6/2018</t>
+  </si>
+  <si>
+    <t>14/6/2018</t>
+  </si>
+  <si>
+    <t>15/6/2018</t>
+  </si>
+  <si>
+    <t>16/6/2018</t>
+  </si>
+  <si>
+    <t>17/6/2018</t>
+  </si>
+  <si>
+    <t>Kulthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milking </t>
+  </si>
+  <si>
+    <t>Pusa</t>
+  </si>
+  <si>
+    <t>Chola thattu</t>
+  </si>
+  <si>
+    <t>Vaikkol</t>
+  </si>
+  <si>
+    <t>Place change</t>
+  </si>
+  <si>
+    <t>Weekly Activities</t>
+  </si>
+  <si>
+    <t>Bathing</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Watering pusa bit</t>
+  </si>
+  <si>
+    <t>Watering CO5</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Calf tonic</t>
+  </si>
+  <si>
+    <t>Record keeping litres/cow</t>
+  </si>
+  <si>
+    <t>Sanni - 1</t>
+  </si>
+  <si>
+    <t>Saani - 2</t>
+  </si>
+  <si>
+    <t>A-Formula-7</t>
+  </si>
+  <si>
+    <t>10 Thooru of boosa/ day/ 4 cows</t>
+  </si>
+  <si>
+    <t>approximately 3 thoru/ cow</t>
+  </si>
+  <si>
+    <t>Monthly Activities</t>
   </si>
   <si>
     <t>Urea</t>
   </si>
   <si>
-    <t>21/5/2018</t>
-  </si>
-  <si>
-    <t>22/5/2018</t>
-  </si>
-  <si>
-    <t>23/5/2018</t>
-  </si>
-  <si>
-    <t>24/5/2018</t>
-  </si>
-  <si>
-    <t>25/5/2018</t>
-  </si>
-  <si>
-    <t>26/5/2018</t>
-  </si>
-  <si>
-    <t>27/5/2018</t>
-  </si>
-  <si>
-    <t>28/5/2018</t>
-  </si>
-  <si>
-    <t>29/5/2018</t>
-  </si>
-  <si>
-    <t>30/5/2018</t>
-  </si>
-  <si>
-    <t>31/5/2018</t>
-  </si>
-  <si>
-    <t>2625/5cows/month</t>
-  </si>
-  <si>
-    <t>9630/5cows/month</t>
+    <t>Every 1st day of the month</t>
+  </si>
+  <si>
+    <t>36 rows and 20 thoors are there in the pusa land</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>18/6/2018</t>
+  </si>
+  <si>
+    <t>19/6/2018</t>
+  </si>
+  <si>
+    <t>20/6/2018</t>
+  </si>
+  <si>
+    <t>21/6/2018</t>
+  </si>
+  <si>
+    <t>22/6/2018</t>
+  </si>
+  <si>
+    <t>23/6/2018</t>
+  </si>
+  <si>
+    <t>24/6/2018</t>
+  </si>
+  <si>
+    <t>25/6/2018</t>
+  </si>
+  <si>
+    <t>26/6/2018</t>
+  </si>
+  <si>
+    <t>27/6/2018</t>
+  </si>
+  <si>
+    <t>28/6/2018</t>
+  </si>
+  <si>
+    <t>29/6/2018</t>
+  </si>
+  <si>
+    <t>30/6/2018</t>
+  </si>
+  <si>
+    <t>A-Formula-8</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu, 50 gms Chelated minerals, 50 gms Growel Immune Booster Premix, Growel Chelated Growmin Forte</t>
+  </si>
+  <si>
+    <t>Kombu karuppu</t>
+  </si>
+  <si>
+    <t>Periya vellai</t>
   </si>
 </sst>
 </file>
@@ -473,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,6 +730,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +741,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,11 +1077,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="749972896"/>
-        <c:axId val="749961472"/>
+        <c:axId val="1794484944"/>
+        <c:axId val="1794479504"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="749972896"/>
+        <c:axId val="1794484944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,14 +1124,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749961472"/>
+        <c:crossAx val="1794479504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="749961472"/>
+        <c:axId val="1794479504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749972896"/>
+        <c:crossAx val="1794484944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1276,11 +1481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="749970176"/>
-        <c:axId val="749972352"/>
+        <c:axId val="2021139056"/>
+        <c:axId val="2021141232"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="749970176"/>
+        <c:axId val="2021139056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,14 +1528,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749972352"/>
+        <c:crossAx val="2021141232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="749972352"/>
+        <c:axId val="2021141232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749970176"/>
+        <c:crossAx val="2021139056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2933,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2974,7 +3179,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3017,19 +3222,19 @@
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3038,161 +3243,193 @@
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="15">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="15">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C27" s="15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28" s="15">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="15">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="15">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C31" s="15">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="15">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="15">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="15">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
-        <v>50</v>
+      <c r="D34" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3206,13 +3443,155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43218</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43218</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43218</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10">
+        <v>43190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128:H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4554,7 +4933,7 @@
         <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>12</v>
@@ -4586,7 +4965,7 @@
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>12</v>
@@ -4618,7 +4997,7 @@
         <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>12</v>
@@ -4650,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>12</v>
@@ -4682,7 +5061,7 @@
         <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>12</v>
@@ -4714,7 +5093,7 @@
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>12</v>
@@ -4746,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>12</v>
@@ -4778,7 +5157,7 @@
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>12</v>
@@ -4810,7 +5189,7 @@
         <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>12</v>
@@ -4842,7 +5221,7 @@
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>12</v>
@@ -4874,7 +5253,7 @@
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>12</v>
@@ -4906,7 +5285,7 @@
         <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>12</v>
@@ -4938,7 +5317,7 @@
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>12</v>
@@ -4970,7 +5349,7 @@
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>12</v>
@@ -4978,7 +5357,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>25</v>
@@ -5002,7 +5381,7 @@
         <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>12</v>
@@ -5010,7 +5389,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>27</v>
@@ -5034,7 +5413,7 @@
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>12</v>
@@ -5042,7 +5421,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>25</v>
@@ -5066,7 +5445,7 @@
         <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>12</v>
@@ -5074,7 +5453,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>27</v>
@@ -5098,7 +5477,7 @@
         <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>12</v>
@@ -5106,7 +5485,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>25</v>
@@ -5130,7 +5509,7 @@
         <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>12</v>
@@ -5138,7 +5517,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>27</v>
@@ -5162,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>12</v>
@@ -5170,7 +5549,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>25</v>
@@ -5194,7 +5573,7 @@
         <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>12</v>
@@ -5202,7 +5581,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>27</v>
@@ -5226,7 +5605,7 @@
         <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>12</v>
@@ -5234,7 +5613,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>25</v>
@@ -5258,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>12</v>
@@ -5266,7 +5645,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>27</v>
@@ -5290,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>12</v>
@@ -5298,7 +5677,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -5322,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>12</v>
@@ -5330,7 +5709,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>27</v>
@@ -5354,7 +5733,7 @@
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>12</v>
@@ -5362,7 +5741,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>25</v>
@@ -5386,7 +5765,7 @@
         <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>12</v>
@@ -5394,7 +5773,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>27</v>
@@ -5418,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>12</v>
@@ -5426,7 +5805,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -5450,7 +5829,7 @@
         <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J70" s="11" t="s">
         <v>12</v>
@@ -5458,7 +5837,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>27</v>
@@ -5482,7 +5861,7 @@
         <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>12</v>
@@ -5490,7 +5869,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -5514,7 +5893,7 @@
         <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>12</v>
@@ -5522,7 +5901,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>27</v>
@@ -5546,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>12</v>
@@ -5554,7 +5933,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>25</v>
@@ -5578,7 +5957,7 @@
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>12</v>
@@ -5586,7 +5965,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>27</v>
@@ -5610,7 +5989,7 @@
         <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J75" s="11" t="s">
         <v>12</v>
@@ -5618,7 +5997,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>25</v>
@@ -5642,7 +6021,7 @@
         <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>12</v>
@@ -5650,7 +6029,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>27</v>
@@ -5674,7 +6053,7 @@
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J77" s="11" t="s">
         <v>12</v>
@@ -5682,7 +6061,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>25</v>
@@ -5706,7 +6085,7 @@
         <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>12</v>
@@ -5714,7 +6093,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>27</v>
@@ -5738,7 +6117,7 @@
         <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>12</v>
@@ -5746,7 +6125,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>25</v>
@@ -5770,7 +6149,7 @@
         <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J80" s="11" t="s">
         <v>12</v>
@@ -5778,7 +6157,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>27</v>
@@ -5802,7 +6181,7 @@
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J81" s="11" t="s">
         <v>12</v>
@@ -5810,7 +6189,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>25</v>
@@ -5834,7 +6213,7 @@
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>12</v>
@@ -5842,7 +6221,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>27</v>
@@ -5866,7 +6245,7 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>12</v>
@@ -5874,7 +6253,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>25</v>
@@ -5898,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J84" s="11" t="s">
         <v>12</v>
@@ -5906,7 +6285,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>27</v>
@@ -5930,7 +6309,7 @@
         <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J85" s="11" t="s">
         <v>12</v>
@@ -5938,7 +6317,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>25</v>
@@ -5962,7 +6341,7 @@
         <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>12</v>
@@ -5970,7 +6349,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>27</v>
@@ -5994,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>12</v>
@@ -6002,7 +6381,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>25</v>
@@ -6026,7 +6405,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J88" s="11" t="s">
         <v>12</v>
@@ -6034,7 +6413,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>27</v>
@@ -6058,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J89" s="11" t="s">
         <v>12</v>
@@ -6066,7 +6445,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>25</v>
@@ -6090,7 +6469,7 @@
         <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>12</v>
@@ -6098,7 +6477,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>27</v>
@@ -6122,7 +6501,7 @@
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J91" s="11" t="s">
         <v>12</v>
@@ -6130,7 +6509,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>25</v>
@@ -6154,7 +6533,7 @@
         <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J92" s="11" t="s">
         <v>12</v>
@@ -6162,7 +6541,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>27</v>
@@ -6186,7 +6565,7 @@
         <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J93" s="11" t="s">
         <v>12</v>
@@ -6218,7 +6597,7 @@
         <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>12</v>
@@ -6250,7 +6629,7 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J95" s="11" t="s">
         <v>12</v>
@@ -6282,7 +6661,7 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J96" s="11" t="s">
         <v>12</v>
@@ -6314,7 +6693,7 @@
         <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J97" s="11" t="s">
         <v>12</v>
@@ -6346,7 +6725,7 @@
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>12</v>
@@ -6359,6 +6738,21 @@
       <c r="B99" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="C99" s="19">
+        <v>14.68</v>
+      </c>
+      <c r="D99">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E99">
+        <v>7.9</v>
+      </c>
+      <c r="F99">
+        <v>23.32</v>
+      </c>
+      <c r="G99">
+        <v>342.33</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="20">
@@ -6367,6 +6761,21 @@
       <c r="B100" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C100" s="19">
+        <v>24.42</v>
+      </c>
+      <c r="D100">
+        <v>3.9</v>
+      </c>
+      <c r="E100">
+        <v>7.9</v>
+      </c>
+      <c r="F100">
+        <v>22.5</v>
+      </c>
+      <c r="G100">
+        <v>549.45000000000005</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="20">
@@ -6375,6 +6784,21 @@
       <c r="B101" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="C101" s="19">
+        <v>23.32</v>
+      </c>
+      <c r="D101">
+        <v>4.2</v>
+      </c>
+      <c r="E101">
+        <v>7.8</v>
+      </c>
+      <c r="F101">
+        <v>23.32</v>
+      </c>
+      <c r="G101">
+        <v>341.63</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
@@ -6399,6 +6823,21 @@
       <c r="B104" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C104" s="19">
+        <v>24.59</v>
+      </c>
+      <c r="D104">
+        <v>3.6</v>
+      </c>
+      <c r="E104">
+        <v>7.8</v>
+      </c>
+      <c r="F104">
+        <v>24.59</v>
+      </c>
+      <c r="G104">
+        <v>520.07000000000005</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
@@ -6407,6 +6846,21 @@
       <c r="B105" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="C105" s="19">
+        <v>14.97</v>
+      </c>
+      <c r="D105">
+        <v>4.2</v>
+      </c>
+      <c r="E105">
+        <v>7.5</v>
+      </c>
+      <c r="F105">
+        <v>21.91</v>
+      </c>
+      <c r="G105">
+        <v>327.99</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="20">
@@ -6415,6 +6869,21 @@
       <c r="B106" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C106" s="19">
+        <v>20.5</v>
+      </c>
+      <c r="D106">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E106">
+        <v>7.6</v>
+      </c>
+      <c r="F106">
+        <v>20.5</v>
+      </c>
+      <c r="G106">
+        <v>458.38</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="20">
@@ -6423,6 +6892,21 @@
       <c r="B107" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="C107" s="19">
+        <v>11.09</v>
+      </c>
+      <c r="D107">
+        <v>4.3</v>
+      </c>
+      <c r="E107">
+        <v>7.5</v>
+      </c>
+      <c r="F107">
+        <v>22.4</v>
+      </c>
+      <c r="G107">
+        <v>248.41</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="20">
@@ -6431,12 +6915,964 @@
       <c r="B108" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C108" s="19">
+        <v>21.28</v>
+      </c>
+      <c r="D108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E108">
+        <v>7.7</v>
+      </c>
+      <c r="F108">
+        <v>21.08</v>
+      </c>
+      <c r="G108">
+        <v>484.12</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="20">
         <v>43318</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="19">
+        <v>15.24</v>
+      </c>
+      <c r="D109">
+        <v>3.6</v>
+      </c>
+      <c r="E109">
+        <v>8.1</v>
+      </c>
+      <c r="F109">
+        <v>22.01</v>
+      </c>
+      <c r="G109">
+        <v>335.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="20">
+        <v>43349</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="19">
+        <v>22.04</v>
+      </c>
+      <c r="D110">
+        <v>3.7</v>
+      </c>
+      <c r="E110">
+        <v>7.9</v>
+      </c>
+      <c r="F110">
+        <v>22.03</v>
+      </c>
+      <c r="G110">
+        <v>474.08</v>
+      </c>
+      <c r="H110" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="20">
+        <v>43349</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="20">
+        <v>43379</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>43379</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="19">
+        <v>10.84</v>
+      </c>
+      <c r="D113">
+        <v>3.7</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>21.91</v>
+      </c>
+      <c r="G113">
+        <v>237.5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>111</v>
+      </c>
+      <c r="I113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>43410</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="19">
+        <v>20.98</v>
+      </c>
+      <c r="D114">
+        <v>3.8</v>
+      </c>
+      <c r="E114">
+        <v>7.9</v>
+      </c>
+      <c r="F114">
+        <v>21.71</v>
+      </c>
+      <c r="G114">
+        <v>455.47</v>
+      </c>
+      <c r="H114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="20">
+        <v>43410</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="20">
+        <v>43440</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="19">
+        <v>10.08</v>
+      </c>
+      <c r="D116">
+        <v>3.6</v>
+      </c>
+      <c r="E116">
+        <v>7.9</v>
+      </c>
+      <c r="F116">
+        <v>21.34</v>
+      </c>
+      <c r="G116">
+        <v>215.1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="20">
+        <v>43440</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="19">
+        <v>13.57</v>
+      </c>
+      <c r="D117">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E117">
+        <v>7.5</v>
+      </c>
+      <c r="F117">
+        <v>22.58</v>
+      </c>
+      <c r="G117">
+        <v>306.41000000000003</v>
+      </c>
+      <c r="H117" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="19">
+        <v>11.81</v>
+      </c>
+      <c r="D118">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E118">
+        <v>7.8</v>
+      </c>
+      <c r="F118">
+        <v>23.99</v>
+      </c>
+      <c r="G118">
+        <v>283.32</v>
+      </c>
+      <c r="H118" t="s">
+        <v>111</v>
+      </c>
+      <c r="I118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="19">
+        <v>9.15</v>
+      </c>
+      <c r="D119">
+        <v>4.8</v>
+      </c>
+      <c r="E119">
+        <v>7.5</v>
+      </c>
+      <c r="F119">
+        <v>24.73</v>
+      </c>
+      <c r="G119">
+        <v>226.27</v>
+      </c>
+      <c r="H119" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="19">
+        <v>14.89</v>
+      </c>
+      <c r="D120">
+        <v>3.7</v>
+      </c>
+      <c r="E120">
+        <v>7.7</v>
+      </c>
+      <c r="F120">
+        <v>20.95</v>
+      </c>
+      <c r="G120">
+        <v>311.95</v>
+      </c>
+      <c r="H120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="19">
+        <v>6.13</v>
+      </c>
+      <c r="D121">
+        <v>3.8</v>
+      </c>
+      <c r="E121">
+        <v>7.7</v>
+      </c>
+      <c r="F121">
+        <v>21.14</v>
+      </c>
+      <c r="G121">
+        <v>129.58000000000001</v>
+      </c>
+      <c r="H121" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="19">
+        <v>14.34</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>8.1</v>
+      </c>
+      <c r="F122">
+        <v>23.81</v>
+      </c>
+      <c r="G122">
+        <v>341.43</v>
+      </c>
+      <c r="H122" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="19">
+        <v>7.76</v>
+      </c>
+      <c r="D123">
+        <v>3.6</v>
+      </c>
+      <c r="E123">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F123">
+        <v>22.2</v>
+      </c>
+      <c r="G123">
+        <v>172.49</v>
+      </c>
+      <c r="H123" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="19">
+        <v>15.29</v>
+      </c>
+      <c r="D125">
+        <v>3.9</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>22.88</v>
+      </c>
+      <c r="G125">
+        <v>349.83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="19">
+        <v>26.51</v>
+      </c>
+      <c r="D126">
+        <v>3.7</v>
+      </c>
+      <c r="E126">
+        <v>7.9</v>
+      </c>
+      <c r="F126">
+        <v>21.52</v>
+      </c>
+      <c r="G126">
+        <v>466.17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="19">
+        <v>21.18</v>
+      </c>
+      <c r="D127">
+        <v>3.6</v>
+      </c>
+      <c r="E127">
+        <v>8.1</v>
+      </c>
+      <c r="F127">
+        <v>21.18</v>
+      </c>
+      <c r="G127">
+        <v>466.17</v>
+      </c>
+      <c r="H127" t="s">
+        <v>111</v>
+      </c>
+      <c r="I127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="19">
+        <v>26.23</v>
+      </c>
+      <c r="D128">
+        <v>3.8</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>26.23</v>
+      </c>
+      <c r="G128">
+        <v>579.67999999999995</v>
+      </c>
+      <c r="H128" t="s">
+        <v>111</v>
+      </c>
+      <c r="I128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="19">
+        <v>20.96</v>
+      </c>
+      <c r="D129">
+        <v>3.5</v>
+      </c>
+      <c r="E129">
+        <v>8.4</v>
+      </c>
+      <c r="F129">
+        <v>22.48</v>
+      </c>
+      <c r="G129">
+        <v>471.18</v>
+      </c>
+      <c r="H129" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="19">
+        <v>24.61</v>
+      </c>
+      <c r="D130">
+        <v>3.7</v>
+      </c>
+      <c r="E130">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F130">
+        <v>22.67</v>
+      </c>
+      <c r="G130">
+        <v>557.9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="19">
+        <v>16.75</v>
+      </c>
+      <c r="D131">
+        <v>3.7</v>
+      </c>
+      <c r="E131">
+        <v>8.4</v>
+      </c>
+      <c r="F131">
+        <v>22.86</v>
+      </c>
+      <c r="G131">
+        <v>382.9</v>
+      </c>
+      <c r="H131" t="s">
+        <v>111</v>
+      </c>
+      <c r="I131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="19">
+        <v>25.97</v>
+      </c>
+      <c r="D132">
+        <v>3.7</v>
+      </c>
+      <c r="E132">
+        <v>7.8</v>
+      </c>
+      <c r="F132">
+        <v>21.34</v>
+      </c>
+      <c r="G132">
+        <v>554.19000000000005</v>
+      </c>
+      <c r="H132" t="s">
+        <v>111</v>
+      </c>
+      <c r="I132" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="19">
+        <v>22.71</v>
+      </c>
+      <c r="D133">
+        <v>3.6</v>
+      </c>
+      <c r="E133">
+        <v>8.1</v>
+      </c>
+      <c r="F133">
+        <v>22.01</v>
+      </c>
+      <c r="G133">
+        <v>499.84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>111</v>
+      </c>
+      <c r="I133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="19">
+        <v>25</v>
+      </c>
+      <c r="D134">
+        <v>3.2</v>
+      </c>
+      <c r="E134">
+        <v>8.1</v>
+      </c>
+      <c r="F134">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="G134">
+        <v>482.75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>111</v>
+      </c>
+      <c r="I134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="19">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D135">
+        <v>3.5</v>
+      </c>
+      <c r="E135">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F135">
+        <v>22.01</v>
+      </c>
+      <c r="G135">
+        <v>352.38</v>
+      </c>
+      <c r="H135" t="s">
+        <v>111</v>
+      </c>
+      <c r="I135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="19">
+        <v>24.43</v>
+      </c>
+      <c r="D136">
+        <v>3.9</v>
+      </c>
+      <c r="E136">
+        <v>7.8</v>
+      </c>
+      <c r="F136">
+        <v>22.31</v>
+      </c>
+      <c r="G136">
+        <v>545.03</v>
+      </c>
+      <c r="H136" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="19">
+        <v>11.03</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>7.6</v>
+      </c>
+      <c r="F137">
+        <v>22.17</v>
+      </c>
+      <c r="G137">
+        <v>244.53</v>
+      </c>
+      <c r="H137" t="s">
+        <v>111</v>
+      </c>
+      <c r="I137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="19">
+        <v>24.37</v>
+      </c>
+      <c r="D138">
+        <v>3.8</v>
+      </c>
+      <c r="E138">
+        <v>7.7</v>
+      </c>
+      <c r="F138">
+        <v>21.14</v>
+      </c>
+      <c r="G138">
+        <v>515.17999999999995</v>
+      </c>
+      <c r="H138" t="s">
+        <v>111</v>
+      </c>
+      <c r="I138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="19">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>4.2</v>
+      </c>
+      <c r="E139">
+        <v>7.9</v>
+      </c>
+      <c r="F139">
+        <v>23.51</v>
+      </c>
+      <c r="G139">
+        <v>305.63</v>
+      </c>
+      <c r="H139" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6453,6 +7889,1025 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="27">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="27">
+        <v>7204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60:G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>4.5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>5.5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>4.5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
+      <c r="C12">
+        <v>5.5</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13">
+        <v>4.5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5.5</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18">
+        <v>5.5</v>
+      </c>
+      <c r="E18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4.5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>4.5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4.5</v>
+      </c>
+      <c r="C21">
+        <v>4.5</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5.5</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>43106</v>
+      </c>
+      <c r="B24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>43137</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>43165</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>43196</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>43226</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>43257</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>43287</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>43318</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>43349</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>43410</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>43440</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54">
+        <v>5.5</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>4.5</v>
+      </c>
+      <c r="E55">
+        <v>7.5</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>8.5</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>8.5</v>
+      </c>
+      <c r="G58">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60">
+        <v>4.5</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="20">
+        <v>43410</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="20">
+        <v>43410</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6463,24 +8918,24 @@
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -6630,400 +9085,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
-        <v>43206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
-        <v>43207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <v>43208</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>43209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>43210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
-        <v>43211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
-        <v>43212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
-        <v>43213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
-        <v>43214</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="9">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-  </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="25">
-        <v>43348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10">
-        <v>43218</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43218</v>
-      </c>
-      <c r="D2" s="10">
-        <v>43218</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7037,73 +9125,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="10">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="25"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="25">
+        <v>43348</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="25"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -24,13 +24,17 @@
     <sheet name="Vaccination" sheetId="5" r:id="rId10"/>
     <sheet name="Pregnancy" sheetId="6" r:id="rId11"/>
     <sheet name="Reports" sheetId="9" r:id="rId12"/>
+    <sheet name="June 2018" sheetId="15" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milk Yield'!$B$1:$B$213</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="242">
   <si>
     <t>UP</t>
   </si>
@@ -65,9 +69,6 @@
     <t>A-Formula-3</t>
   </si>
   <si>
-    <t>Uluthampottu(0.5kg), Thuvarampottu(0.5kg), Thavidu(0.5kg), Kadalapunnakku(0.5kg), Ellupunnakku(0.25), Soda uppu(100gms), Uppu(100gms)</t>
-  </si>
-  <si>
     <t>U-Formula-1</t>
   </si>
   <si>
@@ -131,9 +132,6 @@
     <t>Komari</t>
   </si>
   <si>
-    <t>31/02/2018</t>
-  </si>
-  <si>
     <t>A-Formula-4(Pregnant cows)</t>
   </si>
   <si>
@@ -200,9 +198,6 @@
     <t>Have 2 cows</t>
   </si>
   <si>
-    <t>Have 3 cows</t>
-  </si>
-  <si>
     <t>Opposite to Lutheren church in Bangalore road. On the way to roundaana from busstand.</t>
   </si>
   <si>
@@ -210,9 +205,6 @@
   </si>
   <si>
     <t>Dianese Karuppu</t>
-  </si>
-  <si>
-    <t>19/05/2018</t>
   </si>
   <si>
     <t>Kauppu</t>
@@ -318,223 +310,458 @@
     <t>2625/5cows/month</t>
   </si>
   <si>
-    <t>9630/5cows/month</t>
-  </si>
-  <si>
     <t>Irrigation-1</t>
   </si>
   <si>
     <t>Urea-1</t>
   </si>
   <si>
+    <t>Irrigation-2</t>
+  </si>
+  <si>
+    <t>Periya karuppu</t>
+  </si>
+  <si>
+    <t>06 May '18</t>
+  </si>
+  <si>
+    <t>19 May '18</t>
+  </si>
+  <si>
+    <t>IMPS/P2A/812610940775/919786059280/Thirumalamilk</t>
+  </si>
+  <si>
+    <t>IMPS/P2A/813919353330/919786915030/Milk</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mottai </t>
+  </si>
+  <si>
+    <t>karuppu</t>
+  </si>
+  <si>
+    <t>For every 7 to 10 days, have to give water</t>
+  </si>
+  <si>
+    <t>For every 30 days or for each cut, have to put urea</t>
+  </si>
+  <si>
+    <t>A-Formula-6</t>
+  </si>
+  <si>
+    <t>P-Formula-3</t>
+  </si>
+  <si>
+    <t>Boosa pul(7kg)+Chola thattu(7kg)</t>
+  </si>
+  <si>
+    <t>Booza medium(1kg), Feed(4kg), Paruthikottai punnakku(1kg)</t>
+  </si>
+  <si>
+    <t>Dianese Vellai</t>
+  </si>
+  <si>
+    <t>Kombu Karuppu</t>
+  </si>
+  <si>
+    <t>13/6/2018</t>
+  </si>
+  <si>
+    <t>14/6/2018</t>
+  </si>
+  <si>
+    <t>15/6/2018</t>
+  </si>
+  <si>
+    <t>16/6/2018</t>
+  </si>
+  <si>
+    <t>17/6/2018</t>
+  </si>
+  <si>
+    <t>Kulthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milking </t>
+  </si>
+  <si>
+    <t>Pusa</t>
+  </si>
+  <si>
+    <t>Chola thattu</t>
+  </si>
+  <si>
+    <t>Vaikkol</t>
+  </si>
+  <si>
+    <t>Place change</t>
+  </si>
+  <si>
+    <t>Weekly Activities</t>
+  </si>
+  <si>
+    <t>Bathing</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Watering pusa bit</t>
+  </si>
+  <si>
+    <t>Watering CO5</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Calf tonic</t>
+  </si>
+  <si>
+    <t>Record keeping litres/cow</t>
+  </si>
+  <si>
+    <t>Sanni - 1</t>
+  </si>
+  <si>
+    <t>Saani - 2</t>
+  </si>
+  <si>
+    <t>A-Formula-7</t>
+  </si>
+  <si>
+    <t>10 Thooru of boosa/ day/ 4 cows</t>
+  </si>
+  <si>
+    <t>approximately 3 thoru/ cow</t>
+  </si>
+  <si>
+    <t>Monthly Activities</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Every 1st day of the month</t>
+  </si>
+  <si>
+    <t>36 rows and 20 thoors are there in the pusa land</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>18/6/2018</t>
+  </si>
+  <si>
+    <t>19/6/2018</t>
+  </si>
+  <si>
+    <t>20/6/2018</t>
+  </si>
+  <si>
+    <t>21/6/2018</t>
+  </si>
+  <si>
+    <t>22/6/2018</t>
+  </si>
+  <si>
+    <t>23/6/2018</t>
+  </si>
+  <si>
+    <t>24/6/2018</t>
+  </si>
+  <si>
+    <t>25/6/2018</t>
+  </si>
+  <si>
+    <t>26/6/2018</t>
+  </si>
+  <si>
+    <t>27/6/2018</t>
+  </si>
+  <si>
+    <t>28/6/2018</t>
+  </si>
+  <si>
+    <t>29/6/2018</t>
+  </si>
+  <si>
+    <t>30/6/2018</t>
+  </si>
+  <si>
+    <t>A-Formula-8</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu, 50 gms Chelated minerals, 50 gms Growel Immune Booster Premix, Growel Chelated Growmin Forte</t>
+  </si>
+  <si>
+    <t>Kombu karuppu</t>
+  </si>
+  <si>
+    <t>Periya vellai</t>
+  </si>
+  <si>
+    <t>Irrigation-3</t>
+  </si>
+  <si>
+    <t>31/02/18</t>
+  </si>
+  <si>
+    <t>14/06/18</t>
+  </si>
+  <si>
+    <t>15/06/18</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Gave birth on</t>
+  </si>
+  <si>
+    <t>Current cow status</t>
+  </si>
+  <si>
+    <t>Current calf status</t>
+  </si>
+  <si>
+    <t>Dead on 22nd June, 2018</t>
+  </si>
+  <si>
+    <t>Deworming - Round Worms</t>
+  </si>
+  <si>
+    <t>Deworming - Liver Flukes</t>
+  </si>
+  <si>
+    <t>Deworming - Tape Worms</t>
+  </si>
+  <si>
+    <t>A-Formula-9</t>
+  </si>
+  <si>
+    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu,  60 gms Glomin</t>
+  </si>
+  <si>
+    <t>50+34+25+0+0+8=117/cow/day</t>
+  </si>
+  <si>
+    <t>₹ 585/day for 5 cows</t>
+  </si>
+  <si>
+    <t>Dianese karuppu</t>
+  </si>
+  <si>
+    <t>Dianese vellai</t>
+  </si>
+  <si>
+    <t>Income Milk</t>
+  </si>
+  <si>
+    <t>585 x 15=</t>
+  </si>
+  <si>
+    <t>50+37+25+0+0+8=117/cow/day</t>
+  </si>
+  <si>
+    <t>₹ 468/day for 4 cows</t>
+  </si>
+  <si>
+    <t>468 x 15=</t>
+  </si>
+  <si>
+    <t>87 x 15</t>
+  </si>
+  <si>
+    <t>70 x 15</t>
+  </si>
+  <si>
+    <t>Ular theevanam for 4 cows</t>
+  </si>
+  <si>
+    <t>Ular theevanam for 5 cows</t>
+  </si>
+  <si>
+    <t>Adar for next first 15 days for 5 cows</t>
+  </si>
+  <si>
+    <t>Adar for first 15 days for 4 cows</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Transportation of kombu karupu</t>
+  </si>
+  <si>
+    <t>Transportation of HF kombu</t>
+  </si>
+  <si>
+    <t>Repairs and maintenance</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>19/05/18</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Uluthampottu(1kg), Thuvarampottu(1kg), Thavidu(1kg), Kadalapunnakku(1kg), Ellupunnakku(0.5), Soda uppu(100gms), Uppu(100gms)</t>
+  </si>
+  <si>
+    <t>17+20+10+25+9+0+0=81/cow/day</t>
+  </si>
+  <si>
+    <t>₹ 405/day for 5 cows</t>
+  </si>
+  <si>
+    <t>12150/month for 5 cows</t>
+  </si>
+  <si>
+    <t>24+34+25=83/cow/day</t>
+  </si>
+  <si>
+    <t>17550/5 cows/month</t>
+  </si>
+  <si>
+    <t>9630/3 cows/month</t>
+  </si>
+  <si>
+    <t>13/7/2018</t>
+  </si>
+  <si>
+    <t>14/7/2018</t>
+  </si>
+  <si>
+    <t>15/7/2018</t>
+  </si>
+  <si>
+    <t>16/7/2018</t>
+  </si>
+  <si>
+    <t>17/7/2018</t>
+  </si>
+  <si>
+    <t>18/7/2018</t>
+  </si>
+  <si>
+    <t>19/7/2018</t>
+  </si>
+  <si>
+    <t>20/7/2018</t>
+  </si>
+  <si>
+    <t>21/7/2018</t>
+  </si>
+  <si>
+    <t>22/7/2018</t>
+  </si>
+  <si>
+    <t>23/7/2018</t>
+  </si>
+  <si>
+    <t>24/7/2018</t>
+  </si>
+  <si>
+    <t>25/7/2018</t>
+  </si>
+  <si>
+    <t>26/7/2018</t>
+  </si>
+  <si>
+    <t>27/7/2018</t>
+  </si>
+  <si>
+    <t>28/7/2018</t>
+  </si>
+  <si>
+    <t>29/7/2018</t>
+  </si>
+  <si>
+    <t>30/7/2018</t>
+  </si>
+  <si>
+    <t>Cultivation from</t>
+  </si>
+  <si>
+    <t>21/07/2018</t>
+  </si>
+  <si>
+    <t>Insemination</t>
+  </si>
+  <si>
+    <t>31/8/2018</t>
+  </si>
+  <si>
+    <t>Thenga punnakku</t>
+  </si>
+  <si>
+    <t>pottu boosa</t>
+  </si>
+  <si>
+    <t>Medium boosa</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>Thuvaram pottu</t>
+  </si>
+  <si>
+    <t>A-Formula-10</t>
+  </si>
+  <si>
+    <t>pottu booza(1kg), Uzhutham noi(1kg), Feed(2kg),kadalai punnakku (1kg)</t>
+  </si>
+  <si>
+    <t>20.6+16+34+32=102.6</t>
+  </si>
+  <si>
+    <t>₹ 615/day for 6 cows</t>
+  </si>
+  <si>
+    <t>18468/6 cows/month</t>
+  </si>
+  <si>
     <t>Urea-2</t>
   </si>
   <si>
-    <t>Irrigation-2</t>
-  </si>
-  <si>
-    <t>Periya karuppu</t>
-  </si>
-  <si>
-    <t>06 May '18</t>
-  </si>
-  <si>
-    <t>19 May '18</t>
-  </si>
-  <si>
-    <t>IMPS/P2A/812610940775/919786059280/Thirumalamilk</t>
-  </si>
-  <si>
-    <t>IMPS/P2A/813919353330/919786915030/Milk</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mottai </t>
-  </si>
-  <si>
-    <t>karuppu</t>
-  </si>
-  <si>
-    <t>For every 7 to 10 days, have to give water</t>
-  </si>
-  <si>
-    <t>For every 30 days or for each cut, have to put urea</t>
-  </si>
-  <si>
-    <t>A-Formula-6</t>
-  </si>
-  <si>
-    <t>P-Formula-3</t>
-  </si>
-  <si>
-    <t>Boosa pul(7kg)+Chola thattu(7kg)</t>
-  </si>
-  <si>
-    <t>Booza medium(1kg), Feed(4kg), Paruthikottai punnakku(1kg)</t>
-  </si>
-  <si>
-    <t>Dianese Vellai</t>
-  </si>
-  <si>
-    <t>14/06/2018</t>
-  </si>
-  <si>
-    <t>Kombu Karuppu</t>
-  </si>
-  <si>
-    <t>15/06/2018</t>
-  </si>
-  <si>
-    <t>13/6/2018</t>
-  </si>
-  <si>
-    <t>14/6/2018</t>
-  </si>
-  <si>
-    <t>15/6/2018</t>
-  </si>
-  <si>
-    <t>16/6/2018</t>
-  </si>
-  <si>
-    <t>17/6/2018</t>
-  </si>
-  <si>
-    <t>Kulthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milking </t>
-  </si>
-  <si>
-    <t>Pusa</t>
-  </si>
-  <si>
-    <t>Chola thattu</t>
-  </si>
-  <si>
-    <t>Vaikkol</t>
-  </si>
-  <si>
-    <t>Place change</t>
-  </si>
-  <si>
-    <t>Weekly Activities</t>
-  </si>
-  <si>
-    <t>Bathing</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Watering pusa bit</t>
-  </si>
-  <si>
-    <t>Watering CO5</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Calf tonic</t>
-  </si>
-  <si>
-    <t>Record keeping litres/cow</t>
-  </si>
-  <si>
-    <t>Sanni - 1</t>
-  </si>
-  <si>
-    <t>Saani - 2</t>
-  </si>
-  <si>
-    <t>A-Formula-7</t>
-  </si>
-  <si>
-    <t>10 Thooru of boosa/ day/ 4 cows</t>
-  </si>
-  <si>
-    <t>approximately 3 thoru/ cow</t>
-  </si>
-  <si>
-    <t>Monthly Activities</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Every 1st day of the month</t>
-  </si>
-  <si>
-    <t>36 rows and 20 thoors are there in the pusa land</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>SOLD</t>
-  </si>
-  <si>
-    <t>18/6/2018</t>
-  </si>
-  <si>
-    <t>19/6/2018</t>
-  </si>
-  <si>
-    <t>20/6/2018</t>
-  </si>
-  <si>
-    <t>21/6/2018</t>
-  </si>
-  <si>
-    <t>22/6/2018</t>
-  </si>
-  <si>
-    <t>23/6/2018</t>
-  </si>
-  <si>
-    <t>24/6/2018</t>
-  </si>
-  <si>
-    <t>25/6/2018</t>
-  </si>
-  <si>
-    <t>26/6/2018</t>
-  </si>
-  <si>
-    <t>27/6/2018</t>
-  </si>
-  <si>
-    <t>28/6/2018</t>
-  </si>
-  <si>
-    <t>29/6/2018</t>
-  </si>
-  <si>
-    <t>30/6/2018</t>
-  </si>
-  <si>
-    <t>A-Formula-8</t>
-  </si>
-  <si>
-    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu</t>
-  </si>
-  <si>
-    <t>Booza medium(2kg), Feed(2kg), Paruthikottai punnakku(1kg), 10gms soda uppu, 10gms uppu, 50 gms Chelated minerals, 50 gms Growel Immune Booster Premix, Growel Chelated Growmin Forte</t>
-  </si>
-  <si>
-    <t>Kombu karuppu</t>
-  </si>
-  <si>
-    <t>Periya vellai</t>
+    <t>Irrigation-4</t>
+  </si>
+  <si>
+    <t>Irrigation-5</t>
+  </si>
+  <si>
+    <t>will come for 14 days till 5th July, 2018
+Yes, it came till 5th July, 2018</t>
   </si>
 </sst>
 </file>
@@ -545,7 +772,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -560,6 +787,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -678,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,6 +965,14 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,7 +982,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,11 +1317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1794484944"/>
-        <c:axId val="1794479504"/>
+        <c:axId val="-1779237520"/>
+        <c:axId val="-1779236976"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1794484944"/>
+        <c:axId val="-1779237520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,14 +1364,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794479504"/>
+        <c:crossAx val="-1779236976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1794479504"/>
+        <c:axId val="-1779236976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794484944"/>
+        <c:crossAx val="-1779237520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,11 +1721,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2021139056"/>
-        <c:axId val="2021141232"/>
+        <c:axId val="-1552325232"/>
+        <c:axId val="-1552317616"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="2021139056"/>
+        <c:axId val="-1552325232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,14 +1768,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2021141232"/>
+        <c:crossAx val="-1552317616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2021141232"/>
+        <c:axId val="-1552317616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2021139056"/>
+        <c:crossAx val="-1552325232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3138,19 +3378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3179,7 +3420,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3198,43 +3439,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
+      <c r="D9" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3243,22 +3490,22 @@
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -3266,170 +3513,260 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B23" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="B24" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>17</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="15">
+        <v>20</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C32" s="15">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="15">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="15">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="15">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="15">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="15">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15">
+        <v>24</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="15">
+        <v>32</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="15">
+        <v>15</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="15">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="D36" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="15">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
-        <v>47</v>
+      <c r="D37" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="13">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="13">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="13">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="13">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3445,31 +3782,47 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
       </c>
       <c r="B2" s="10">
         <v>43218</v>
@@ -3479,6 +3832,21 @@
       </c>
       <c r="D2" s="10">
         <v>43218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3494,75 +3862,114 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="32">
+        <v>43190</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B3" s="30">
         <v>43190</v>
       </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3585,13 +3992,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1">
+        <v>24275</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F19)</f>
+        <v>46280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7">
+        <v>13000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7">
+        <f>B1-F1</f>
+        <v>-22005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128:H139"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J189" sqref="J189:J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3612,32 +4149,32 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3645,7 +4182,7 @@
         <v>43206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="17">
         <v>14.42</v>
@@ -3663,13 +4200,13 @@
         <v>320.26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3677,7 +4214,7 @@
         <v>43206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="17">
         <v>4.3499999999999996</v>
@@ -3695,13 +4232,13 @@
         <v>95.87</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3709,7 +4246,7 @@
         <v>43207</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="17">
         <v>8.73</v>
@@ -3727,13 +4264,13 @@
         <v>182.54</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3741,7 +4278,7 @@
         <v>43207</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="17">
         <v>5.49</v>
@@ -3759,13 +4296,13 @@
         <v>125.28</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3773,7 +4310,7 @@
         <v>43208</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="17">
         <v>10.18</v>
@@ -3791,13 +4328,13 @@
         <v>232.3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3805,7 +4342,7 @@
         <v>43208</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="17">
         <v>7.69</v>
@@ -3823,13 +4360,13 @@
         <v>189.48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3837,7 +4374,7 @@
         <v>43209</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="17">
         <v>5.99</v>
@@ -3855,13 +4392,13 @@
         <v>132.01</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3869,7 +4406,7 @@
         <v>43209</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="17">
         <v>6.37</v>
@@ -3887,13 +4424,13 @@
         <v>145.36000000000001</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3901,7 +4438,7 @@
         <v>43210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="17">
         <v>7.81</v>
@@ -3919,13 +4456,13 @@
         <v>164.71</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3933,7 +4470,7 @@
         <v>43210</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="17">
         <v>8.2799999999999994</v>
@@ -3951,13 +4488,13 @@
         <v>180.91</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3965,7 +4502,7 @@
         <v>43211</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="17">
         <v>9.34</v>
@@ -3983,13 +4520,13 @@
         <v>205.85</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3997,7 +4534,7 @@
         <v>43211</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="17">
         <v>10.25</v>
@@ -4015,13 +4552,13 @@
         <v>233.9</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4029,7 +4566,7 @@
         <v>43212</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="17">
         <v>9.01</v>
@@ -4047,13 +4584,13 @@
         <v>205.6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4061,7 +4598,7 @@
         <v>43212</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17">
         <v>6.43</v>
@@ -4086,7 +4623,7 @@
         <v>43213</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17">
         <v>5.62</v>
@@ -4104,13 +4641,13 @@
         <v>122.79</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4118,7 +4655,7 @@
         <v>43213</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17">
         <v>5.1100000000000003</v>
@@ -4136,13 +4673,13 @@
         <v>121.61</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4150,7 +4687,7 @@
         <v>43214</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="17">
         <v>8.43</v>
@@ -4168,13 +4705,13 @@
         <v>185.79</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -4182,7 +4719,7 @@
         <v>43214</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="17">
         <v>7.98</v>
@@ -4200,13 +4737,13 @@
         <v>191.52</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4214,7 +4751,7 @@
         <v>43215</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17">
         <v>8.74</v>
@@ -4232,13 +4769,13 @@
         <v>199.44</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4246,7 +4783,7 @@
         <v>43215</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="17">
         <v>5</v>
@@ -4264,13 +4801,13 @@
         <v>109.25</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -4278,7 +4815,7 @@
         <v>43216</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17">
         <v>9.6199999999999992</v>
@@ -4296,13 +4833,13 @@
         <v>212.04</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -4310,7 +4847,7 @@
         <v>43216</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="17">
         <v>9.42</v>
@@ -4328,13 +4865,13 @@
         <v>198.66</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -4342,7 +4879,7 @@
         <v>43217</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17">
         <v>7.08</v>
@@ -4360,13 +4897,13 @@
         <v>154.69</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -4374,7 +4911,7 @@
         <v>43217</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="17">
         <v>8.2200000000000006</v>
@@ -4392,13 +4929,13 @@
         <v>181.16</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -4406,7 +4943,7 @@
         <v>43218</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="17">
         <v>9.5399999999999991</v>
@@ -4424,13 +4961,13 @@
         <v>210.26</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -4438,7 +4975,7 @@
         <v>43218</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>9.0399999999999991</v>
@@ -4456,7 +4993,7 @@
         <v>190.65</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4464,7 +5001,7 @@
         <v>43219</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="17">
         <v>9.58</v>
@@ -4482,13 +5019,13 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -4496,7 +5033,7 @@
         <v>43219</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="17">
         <v>10.44</v>
@@ -4514,13 +5051,13 @@
         <v>220.17</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -4528,7 +5065,7 @@
         <v>43220</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="18">
         <v>10.77</v>
@@ -4546,13 +5083,13 @@
         <v>230.32</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -4560,7 +5097,7 @@
         <v>43220</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="19">
         <v>6.95</v>
@@ -4578,13 +5115,13 @@
         <v>146.57</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4592,7 +5129,7 @@
         <v>43105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="19">
         <v>8.4</v>
@@ -4610,13 +5147,13 @@
         <v>199.92</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4624,7 +5161,7 @@
         <v>43105</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="19">
         <v>8.51</v>
@@ -4642,13 +5179,13 @@
         <v>202.53</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4656,7 +5193,7 @@
         <v>43136</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="19">
         <v>10.24</v>
@@ -4674,13 +5211,13 @@
         <v>254.42</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4688,7 +5225,7 @@
         <v>43136</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="19">
         <v>7.18</v>
@@ -4706,13 +5243,13 @@
         <v>191.49</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4720,7 +5257,7 @@
         <v>43164</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="19">
         <v>11.49</v>
@@ -4738,13 +5275,13 @@
         <v>262.2</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4752,7 +5289,7 @@
         <v>43164</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="19">
         <v>10.09</v>
@@ -4770,13 +5307,13 @@
         <v>242.16</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4784,7 +5321,7 @@
         <v>43195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="19">
         <v>10.66</v>
@@ -4802,13 +5339,13 @@
         <v>262.66000000000003</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4816,7 +5353,7 @@
         <v>43195</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="19">
         <v>9.17</v>
@@ -4834,13 +5371,13 @@
         <v>193.39</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -4848,7 +5385,7 @@
         <v>43225</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="19">
         <v>10.11</v>
@@ -4866,13 +5403,13 @@
         <v>230.71</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -4880,7 +5417,7 @@
         <v>43225</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="19">
         <v>9.89</v>
@@ -4898,13 +5435,13 @@
         <v>208.58</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -4912,7 +5449,7 @@
         <v>43256</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="19">
         <v>11.49</v>
@@ -4930,13 +5467,13 @@
         <v>262.2</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -4944,7 +5481,7 @@
         <v>43256</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="19">
         <v>10.35</v>
@@ -4962,13 +5499,13 @@
         <v>228.11</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -4976,7 +5513,7 @@
         <v>43286</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="19">
         <v>12.48</v>
@@ -4994,13 +5531,13 @@
         <v>287.16000000000003</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5008,7 +5545,7 @@
         <v>43286</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="19">
         <v>9.69</v>
@@ -5026,13 +5563,13 @@
         <v>213.56</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5040,7 +5577,7 @@
         <v>43317</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="19">
         <v>12.71</v>
@@ -5058,13 +5595,13 @@
         <v>280.12</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5072,7 +5609,7 @@
         <v>43317</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="19">
         <v>8.2899999999999991</v>
@@ -5090,13 +5627,13 @@
         <v>189.17</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5104,7 +5641,7 @@
         <v>43348</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="19">
         <v>13.16</v>
@@ -5122,13 +5659,13 @@
         <v>302.81</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5136,7 +5673,7 @@
         <v>43348</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="19">
         <v>8.59</v>
@@ -5154,13 +5691,13 @@
         <v>189.32</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -5168,7 +5705,7 @@
         <v>43378</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="19">
         <v>11.62</v>
@@ -5186,13 +5723,13 @@
         <v>267.37</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -5200,7 +5737,7 @@
         <v>43378</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="19">
         <v>9.56</v>
@@ -5218,13 +5755,13 @@
         <v>208.88</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5232,7 +5769,7 @@
         <v>43409</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="19">
         <v>12.12</v>
@@ -5250,13 +5787,13 @@
         <v>276.57</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5264,7 +5801,7 @@
         <v>43409</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="19">
         <v>6.8</v>
@@ -5282,13 +5819,13 @@
         <v>149.87</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -5296,7 +5833,7 @@
         <v>43439</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="19">
         <v>14.02</v>
@@ -5314,13 +5851,13 @@
         <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -5328,7 +5865,7 @@
         <v>43439</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="19">
         <v>9.9700000000000006</v>
@@ -5346,21 +5883,21 @@
         <v>215.65</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="19">
         <v>12.82</v>
@@ -5378,21 +5915,21 @@
         <v>270.37</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="19">
         <v>11.51</v>
@@ -5410,21 +5947,21 @@
         <v>264.83999999999997</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="19">
         <v>12.53</v>
@@ -5442,21 +5979,21 @@
         <v>285.93</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="19">
         <v>11.2</v>
@@ -5474,21 +6011,21 @@
         <v>244.72</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="19">
         <v>13.48</v>
@@ -5506,21 +6043,21 @@
         <v>297.08999999999997</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61" s="19">
         <v>9.68</v>
@@ -5538,21 +6075,21 @@
         <v>213.34</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="19">
         <v>11.88</v>
@@ -5570,21 +6107,21 @@
         <v>261.83</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" s="19">
         <v>11.17</v>
@@ -5602,21 +6139,21 @@
         <v>254.89</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="19">
         <v>13.2</v>
@@ -5634,21 +6171,21 @@
         <v>288.42</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65" s="19">
         <v>11.58</v>
@@ -5666,21 +6203,21 @@
         <v>264.25</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="19">
         <v>9.26</v>
@@ -5698,21 +6235,21 @@
         <v>211.31</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="19">
         <v>12.37</v>
@@ -5730,21 +6267,21 @@
         <v>294.39999999999998</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="19">
         <v>14.57</v>
@@ -5762,21 +6299,21 @@
         <v>307.27999999999997</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" s="19">
         <v>6.21</v>
@@ -5794,21 +6331,21 @@
         <v>141.71</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="19">
         <v>12.03</v>
@@ -5826,21 +6363,21 @@
         <v>253.71</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="19">
         <v>26.08</v>
@@ -5858,21 +6395,21 @@
         <v>243.06</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="19">
         <v>21.85</v>
@@ -5890,21 +6427,21 @@
         <v>306.11</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="19">
         <v>22.04</v>
@@ -5922,21 +6459,21 @@
         <v>217.75</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="19">
         <v>23.59</v>
@@ -5954,21 +6491,21 @@
         <v>538.82000000000005</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="19">
         <v>13.23</v>
@@ -5986,21 +6523,21 @@
         <v>304.42</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="19">
         <v>21.78</v>
@@ -6018,21 +6555,21 @@
         <v>459.34</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" s="19">
         <v>15.73</v>
@@ -6050,21 +6587,21 @@
         <v>358.95</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="19">
         <v>15.5</v>
@@ -6082,21 +6619,21 @@
         <v>338.67</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="19">
         <v>21.9</v>
@@ -6114,21 +6651,21 @@
         <v>521.22</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="19">
         <v>21.27</v>
@@ -6146,21 +6683,21 @@
         <v>475.4</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="19">
         <v>17.53</v>
@@ -6178,21 +6715,21 @@
         <v>386.38</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="19">
         <v>23.99</v>
@@ -6210,21 +6747,21 @@
         <v>524.17999999999995</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="19">
         <v>17.510000000000002</v>
@@ -6242,21 +6779,21 @@
         <v>399.57</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="19">
         <v>23.3</v>
@@ -6274,21 +6811,21 @@
         <v>536.13</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="19">
         <v>18.559999999999999</v>
@@ -6306,21 +6843,21 @@
         <v>423.53</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="19">
         <v>24.25</v>
@@ -6338,21 +6875,21 @@
         <v>534.47</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="19">
         <v>18.920000000000002</v>
@@ -6370,21 +6907,21 @@
         <v>413.4</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="19">
         <v>21.74</v>
@@ -6402,21 +6939,21 @@
         <v>476.54</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" s="19">
         <v>20.190000000000001</v>
@@ -6434,21 +6971,21 @@
         <v>463.36</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="19">
         <v>24.93</v>
@@ -6466,21 +7003,21 @@
         <v>527.02</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" s="19">
         <v>18.61</v>
@@ -6498,21 +7035,21 @@
         <v>402.9</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="19">
         <v>25.41</v>
@@ -6530,21 +7067,21 @@
         <v>556.73</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="19">
         <v>17.899999999999999</v>
@@ -6562,13 +7099,13 @@
         <v>415.63</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -6576,7 +7113,7 @@
         <v>43106</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="19">
         <v>21.22</v>
@@ -6594,13 +7131,13 @@
         <v>457.07</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -6608,7 +7145,7 @@
         <v>43106</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="19">
         <v>15.2</v>
@@ -6626,13 +7163,13 @@
         <v>346.1</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -6640,7 +7177,7 @@
         <v>43137</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="19">
         <v>20.18</v>
@@ -6658,13 +7195,13 @@
         <v>430.64</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -6672,7 +7209,7 @@
         <v>43137</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97" s="19">
         <v>14.59</v>
@@ -6690,13 +7227,13 @@
         <v>329.87</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -6704,7 +7241,7 @@
         <v>43165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="19">
         <v>22.17</v>
@@ -6722,13 +7259,13 @@
         <v>500.15</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -6736,7 +7273,7 @@
         <v>43165</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" s="19">
         <v>14.68</v>
@@ -6759,7 +7296,7 @@
         <v>43196</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="19">
         <v>24.42</v>
@@ -6782,7 +7319,7 @@
         <v>43196</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C101" s="19">
         <v>23.32</v>
@@ -6805,7 +7342,7 @@
         <v>43226</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -6813,7 +7350,7 @@
         <v>43226</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -6821,7 +7358,7 @@
         <v>43257</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="19">
         <v>24.59</v>
@@ -6844,7 +7381,7 @@
         <v>43257</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105" s="19">
         <v>14.97</v>
@@ -6867,7 +7404,7 @@
         <v>43287</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" s="19">
         <v>20.5</v>
@@ -6890,7 +7427,7 @@
         <v>43287</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107" s="19">
         <v>11.09</v>
@@ -6913,7 +7450,7 @@
         <v>43318</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" s="19">
         <v>21.28</v>
@@ -6936,7 +7473,7 @@
         <v>43318</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C109" s="19">
         <v>15.24</v>
@@ -6959,7 +7496,7 @@
         <v>43349</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" s="19">
         <v>22.04</v>
@@ -6977,10 +7514,10 @@
         <v>474.08</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I110" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -6988,13 +7525,13 @@
         <v>43349</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I111" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -7002,13 +7539,13 @@
         <v>43379</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -7016,7 +7553,7 @@
         <v>43379</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C113" s="19">
         <v>10.84</v>
@@ -7034,10 +7571,10 @@
         <v>237.5</v>
       </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I113" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -7045,7 +7582,7 @@
         <v>43410</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C114" s="19">
         <v>20.98</v>
@@ -7063,10 +7600,10 @@
         <v>455.47</v>
       </c>
       <c r="H114" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I114" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -7074,13 +7611,13 @@
         <v>43410</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="I115" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -7088,7 +7625,7 @@
         <v>43440</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C116" s="19">
         <v>10.08</v>
@@ -7106,10 +7643,10 @@
         <v>215.1</v>
       </c>
       <c r="H116" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I116" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -7117,7 +7654,7 @@
         <v>43440</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117" s="19">
         <v>13.57</v>
@@ -7135,18 +7672,18 @@
         <v>306.41000000000003</v>
       </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I117" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" s="19">
         <v>11.81</v>
@@ -7164,18 +7701,18 @@
         <v>283.32</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I118" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119" s="19">
         <v>9.15</v>
@@ -7193,18 +7730,18 @@
         <v>226.27</v>
       </c>
       <c r="H119" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I119" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120" s="19">
         <v>14.89</v>
@@ -7222,18 +7759,18 @@
         <v>311.95</v>
       </c>
       <c r="H120" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I120" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121" s="19">
         <v>6.13</v>
@@ -7251,18 +7788,18 @@
         <v>129.58000000000001</v>
       </c>
       <c r="H121" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I121" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" s="19">
         <v>14.34</v>
@@ -7280,18 +7817,18 @@
         <v>341.43</v>
       </c>
       <c r="H122" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I122" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="19">
         <v>7.76</v>
@@ -7309,32 +7846,41 @@
         <v>172.49</v>
       </c>
       <c r="H123" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I123" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C124" s="19">
+        <v>15.63</v>
+      </c>
+      <c r="D124">
+        <v>3.6</v>
+      </c>
+      <c r="E124">
+        <v>8</v>
       </c>
       <c r="H124" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I124" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C125" s="19">
         <v>15.29</v>
@@ -7352,18 +7898,18 @@
         <v>349.83</v>
       </c>
       <c r="H125" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I125" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126" s="19">
         <v>26.51</v>
@@ -7381,18 +7927,18 @@
         <v>466.17</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I126" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C127" s="19">
         <v>21.18</v>
@@ -7410,18 +7956,18 @@
         <v>466.17</v>
       </c>
       <c r="H127" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I127" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" s="19">
         <v>26.23</v>
@@ -7439,18 +7985,18 @@
         <v>579.67999999999995</v>
       </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I128" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C129" s="19">
         <v>20.96</v>
@@ -7468,18 +8014,18 @@
         <v>471.18</v>
       </c>
       <c r="H129" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I129" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="19">
         <v>24.61</v>
@@ -7497,18 +8043,18 @@
         <v>557.9</v>
       </c>
       <c r="H130" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I130" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C131" s="19">
         <v>16.75</v>
@@ -7526,18 +8072,18 @@
         <v>382.9</v>
       </c>
       <c r="H131" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I131" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" s="19">
         <v>25.97</v>
@@ -7555,18 +8101,18 @@
         <v>554.19000000000005</v>
       </c>
       <c r="H132" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C133" s="19">
         <v>22.71</v>
@@ -7584,18 +8130,18 @@
         <v>499.84</v>
       </c>
       <c r="H133" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I133" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134" s="19">
         <v>25</v>
@@ -7613,18 +8159,18 @@
         <v>482.75</v>
       </c>
       <c r="H134" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I134" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135" s="19">
         <v>16.010000000000002</v>
@@ -7642,18 +8188,18 @@
         <v>352.38</v>
       </c>
       <c r="H135" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I135" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136" s="19">
         <v>24.43</v>
@@ -7671,18 +8217,18 @@
         <v>545.03</v>
       </c>
       <c r="H136" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I136" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C137" s="19">
         <v>11.03</v>
@@ -7700,18 +8246,18 @@
         <v>244.53</v>
       </c>
       <c r="H137" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I137" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C138" s="19">
         <v>24.37</v>
@@ -7729,18 +8275,18 @@
         <v>515.17999999999995</v>
       </c>
       <c r="H138" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I138" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C139" s="19">
         <v>13</v>
@@ -7758,126 +8304,1665 @@
         <v>305.63</v>
       </c>
       <c r="H139" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I139" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C140" s="19">
+        <v>22.81</v>
+      </c>
+      <c r="D140">
+        <v>3.8</v>
+      </c>
+      <c r="E140">
+        <v>8.1</v>
+      </c>
+      <c r="F140">
+        <v>22.38</v>
+      </c>
+      <c r="G140">
+        <v>510.46</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C141" s="19">
+        <v>18.04</v>
+      </c>
+      <c r="D141">
+        <v>3.5</v>
+      </c>
+      <c r="E141">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F141">
+        <v>22.01</v>
+      </c>
+      <c r="G141">
+        <v>397.06</v>
+      </c>
+      <c r="H141" t="s">
+        <v>105</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="19">
         <v>25</v>
+      </c>
+      <c r="D142">
+        <v>3.9</v>
+      </c>
+      <c r="E142">
+        <v>22.5</v>
+      </c>
+      <c r="F142">
+        <v>25</v>
+      </c>
+      <c r="G142">
+        <v>562.5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>105</v>
+      </c>
+      <c r="I142" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C143" s="19">
+        <v>15.13</v>
+      </c>
+      <c r="D143">
+        <v>3.6</v>
+      </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>21.72</v>
+      </c>
+      <c r="G143">
+        <v>328.62</v>
+      </c>
+      <c r="H143" t="s">
+        <v>105</v>
+      </c>
+      <c r="I143" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="19">
+        <v>26.49</v>
+      </c>
+      <c r="D144">
+        <v>3.3</v>
+      </c>
+      <c r="E144">
+        <v>8.1</v>
+      </c>
+      <c r="F144">
+        <v>19.5</v>
+      </c>
+      <c r="G144">
+        <v>516.54999999999995</v>
+      </c>
+      <c r="H144" t="s">
+        <v>105</v>
+      </c>
+      <c r="I144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="19">
+        <v>14.33</v>
+      </c>
+      <c r="D145">
+        <v>3.7</v>
+      </c>
+      <c r="E145">
+        <v>7.8</v>
+      </c>
+      <c r="F145">
+        <v>21.34</v>
+      </c>
+      <c r="G145">
+        <v>305.8</v>
+      </c>
+      <c r="H145" t="s">
+        <v>105</v>
+      </c>
+      <c r="I145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="19">
+        <v>15.13</v>
+      </c>
+      <c r="D146">
+        <v>3.6</v>
+      </c>
+      <c r="E146">
+        <v>8.1</v>
+      </c>
+      <c r="F146">
+        <v>22.01</v>
+      </c>
+      <c r="G146">
+        <v>333.01</v>
+      </c>
+      <c r="H146" t="s">
+        <v>105</v>
+      </c>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="19">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D147">
+        <v>3.5</v>
+      </c>
+      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>21.54</v>
+      </c>
+      <c r="G147">
+        <v>384.48</v>
+      </c>
+      <c r="H147" t="s">
+        <v>105</v>
+      </c>
+      <c r="I147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="19">
+        <v>25.95</v>
+      </c>
+      <c r="D148">
+        <v>3.5</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>21.54</v>
+      </c>
+      <c r="G148">
+        <v>559.16999999999996</v>
+      </c>
+      <c r="H148" t="s">
+        <v>105</v>
+      </c>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="19">
+        <v>32.04</v>
+      </c>
+      <c r="D149">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E149">
+        <v>7.5</v>
+      </c>
+      <c r="F149">
+        <v>21.72</v>
+      </c>
+      <c r="G149">
+        <v>695.9</v>
+      </c>
+      <c r="H149" t="s">
+        <v>105</v>
+      </c>
+      <c r="I149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="19">
+        <v>25.28</v>
+      </c>
+      <c r="D150">
+        <v>3.6</v>
+      </c>
+      <c r="E150">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F150">
+        <v>22.48</v>
+      </c>
+      <c r="G150">
+        <v>568.29</v>
+      </c>
+      <c r="H150" t="s">
+        <v>105</v>
+      </c>
+      <c r="I150" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="D151">
+        <v>3.6</v>
+      </c>
+      <c r="E151">
+        <v>8.1</v>
+      </c>
+      <c r="F151">
+        <v>22.01</v>
+      </c>
+      <c r="G151">
+        <v>460</v>
+      </c>
+      <c r="H151" t="s">
+        <v>105</v>
+      </c>
+      <c r="I151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="19">
+        <v>25.49</v>
+      </c>
+      <c r="D152">
+        <v>3.5</v>
+      </c>
+      <c r="E152">
+        <v>8.1</v>
+      </c>
+      <c r="F152">
+        <v>21.82</v>
+      </c>
+      <c r="G152">
+        <v>556.19000000000005</v>
+      </c>
+      <c r="H152" t="s">
+        <v>105</v>
+      </c>
+      <c r="I152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="19">
+        <v>23.03</v>
+      </c>
+      <c r="D153">
+        <v>3.6</v>
+      </c>
+      <c r="E153">
+        <v>8.1</v>
+      </c>
+      <c r="F153">
+        <v>22.01</v>
+      </c>
+      <c r="G153">
+        <v>506.89</v>
+      </c>
+      <c r="H153" t="s">
+        <v>105</v>
+      </c>
+      <c r="I153" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="20">
+        <v>43107</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="19">
+        <v>25.03</v>
+      </c>
+      <c r="D154">
+        <v>3.5</v>
+      </c>
+      <c r="E154">
+        <v>8.1</v>
+      </c>
+      <c r="F154">
+        <v>21.82</v>
+      </c>
+      <c r="G154">
+        <v>546.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="20">
+        <v>43107</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="19">
+        <v>18.48</v>
+      </c>
+      <c r="D155">
+        <v>3.9</v>
+      </c>
+      <c r="E155">
+        <v>8.1</v>
+      </c>
+      <c r="F155">
+        <v>22.18</v>
+      </c>
+      <c r="G155">
+        <v>410.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="20">
+        <v>43138</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="19">
+        <v>22.33</v>
+      </c>
+      <c r="D156">
+        <v>3.5</v>
+      </c>
+      <c r="E156">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F156">
+        <v>22.33</v>
+      </c>
+      <c r="G156">
+        <v>482.32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="20">
+        <v>43138</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="19">
+        <v>21.26</v>
+      </c>
+      <c r="D157">
+        <v>4.3</v>
+      </c>
+      <c r="E157">
+        <v>7.8</v>
+      </c>
+      <c r="F157">
+        <v>23.29</v>
+      </c>
+      <c r="G157">
+        <v>495.14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="20">
+        <v>43166</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="19">
+        <v>26.05</v>
+      </c>
+      <c r="D158">
+        <v>3.5</v>
+      </c>
+      <c r="E158">
+        <v>8.1</v>
+      </c>
+      <c r="F158">
+        <v>21.37</v>
+      </c>
+      <c r="G158">
+        <v>556.67999999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="20">
+        <v>43166</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="19">
+        <v>15.05</v>
+      </c>
+      <c r="D159">
+        <v>3.5</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>21.18</v>
+      </c>
+      <c r="G159">
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="20">
+        <v>43197</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="19">
+        <v>27.06</v>
+      </c>
+      <c r="D160">
+        <v>3.6</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>21.37</v>
+      </c>
+      <c r="G160">
+        <v>578.27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="20">
+        <v>43197</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="19">
+        <v>16.61</v>
+      </c>
+      <c r="D161">
+        <v>3.5</v>
+      </c>
+      <c r="E161">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>21.18</v>
+      </c>
+      <c r="G161">
+        <v>351.79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="20">
+        <v>43227</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="19">
+        <v>22.62</v>
+      </c>
+      <c r="D162">
+        <v>3.5</v>
+      </c>
+      <c r="E162">
+        <v>8.1</v>
+      </c>
+      <c r="F162">
+        <v>21.37</v>
+      </c>
+      <c r="G162">
+        <v>483.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="20">
+        <v>43227</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="19">
+        <v>20.45</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>7.8</v>
+      </c>
+      <c r="F163">
+        <v>22.44</v>
+      </c>
+      <c r="G163">
+        <v>458.89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="20">
+        <v>43258</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="19">
+        <v>26.45</v>
+      </c>
+      <c r="D164">
+        <v>3.3</v>
+      </c>
+      <c r="E164">
+        <v>8.5</v>
+      </c>
+      <c r="F164">
+        <v>21.94</v>
+      </c>
+      <c r="G164">
+        <v>580.30999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="20">
+        <v>43258</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="20">
+        <v>43288</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="19">
+        <v>21.1</v>
+      </c>
+      <c r="D166">
+        <v>3.6</v>
+      </c>
+      <c r="E166">
+        <v>8.1</v>
+      </c>
+      <c r="F166">
+        <v>22.23</v>
+      </c>
+      <c r="G166">
+        <v>469.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="20">
+        <v>43288</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>7.8</v>
+      </c>
+      <c r="F167">
+        <v>22.42</v>
+      </c>
+      <c r="G167">
+        <v>412.53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="20">
+        <v>43319</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D168">
+        <v>3.6</v>
+      </c>
+      <c r="E168">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>22.04</v>
+      </c>
+      <c r="G168">
+        <v>427.58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="20">
+        <v>43319</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" s="19">
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>4.3</v>
+      </c>
+      <c r="E169">
+        <v>7.7</v>
+      </c>
+      <c r="F169">
+        <v>23.64</v>
+      </c>
+      <c r="G169">
+        <v>391.68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="20">
+        <v>43350</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="D170">
+        <v>3.3</v>
+      </c>
+      <c r="E170">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F170">
+        <v>20.7</v>
+      </c>
+      <c r="G170">
+        <v>452.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="20">
+        <v>43350</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="19">
+        <v>15.8</v>
+      </c>
+      <c r="D171">
+        <v>4.5</v>
+      </c>
+      <c r="E171">
+        <v>7.3</v>
+      </c>
+      <c r="F171">
+        <v>22.42</v>
+      </c>
+      <c r="G171">
+        <v>354.24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="20">
+        <v>43380</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="D172">
+        <v>3.3</v>
+      </c>
+      <c r="E172">
+        <v>8.1</v>
+      </c>
+      <c r="F172">
+        <v>21.09</v>
+      </c>
+      <c r="G172">
+        <v>655.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="20">
+        <v>43380</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>7.6</v>
+      </c>
+      <c r="F173">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G173">
+        <v>501.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="20">
+        <v>43411</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="19">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <v>3.4</v>
+      </c>
+      <c r="E174">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>21.09</v>
+      </c>
+      <c r="G174">
+        <v>611.61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="20">
+        <v>43411</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="19">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <v>3.6</v>
+      </c>
+      <c r="E175">
+        <v>8.1</v>
+      </c>
+      <c r="F175">
+        <v>21</v>
+      </c>
+      <c r="G175">
+        <v>466.83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="20">
+        <v>43441</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="19">
+        <v>30.4</v>
+      </c>
+      <c r="D176">
+        <v>3.5</v>
+      </c>
+      <c r="E176">
+        <v>8.1</v>
+      </c>
+      <c r="F176">
+        <v>22.04</v>
+      </c>
+      <c r="G176">
+        <v>670.02</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A177" s="20">
+        <v>43441</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="19">
+        <v>22.3</v>
+      </c>
+      <c r="D177">
+        <v>3.6</v>
+      </c>
+      <c r="E177">
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <v>22.3</v>
+      </c>
+      <c r="G177">
+        <v>491.49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="19">
+        <v>27.3</v>
+      </c>
+      <c r="D178">
+        <v>3.3</v>
+      </c>
+      <c r="E178">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F178">
+        <v>22.04</v>
+      </c>
+      <c r="G178">
+        <v>601.69000000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A179" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="19">
+        <v>18</v>
+      </c>
+      <c r="D179">
+        <v>3.6</v>
+      </c>
+      <c r="E179">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>22.04</v>
+      </c>
+      <c r="G179">
+        <v>396.72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A180" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D180">
+        <v>3.5</v>
+      </c>
+      <c r="E180">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>21.85</v>
+      </c>
+      <c r="G180">
+        <v>445.74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A181" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="19">
+        <v>25.4</v>
+      </c>
+      <c r="D181">
+        <v>3.3</v>
+      </c>
+      <c r="E181">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F181">
+        <v>22.04</v>
+      </c>
+      <c r="G181">
+        <v>559.82000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A182" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="19">
+        <v>20.8</v>
+      </c>
+      <c r="D182">
+        <v>3.4</v>
+      </c>
+      <c r="E182">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F182">
+        <v>22.04</v>
+      </c>
+      <c r="G182">
+        <v>458.43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A183" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="19">
+        <v>26.5</v>
+      </c>
+      <c r="D183">
+        <v>35</v>
+      </c>
+      <c r="E183">
+        <v>8.1</v>
+      </c>
+      <c r="F183">
+        <v>22.04</v>
+      </c>
+      <c r="G183">
+        <v>584.05999999999995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A184" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="19">
+        <v>26.4</v>
+      </c>
+      <c r="D184">
+        <v>3.3</v>
+      </c>
+      <c r="E184">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F184">
+        <v>22.04</v>
+      </c>
+      <c r="G184">
+        <v>581.86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A185" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D185">
+        <v>3.6</v>
+      </c>
+      <c r="E185">
+        <v>8</v>
+      </c>
+      <c r="F185">
+        <v>22.04</v>
+      </c>
+      <c r="G185">
+        <v>416.56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A186" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="19">
+        <v>29.6</v>
+      </c>
+      <c r="D186">
+        <v>3.4</v>
+      </c>
+      <c r="E186">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F186">
+        <v>22.04</v>
+      </c>
+      <c r="G186">
+        <v>652.38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A187" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C187" s="19">
+        <v>21</v>
+      </c>
+      <c r="D187">
+        <v>3.4</v>
+      </c>
+      <c r="E187">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F187">
+        <v>22.03</v>
+      </c>
+      <c r="G187">
+        <v>486.14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A188" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="19">
+        <v>31</v>
+      </c>
+      <c r="D188">
+        <v>3.4</v>
+      </c>
+      <c r="E188">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F188">
+        <v>22.04</v>
+      </c>
+      <c r="G188">
+        <v>683.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A189" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="19">
+        <v>19.3</v>
+      </c>
+      <c r="D189">
+        <v>3.6</v>
+      </c>
+      <c r="E189">
+        <v>8</v>
+      </c>
+      <c r="F189">
+        <v>22.04</v>
+      </c>
+      <c r="G189">
+        <v>425.37</v>
+      </c>
+      <c r="S189">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A190" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="19">
+        <v>29.5</v>
+      </c>
+      <c r="D190">
+        <v>3.5</v>
+      </c>
+      <c r="E190">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>21.85</v>
+      </c>
+      <c r="G190">
+        <v>644.52</v>
+      </c>
+      <c r="S190">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A191" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="19">
+        <v>22.2</v>
+      </c>
+      <c r="D191">
+        <v>3.4</v>
+      </c>
+      <c r="E191">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F191">
+        <v>22.23</v>
+      </c>
+      <c r="G191">
+        <v>493.51</v>
+      </c>
+      <c r="M191">
+        <v>15</v>
+      </c>
+      <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191">
+        <f>M191*N191</f>
+        <v>75</v>
+      </c>
+      <c r="P191">
+        <f>O191*30</f>
+        <v>2250</v>
+      </c>
+      <c r="Q191">
+        <f>P191*30</f>
+        <v>67500</v>
+      </c>
+      <c r="R191">
+        <f>14000+12000</f>
+        <v>26000</v>
+      </c>
+      <c r="S191">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A192" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="19">
+        <v>29.4</v>
+      </c>
+      <c r="D192">
+        <v>3.5</v>
+      </c>
+      <c r="E192">
+        <v>8</v>
+      </c>
+      <c r="F192">
+        <v>21.85</v>
+      </c>
+      <c r="G192">
+        <v>642.39</v>
+      </c>
+      <c r="P192">
+        <v>405</v>
+      </c>
+      <c r="Q192">
+        <f>P192/10</f>
+        <v>40.5</v>
+      </c>
+      <c r="S192">
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>27</v>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="19">
+        <v>23.6</v>
+      </c>
+      <c r="D193">
+        <v>3.6</v>
+      </c>
+      <c r="E193">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F193">
+        <v>22.42</v>
+      </c>
+      <c r="G193">
+        <v>529.11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" s="19">
+        <v>29.6</v>
+      </c>
+      <c r="D194">
+        <v>3.4</v>
+      </c>
+      <c r="E194">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F194">
+        <v>22.04</v>
+      </c>
+      <c r="G194">
+        <v>652.38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" s="19">
+        <v>23.2</v>
+      </c>
+      <c r="D195">
+        <v>3.5</v>
+      </c>
+      <c r="E195">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F195">
+        <v>22.23</v>
+      </c>
+      <c r="G195">
+        <v>515.74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="19">
+        <v>28.6</v>
+      </c>
+      <c r="D196">
+        <v>3.6</v>
+      </c>
+      <c r="E196">
+        <v>8.1</v>
+      </c>
+      <c r="F196">
+        <v>22.23</v>
+      </c>
+      <c r="G196">
+        <v>635.78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D197">
+        <v>3.8</v>
+      </c>
+      <c r="E197">
+        <v>8</v>
+      </c>
+      <c r="F197">
+        <v>22.42</v>
+      </c>
+      <c r="G197">
+        <v>434.95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" s="19">
+        <v>28.8</v>
+      </c>
+      <c r="D198">
+        <v>3.4</v>
+      </c>
+      <c r="E198">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F198">
+        <v>22.04</v>
+      </c>
+      <c r="G198">
+        <v>634.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="19">
+        <v>22.2</v>
+      </c>
+      <c r="D199">
+        <v>3.6</v>
+      </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>22.04</v>
+      </c>
+      <c r="G199">
+        <v>489.29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="19">
+        <v>29.1</v>
+      </c>
+      <c r="D200">
+        <v>3.5</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>21.85</v>
+      </c>
+      <c r="G200">
+        <v>635.84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201">
+        <v>385.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G202">
+        <v>676.63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203">
+        <v>467.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G204">
+        <v>657.68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205">
+        <v>480.17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G206">
+        <v>557.61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207">
+        <v>493.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G208">
+        <v>596.85</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209">
+        <v>493.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G210">
+        <v>663.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211">
+        <v>456.23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G212">
+        <v>653.79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213">
+        <v>466.53</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <autoFilter ref="B1:B213"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
@@ -7902,7 +9987,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B1" s="28">
         <v>0.25</v>
@@ -7910,7 +9995,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="28">
         <v>0.29166666666666669</v>
@@ -7918,7 +10003,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B3" s="28">
         <v>0.32291666666666669</v>
@@ -7926,7 +10011,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B4" s="28">
         <v>0.33333333333333331</v>
@@ -7934,7 +10019,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B5" s="28">
         <v>0.375</v>
@@ -7942,7 +10027,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B6" s="28">
         <v>0.45833333333333331</v>
@@ -7950,7 +10035,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B7" s="28">
         <v>0.5</v>
@@ -7958,7 +10043,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B8" s="28">
         <v>0.58333333333333337</v>
@@ -7966,7 +10051,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B9" s="28">
         <v>0.64583333333333337</v>
@@ -7974,7 +10059,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B10" s="28">
         <v>0.66666666666666663</v>
@@ -7982,7 +10067,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="28">
         <v>0.83333333333333337</v>
@@ -7990,7 +10075,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" s="28">
         <v>0.85416666666666663</v>
@@ -7998,47 +10083,47 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -8062,10 +10147,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C1" s="27">
         <v>5374</v>
@@ -8073,10 +10158,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" s="27">
         <v>7204</v>
@@ -8089,11 +10174,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:G60"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8106,28 +10191,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>167</v>
+      <c r="B1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>4.5</v>
@@ -8149,7 +10234,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>5.5</v>
@@ -8180,7 +10265,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8211,7 +10296,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -8239,7 +10324,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>4.5</v>
@@ -8270,7 +10355,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>4.5</v>
@@ -8295,7 +10380,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -8320,7 +10405,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -8345,7 +10430,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>4.5</v>
@@ -8370,7 +10455,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>4.5</v>
@@ -8395,7 +10480,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -8563,22 +10648,22 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -8590,7 +10675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>4.5</v>
       </c>
@@ -8601,9 +10686,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -8617,8 +10702,12 @@
       <c r="G56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>SUM(C56:G56)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>4</v>
       </c>
@@ -8631,10 +10720,14 @@
       <c r="G57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f>SUM(C57:G57)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -8648,8 +10741,12 @@
       <c r="G58">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f>SUM(C58:G58)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>6</v>
       </c>
@@ -8662,10 +10759,14 @@
       <c r="G59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f>SUM(C59:G59)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>4.5</v>
@@ -8679,8 +10780,12 @@
       <c r="G60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f>SUM(C60:G60)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>2</v>
       </c>
@@ -8693,10 +10798,14 @@
       <c r="G61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f>SUM(C61:G61)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -8710,8 +10819,12 @@
       <c r="G62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f>SUM(C62:G62)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>3</v>
       </c>
@@ -8724,10 +10837,14 @@
       <c r="G63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f>SUM(C63:G63)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -8741,8 +10858,12 @@
       <c r="G64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f>SUM(C64:G64)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>3</v>
       </c>
@@ -8755,10 +10876,14 @@
       <c r="G65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f>SUM(C65:G65)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -8772,13 +10897,17 @@
       <c r="G66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f>SUM(C66:G66)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>2</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -8786,10 +10915,14 @@
       <c r="G67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f>SUM(C67:G67)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -8803,8 +10936,12 @@
       <c r="G68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f>SUM(C68:G68)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>3</v>
       </c>
@@ -8817,40 +10954,56 @@
       <c r="G69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f>SUM(C69:G69)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>6.5</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -8861,22 +11014,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B2" s="20">
         <v>43410</v>
@@ -8887,7 +11043,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" s="20">
         <v>43410</v>
@@ -8898,7 +11054,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43225</v>
+      </c>
+      <c r="C9">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="20">
+        <v>43225</v>
+      </c>
+      <c r="C10">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>58000</v>
       </c>
     </row>
   </sheetData>
@@ -8916,64 +11105,64 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9101,17 +11290,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9127,10 +11316,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9138,167 +11327,228 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="23" style="24" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="25">
         <v>43196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="25"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="25">
-        <v>43348</v>
-      </c>
-      <c r="I12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="25">
-        <v>43196</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>121</v>
+        <v>92</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>81</v>
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="25">
-        <v>43106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="25">
-        <v>43196</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="B24" s="25">
+        <v>43106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="B26" s="25">
+        <v>43196</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="25">
+        <v>43380</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,32 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
-    <sheet name="Milk Yield" sheetId="2" r:id="rId2"/>
-    <sheet name="Daily Schedule" sheetId="14" r:id="rId3"/>
-    <sheet name="Money Credited" sheetId="12" r:id="rId4"/>
-    <sheet name="Milk Yield per cow" sheetId="11" r:id="rId5"/>
-    <sheet name="Purchase and sales of cows" sheetId="13" r:id="rId6"/>
-    <sheet name="Temp" sheetId="3" r:id="rId7"/>
-    <sheet name="Fodder" sheetId="4" r:id="rId8"/>
-    <sheet name="Fodder sowing" sheetId="10" r:id="rId9"/>
-    <sheet name="Vaccination" sheetId="5" r:id="rId10"/>
-    <sheet name="Pregnancy" sheetId="6" r:id="rId11"/>
-    <sheet name="Reports" sheetId="9" r:id="rId12"/>
-    <sheet name="June 2018" sheetId="15" r:id="rId13"/>
+    <sheet name="Milk - Yield" sheetId="2" r:id="rId2"/>
+    <sheet name="Milk - Yield per cow" sheetId="11" r:id="rId3"/>
+    <sheet name="Milk - Hotel Supply" sheetId="16" r:id="rId4"/>
+    <sheet name="Daily Schedule" sheetId="14" r:id="rId5"/>
+    <sheet name="Money - Credited" sheetId="12" r:id="rId6"/>
+    <sheet name="Cow - Purchase and sales" sheetId="13" r:id="rId7"/>
+    <sheet name="Cow - Pregnancy" sheetId="6" r:id="rId8"/>
+    <sheet name="Cow - Vaccination" sheetId="5" r:id="rId9"/>
+    <sheet name="Temp" sheetId="3" r:id="rId10"/>
+    <sheet name="Fodder" sheetId="4" r:id="rId11"/>
+    <sheet name="Fodder - sowing" sheetId="10" r:id="rId12"/>
+    <sheet name="Reports" sheetId="9" r:id="rId13"/>
+    <sheet name="June 2018" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milk Yield'!$B$1:$B$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Milk - Yield'!$B$1:$B$213</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="244">
   <si>
     <t>UP</t>
   </si>
@@ -762,6 +763,12 @@
   <si>
     <t>will come for 14 days till 5th July, 2018
 Yes, it came till 5th July, 2018</t>
+  </si>
+  <si>
+    <t>HF - Karuppu</t>
+  </si>
+  <si>
+    <t>HF - Vellai</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1165,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Milk Yield'!$A$7:$A$28</c:f>
+              <c:f>'Milk - Yield'!$A$7:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yy</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1233,7 +1240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Milk Yield'!$F$7:$F$28</c:f>
+              <c:f>'Milk - Yield'!$F$7:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1317,11 +1324,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1779237520"/>
-        <c:axId val="-1779236976"/>
+        <c:axId val="-220788560"/>
+        <c:axId val="-2137318288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1779237520"/>
+        <c:axId val="-220788560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,14 +1371,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1779236976"/>
+        <c:crossAx val="-2137318288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1779236976"/>
+        <c:axId val="-2137318288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1779237520"/>
+        <c:crossAx val="-220788560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1569,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Milk Yield'!$A$7:$A$28</c:f>
+              <c:f>'Milk - Yield'!$A$7:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yy</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1637,7 +1644,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Milk Yield'!$G$7:$G$28</c:f>
+              <c:f>'Milk - Yield'!$G$7:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1721,11 +1728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1552325232"/>
-        <c:axId val="-1552317616"/>
+        <c:axId val="-2137306864"/>
+        <c:axId val="-2137317744"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1552325232"/>
+        <c:axId val="-2137306864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,14 +1775,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1552317616"/>
+        <c:crossAx val="-2137317744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1552317616"/>
+        <c:axId val="-2137317744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1552325232"/>
+        <c:crossAx val="-2137306864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3380,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3782,71 +3789,210 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>43206</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>43218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>43219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>43220</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10">
-        <v>43218</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43218</v>
-      </c>
-      <c r="D2" s="10">
-        <v>43218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3860,124 +4006,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="32">
-        <v>43190</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="30">
-        <v>43190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>163</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="25">
+        <v>43106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="25">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="25">
+        <v>43380</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3992,7 +4264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -4124,11 +4396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S213"/>
+  <dimension ref="A1:S214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J189" sqref="J189:J195"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9824,6 +10096,18 @@
       <c r="B201" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C201" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="D201">
+        <v>3.6</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>22.04</v>
+      </c>
       <c r="G201">
         <v>385.7</v>
       </c>
@@ -9835,6 +10119,18 @@
       <c r="B202" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C202" s="19">
+        <v>30.7</v>
+      </c>
+      <c r="D202">
+        <v>3.5</v>
+      </c>
+      <c r="E202">
+        <v>8.1</v>
+      </c>
+      <c r="F202">
+        <v>22.04</v>
+      </c>
       <c r="G202">
         <v>676.63</v>
       </c>
@@ -9846,6 +10142,18 @@
       <c r="B203" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C203" s="19">
+        <v>21.2</v>
+      </c>
+      <c r="D203">
+        <v>3.5</v>
+      </c>
+      <c r="E203">
+        <v>8.1</v>
+      </c>
+      <c r="F203">
+        <v>22.04</v>
+      </c>
       <c r="G203">
         <v>467.25</v>
       </c>
@@ -9857,6 +10165,18 @@
       <c r="B204" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C204" s="19">
+        <v>30.1</v>
+      </c>
+      <c r="D204">
+        <v>3.5</v>
+      </c>
+      <c r="E204">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>21.85</v>
+      </c>
       <c r="G204">
         <v>657.68</v>
       </c>
@@ -9868,6 +10188,18 @@
       <c r="B205" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C205" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="D205">
+        <v>3.5</v>
+      </c>
+      <c r="E205">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F205">
+        <v>21.6</v>
+      </c>
       <c r="G205">
         <v>480.17</v>
       </c>
@@ -9879,6 +10211,18 @@
       <c r="B206" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C206" s="19">
+        <v>25.3</v>
+      </c>
+      <c r="D206">
+        <v>3.5</v>
+      </c>
+      <c r="E206">
+        <v>8.1</v>
+      </c>
+      <c r="F206">
+        <v>22.04</v>
+      </c>
       <c r="G206">
         <v>557.61</v>
       </c>
@@ -9890,6 +10234,18 @@
       <c r="B207" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C207" s="19">
+        <v>22.4</v>
+      </c>
+      <c r="D207">
+        <v>3.5</v>
+      </c>
+      <c r="E207">
+        <v>8.1</v>
+      </c>
+      <c r="F207">
+        <v>22.4</v>
+      </c>
       <c r="G207">
         <v>493.7</v>
       </c>
@@ -9901,6 +10257,18 @@
       <c r="B208" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C208" s="19">
+        <v>28.3</v>
+      </c>
+      <c r="D208">
+        <v>3.4</v>
+      </c>
+      <c r="E208">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>21.09</v>
+      </c>
       <c r="G208">
         <v>596.85</v>
       </c>
@@ -9912,6 +10280,18 @@
       <c r="B209" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C209" s="19">
+        <v>22.4</v>
+      </c>
+      <c r="D209">
+        <v>3.8</v>
+      </c>
+      <c r="E209">
+        <v>7.8</v>
+      </c>
+      <c r="F209">
+        <v>22.04</v>
+      </c>
       <c r="G209">
         <v>493.7</v>
       </c>
@@ -9923,6 +10303,18 @@
       <c r="B210" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C210" s="19">
+        <v>30.1</v>
+      </c>
+      <c r="D210">
+        <v>3.3</v>
+      </c>
+      <c r="E210">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F210">
+        <v>22.04</v>
+      </c>
       <c r="G210">
         <v>663.4</v>
       </c>
@@ -9934,6 +10326,18 @@
       <c r="B211" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C211" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="D211">
+        <v>3.8</v>
+      </c>
+      <c r="E211">
+        <v>7.8</v>
+      </c>
+      <c r="F211">
+        <v>22.04</v>
+      </c>
       <c r="G211">
         <v>456.23</v>
       </c>
@@ -9945,6 +10349,18 @@
       <c r="B212" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C212" s="19">
+        <v>31</v>
+      </c>
+      <c r="D212">
+        <v>3.4</v>
+      </c>
+      <c r="E212">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>21.09</v>
+      </c>
       <c r="G212">
         <v>653.79</v>
       </c>
@@ -9956,8 +10372,37 @@
       <c r="B213" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C213" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D213">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E213">
+        <v>8</v>
+      </c>
+      <c r="F213">
+        <v>22.87</v>
+      </c>
       <c r="G213">
         <v>466.53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C214" s="19">
+        <v>17</v>
+      </c>
+      <c r="D214">
+        <v>3.7</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+      <c r="F214">
+        <v>21.65</v>
+      </c>
+      <c r="G214">
+        <v>367.96</v>
       </c>
     </row>
   </sheetData>
@@ -9973,206 +10418,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="28">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0.32291666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="27">
-        <v>5374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="27">
-        <v>7204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
@@ -11012,12 +11257,243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20">
+        <v>43228</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>43259</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="27">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="27">
+        <v>7204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11090,183 +11566,151 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="20">
+        <v>43380</v>
+      </c>
+      <c r="C13">
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="B2" s="32">
+        <v>43190</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
+      <c r="B3" s="30">
+        <v>43190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43206</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>43207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>43212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>43213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>43216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>43217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>43218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>43220</v>
+      <c r="B4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="20">
+        <v>43319</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -11274,33 +11718,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43218</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43218</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -11312,247 +11796,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="24">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="25">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="25">
-        <v>43348</v>
-      </c>
-      <c r="D13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="25">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="25">
-        <v>43106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="25">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="25">
-        <v>43380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
     <sheet name="Legend" sheetId="1" r:id="rId2"/>
     <sheet name="Milk - Yield" sheetId="2" r:id="rId3"/>
     <sheet name="Milk - Yield per cow" sheetId="11" r:id="rId4"/>
-    <sheet name="Milk - Hotel Supply" sheetId="16" state="hidden" r:id="rId5"/>
-    <sheet name="Daily Schedule" sheetId="14" state="hidden" r:id="rId6"/>
-    <sheet name="Money - Credited" sheetId="12" state="hidden" r:id="rId7"/>
-    <sheet name="Cow - Purchase and sales" sheetId="13" r:id="rId8"/>
-    <sheet name="Cow - Pregnancy" sheetId="6" r:id="rId9"/>
-    <sheet name="Cow - Medical" sheetId="5" r:id="rId10"/>
-    <sheet name="Fodder" sheetId="4" r:id="rId11"/>
-    <sheet name="Fodder - sowing" sheetId="10" r:id="rId12"/>
-    <sheet name="Reports" sheetId="9" r:id="rId13"/>
-    <sheet name="June 2018" sheetId="15" r:id="rId14"/>
+    <sheet name="Lourdu advance" sheetId="17" r:id="rId5"/>
+    <sheet name="Milk - Hotel Supply" sheetId="16" state="hidden" r:id="rId6"/>
+    <sheet name="Daily Schedule" sheetId="14" state="hidden" r:id="rId7"/>
+    <sheet name="Money - Credited" sheetId="12" state="hidden" r:id="rId8"/>
+    <sheet name="Cow - Purchase and sales" sheetId="13" r:id="rId9"/>
+    <sheet name="Cow - Pregnancy" sheetId="6" r:id="rId10"/>
+    <sheet name="Cow - Medical" sheetId="5" r:id="rId11"/>
+    <sheet name="Fodder" sheetId="4" r:id="rId12"/>
+    <sheet name="Fodder - sowing" sheetId="10" r:id="rId13"/>
+    <sheet name="Reports" sheetId="9" r:id="rId14"/>
+    <sheet name="June 2018" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Milk - Yield'!$B$1:$B$237</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="412">
   <si>
     <t>UP</t>
   </si>
@@ -1261,6 +1262,21 @@
   </si>
   <si>
     <t>25/11/2018</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Total kgs/month/7 cows</t>
+  </si>
+  <si>
+    <t>Total moodai</t>
+  </si>
+  <si>
+    <t>23/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1954,11 +1970,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1683574048"/>
-        <c:axId val="-1683582208"/>
+        <c:axId val="-1402102592"/>
+        <c:axId val="-1402098240"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1683574048"/>
+        <c:axId val="-1402102592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,14 +2017,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1683582208"/>
+        <c:crossAx val="-1402098240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1683582208"/>
+        <c:axId val="-1402098240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1683574048"/>
+        <c:crossAx val="-1402102592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,11 +2374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1683573504"/>
-        <c:axId val="-1683586560"/>
+        <c:axId val="-1402096064"/>
+        <c:axId val="-1402102048"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1683573504"/>
+        <c:axId val="-1402096064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,14 +2421,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1683586560"/>
+        <c:crossAx val="-1402102048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1683586560"/>
+        <c:axId val="-1402102048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1683573504"/>
+        <c:crossAx val="-1402096064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4015,16 +4031,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6006,6 +6022,47 @@
       <c r="J113" s="47"/>
       <c r="K113" s="47"/>
       <c r="L113" s="48"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>408</v>
+      </c>
+      <c r="B120" t="s">
+        <v>407</v>
+      </c>
+      <c r="C120" t="s">
+        <v>409</v>
+      </c>
+      <c r="D120" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <f>B121*A121</f>
+        <v>570</v>
+      </c>
+      <c r="D121">
+        <f>C121/50</f>
+        <v>11.4</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6026,6 +6083,217 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="32">
+        <v>43190</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="30">
+        <v>43190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="20">
+        <v>43319</v>
+      </c>
+      <c r="E8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="20">
+        <v>43141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10">
+        <v>52500</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -6211,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6251,7 +6519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J36"/>
   <sheetViews>
@@ -6529,7 +6797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6544,7 +6812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -6678,8 +6946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16412,9 +16680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M405" sqref="M405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24663,9 +24931,8 @@
       </c>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K358" s="34">
-        <f>SUM(C356:C357)</f>
-        <v>4.5</v>
+      <c r="K358" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="L358" s="34">
         <f t="shared" ref="L358" si="125">SUM(E356:E357)</f>
@@ -25933,6 +26200,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -26369,7 +26648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -26528,7 +26807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -26569,12 +26848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26672,212 +26951,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="32">
-        <v>43190</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="30">
-        <v>43190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="20">
-        <v>43319</v>
-      </c>
-      <c r="F8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="20">
-        <v>43141</v>
-      </c>
-      <c r="F10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10">
-        <v>52500</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="502">
   <si>
     <t>UP</t>
   </si>
@@ -1277,6 +1277,278 @@
   </si>
   <si>
     <t>23/12/2018</t>
+  </si>
+  <si>
+    <t>31st July</t>
+  </si>
+  <si>
+    <t>2nd August</t>
+  </si>
+  <si>
+    <t>4th August</t>
+  </si>
+  <si>
+    <t>12th August</t>
+  </si>
+  <si>
+    <t>8th August</t>
+  </si>
+  <si>
+    <t>19th August</t>
+  </si>
+  <si>
+    <t>1st September</t>
+  </si>
+  <si>
+    <t>9th September</t>
+  </si>
+  <si>
+    <t>15th September</t>
+  </si>
+  <si>
+    <t>23rd September</t>
+  </si>
+  <si>
+    <t>29th September</t>
+  </si>
+  <si>
+    <t>30th September</t>
+  </si>
+  <si>
+    <t>1st October</t>
+  </si>
+  <si>
+    <t>14th October</t>
+  </si>
+  <si>
+    <t>12th October</t>
+  </si>
+  <si>
+    <t>16th October</t>
+  </si>
+  <si>
+    <t>18th October</t>
+  </si>
+  <si>
+    <t>2nd November</t>
+  </si>
+  <si>
+    <t>3rd November</t>
+  </si>
+  <si>
+    <t>8th November</t>
+  </si>
+  <si>
+    <t>11th November</t>
+  </si>
+  <si>
+    <t>18th November</t>
+  </si>
+  <si>
+    <t>24th November</t>
+  </si>
+  <si>
+    <t>2nd December</t>
+  </si>
+  <si>
+    <t>7th December</t>
+  </si>
+  <si>
+    <t>16th December</t>
+  </si>
+  <si>
+    <t>22nd December</t>
+  </si>
+  <si>
+    <t>28th December</t>
+  </si>
+  <si>
+    <t>30th December</t>
+  </si>
+  <si>
+    <t>palasarakku</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Kaikari</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Malikai saaman</t>
+  </si>
+  <si>
+    <t>From kumar</t>
+  </si>
+  <si>
+    <t>TVS Repair</t>
+  </si>
+  <si>
+    <t>Paal varavu</t>
+  </si>
+  <si>
+    <t>Thaarpai</t>
+  </si>
+  <si>
+    <t>Bank A/c transfer</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ==&gt; </t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>26/11/2018</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
+  </si>
+  <si>
+    <t>28/11/2018</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>30/11/2018</t>
+  </si>
+  <si>
+    <t>13/12/2018</t>
+  </si>
+  <si>
+    <t>14/12/2018</t>
+  </si>
+  <si>
+    <t>15/12/2018</t>
+  </si>
+  <si>
+    <t>16/12/2018</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>18/12/2018</t>
+  </si>
+  <si>
+    <t>19/12/2018</t>
+  </si>
+  <si>
+    <t>20/12/2018</t>
+  </si>
+  <si>
+    <t>21/12/2018</t>
+  </si>
+  <si>
+    <t>22/12/2018</t>
+  </si>
+  <si>
+    <t>24/12/2018</t>
+  </si>
+  <si>
+    <t>25/12/2018</t>
+  </si>
+  <si>
+    <t>26/12/2018</t>
+  </si>
+  <si>
+    <t>27/12/2018</t>
+  </si>
+  <si>
+    <t>28/12/2018</t>
+  </si>
+  <si>
+    <t>29/12/2018</t>
+  </si>
+  <si>
+    <t>30/12/2018</t>
+  </si>
+  <si>
+    <t>5th January</t>
+  </si>
+  <si>
+    <t>1st January</t>
+  </si>
+  <si>
+    <t>14/1/2018</t>
+  </si>
+  <si>
+    <t>13/1/2018</t>
+  </si>
+  <si>
+    <t>15/1/2018</t>
+  </si>
+  <si>
+    <t>16/1/2018</t>
+  </si>
+  <si>
+    <t>17/1/2018</t>
+  </si>
+  <si>
+    <t>18/1/2018</t>
+  </si>
+  <si>
+    <t>19/1/2018</t>
+  </si>
+  <si>
+    <t>20/1/2018</t>
+  </si>
+  <si>
+    <t>21/1/2018</t>
+  </si>
+  <si>
+    <t>22/1/2018</t>
+  </si>
+  <si>
+    <t>23/1/2018</t>
+  </si>
+  <si>
+    <t>24/1/2018</t>
+  </si>
+  <si>
+    <t>25/1/2018</t>
+  </si>
+  <si>
+    <t>P-Formula-9</t>
+  </si>
+  <si>
+    <t>Lourdu took from Mahesh amma</t>
+  </si>
+  <si>
+    <t>HF - santhai</t>
+  </si>
+  <si>
+    <t>18/1/2019</t>
+  </si>
+  <si>
+    <t>Santha HF</t>
+  </si>
+  <si>
+    <t>23/12/2018
+20/1/2018</t>
+  </si>
+  <si>
+    <t>18/9/2018
+23/1/2019</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,6 +1892,7 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,6 +1907,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,6 +2036,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1970,11 +2247,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1402102592"/>
-        <c:axId val="-1402098240"/>
+        <c:axId val="-1760995856"/>
+        <c:axId val="-1760990960"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1402102592"/>
+        <c:axId val="-1760995856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,14 +2294,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1402098240"/>
+        <c:crossAx val="-1760990960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1402098240"/>
+        <c:axId val="-1760990960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1402102592"/>
+        <c:crossAx val="-1760995856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,6 +2441,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2374,11 +2652,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1402096064"/>
-        <c:axId val="-1402102048"/>
+        <c:axId val="-1760991504"/>
+        <c:axId val="-1760993680"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1402096064"/>
+        <c:axId val="-1760991504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,14 +2699,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1402102048"/>
+        <c:crossAx val="-1760993680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1402102048"/>
+        <c:axId val="-1760993680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1402096064"/>
+        <c:crossAx val="-1760991504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4049,24 +4327,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4221,18 +4499,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="I18" s="58" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="I18" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -6084,10 +6362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6150,6 +6428,9 @@
       <c r="B3" s="30">
         <v>43190</v>
       </c>
+      <c r="D3" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="E3" t="s">
         <v>206</v>
       </c>
@@ -6220,15 +6501,15 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E7" t="s">
-        <v>327</v>
+      <c r="E7" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="F7" t="s">
         <v>308</v>
@@ -6237,15 +6518,15 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>229</v>
       </c>
       <c r="B8" s="20">
         <v>43319</v>
       </c>
-      <c r="E8" t="s">
-        <v>411</v>
+      <c r="E8" s="13" t="s">
+        <v>500</v>
       </c>
       <c r="F8" t="s">
         <v>308</v>
@@ -6275,11 +6556,22 @@
       <c r="B10" s="20">
         <v>43141</v>
       </c>
+      <c r="E10" s="61">
+        <v>43647</v>
+      </c>
       <c r="F10" t="s">
         <v>308</v>
       </c>
       <c r="G10">
         <v>52500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11">
+        <v>46000</v>
       </c>
     </row>
   </sheetData>
@@ -6298,7 +6590,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6340,7 +6632,9 @@
       <c r="I1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>363</v>
+      </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6946,8 +7240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7285,6 +7579,11 @@
       </c>
       <c r="B34" s="13" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7451,8 +7750,8 @@
   <dimension ref="A1:S359"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H347" sqref="H347:J359"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A360" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16678,11 +16977,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M405" sqref="M405"/>
+      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K546" sqref="K546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17548,15 +17847,15 @@
         <v>319</v>
       </c>
       <c r="J81" s="13"/>
-      <c r="K81" s="59">
+      <c r="K81" s="60">
         <f>SUM(K83:P83)</f>
         <v>56.75</v>
       </c>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
     </row>
     <row r="82" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -17635,7 +17934,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="59"/>
+      <c r="I84" s="60"/>
       <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -17654,7 +17953,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="59"/>
+      <c r="I85" s="60"/>
       <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -26149,44 +26448,5351 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" s="20" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>4</v>
+      </c>
+      <c r="G401">
+        <v>3</v>
+      </c>
+      <c r="H401">
+        <v>5</v>
+      </c>
+      <c r="I401">
+        <v>5</v>
+      </c>
+      <c r="J401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>3</v>
+      </c>
+      <c r="G402">
+        <v>3</v>
+      </c>
+      <c r="H402">
+        <v>4</v>
+      </c>
+      <c r="I402">
+        <v>5</v>
+      </c>
+      <c r="J402">
+        <v>7</v>
+      </c>
+      <c r="R402">
+        <f>SUM(C401:J401)</f>
+        <v>26</v>
+      </c>
+      <c r="S402">
+        <f>SUM(C402:J402)</f>
+        <v>24</v>
+      </c>
+      <c r="T402">
+        <f>R402+S402</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K403" s="34">
+        <f>SUM(C401:C402)</f>
+        <v>4</v>
+      </c>
+      <c r="L403" s="34">
+        <f t="shared" ref="L403" si="215">SUM(E401:E402)</f>
+        <v>0</v>
+      </c>
+      <c r="M403" s="34">
+        <f t="shared" ref="M403" si="216">SUM(F401:F402)</f>
+        <v>7</v>
+      </c>
+      <c r="N403" s="34">
+        <f t="shared" ref="N403" si="217">SUM(G401:G402)</f>
+        <v>6</v>
+      </c>
+      <c r="O403" s="34">
+        <f t="shared" ref="O403" si="218">SUM(H401:H402)</f>
+        <v>9</v>
+      </c>
+      <c r="P403" s="34">
+        <f t="shared" ref="P403" si="219">SUM(I401:I402)</f>
+        <v>10</v>
+      </c>
+      <c r="Q403" s="34">
+        <f t="shared" ref="Q403" si="220">SUM(J401:J402)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" s="20" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>4</v>
+      </c>
+      <c r="G404">
+        <v>3</v>
+      </c>
+      <c r="H404">
+        <v>4</v>
+      </c>
+      <c r="I404">
+        <v>5</v>
+      </c>
+      <c r="J404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>2.5</v>
+      </c>
+      <c r="G405">
+        <v>2</v>
+      </c>
+      <c r="H405">
+        <v>2.5</v>
+      </c>
+      <c r="I405">
+        <v>4</v>
+      </c>
+      <c r="J405">
+        <v>5</v>
+      </c>
+      <c r="R405">
+        <f>SUM(C404:J404)</f>
+        <v>24</v>
+      </c>
+      <c r="S405">
+        <f>SUM(C405:J405)</f>
+        <v>17</v>
+      </c>
+      <c r="T405">
+        <f>R405+S405</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K406" s="34">
+        <f>SUM(C404:C405)</f>
+        <v>3</v>
+      </c>
+      <c r="L406" s="34">
+        <f t="shared" ref="L406" si="221">SUM(E404:E405)</f>
+        <v>0</v>
+      </c>
+      <c r="M406" s="34">
+        <f t="shared" ref="M406" si="222">SUM(F404:F405)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N406" s="34">
+        <f t="shared" ref="N406" si="223">SUM(G404:G405)</f>
+        <v>5</v>
+      </c>
+      <c r="O406" s="34">
+        <f t="shared" ref="O406" si="224">SUM(H404:H405)</f>
+        <v>6.5</v>
+      </c>
+      <c r="P406" s="34">
+        <f t="shared" ref="P406" si="225">SUM(I404:I405)</f>
+        <v>9</v>
+      </c>
+      <c r="Q406" s="34">
+        <f t="shared" ref="Q406" si="226">SUM(J404:J405)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407" s="20" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>4</v>
+      </c>
+      <c r="G407">
+        <v>2</v>
+      </c>
+      <c r="H407">
+        <v>4</v>
+      </c>
+      <c r="I407">
+        <v>5</v>
+      </c>
+      <c r="J407">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>3</v>
+      </c>
+      <c r="G408">
+        <v>2</v>
+      </c>
+      <c r="H408">
+        <v>3</v>
+      </c>
+      <c r="I408">
+        <v>4</v>
+      </c>
+      <c r="J408">
+        <v>5</v>
+      </c>
+      <c r="R408">
+        <f>SUM(C407:J407)</f>
+        <v>23</v>
+      </c>
+      <c r="S408">
+        <f>SUM(C408:J408)</f>
+        <v>18</v>
+      </c>
+      <c r="T408">
+        <f>R408+S408</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K409" s="34">
+        <f>SUM(C407:C408)</f>
+        <v>2</v>
+      </c>
+      <c r="L409" s="34">
+        <f t="shared" ref="L409" si="227">SUM(E407:E408)</f>
+        <v>0</v>
+      </c>
+      <c r="M409" s="34">
+        <f t="shared" ref="M409" si="228">SUM(F407:F408)</f>
+        <v>7</v>
+      </c>
+      <c r="N409" s="34">
+        <f t="shared" ref="N409" si="229">SUM(G407:G408)</f>
+        <v>4</v>
+      </c>
+      <c r="O409" s="34">
+        <f t="shared" ref="O409" si="230">SUM(H407:H408)</f>
+        <v>7</v>
+      </c>
+      <c r="P409" s="34">
+        <f t="shared" ref="P409" si="231">SUM(I407:I408)</f>
+        <v>9</v>
+      </c>
+      <c r="Q409" s="34">
+        <f t="shared" ref="Q409" si="232">SUM(J407:J408)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" s="20" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="F410">
+        <v>4</v>
+      </c>
+      <c r="G410">
+        <v>3</v>
+      </c>
+      <c r="H410">
+        <v>3</v>
+      </c>
+      <c r="I410">
+        <v>5</v>
+      </c>
+      <c r="J410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>3</v>
+      </c>
+      <c r="I411">
+        <v>4</v>
+      </c>
+      <c r="J411">
+        <v>5</v>
+      </c>
+      <c r="R411">
+        <f>SUM(C410:J410)</f>
+        <v>24</v>
+      </c>
+      <c r="S411">
+        <f>SUM(C411:J411)</f>
+        <v>17</v>
+      </c>
+      <c r="T411">
+        <f>R411+S411</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K412" s="34">
+        <f>SUM(C410:C411)</f>
+        <v>3</v>
+      </c>
+      <c r="L412" s="34">
+        <f t="shared" ref="L412" si="233">SUM(E410:E411)</f>
+        <v>0</v>
+      </c>
+      <c r="M412" s="34">
+        <f t="shared" ref="M412" si="234">SUM(F410:F411)</f>
+        <v>7</v>
+      </c>
+      <c r="N412" s="34">
+        <f t="shared" ref="N412" si="235">SUM(G410:G411)</f>
+        <v>4</v>
+      </c>
+      <c r="O412" s="34">
+        <f t="shared" ref="O412" si="236">SUM(H410:H411)</f>
+        <v>6</v>
+      </c>
+      <c r="P412" s="34">
+        <f t="shared" ref="P412" si="237">SUM(I410:I411)</f>
+        <v>9</v>
+      </c>
+      <c r="Q412" s="34">
+        <f t="shared" ref="Q412" si="238">SUM(J410:J411)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" s="20" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="F413">
+        <v>3</v>
+      </c>
+      <c r="G413">
+        <v>3</v>
+      </c>
+      <c r="H413">
+        <v>3</v>
+      </c>
+      <c r="I413">
+        <v>5</v>
+      </c>
+      <c r="J413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>2</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>2</v>
+      </c>
+      <c r="I414">
+        <v>3</v>
+      </c>
+      <c r="J414">
+        <v>5</v>
+      </c>
+      <c r="R414">
+        <f>SUM(C413:J413)</f>
+        <v>22</v>
+      </c>
+      <c r="S414">
+        <f>SUM(C414:J414)</f>
+        <v>14</v>
+      </c>
+      <c r="T414">
+        <f>R414+S414</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K415" s="34">
+        <f>SUM(C413:C414)</f>
+        <v>3</v>
+      </c>
+      <c r="L415" s="34">
+        <f t="shared" ref="L415" si="239">SUM(E413:E414)</f>
+        <v>0</v>
+      </c>
+      <c r="M415" s="34">
+        <f t="shared" ref="M415" si="240">SUM(F413:F414)</f>
+        <v>5</v>
+      </c>
+      <c r="N415" s="34">
+        <f t="shared" ref="N415" si="241">SUM(G413:G414)</f>
+        <v>4</v>
+      </c>
+      <c r="O415" s="34">
+        <f t="shared" ref="O415" si="242">SUM(H413:H414)</f>
+        <v>5</v>
+      </c>
+      <c r="P415" s="34">
+        <f t="shared" ref="P415" si="243">SUM(I413:I414)</f>
+        <v>8</v>
+      </c>
+      <c r="Q415" s="34">
+        <f t="shared" ref="Q415" si="244">SUM(J413:J414)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" s="20" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="F416">
+        <v>4</v>
+      </c>
+      <c r="G416">
+        <v>3</v>
+      </c>
+      <c r="H416">
+        <v>4</v>
+      </c>
+      <c r="I416">
+        <v>4</v>
+      </c>
+      <c r="J416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+      <c r="G417">
+        <v>2</v>
+      </c>
+      <c r="H417">
+        <v>2</v>
+      </c>
+      <c r="I417">
+        <v>3</v>
+      </c>
+      <c r="J417">
+        <v>5</v>
+      </c>
+      <c r="R417">
+        <f>SUM(C416:J416)</f>
+        <v>24</v>
+      </c>
+      <c r="S417">
+        <f>SUM(C417:J417)</f>
+        <v>15</v>
+      </c>
+      <c r="T417">
+        <f>R417+S417</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K418" s="34">
+        <f>SUM(C416:C417)</f>
+        <v>3</v>
+      </c>
+      <c r="L418" s="34">
+        <f t="shared" ref="L418" si="245">SUM(E416:E417)</f>
+        <v>0</v>
+      </c>
+      <c r="M418" s="34">
+        <f t="shared" ref="M418" si="246">SUM(F416:F417)</f>
+        <v>6</v>
+      </c>
+      <c r="N418" s="34">
+        <f t="shared" ref="N418" si="247">SUM(G416:G417)</f>
+        <v>5</v>
+      </c>
+      <c r="O418" s="34">
+        <f t="shared" ref="O418" si="248">SUM(H416:H417)</f>
+        <v>6</v>
+      </c>
+      <c r="P418" s="34">
+        <f t="shared" ref="P418" si="249">SUM(I416:I417)</f>
+        <v>7</v>
+      </c>
+      <c r="Q418" s="34">
+        <f t="shared" ref="Q418" si="250">SUM(J416:J417)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" s="20" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="F419">
+        <v>4</v>
+      </c>
+      <c r="G419">
+        <v>2</v>
+      </c>
+      <c r="H419">
+        <v>4</v>
+      </c>
+      <c r="I419">
+        <v>4</v>
+      </c>
+      <c r="J419">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>2</v>
+      </c>
+      <c r="G420">
+        <v>2</v>
+      </c>
+      <c r="H420">
+        <v>2</v>
+      </c>
+      <c r="I420">
+        <v>3</v>
+      </c>
+      <c r="J420">
+        <v>4</v>
+      </c>
+      <c r="R420">
+        <f>SUM(C419:J419)</f>
+        <v>23</v>
+      </c>
+      <c r="S420">
+        <f>SUM(C420:J420)</f>
+        <v>13</v>
+      </c>
+      <c r="T420">
+        <f>R420+S420</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K421" s="34">
+        <f>SUM(C419:C420)</f>
+        <v>2</v>
+      </c>
+      <c r="L421" s="34">
+        <f t="shared" ref="L421" si="251">SUM(E419:E420)</f>
+        <v>0</v>
+      </c>
+      <c r="M421" s="34">
+        <f t="shared" ref="M421" si="252">SUM(F419:F420)</f>
+        <v>6</v>
+      </c>
+      <c r="N421" s="34">
+        <f t="shared" ref="N421" si="253">SUM(G419:G420)</f>
+        <v>4</v>
+      </c>
+      <c r="O421" s="34">
+        <f t="shared" ref="O421" si="254">SUM(H419:H420)</f>
+        <v>6</v>
+      </c>
+      <c r="P421" s="34">
+        <f t="shared" ref="P421" si="255">SUM(I419:I420)</f>
+        <v>7</v>
+      </c>
+      <c r="Q421" s="34">
+        <f t="shared" ref="Q421" si="256">SUM(J419:J420)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" s="20" t="s">
         <v>406</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="F422">
+        <v>4.5</v>
+      </c>
+      <c r="G422">
+        <v>2</v>
+      </c>
+      <c r="H422">
+        <v>4.5</v>
+      </c>
+      <c r="I422">
+        <v>4.5</v>
+      </c>
+      <c r="J422">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>3</v>
+      </c>
+      <c r="G423">
+        <v>2</v>
+      </c>
+      <c r="H423">
+        <v>3</v>
+      </c>
+      <c r="I423">
+        <v>3</v>
+      </c>
+      <c r="J423">
+        <v>4</v>
+      </c>
+      <c r="R423">
+        <f>SUM(C422:J422)</f>
+        <v>23</v>
+      </c>
+      <c r="S423">
+        <f>SUM(C423:J423)</f>
+        <v>15</v>
+      </c>
+      <c r="T423">
+        <f>R423+S423</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K424" s="34">
+        <f>SUM(C422:C423)</f>
+        <v>2</v>
+      </c>
+      <c r="L424" s="34">
+        <f t="shared" ref="L424" si="257">SUM(E422:E423)</f>
+        <v>0</v>
+      </c>
+      <c r="M424" s="34">
+        <f t="shared" ref="M424" si="258">SUM(F422:F423)</f>
+        <v>7.5</v>
+      </c>
+      <c r="N424" s="34">
+        <f t="shared" ref="N424" si="259">SUM(G422:G423)</f>
+        <v>4</v>
+      </c>
+      <c r="O424" s="34">
+        <f t="shared" ref="O424" si="260">SUM(H422:H423)</f>
+        <v>7.5</v>
+      </c>
+      <c r="P424" s="34">
+        <f t="shared" ref="P424" si="261">SUM(I422:I423)</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q424" s="34">
+        <f t="shared" ref="Q424" si="262">SUM(J422:J423)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A425" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="F425">
+        <v>4</v>
+      </c>
+      <c r="G425">
+        <v>3</v>
+      </c>
+      <c r="H425">
+        <v>4</v>
+      </c>
+      <c r="I425">
+        <v>3</v>
+      </c>
+      <c r="J425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>3</v>
+      </c>
+      <c r="G426">
+        <v>2</v>
+      </c>
+      <c r="H426">
+        <v>3</v>
+      </c>
+      <c r="I426">
+        <v>3.5</v>
+      </c>
+      <c r="J426">
+        <v>5</v>
+      </c>
+      <c r="R426">
+        <f>SUM(C425:J425)</f>
+        <v>22</v>
+      </c>
+      <c r="S426">
+        <f>SUM(C426:J426)</f>
+        <v>16.5</v>
+      </c>
+      <c r="T426">
+        <f>R426+S426</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K427" s="34">
+        <f>SUM(C425:C426)</f>
+        <v>2</v>
+      </c>
+      <c r="L427" s="34">
+        <f t="shared" ref="L427" si="263">SUM(E425:E426)</f>
+        <v>0</v>
+      </c>
+      <c r="M427" s="34">
+        <f t="shared" ref="M427" si="264">SUM(F425:F426)</f>
+        <v>7</v>
+      </c>
+      <c r="N427" s="34">
+        <f t="shared" ref="N427" si="265">SUM(G425:G426)</f>
+        <v>5</v>
+      </c>
+      <c r="O427" s="34">
+        <f t="shared" ref="O427" si="266">SUM(H425:H426)</f>
+        <v>7</v>
+      </c>
+      <c r="P427" s="34">
+        <f t="shared" ref="P427" si="267">SUM(I425:I426)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q427" s="34">
+        <f t="shared" ref="Q427" si="268">SUM(J425:J426)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A428" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C428">
+        <v>2.5</v>
+      </c>
+      <c r="F428">
+        <v>2.5</v>
+      </c>
+      <c r="G428">
+        <v>3</v>
+      </c>
+      <c r="H428">
+        <v>2.5</v>
+      </c>
+      <c r="I428">
+        <v>3</v>
+      </c>
+      <c r="J428">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+      <c r="G429">
+        <v>2</v>
+      </c>
+      <c r="H429">
+        <v>3</v>
+      </c>
+      <c r="I429">
+        <v>3.5</v>
+      </c>
+      <c r="J429">
+        <v>4</v>
+      </c>
+      <c r="R429">
+        <f>SUM(C428:J428)</f>
+        <v>19</v>
+      </c>
+      <c r="S429">
+        <f>SUM(C429:J429)</f>
+        <v>15.5</v>
+      </c>
+      <c r="T429">
+        <f>R429+S429</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K430" s="34">
+        <f>SUM(C428:C429)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L430" s="34">
+        <f t="shared" ref="L430" si="269">SUM(E428:E429)</f>
+        <v>0</v>
+      </c>
+      <c r="M430" s="34">
+        <f t="shared" ref="M430" si="270">SUM(F428:F429)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N430" s="34">
+        <f t="shared" ref="N430" si="271">SUM(G428:G429)</f>
+        <v>5</v>
+      </c>
+      <c r="O430" s="34">
+        <f t="shared" ref="O430" si="272">SUM(H428:H429)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P430" s="34">
+        <f t="shared" ref="P430" si="273">SUM(I428:I429)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q430" s="34">
+        <f t="shared" ref="Q430" si="274">SUM(J428:J429)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A431" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="F431">
+        <v>3</v>
+      </c>
+      <c r="G431">
+        <v>2</v>
+      </c>
+      <c r="H431">
+        <v>3</v>
+      </c>
+      <c r="I431">
+        <v>3</v>
+      </c>
+      <c r="J431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>2</v>
+      </c>
+      <c r="I432">
+        <v>2</v>
+      </c>
+      <c r="J432">
+        <v>3</v>
+      </c>
+      <c r="R432">
+        <f>SUM(C431:J431)</f>
+        <v>17</v>
+      </c>
+      <c r="S432">
+        <f>SUM(C432:J432)</f>
+        <v>10</v>
+      </c>
+      <c r="T432">
+        <f>R432+S432</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K433" s="34">
+        <f>SUM(C431:C432)</f>
+        <v>2</v>
+      </c>
+      <c r="L433" s="34">
+        <f t="shared" ref="L433" si="275">SUM(E431:E432)</f>
+        <v>0</v>
+      </c>
+      <c r="M433" s="34">
+        <f t="shared" ref="M433" si="276">SUM(F431:F432)</f>
+        <v>5</v>
+      </c>
+      <c r="N433" s="34">
+        <f t="shared" ref="N433" si="277">SUM(G431:G432)</f>
+        <v>3</v>
+      </c>
+      <c r="O433" s="34">
+        <f t="shared" ref="O433" si="278">SUM(H431:H432)</f>
+        <v>5</v>
+      </c>
+      <c r="P433" s="34">
+        <f t="shared" ref="P433" si="279">SUM(I431:I432)</f>
+        <v>5</v>
+      </c>
+      <c r="Q433" s="34">
+        <f t="shared" ref="Q433" si="280">SUM(J431:J432)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A434" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C434">
+        <v>1.5</v>
+      </c>
+      <c r="F434">
+        <v>4</v>
+      </c>
+      <c r="G434">
+        <v>3</v>
+      </c>
+      <c r="H434">
+        <v>5</v>
+      </c>
+      <c r="I434">
+        <v>4</v>
+      </c>
+      <c r="J434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>3</v>
+      </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>3</v>
+      </c>
+      <c r="I435">
+        <v>3</v>
+      </c>
+      <c r="J435">
+        <v>4</v>
+      </c>
+      <c r="R435">
+        <f>SUM(C434:J434)</f>
+        <v>22.5</v>
+      </c>
+      <c r="S435">
+        <f>SUM(C435:J435)</f>
+        <v>15</v>
+      </c>
+      <c r="T435">
+        <f>R435+S435</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K436" s="34">
+        <f>SUM(C434:C435)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L436" s="34">
+        <f t="shared" ref="L436" si="281">SUM(E434:E435)</f>
+        <v>0</v>
+      </c>
+      <c r="M436" s="34">
+        <f t="shared" ref="M436" si="282">SUM(F434:F435)</f>
+        <v>7</v>
+      </c>
+      <c r="N436" s="34">
+        <f t="shared" ref="N436" si="283">SUM(G434:G435)</f>
+        <v>5</v>
+      </c>
+      <c r="O436" s="34">
+        <f t="shared" ref="O436" si="284">SUM(H434:H435)</f>
+        <v>8</v>
+      </c>
+      <c r="P436" s="34">
+        <f t="shared" ref="P436" si="285">SUM(I434:I435)</f>
+        <v>7</v>
+      </c>
+      <c r="Q436" s="34">
+        <f t="shared" ref="Q436" si="286">SUM(J434:J435)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A437" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="F437">
+        <v>4</v>
+      </c>
+      <c r="G437">
+        <v>3</v>
+      </c>
+      <c r="H437">
+        <v>5</v>
+      </c>
+      <c r="I437">
+        <v>4</v>
+      </c>
+      <c r="J437">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>3</v>
+      </c>
+      <c r="G438">
+        <v>2</v>
+      </c>
+      <c r="H438">
+        <v>3</v>
+      </c>
+      <c r="I438">
+        <v>3</v>
+      </c>
+      <c r="J438">
+        <v>4</v>
+      </c>
+      <c r="R438">
+        <f>SUM(C437:J437)</f>
+        <v>25</v>
+      </c>
+      <c r="S438">
+        <f>SUM(C438:J438)</f>
+        <v>15</v>
+      </c>
+      <c r="T438">
+        <f>R438+S438</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K439" s="34">
+        <f>SUM(C437:C438)</f>
+        <v>2</v>
+      </c>
+      <c r="L439" s="34">
+        <f t="shared" ref="L439" si="287">SUM(E437:E438)</f>
+        <v>0</v>
+      </c>
+      <c r="M439" s="34">
+        <f t="shared" ref="M439" si="288">SUM(F437:F438)</f>
+        <v>7</v>
+      </c>
+      <c r="N439" s="34">
+        <f t="shared" ref="N439" si="289">SUM(G437:G438)</f>
+        <v>5</v>
+      </c>
+      <c r="O439" s="34">
+        <f t="shared" ref="O439" si="290">SUM(H437:H438)</f>
+        <v>8</v>
+      </c>
+      <c r="P439" s="34">
+        <f t="shared" ref="P439" si="291">SUM(I437:I438)</f>
+        <v>7</v>
+      </c>
+      <c r="Q439" s="34">
+        <f t="shared" ref="Q439" si="292">SUM(J437:J438)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A440" s="20">
+        <v>43112</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="F440">
+        <v>4</v>
+      </c>
+      <c r="G440">
+        <v>3</v>
+      </c>
+      <c r="H440">
+        <v>4</v>
+      </c>
+      <c r="I440">
+        <v>4</v>
+      </c>
+      <c r="J440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+      <c r="G441">
+        <v>2</v>
+      </c>
+      <c r="H441">
+        <v>3</v>
+      </c>
+      <c r="I441">
+        <v>3</v>
+      </c>
+      <c r="J441">
+        <v>4</v>
+      </c>
+      <c r="R441">
+        <f>SUM(C440:J440)</f>
+        <v>25</v>
+      </c>
+      <c r="S441">
+        <f>SUM(C441:J441)</f>
+        <v>15</v>
+      </c>
+      <c r="T441">
+        <f>R441+S441</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K442" s="34">
+        <f>SUM(C440:C441)</f>
+        <v>3</v>
+      </c>
+      <c r="L442" s="34">
+        <f t="shared" ref="L442" si="293">SUM(E440:E441)</f>
+        <v>0</v>
+      </c>
+      <c r="M442" s="34">
+        <f t="shared" ref="M442" si="294">SUM(F440:F441)</f>
+        <v>7</v>
+      </c>
+      <c r="N442" s="34">
+        <f t="shared" ref="N442" si="295">SUM(G440:G441)</f>
+        <v>5</v>
+      </c>
+      <c r="O442" s="34">
+        <f t="shared" ref="O442" si="296">SUM(H440:H441)</f>
+        <v>7</v>
+      </c>
+      <c r="P442" s="34">
+        <f t="shared" ref="P442" si="297">SUM(I440:I441)</f>
+        <v>7</v>
+      </c>
+      <c r="Q442" s="34">
+        <f t="shared" ref="Q442" si="298">SUM(J440:J441)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A443" s="20">
+        <v>43143</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="F443">
+        <v>4</v>
+      </c>
+      <c r="G443">
+        <v>3</v>
+      </c>
+      <c r="H443">
+        <v>4</v>
+      </c>
+      <c r="I443">
+        <v>4</v>
+      </c>
+      <c r="J443">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>3</v>
+      </c>
+      <c r="I444">
+        <v>3</v>
+      </c>
+      <c r="J444">
+        <v>5</v>
+      </c>
+      <c r="R444">
+        <f>SUM(C443:J443)</f>
+        <v>24</v>
+      </c>
+      <c r="S444">
+        <f>SUM(C444:J444)</f>
+        <v>14</v>
+      </c>
+      <c r="T444">
+        <f>R444+S444</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K445" s="34">
+        <f>SUM(C443:C444)</f>
+        <v>3</v>
+      </c>
+      <c r="L445" s="34">
+        <f t="shared" ref="L445" si="299">SUM(E443:E444)</f>
+        <v>0</v>
+      </c>
+      <c r="M445" s="34">
+        <f t="shared" ref="M445" si="300">SUM(F443:F444)</f>
+        <v>6</v>
+      </c>
+      <c r="N445" s="34">
+        <f t="shared" ref="N445" si="301">SUM(G443:G444)</f>
+        <v>4</v>
+      </c>
+      <c r="O445" s="34">
+        <f t="shared" ref="O445" si="302">SUM(H443:H444)</f>
+        <v>7</v>
+      </c>
+      <c r="P445" s="34">
+        <f t="shared" ref="P445" si="303">SUM(I443:I444)</f>
+        <v>7</v>
+      </c>
+      <c r="Q445" s="34">
+        <f t="shared" ref="Q445" si="304">SUM(J443:J444)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A446" s="20">
+        <v>43171</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>4</v>
+      </c>
+      <c r="G446">
+        <v>3</v>
+      </c>
+      <c r="H446">
+        <v>4</v>
+      </c>
+      <c r="I446">
+        <v>4</v>
+      </c>
+      <c r="J446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>3</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>3</v>
+      </c>
+      <c r="I447">
+        <v>3</v>
+      </c>
+      <c r="J447">
+        <v>4</v>
+      </c>
+      <c r="R447">
+        <f>SUM(C446:J446)</f>
+        <v>23</v>
+      </c>
+      <c r="S447">
+        <f>SUM(C447:J447)</f>
+        <v>14</v>
+      </c>
+      <c r="T447">
+        <f>R447+S447</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K448" s="34">
+        <f>SUM(C446:C447)</f>
+        <v>2</v>
+      </c>
+      <c r="L448" s="34">
+        <f t="shared" ref="L448" si="305">SUM(E446:E447)</f>
+        <v>0</v>
+      </c>
+      <c r="M448" s="34">
+        <f t="shared" ref="M448" si="306">SUM(F446:F447)</f>
+        <v>7</v>
+      </c>
+      <c r="N448" s="34">
+        <f t="shared" ref="N448" si="307">SUM(G446:G447)</f>
+        <v>4</v>
+      </c>
+      <c r="O448" s="34">
+        <f t="shared" ref="O448" si="308">SUM(H446:H447)</f>
+        <v>7</v>
+      </c>
+      <c r="P448" s="34">
+        <f t="shared" ref="P448" si="309">SUM(I446:I447)</f>
+        <v>7</v>
+      </c>
+      <c r="Q448" s="34">
+        <f t="shared" ref="Q448" si="310">SUM(J446:J447)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A449" s="20">
+        <v>43202</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="F449">
+        <v>3</v>
+      </c>
+      <c r="G449">
+        <v>3</v>
+      </c>
+      <c r="H449">
+        <v>4</v>
+      </c>
+      <c r="I449">
+        <v>4</v>
+      </c>
+      <c r="J449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>3</v>
+      </c>
+      <c r="I450">
+        <v>4</v>
+      </c>
+      <c r="J450">
+        <v>5</v>
+      </c>
+      <c r="R450">
+        <f>SUM(C449:J449)</f>
+        <v>23</v>
+      </c>
+      <c r="S450">
+        <f>SUM(C450:J450)</f>
+        <v>15</v>
+      </c>
+      <c r="T450">
+        <f>R450+S450</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K451" s="34">
+        <f>SUM(C449:C450)</f>
+        <v>3</v>
+      </c>
+      <c r="L451" s="34">
+        <f t="shared" ref="L451" si="311">SUM(E449:E450)</f>
+        <v>0</v>
+      </c>
+      <c r="M451" s="34">
+        <f t="shared" ref="M451" si="312">SUM(F449:F450)</f>
+        <v>5</v>
+      </c>
+      <c r="N451" s="34">
+        <f t="shared" ref="N451" si="313">SUM(G449:G450)</f>
+        <v>4</v>
+      </c>
+      <c r="O451" s="34">
+        <f t="shared" ref="O451" si="314">SUM(H449:H450)</f>
+        <v>7</v>
+      </c>
+      <c r="P451" s="34">
+        <f t="shared" ref="P451" si="315">SUM(I449:I450)</f>
+        <v>8</v>
+      </c>
+      <c r="Q451" s="34">
+        <f t="shared" ref="Q451" si="316">SUM(J449:J450)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A452" s="20">
+        <v>43232</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="F452">
+        <v>3</v>
+      </c>
+      <c r="G452">
+        <v>3</v>
+      </c>
+      <c r="H452">
+        <v>4</v>
+      </c>
+      <c r="I452">
+        <v>4</v>
+      </c>
+      <c r="J452">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>2</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>3</v>
+      </c>
+      <c r="I453">
+        <v>4</v>
+      </c>
+      <c r="J453">
+        <v>5</v>
+      </c>
+      <c r="R453">
+        <f>SUM(C452:J452)</f>
+        <v>23</v>
+      </c>
+      <c r="S453">
+        <f>SUM(C453:J453)</f>
+        <v>15</v>
+      </c>
+      <c r="T453">
+        <f>R453+S453</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K454" s="34">
+        <f>SUM(C452:C453)</f>
+        <v>3</v>
+      </c>
+      <c r="L454" s="34">
+        <f t="shared" ref="L454" si="317">SUM(E452:E453)</f>
+        <v>0</v>
+      </c>
+      <c r="M454" s="34">
+        <f t="shared" ref="M454" si="318">SUM(F452:F453)</f>
+        <v>5</v>
+      </c>
+      <c r="N454" s="34">
+        <f t="shared" ref="N454" si="319">SUM(G452:G453)</f>
+        <v>4</v>
+      </c>
+      <c r="O454" s="34">
+        <f t="shared" ref="O454" si="320">SUM(H452:H453)</f>
+        <v>7</v>
+      </c>
+      <c r="P454" s="34">
+        <f t="shared" ref="P454" si="321">SUM(I452:I453)</f>
+        <v>8</v>
+      </c>
+      <c r="Q454" s="34">
+        <f t="shared" ref="Q454" si="322">SUM(J452:J453)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A455" s="20">
+        <v>43263</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="F455">
+        <v>4</v>
+      </c>
+      <c r="G455">
+        <v>3</v>
+      </c>
+      <c r="H455">
+        <v>4</v>
+      </c>
+      <c r="I455">
+        <v>5</v>
+      </c>
+      <c r="J455">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>2</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>3</v>
+      </c>
+      <c r="I456">
+        <v>3</v>
+      </c>
+      <c r="J456">
+        <v>5</v>
+      </c>
+      <c r="R456">
+        <f>SUM(C455:J455)</f>
+        <v>26</v>
+      </c>
+      <c r="S456">
+        <f>SUM(C456:J456)</f>
+        <v>14</v>
+      </c>
+      <c r="T456">
+        <f>R456+S456</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K457" s="34">
+        <f>SUM(C455:C456)</f>
+        <v>3</v>
+      </c>
+      <c r="L457" s="34">
+        <f t="shared" ref="L457" si="323">SUM(E455:E456)</f>
+        <v>0</v>
+      </c>
+      <c r="M457" s="34">
+        <f t="shared" ref="M457" si="324">SUM(F455:F456)</f>
+        <v>6</v>
+      </c>
+      <c r="N457" s="34">
+        <f t="shared" ref="N457" si="325">SUM(G455:G456)</f>
+        <v>4</v>
+      </c>
+      <c r="O457" s="34">
+        <f t="shared" ref="O457" si="326">SUM(H455:H456)</f>
+        <v>7</v>
+      </c>
+      <c r="P457" s="34">
+        <f t="shared" ref="P457" si="327">SUM(I455:I456)</f>
+        <v>8</v>
+      </c>
+      <c r="Q457" s="34">
+        <f t="shared" ref="Q457" si="328">SUM(J455:J456)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A458" s="20">
+        <v>43293</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="F458">
+        <v>4</v>
+      </c>
+      <c r="G458">
+        <v>2</v>
+      </c>
+      <c r="H458">
+        <v>4</v>
+      </c>
+      <c r="I458">
+        <v>5</v>
+      </c>
+      <c r="J458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>3</v>
+      </c>
+      <c r="I459">
+        <v>4</v>
+      </c>
+      <c r="J459">
+        <v>5</v>
+      </c>
+      <c r="R459">
+        <f>SUM(C458:J458)</f>
+        <v>24</v>
+      </c>
+      <c r="S459">
+        <f>SUM(C459:J459)</f>
+        <v>15</v>
+      </c>
+      <c r="T459">
+        <f>R459+S459</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K460" s="34">
+        <f>SUM(C458:C459)</f>
+        <v>2</v>
+      </c>
+      <c r="L460" s="34">
+        <f t="shared" ref="L460" si="329">SUM(E458:E459)</f>
+        <v>0</v>
+      </c>
+      <c r="M460" s="34">
+        <f t="shared" ref="M460" si="330">SUM(F458:F459)</f>
+        <v>6</v>
+      </c>
+      <c r="N460" s="34">
+        <f t="shared" ref="N460" si="331">SUM(G458:G459)</f>
+        <v>3</v>
+      </c>
+      <c r="O460" s="34">
+        <f t="shared" ref="O460" si="332">SUM(H458:H459)</f>
+        <v>7</v>
+      </c>
+      <c r="P460" s="34">
+        <f t="shared" ref="P460" si="333">SUM(I458:I459)</f>
+        <v>9</v>
+      </c>
+      <c r="Q460" s="34">
+        <f t="shared" ref="Q460" si="334">SUM(J458:J459)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A461" s="20">
+        <v>43324</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="F461">
+        <v>4</v>
+      </c>
+      <c r="G461">
+        <v>2</v>
+      </c>
+      <c r="H461">
+        <v>4</v>
+      </c>
+      <c r="I461">
+        <v>5</v>
+      </c>
+      <c r="J461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>2</v>
+      </c>
+      <c r="G462">
+        <v>3</v>
+      </c>
+      <c r="H462">
+        <v>3</v>
+      </c>
+      <c r="I462">
+        <v>4</v>
+      </c>
+      <c r="J462">
+        <v>5</v>
+      </c>
+      <c r="R462">
+        <f>SUM(C461:J461)</f>
+        <v>24</v>
+      </c>
+      <c r="S462">
+        <f>SUM(C462:J462)</f>
+        <v>17</v>
+      </c>
+      <c r="T462">
+        <f>R462+S462</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K463" s="34">
+        <f>SUM(C461:C462)</f>
+        <v>2</v>
+      </c>
+      <c r="L463" s="34">
+        <f t="shared" ref="L463" si="335">SUM(E461:E462)</f>
+        <v>0</v>
+      </c>
+      <c r="M463" s="34">
+        <f t="shared" ref="M463" si="336">SUM(F461:F462)</f>
+        <v>6</v>
+      </c>
+      <c r="N463" s="34">
+        <f t="shared" ref="N463" si="337">SUM(G461:G462)</f>
+        <v>5</v>
+      </c>
+      <c r="O463" s="34">
+        <f t="shared" ref="O463" si="338">SUM(H461:H462)</f>
+        <v>7</v>
+      </c>
+      <c r="P463" s="34">
+        <f t="shared" ref="P463" si="339">SUM(I461:I462)</f>
+        <v>9</v>
+      </c>
+      <c r="Q463" s="34">
+        <f t="shared" ref="Q463" si="340">SUM(J461:J462)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A464" s="20">
+        <v>43355</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="F464">
+        <v>4</v>
+      </c>
+      <c r="G464">
+        <v>3</v>
+      </c>
+      <c r="H464">
+        <v>4</v>
+      </c>
+      <c r="I464">
+        <v>5</v>
+      </c>
+      <c r="J464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+      <c r="G465">
+        <v>2</v>
+      </c>
+      <c r="H465">
+        <v>3</v>
+      </c>
+      <c r="I465">
+        <v>4</v>
+      </c>
+      <c r="J465">
+        <v>5</v>
+      </c>
+      <c r="R465">
+        <f>SUM(C464:J464)</f>
+        <v>25</v>
+      </c>
+      <c r="S465">
+        <f>SUM(C465:J465)</f>
+        <v>16</v>
+      </c>
+      <c r="T465">
+        <f>R465+S465</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K466" s="34">
+        <f>SUM(C464:C465)</f>
+        <v>2</v>
+      </c>
+      <c r="L466" s="34">
+        <f t="shared" ref="L466" si="341">SUM(E464:E465)</f>
+        <v>0</v>
+      </c>
+      <c r="M466" s="34">
+        <f t="shared" ref="M466" si="342">SUM(F464:F465)</f>
+        <v>6</v>
+      </c>
+      <c r="N466" s="34">
+        <f t="shared" ref="N466" si="343">SUM(G464:G465)</f>
+        <v>5</v>
+      </c>
+      <c r="O466" s="34">
+        <f t="shared" ref="O466" si="344">SUM(H464:H465)</f>
+        <v>7</v>
+      </c>
+      <c r="P466" s="34">
+        <f t="shared" ref="P466" si="345">SUM(I464:I465)</f>
+        <v>9</v>
+      </c>
+      <c r="Q466" s="34">
+        <f t="shared" ref="Q466" si="346">SUM(J464:J465)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A467" s="20">
+        <v>43385</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+      <c r="F467">
+        <v>4</v>
+      </c>
+      <c r="G467">
+        <v>3</v>
+      </c>
+      <c r="H467">
+        <v>4</v>
+      </c>
+      <c r="I467">
+        <v>4</v>
+      </c>
+      <c r="J467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>3</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>3</v>
+      </c>
+      <c r="I468">
+        <v>3</v>
+      </c>
+      <c r="J468">
+        <v>5</v>
+      </c>
+      <c r="R468">
+        <f>SUM(C467:J467)</f>
+        <v>25</v>
+      </c>
+      <c r="S468">
+        <f>SUM(C468:J468)</f>
+        <v>15</v>
+      </c>
+      <c r="T468">
+        <f>R468+S468</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K469" s="34">
+        <f>SUM(C467:C468)</f>
+        <v>3</v>
+      </c>
+      <c r="L469" s="34">
+        <f t="shared" ref="L469" si="347">SUM(E467:E468)</f>
+        <v>0</v>
+      </c>
+      <c r="M469" s="34">
+        <f t="shared" ref="M469" si="348">SUM(F467:F468)</f>
+        <v>7</v>
+      </c>
+      <c r="N469" s="34">
+        <f t="shared" ref="N469" si="349">SUM(G467:G468)</f>
+        <v>4</v>
+      </c>
+      <c r="O469" s="34">
+        <f t="shared" ref="O469" si="350">SUM(H467:H468)</f>
+        <v>7</v>
+      </c>
+      <c r="P469" s="34">
+        <f t="shared" ref="P469" si="351">SUM(I467:I468)</f>
+        <v>7</v>
+      </c>
+      <c r="Q469" s="34">
+        <f t="shared" ref="Q469" si="352">SUM(J467:J468)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A470" s="20">
+        <v>43416</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="F470">
+        <v>4</v>
+      </c>
+      <c r="G470">
+        <v>3</v>
+      </c>
+      <c r="H470">
+        <v>4</v>
+      </c>
+      <c r="I470">
+        <v>5</v>
+      </c>
+      <c r="J470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>3</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>3</v>
+      </c>
+      <c r="I471">
+        <v>3</v>
+      </c>
+      <c r="J471">
+        <v>5</v>
+      </c>
+      <c r="R471">
+        <f>SUM(C470:J470)</f>
+        <v>25</v>
+      </c>
+      <c r="S471">
+        <f>SUM(C471:J471)</f>
+        <v>15</v>
+      </c>
+      <c r="T471">
+        <f>R471+S471</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K472" s="34">
+        <f>SUM(C470:C471)</f>
+        <v>2</v>
+      </c>
+      <c r="L472" s="34">
+        <f t="shared" ref="L472" si="353">SUM(E470:E471)</f>
+        <v>0</v>
+      </c>
+      <c r="M472" s="34">
+        <f t="shared" ref="M472" si="354">SUM(F470:F471)</f>
+        <v>7</v>
+      </c>
+      <c r="N472" s="34">
+        <f t="shared" ref="N472" si="355">SUM(G470:G471)</f>
+        <v>4</v>
+      </c>
+      <c r="O472" s="34">
+        <f t="shared" ref="O472" si="356">SUM(H470:H471)</f>
+        <v>7</v>
+      </c>
+      <c r="P472" s="34">
+        <f t="shared" ref="P472" si="357">SUM(I470:I471)</f>
+        <v>8</v>
+      </c>
+      <c r="Q472" s="34">
+        <f t="shared" ref="Q472" si="358">SUM(J470:J471)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A473" s="20">
+        <v>43446</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="F473">
+        <v>3</v>
+      </c>
+      <c r="G473">
+        <v>3</v>
+      </c>
+      <c r="H473">
+        <v>4</v>
+      </c>
+      <c r="I473">
+        <v>4</v>
+      </c>
+      <c r="J473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>4</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>3</v>
+      </c>
+      <c r="I474">
+        <v>5</v>
+      </c>
+      <c r="J474">
+        <v>5</v>
+      </c>
+      <c r="R474">
+        <f>SUM(C473:J473)</f>
+        <v>23</v>
+      </c>
+      <c r="S474">
+        <f>SUM(C474:J474)</f>
+        <v>18</v>
+      </c>
+      <c r="T474">
+        <f>R474+S474</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K475" s="34">
+        <f>SUM(C473:C474)</f>
+        <v>2</v>
+      </c>
+      <c r="L475" s="34">
+        <f t="shared" ref="L475" si="359">SUM(E473:E474)</f>
+        <v>0</v>
+      </c>
+      <c r="M475" s="34">
+        <f t="shared" ref="M475" si="360">SUM(F473:F474)</f>
+        <v>7</v>
+      </c>
+      <c r="N475" s="34">
+        <f t="shared" ref="N475" si="361">SUM(G473:G474)</f>
+        <v>4</v>
+      </c>
+      <c r="O475" s="34">
+        <f t="shared" ref="O475" si="362">SUM(H473:H474)</f>
+        <v>7</v>
+      </c>
+      <c r="P475" s="34">
+        <f t="shared" ref="P475" si="363">SUM(I473:I474)</f>
+        <v>9</v>
+      </c>
+      <c r="Q475" s="34">
+        <f t="shared" ref="Q475" si="364">SUM(J473:J474)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A476" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="F476">
+        <v>4</v>
+      </c>
+      <c r="G476">
+        <v>3</v>
+      </c>
+      <c r="H476">
+        <v>4</v>
+      </c>
+      <c r="I476">
+        <v>4</v>
+      </c>
+      <c r="J476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>3</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>3</v>
+      </c>
+      <c r="I477">
+        <v>3</v>
+      </c>
+      <c r="J477">
+        <v>5</v>
+      </c>
+      <c r="R477">
+        <f>SUM(C476:J476)</f>
+        <v>24</v>
+      </c>
+      <c r="S477">
+        <f>SUM(C477:J477)</f>
+        <v>15</v>
+      </c>
+      <c r="T477">
+        <f>R477+S477</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K478" s="34">
+        <f>SUM(C476:C477)</f>
+        <v>2</v>
+      </c>
+      <c r="L478" s="34">
+        <f t="shared" ref="L478" si="365">SUM(E476:E477)</f>
+        <v>0</v>
+      </c>
+      <c r="M478" s="34">
+        <f t="shared" ref="M478" si="366">SUM(F476:F477)</f>
+        <v>7</v>
+      </c>
+      <c r="N478" s="34">
+        <f t="shared" ref="N478" si="367">SUM(G476:G477)</f>
+        <v>4</v>
+      </c>
+      <c r="O478" s="34">
+        <f t="shared" ref="O478" si="368">SUM(H476:H477)</f>
+        <v>7</v>
+      </c>
+      <c r="P478" s="34">
+        <f t="shared" ref="P478" si="369">SUM(I476:I477)</f>
+        <v>7</v>
+      </c>
+      <c r="Q478" s="34">
+        <f t="shared" ref="Q478" si="370">SUM(J476:J477)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A479" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="F479">
+        <v>4</v>
+      </c>
+      <c r="G479">
+        <v>3</v>
+      </c>
+      <c r="H479">
+        <v>4</v>
+      </c>
+      <c r="I479">
+        <v>4</v>
+      </c>
+      <c r="J479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>3</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+      <c r="I480">
+        <v>3</v>
+      </c>
+      <c r="J480">
+        <v>5</v>
+      </c>
+      <c r="R480">
+        <f>SUM(C479:J479)</f>
+        <v>24</v>
+      </c>
+      <c r="S480">
+        <f>SUM(C480:J480)</f>
+        <v>15</v>
+      </c>
+      <c r="T480">
+        <f>R480+S480</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K481" s="34">
+        <f>SUM(C479:C480)</f>
+        <v>2</v>
+      </c>
+      <c r="L481" s="34">
+        <f t="shared" ref="L481" si="371">SUM(E479:E480)</f>
+        <v>0</v>
+      </c>
+      <c r="M481" s="34">
+        <f t="shared" ref="M481" si="372">SUM(F479:F480)</f>
+        <v>7</v>
+      </c>
+      <c r="N481" s="34">
+        <f t="shared" ref="N481" si="373">SUM(G479:G480)</f>
+        <v>4</v>
+      </c>
+      <c r="O481" s="34">
+        <f t="shared" ref="O481" si="374">SUM(H479:H480)</f>
+        <v>7</v>
+      </c>
+      <c r="P481" s="34">
+        <f t="shared" ref="P481" si="375">SUM(I479:I480)</f>
+        <v>7</v>
+      </c>
+      <c r="Q481" s="34">
+        <f t="shared" ref="Q481" si="376">SUM(J479:J480)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A482" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="F482">
+        <v>4</v>
+      </c>
+      <c r="G482">
+        <v>3</v>
+      </c>
+      <c r="H482">
+        <v>4</v>
+      </c>
+      <c r="I482">
+        <v>4</v>
+      </c>
+      <c r="J482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>3</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>3</v>
+      </c>
+      <c r="I483">
+        <v>3</v>
+      </c>
+      <c r="J483">
+        <v>5</v>
+      </c>
+      <c r="R483">
+        <f>SUM(C482:J482)</f>
+        <v>24</v>
+      </c>
+      <c r="S483">
+        <f>SUM(C483:J483)</f>
+        <v>15</v>
+      </c>
+      <c r="T483">
+        <f>R483+S483</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K484" s="34">
+        <f>SUM(C482:C483)</f>
+        <v>2</v>
+      </c>
+      <c r="L484" s="34">
+        <f t="shared" ref="L484" si="377">SUM(E482:E483)</f>
+        <v>0</v>
+      </c>
+      <c r="M484" s="34">
+        <f t="shared" ref="M484" si="378">SUM(F482:F483)</f>
+        <v>7</v>
+      </c>
+      <c r="N484" s="34">
+        <f t="shared" ref="N484" si="379">SUM(G482:G483)</f>
+        <v>4</v>
+      </c>
+      <c r="O484" s="34">
+        <f t="shared" ref="O484" si="380">SUM(H482:H483)</f>
+        <v>7</v>
+      </c>
+      <c r="P484" s="34">
+        <f t="shared" ref="P484" si="381">SUM(I482:I483)</f>
+        <v>7</v>
+      </c>
+      <c r="Q484" s="34">
+        <f t="shared" ref="Q484" si="382">SUM(J482:J483)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A485" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>4</v>
+      </c>
+      <c r="G485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>4</v>
+      </c>
+      <c r="I485">
+        <v>4</v>
+      </c>
+      <c r="J485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>3</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>3</v>
+      </c>
+      <c r="I486">
+        <v>3</v>
+      </c>
+      <c r="J486">
+        <v>5</v>
+      </c>
+      <c r="R486">
+        <f>SUM(C485:J485)</f>
+        <v>24</v>
+      </c>
+      <c r="S486">
+        <f>SUM(C486:J486)</f>
+        <v>15</v>
+      </c>
+      <c r="T486">
+        <f>R486+S486</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K487" s="34">
+        <f>SUM(C485:C486)</f>
+        <v>2</v>
+      </c>
+      <c r="L487" s="34">
+        <f t="shared" ref="L487" si="383">SUM(E485:E486)</f>
+        <v>0</v>
+      </c>
+      <c r="M487" s="34">
+        <f t="shared" ref="M487" si="384">SUM(F485:F486)</f>
+        <v>7</v>
+      </c>
+      <c r="N487" s="34">
+        <f t="shared" ref="N487" si="385">SUM(G485:G486)</f>
+        <v>4</v>
+      </c>
+      <c r="O487" s="34">
+        <f t="shared" ref="O487" si="386">SUM(H485:H486)</f>
+        <v>7</v>
+      </c>
+      <c r="P487" s="34">
+        <f t="shared" ref="P487" si="387">SUM(I485:I486)</f>
+        <v>7</v>
+      </c>
+      <c r="Q487" s="34">
+        <f t="shared" ref="Q487" si="388">SUM(J485:J486)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A488" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="F488">
+        <v>4</v>
+      </c>
+      <c r="G488">
+        <v>3</v>
+      </c>
+      <c r="H488">
+        <v>4</v>
+      </c>
+      <c r="I488">
+        <v>4</v>
+      </c>
+      <c r="J488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>3</v>
+      </c>
+      <c r="G489">
+        <v>2</v>
+      </c>
+      <c r="H489">
+        <v>3</v>
+      </c>
+      <c r="I489">
+        <v>3</v>
+      </c>
+      <c r="J489">
+        <v>5</v>
+      </c>
+      <c r="R489">
+        <f>SUM(C488:J488)</f>
+        <v>24</v>
+      </c>
+      <c r="S489">
+        <f>SUM(C489:J489)</f>
+        <v>16</v>
+      </c>
+      <c r="T489">
+        <f>R489+S489</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K490" s="34">
+        <f>SUM(C488:C489)</f>
+        <v>2</v>
+      </c>
+      <c r="L490" s="34">
+        <f t="shared" ref="L490" si="389">SUM(E488:E489)</f>
+        <v>0</v>
+      </c>
+      <c r="M490" s="34">
+        <f t="shared" ref="M490" si="390">SUM(F488:F489)</f>
+        <v>7</v>
+      </c>
+      <c r="N490" s="34">
+        <f t="shared" ref="N490" si="391">SUM(G488:G489)</f>
+        <v>5</v>
+      </c>
+      <c r="O490" s="34">
+        <f t="shared" ref="O490" si="392">SUM(H488:H489)</f>
+        <v>7</v>
+      </c>
+      <c r="P490" s="34">
+        <f t="shared" ref="P490" si="393">SUM(I488:I489)</f>
+        <v>7</v>
+      </c>
+      <c r="Q490" s="34">
+        <f t="shared" ref="Q490" si="394">SUM(J488:J489)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A491" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="F491">
+        <v>4</v>
+      </c>
+      <c r="G491">
+        <v>3</v>
+      </c>
+      <c r="H491">
+        <v>4</v>
+      </c>
+      <c r="I491">
+        <v>5</v>
+      </c>
+      <c r="J491">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>3</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>3</v>
+      </c>
+      <c r="I492">
+        <v>3</v>
+      </c>
+      <c r="J492">
+        <v>5</v>
+      </c>
+      <c r="R492">
+        <f>SUM(C491:J491)</f>
+        <v>25</v>
+      </c>
+      <c r="S492">
+        <f>SUM(C492:J492)</f>
+        <v>15</v>
+      </c>
+      <c r="T492">
+        <f>R492+S492</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K493" s="34">
+        <f>SUM(C491:C492)</f>
+        <v>2</v>
+      </c>
+      <c r="L493" s="34">
+        <f t="shared" ref="L493" si="395">SUM(E491:E492)</f>
+        <v>0</v>
+      </c>
+      <c r="M493" s="34">
+        <f t="shared" ref="M493" si="396">SUM(F491:F492)</f>
+        <v>7</v>
+      </c>
+      <c r="N493" s="34">
+        <f t="shared" ref="N493" si="397">SUM(G491:G492)</f>
+        <v>4</v>
+      </c>
+      <c r="O493" s="34">
+        <f t="shared" ref="O493" si="398">SUM(H491:H492)</f>
+        <v>7</v>
+      </c>
+      <c r="P493" s="34">
+        <f t="shared" ref="P493" si="399">SUM(I491:I492)</f>
+        <v>8</v>
+      </c>
+      <c r="Q493" s="34">
+        <f t="shared" ref="Q493" si="400">SUM(J491:J492)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A494" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="F494">
+        <v>4</v>
+      </c>
+      <c r="G494">
+        <v>3</v>
+      </c>
+      <c r="H494">
+        <v>4</v>
+      </c>
+      <c r="I494">
+        <v>5</v>
+      </c>
+      <c r="J494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>3</v>
+      </c>
+      <c r="G495">
+        <v>2</v>
+      </c>
+      <c r="H495">
+        <v>3</v>
+      </c>
+      <c r="I495">
+        <v>3</v>
+      </c>
+      <c r="J495">
+        <v>5</v>
+      </c>
+      <c r="R495">
+        <f>SUM(C494:J494)</f>
+        <v>25</v>
+      </c>
+      <c r="S495">
+        <f>SUM(C495:J495)</f>
+        <v>16</v>
+      </c>
+      <c r="T495">
+        <f>R495+S495</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K496" s="34">
+        <f>SUM(C494:C495)</f>
+        <v>2</v>
+      </c>
+      <c r="L496" s="34">
+        <f t="shared" ref="L496" si="401">SUM(E494:E495)</f>
+        <v>0</v>
+      </c>
+      <c r="M496" s="34">
+        <f t="shared" ref="M496" si="402">SUM(F494:F495)</f>
+        <v>7</v>
+      </c>
+      <c r="N496" s="34">
+        <f t="shared" ref="N496" si="403">SUM(G494:G495)</f>
+        <v>5</v>
+      </c>
+      <c r="O496" s="34">
+        <f t="shared" ref="O496" si="404">SUM(H494:H495)</f>
+        <v>7</v>
+      </c>
+      <c r="P496" s="34">
+        <f t="shared" ref="P496" si="405">SUM(I494:I495)</f>
+        <v>8</v>
+      </c>
+      <c r="Q496" s="34">
+        <f t="shared" ref="Q496" si="406">SUM(J494:J495)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A497" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="F497">
+        <v>4</v>
+      </c>
+      <c r="G497">
+        <v>3</v>
+      </c>
+      <c r="H497">
+        <v>4</v>
+      </c>
+      <c r="I497">
+        <v>5</v>
+      </c>
+      <c r="J497">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>3</v>
+      </c>
+      <c r="G498">
+        <v>2</v>
+      </c>
+      <c r="H498">
+        <v>3</v>
+      </c>
+      <c r="I498">
+        <v>3</v>
+      </c>
+      <c r="J498">
+        <v>5</v>
+      </c>
+      <c r="R498">
+        <f>SUM(C497:J497)</f>
+        <v>25</v>
+      </c>
+      <c r="S498">
+        <f>SUM(C498:J498)</f>
+        <v>16</v>
+      </c>
+      <c r="T498">
+        <f>R498+S498</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K499" s="34">
+        <f>SUM(C497:C498)</f>
+        <v>2</v>
+      </c>
+      <c r="L499" s="34">
+        <f t="shared" ref="L499" si="407">SUM(E497:E498)</f>
+        <v>0</v>
+      </c>
+      <c r="M499" s="34">
+        <f t="shared" ref="M499" si="408">SUM(F497:F498)</f>
+        <v>7</v>
+      </c>
+      <c r="N499" s="34">
+        <f t="shared" ref="N499" si="409">SUM(G497:G498)</f>
+        <v>5</v>
+      </c>
+      <c r="O499" s="34">
+        <f t="shared" ref="O499" si="410">SUM(H497:H498)</f>
+        <v>7</v>
+      </c>
+      <c r="P499" s="34">
+        <f t="shared" ref="P499" si="411">SUM(I497:I498)</f>
+        <v>8</v>
+      </c>
+      <c r="Q499" s="34">
+        <f t="shared" ref="Q499" si="412">SUM(J497:J498)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A500" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="F500">
+        <v>4</v>
+      </c>
+      <c r="G500">
+        <v>3</v>
+      </c>
+      <c r="H500">
+        <v>4</v>
+      </c>
+      <c r="I500">
+        <v>5</v>
+      </c>
+      <c r="J500">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>4</v>
+      </c>
+      <c r="G501">
+        <v>2</v>
+      </c>
+      <c r="H501">
+        <v>3</v>
+      </c>
+      <c r="I501">
+        <v>4</v>
+      </c>
+      <c r="J501">
+        <v>5</v>
+      </c>
+      <c r="R501">
+        <f>SUM(C500:J500)</f>
+        <v>25</v>
+      </c>
+      <c r="S501">
+        <f>SUM(C501:J501)</f>
+        <v>18</v>
+      </c>
+      <c r="T501">
+        <f>R501+S501</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K502" s="34">
+        <f>SUM(C500:C501)</f>
+        <v>2</v>
+      </c>
+      <c r="L502" s="34">
+        <f t="shared" ref="L502" si="413">SUM(E500:E501)</f>
+        <v>0</v>
+      </c>
+      <c r="M502" s="34">
+        <f t="shared" ref="M502" si="414">SUM(F500:F501)</f>
+        <v>8</v>
+      </c>
+      <c r="N502" s="34">
+        <f t="shared" ref="N502" si="415">SUM(G500:G501)</f>
+        <v>5</v>
+      </c>
+      <c r="O502" s="34">
+        <f t="shared" ref="O502" si="416">SUM(H500:H501)</f>
+        <v>7</v>
+      </c>
+      <c r="P502" s="34">
+        <f t="shared" ref="P502" si="417">SUM(I500:I501)</f>
+        <v>9</v>
+      </c>
+      <c r="Q502" s="34">
+        <f t="shared" ref="Q502" si="418">SUM(J500:J501)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A503" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="F503">
+        <v>4</v>
+      </c>
+      <c r="G503">
+        <v>3</v>
+      </c>
+      <c r="H503">
+        <v>4</v>
+      </c>
+      <c r="I503">
+        <v>5</v>
+      </c>
+      <c r="J503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>3</v>
+      </c>
+      <c r="G504">
+        <v>2</v>
+      </c>
+      <c r="H504">
+        <v>3</v>
+      </c>
+      <c r="I504">
+        <v>5</v>
+      </c>
+      <c r="J504">
+        <v>5</v>
+      </c>
+      <c r="R504">
+        <f>SUM(C503:J503)</f>
+        <v>25</v>
+      </c>
+      <c r="S504">
+        <f>SUM(C504:J504)</f>
+        <v>18</v>
+      </c>
+      <c r="T504">
+        <f>R504+S504</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K505" s="34">
+        <f>SUM(C503:C504)</f>
+        <v>2</v>
+      </c>
+      <c r="L505" s="34">
+        <f t="shared" ref="L505" si="419">SUM(E503:E504)</f>
+        <v>0</v>
+      </c>
+      <c r="M505" s="34">
+        <f t="shared" ref="M505" si="420">SUM(F503:F504)</f>
+        <v>7</v>
+      </c>
+      <c r="N505" s="34">
+        <f t="shared" ref="N505" si="421">SUM(G503:G504)</f>
+        <v>5</v>
+      </c>
+      <c r="O505" s="34">
+        <f t="shared" ref="O505" si="422">SUM(H503:H504)</f>
+        <v>7</v>
+      </c>
+      <c r="P505" s="34">
+        <f t="shared" ref="P505" si="423">SUM(I503:I504)</f>
+        <v>10</v>
+      </c>
+      <c r="Q505" s="34">
+        <f t="shared" ref="Q505" si="424">SUM(J503:J504)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A506" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="F506">
+        <v>4</v>
+      </c>
+      <c r="G506">
+        <v>3</v>
+      </c>
+      <c r="H506">
+        <v>4</v>
+      </c>
+      <c r="I506">
+        <v>4</v>
+      </c>
+      <c r="J506">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>2</v>
+      </c>
+      <c r="G507">
+        <v>2</v>
+      </c>
+      <c r="H507">
+        <v>3</v>
+      </c>
+      <c r="I507">
+        <v>3</v>
+      </c>
+      <c r="J507">
+        <v>5</v>
+      </c>
+      <c r="R507">
+        <f>SUM(C506:J506)</f>
+        <v>24</v>
+      </c>
+      <c r="S507">
+        <f>SUM(C507:J507)</f>
+        <v>15</v>
+      </c>
+      <c r="T507">
+        <f>R507+S507</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K508" s="34">
+        <f>SUM(C506:C507)</f>
+        <v>2</v>
+      </c>
+      <c r="L508" s="34">
+        <f t="shared" ref="L508" si="425">SUM(E506:E507)</f>
+        <v>0</v>
+      </c>
+      <c r="M508" s="34">
+        <f t="shared" ref="M508" si="426">SUM(F506:F507)</f>
+        <v>6</v>
+      </c>
+      <c r="N508" s="34">
+        <f t="shared" ref="N508" si="427">SUM(G506:G507)</f>
+        <v>5</v>
+      </c>
+      <c r="O508" s="34">
+        <f t="shared" ref="O508" si="428">SUM(H506:H507)</f>
+        <v>7</v>
+      </c>
+      <c r="P508" s="34">
+        <f t="shared" ref="P508" si="429">SUM(I506:I507)</f>
+        <v>7</v>
+      </c>
+      <c r="Q508" s="34">
+        <f t="shared" ref="Q508" si="430">SUM(J506:J507)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A509" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="F509">
+        <v>3</v>
+      </c>
+      <c r="G509">
+        <v>2</v>
+      </c>
+      <c r="H509">
+        <v>4</v>
+      </c>
+      <c r="I509">
+        <v>4</v>
+      </c>
+      <c r="J509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>3</v>
+      </c>
+      <c r="G510">
+        <v>3</v>
+      </c>
+      <c r="H510">
+        <v>3</v>
+      </c>
+      <c r="I510">
+        <v>3</v>
+      </c>
+      <c r="J510">
+        <v>5</v>
+      </c>
+      <c r="R510">
+        <f>SUM(C509:J509)</f>
+        <v>22</v>
+      </c>
+      <c r="S510">
+        <f>SUM(C510:J510)</f>
+        <v>17</v>
+      </c>
+      <c r="T510">
+        <f>R510+S510</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K511" s="34">
+        <f>SUM(C509:C510)</f>
+        <v>2</v>
+      </c>
+      <c r="L511" s="34">
+        <f t="shared" ref="L511" si="431">SUM(E509:E510)</f>
+        <v>0</v>
+      </c>
+      <c r="M511" s="34">
+        <f t="shared" ref="M511" si="432">SUM(F509:F510)</f>
+        <v>6</v>
+      </c>
+      <c r="N511" s="34">
+        <f t="shared" ref="N511" si="433">SUM(G509:G510)</f>
+        <v>5</v>
+      </c>
+      <c r="O511" s="34">
+        <f t="shared" ref="O511" si="434">SUM(H509:H510)</f>
+        <v>7</v>
+      </c>
+      <c r="P511" s="34">
+        <f t="shared" ref="P511" si="435">SUM(I509:I510)</f>
+        <v>7</v>
+      </c>
+      <c r="Q511" s="34">
+        <f t="shared" ref="Q511" si="436">SUM(J509:J510)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A512" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>3</v>
+      </c>
+      <c r="G512">
+        <v>2</v>
+      </c>
+      <c r="H512">
+        <v>4</v>
+      </c>
+      <c r="I512">
+        <v>4</v>
+      </c>
+      <c r="J512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="F513">
+        <v>3</v>
+      </c>
+      <c r="G513">
+        <v>2</v>
+      </c>
+      <c r="H513">
+        <v>3</v>
+      </c>
+      <c r="I513">
+        <v>3</v>
+      </c>
+      <c r="J513">
+        <v>5</v>
+      </c>
+      <c r="R513">
+        <f>SUM(C512:J512)</f>
+        <v>22</v>
+      </c>
+      <c r="S513">
+        <f>SUM(C513:J513)</f>
+        <v>16</v>
+      </c>
+      <c r="T513">
+        <f>R513+S513</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K514" s="34">
+        <f>SUM(C512:C513)</f>
+        <v>2</v>
+      </c>
+      <c r="L514" s="34">
+        <f t="shared" ref="L514" si="437">SUM(E512:E513)</f>
+        <v>0</v>
+      </c>
+      <c r="M514" s="34">
+        <f t="shared" ref="M514" si="438">SUM(F512:F513)</f>
+        <v>6</v>
+      </c>
+      <c r="N514" s="34">
+        <f t="shared" ref="N514" si="439">SUM(G512:G513)</f>
+        <v>4</v>
+      </c>
+      <c r="O514" s="34">
+        <f t="shared" ref="O514" si="440">SUM(H512:H513)</f>
+        <v>7</v>
+      </c>
+      <c r="P514" s="34">
+        <f t="shared" ref="P514" si="441">SUM(I512:I513)</f>
+        <v>7</v>
+      </c>
+      <c r="Q514" s="34">
+        <f t="shared" ref="Q514" si="442">SUM(J512:J513)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A515" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="F515">
+        <v>4</v>
+      </c>
+      <c r="G515">
+        <v>3</v>
+      </c>
+      <c r="H515">
+        <v>4</v>
+      </c>
+      <c r="I515">
+        <v>5</v>
+      </c>
+      <c r="J515">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>3</v>
+      </c>
+      <c r="G516">
+        <v>2</v>
+      </c>
+      <c r="H516">
+        <v>3</v>
+      </c>
+      <c r="I516">
+        <v>3</v>
+      </c>
+      <c r="J516">
+        <v>5</v>
+      </c>
+      <c r="R516">
+        <f>SUM(C515:J515)</f>
+        <v>25</v>
+      </c>
+      <c r="S516">
+        <f>SUM(C516:J516)</f>
+        <v>16</v>
+      </c>
+      <c r="T516">
+        <f>R516+S516</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K517" s="34">
+        <f>SUM(C515:C516)</f>
+        <v>2</v>
+      </c>
+      <c r="L517" s="34">
+        <f t="shared" ref="L517" si="443">SUM(E515:E516)</f>
+        <v>0</v>
+      </c>
+      <c r="M517" s="34">
+        <f t="shared" ref="M517" si="444">SUM(F515:F516)</f>
+        <v>7</v>
+      </c>
+      <c r="N517" s="34">
+        <f t="shared" ref="N517" si="445">SUM(G515:G516)</f>
+        <v>5</v>
+      </c>
+      <c r="O517" s="34">
+        <f t="shared" ref="O517" si="446">SUM(H515:H516)</f>
+        <v>7</v>
+      </c>
+      <c r="P517" s="34">
+        <f t="shared" ref="P517" si="447">SUM(I515:I516)</f>
+        <v>8</v>
+      </c>
+      <c r="Q517" s="34">
+        <f t="shared" ref="Q517" si="448">SUM(J515:J516)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A518" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <v>4</v>
+      </c>
+      <c r="G518">
+        <v>3</v>
+      </c>
+      <c r="H518">
+        <v>4</v>
+      </c>
+      <c r="I518">
+        <v>6</v>
+      </c>
+      <c r="J518">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+      <c r="G519">
+        <v>2</v>
+      </c>
+      <c r="H519">
+        <v>3</v>
+      </c>
+      <c r="I519">
+        <v>4</v>
+      </c>
+      <c r="J519">
+        <v>5</v>
+      </c>
+      <c r="R519">
+        <f>SUM(C518:J518)</f>
+        <v>26</v>
+      </c>
+      <c r="S519">
+        <f>SUM(C519:J519)</f>
+        <v>17</v>
+      </c>
+      <c r="T519">
+        <f>R519+S519</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K520" s="34">
+        <f>SUM(C518:C519)</f>
+        <v>2</v>
+      </c>
+      <c r="L520" s="34">
+        <f t="shared" ref="L520" si="449">SUM(E518:E519)</f>
+        <v>0</v>
+      </c>
+      <c r="M520" s="34">
+        <f t="shared" ref="M520" si="450">SUM(F518:F519)</f>
+        <v>7</v>
+      </c>
+      <c r="N520" s="34">
+        <f t="shared" ref="N520" si="451">SUM(G518:G519)</f>
+        <v>5</v>
+      </c>
+      <c r="O520" s="34">
+        <f t="shared" ref="O520" si="452">SUM(H518:H519)</f>
+        <v>7</v>
+      </c>
+      <c r="P520" s="34">
+        <f t="shared" ref="P520" si="453">SUM(I518:I519)</f>
+        <v>10</v>
+      </c>
+      <c r="Q520" s="34">
+        <f t="shared" ref="Q520" si="454">SUM(J518:J519)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A521" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>4</v>
+      </c>
+      <c r="G521">
+        <v>3</v>
+      </c>
+      <c r="H521">
+        <v>4</v>
+      </c>
+      <c r="I521">
+        <v>6</v>
+      </c>
+      <c r="J521">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>3</v>
+      </c>
+      <c r="G522">
+        <v>2</v>
+      </c>
+      <c r="H522">
+        <v>3</v>
+      </c>
+      <c r="I522">
+        <v>3</v>
+      </c>
+      <c r="J522">
+        <v>5</v>
+      </c>
+      <c r="R522">
+        <f>SUM(C521:J521)</f>
+        <v>26</v>
+      </c>
+      <c r="S522">
+        <f>SUM(C522:J522)</f>
+        <v>16</v>
+      </c>
+      <c r="T522">
+        <f>R522+S522</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K523" s="34">
+        <f>SUM(C521:C522)</f>
+        <v>2</v>
+      </c>
+      <c r="L523" s="34">
+        <f t="shared" ref="L523" si="455">SUM(E521:E522)</f>
+        <v>0</v>
+      </c>
+      <c r="M523" s="34">
+        <f t="shared" ref="M523" si="456">SUM(F521:F522)</f>
+        <v>7</v>
+      </c>
+      <c r="N523" s="34">
+        <f t="shared" ref="N523" si="457">SUM(G521:G522)</f>
+        <v>5</v>
+      </c>
+      <c r="O523" s="34">
+        <f t="shared" ref="O523" si="458">SUM(H521:H522)</f>
+        <v>7</v>
+      </c>
+      <c r="P523" s="34">
+        <f t="shared" ref="P523" si="459">SUM(I521:I522)</f>
+        <v>9</v>
+      </c>
+      <c r="Q523" s="34">
+        <f t="shared" ref="Q523" si="460">SUM(J521:J522)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A524" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="F524">
+        <v>4</v>
+      </c>
+      <c r="G524">
+        <v>3</v>
+      </c>
+      <c r="H524">
+        <v>4</v>
+      </c>
+      <c r="I524">
+        <v>5</v>
+      </c>
+      <c r="J524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>3</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>3</v>
+      </c>
+      <c r="I525">
+        <v>4</v>
+      </c>
+      <c r="J525">
+        <v>5</v>
+      </c>
+      <c r="R525">
+        <f>SUM(C524:J524)</f>
+        <v>25</v>
+      </c>
+      <c r="S525">
+        <f>SUM(C525:J525)</f>
+        <v>16</v>
+      </c>
+      <c r="T525">
+        <f>R525+S525</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K526" s="34">
+        <f>SUM(C524:C525)</f>
+        <v>2</v>
+      </c>
+      <c r="L526" s="34">
+        <f t="shared" ref="L526" si="461">SUM(E524:E525)</f>
+        <v>0</v>
+      </c>
+      <c r="M526" s="34">
+        <f t="shared" ref="M526" si="462">SUM(F524:F525)</f>
+        <v>7</v>
+      </c>
+      <c r="N526" s="34">
+        <f t="shared" ref="N526" si="463">SUM(G524:G525)</f>
+        <v>4</v>
+      </c>
+      <c r="O526" s="34">
+        <f t="shared" ref="O526" si="464">SUM(H524:H525)</f>
+        <v>7</v>
+      </c>
+      <c r="P526" s="34">
+        <f t="shared" ref="P526" si="465">SUM(I524:I525)</f>
+        <v>9</v>
+      </c>
+      <c r="Q526" s="34">
+        <f t="shared" ref="Q526" si="466">SUM(J524:J525)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A527" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="F527">
+        <v>4</v>
+      </c>
+      <c r="G527">
+        <v>3</v>
+      </c>
+      <c r="H527">
+        <v>4</v>
+      </c>
+      <c r="I527">
+        <v>5</v>
+      </c>
+      <c r="J527">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>3</v>
+      </c>
+      <c r="G528">
+        <v>2</v>
+      </c>
+      <c r="H528">
+        <v>3</v>
+      </c>
+      <c r="I528">
+        <v>4</v>
+      </c>
+      <c r="J528">
+        <v>5</v>
+      </c>
+      <c r="R528">
+        <f>SUM(C527:J527)</f>
+        <v>25</v>
+      </c>
+      <c r="S528">
+        <f>SUM(C528:J528)</f>
+        <v>17</v>
+      </c>
+      <c r="T528">
+        <f>R528+S528</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K529" s="34">
+        <f>SUM(C527:C528)</f>
+        <v>2</v>
+      </c>
+      <c r="L529" s="34">
+        <f t="shared" ref="L529" si="467">SUM(E527:E528)</f>
+        <v>0</v>
+      </c>
+      <c r="M529" s="34">
+        <f t="shared" ref="M529" si="468">SUM(F527:F528)</f>
+        <v>7</v>
+      </c>
+      <c r="N529" s="34">
+        <f t="shared" ref="N529" si="469">SUM(G527:G528)</f>
+        <v>5</v>
+      </c>
+      <c r="O529" s="34">
+        <f t="shared" ref="O529" si="470">SUM(H527:H528)</f>
+        <v>7</v>
+      </c>
+      <c r="P529" s="34">
+        <f t="shared" ref="P529" si="471">SUM(I527:I528)</f>
+        <v>9</v>
+      </c>
+      <c r="Q529" s="34">
+        <f t="shared" ref="Q529" si="472">SUM(J527:J528)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A530" s="20">
+        <v>43101</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="F530">
+        <v>4</v>
+      </c>
+      <c r="G530">
+        <v>3</v>
+      </c>
+      <c r="H530">
+        <v>5</v>
+      </c>
+      <c r="I530">
+        <v>5</v>
+      </c>
+      <c r="J530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A531" s="20"/>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>3</v>
+      </c>
+      <c r="G531">
+        <v>2</v>
+      </c>
+      <c r="H531">
+        <v>4</v>
+      </c>
+      <c r="I531">
+        <v>4</v>
+      </c>
+      <c r="J531">
+        <v>5</v>
+      </c>
+      <c r="R531">
+        <f>SUM(C530:J530)</f>
+        <v>26</v>
+      </c>
+      <c r="S531">
+        <f>SUM(C531:J531)</f>
+        <v>18</v>
+      </c>
+      <c r="T531">
+        <f>R531+S531</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A532" s="20"/>
+      <c r="K532" s="34">
+        <f>SUM(C530:C531)</f>
+        <v>2</v>
+      </c>
+      <c r="L532" s="34">
+        <f t="shared" ref="L532" si="473">SUM(E530:E531)</f>
+        <v>0</v>
+      </c>
+      <c r="M532" s="34">
+        <f t="shared" ref="M532" si="474">SUM(F530:F531)</f>
+        <v>7</v>
+      </c>
+      <c r="N532" s="34">
+        <f t="shared" ref="N532" si="475">SUM(G530:G531)</f>
+        <v>5</v>
+      </c>
+      <c r="O532" s="34">
+        <f t="shared" ref="O532" si="476">SUM(H530:H531)</f>
+        <v>9</v>
+      </c>
+      <c r="P532" s="34">
+        <f t="shared" ref="P532" si="477">SUM(I530:I531)</f>
+        <v>9</v>
+      </c>
+      <c r="Q532" s="34">
+        <f t="shared" ref="Q532" si="478">SUM(J530:J531)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A533" s="20">
+        <v>43132</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="F533">
+        <v>5</v>
+      </c>
+      <c r="G533">
+        <v>3</v>
+      </c>
+      <c r="H533">
+        <v>5</v>
+      </c>
+      <c r="I533">
+        <v>5</v>
+      </c>
+      <c r="J533">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A534" s="20"/>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>3</v>
+      </c>
+      <c r="H534">
+        <v>3</v>
+      </c>
+      <c r="I534">
+        <v>3</v>
+      </c>
+      <c r="J534">
+        <v>5</v>
+      </c>
+      <c r="R534">
+        <f>SUM(C533:J533)</f>
+        <v>27</v>
+      </c>
+      <c r="S534">
+        <f>SUM(C534:J534)</f>
+        <v>17</v>
+      </c>
+      <c r="T534">
+        <f>R534+S534</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A535" s="20"/>
+      <c r="K535" s="34">
+        <f>SUM(C533:C534)</f>
+        <v>2</v>
+      </c>
+      <c r="L535" s="34">
+        <f t="shared" ref="L535" si="479">SUM(E533:E534)</f>
+        <v>0</v>
+      </c>
+      <c r="M535" s="34">
+        <f t="shared" ref="M535" si="480">SUM(F533:F534)</f>
+        <v>8</v>
+      </c>
+      <c r="N535" s="34">
+        <f t="shared" ref="N535" si="481">SUM(G533:G534)</f>
+        <v>6</v>
+      </c>
+      <c r="O535" s="34">
+        <f t="shared" ref="O535" si="482">SUM(H533:H534)</f>
+        <v>8</v>
+      </c>
+      <c r="P535" s="34">
+        <f t="shared" ref="P535" si="483">SUM(I533:I534)</f>
+        <v>8</v>
+      </c>
+      <c r="Q535" s="34">
+        <f t="shared" ref="Q535" si="484">SUM(J533:J534)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A536" s="20">
+        <v>43160</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="F536">
+        <v>4</v>
+      </c>
+      <c r="G536">
+        <v>3</v>
+      </c>
+      <c r="H536">
+        <v>4</v>
+      </c>
+      <c r="I536">
+        <v>4</v>
+      </c>
+      <c r="J536">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A537" s="20"/>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>3</v>
+      </c>
+      <c r="G537">
+        <v>2</v>
+      </c>
+      <c r="H537">
+        <v>3</v>
+      </c>
+      <c r="I537">
+        <v>3</v>
+      </c>
+      <c r="J537">
+        <v>5</v>
+      </c>
+      <c r="R537">
+        <f>SUM(C536:J536)</f>
+        <v>24</v>
+      </c>
+      <c r="S537">
+        <f>SUM(C537:J537)</f>
+        <v>16</v>
+      </c>
+      <c r="T537">
+        <f>R537+S537</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A538" s="20"/>
+      <c r="K538" s="34">
+        <f>SUM(C536:C537)</f>
+        <v>2</v>
+      </c>
+      <c r="L538" s="34">
+        <f t="shared" ref="L538" si="485">SUM(E536:E537)</f>
+        <v>0</v>
+      </c>
+      <c r="M538" s="34">
+        <f t="shared" ref="M538" si="486">SUM(F536:F537)</f>
+        <v>7</v>
+      </c>
+      <c r="N538" s="34">
+        <f t="shared" ref="N538" si="487">SUM(G536:G537)</f>
+        <v>5</v>
+      </c>
+      <c r="O538" s="34">
+        <f t="shared" ref="O538" si="488">SUM(H536:H537)</f>
+        <v>7</v>
+      </c>
+      <c r="P538" s="34">
+        <f t="shared" ref="P538" si="489">SUM(I536:I537)</f>
+        <v>7</v>
+      </c>
+      <c r="Q538" s="34">
+        <f t="shared" ref="Q538" si="490">SUM(J536:J537)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A539" s="20">
+        <v>43191</v>
+      </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
+      <c r="F539">
+        <v>3</v>
+      </c>
+      <c r="G539">
+        <v>4</v>
+      </c>
+      <c r="H539">
+        <v>4</v>
+      </c>
+      <c r="I539">
+        <v>4</v>
+      </c>
+      <c r="J539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A540" s="20"/>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>4</v>
+      </c>
+      <c r="G540">
+        <v>4</v>
+      </c>
+      <c r="H540">
+        <v>4</v>
+      </c>
+      <c r="I540">
+        <v>3</v>
+      </c>
+      <c r="J540">
+        <v>5</v>
+      </c>
+      <c r="R540">
+        <f>SUM(C539:J539)</f>
+        <v>24</v>
+      </c>
+      <c r="S540">
+        <f>SUM(C540:J540)</f>
+        <v>20</v>
+      </c>
+      <c r="T540">
+        <f>R540+S540</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A541" s="20"/>
+      <c r="K541" s="34">
+        <f>SUM(C539:C540)</f>
+        <v>2</v>
+      </c>
+      <c r="L541" s="34">
+        <f t="shared" ref="L541" si="491">SUM(E539:E540)</f>
+        <v>0</v>
+      </c>
+      <c r="M541" s="34">
+        <f t="shared" ref="M541" si="492">SUM(F539:F540)</f>
+        <v>7</v>
+      </c>
+      <c r="N541" s="34">
+        <f t="shared" ref="N541" si="493">SUM(G539:G540)</f>
+        <v>8</v>
+      </c>
+      <c r="O541" s="34">
+        <f t="shared" ref="O541" si="494">SUM(H539:H540)</f>
+        <v>8</v>
+      </c>
+      <c r="P541" s="34">
+        <f t="shared" ref="P541" si="495">SUM(I539:I540)</f>
+        <v>7</v>
+      </c>
+      <c r="Q541" s="34">
+        <f t="shared" ref="Q541" si="496">SUM(J539:J540)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A542" s="20">
+        <v>43221</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+      <c r="F542">
+        <v>5</v>
+      </c>
+      <c r="G542">
+        <v>5</v>
+      </c>
+      <c r="H542">
+        <v>5</v>
+      </c>
+      <c r="I542">
+        <v>5</v>
+      </c>
+      <c r="J542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A543" s="20"/>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>2</v>
+      </c>
+      <c r="G543">
+        <v>3</v>
+      </c>
+      <c r="H543">
+        <v>3</v>
+      </c>
+      <c r="I543">
+        <v>3</v>
+      </c>
+      <c r="J543">
+        <v>5</v>
+      </c>
+      <c r="R543">
+        <f>SUM(C542:J542)</f>
+        <v>29</v>
+      </c>
+      <c r="S543">
+        <f>SUM(C543:J543)</f>
+        <v>16</v>
+      </c>
+      <c r="T543">
+        <f>R543+S543</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A544" s="20"/>
+      <c r="K544" s="34">
+        <f>SUM(C542:C543)</f>
+        <v>2</v>
+      </c>
+      <c r="L544" s="34">
+        <f t="shared" ref="L544" si="497">SUM(E542:E543)</f>
+        <v>0</v>
+      </c>
+      <c r="M544" s="34">
+        <f t="shared" ref="M544" si="498">SUM(F542:F543)</f>
+        <v>7</v>
+      </c>
+      <c r="N544" s="34">
+        <f t="shared" ref="N544" si="499">SUM(G542:G543)</f>
+        <v>8</v>
+      </c>
+      <c r="O544" s="34">
+        <f t="shared" ref="O544" si="500">SUM(H542:H543)</f>
+        <v>8</v>
+      </c>
+      <c r="P544" s="34">
+        <f t="shared" ref="P544" si="501">SUM(I542:I543)</f>
+        <v>8</v>
+      </c>
+      <c r="Q544" s="34">
+        <f t="shared" ref="Q544" si="502">SUM(J542:J543)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A545" s="20">
+        <v>43252</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="F545">
+        <v>4</v>
+      </c>
+      <c r="G545">
+        <v>5</v>
+      </c>
+      <c r="H545">
+        <v>5</v>
+      </c>
+      <c r="I545">
+        <v>5</v>
+      </c>
+      <c r="J545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A546" s="20"/>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>3</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>3</v>
+      </c>
+      <c r="I546">
+        <v>3</v>
+      </c>
+      <c r="J546">
+        <v>5</v>
+      </c>
+      <c r="R546">
+        <f>SUM(C545:J545)</f>
+        <v>28</v>
+      </c>
+      <c r="S546">
+        <f>SUM(C546:J546)</f>
+        <v>15</v>
+      </c>
+      <c r="T546">
+        <f>R546+S546</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A547" s="20"/>
+      <c r="K547" s="34">
+        <f>SUM(C545:C546)</f>
+        <v>2</v>
+      </c>
+      <c r="L547" s="34">
+        <f t="shared" ref="L547" si="503">SUM(E545:E546)</f>
+        <v>0</v>
+      </c>
+      <c r="M547" s="34">
+        <f t="shared" ref="M547" si="504">SUM(F545:F546)</f>
+        <v>7</v>
+      </c>
+      <c r="N547" s="34">
+        <f t="shared" ref="N547" si="505">SUM(G545:G546)</f>
+        <v>6</v>
+      </c>
+      <c r="O547" s="34">
+        <f t="shared" ref="O547" si="506">SUM(H545:H546)</f>
+        <v>8</v>
+      </c>
+      <c r="P547" s="34">
+        <f t="shared" ref="P547" si="507">SUM(I545:I546)</f>
+        <v>8</v>
+      </c>
+      <c r="Q547" s="34">
+        <f t="shared" ref="Q547" si="508">SUM(J545:J546)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A548" s="20">
+        <v>43282</v>
+      </c>
+      <c r="C548">
+        <v>2</v>
+      </c>
+      <c r="F548">
+        <v>4</v>
+      </c>
+      <c r="G548">
+        <v>3</v>
+      </c>
+      <c r="H548">
+        <v>4</v>
+      </c>
+      <c r="I548">
+        <v>5</v>
+      </c>
+      <c r="J548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A549" s="20"/>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>3</v>
+      </c>
+      <c r="G549">
+        <v>2</v>
+      </c>
+      <c r="H549">
+        <v>3</v>
+      </c>
+      <c r="I549">
+        <v>2</v>
+      </c>
+      <c r="J549">
+        <v>5</v>
+      </c>
+      <c r="R549">
+        <f>SUM(C548:J548)</f>
+        <v>25</v>
+      </c>
+      <c r="S549">
+        <f>SUM(C549:J549)</f>
+        <v>15</v>
+      </c>
+      <c r="T549">
+        <f>R549+S549</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A550" s="20"/>
+      <c r="K550" s="34">
+        <f>SUM(C548:C549)</f>
+        <v>2</v>
+      </c>
+      <c r="L550" s="34">
+        <f t="shared" ref="L550" si="509">SUM(E548:E549)</f>
+        <v>0</v>
+      </c>
+      <c r="M550" s="34">
+        <f t="shared" ref="M550" si="510">SUM(F548:F549)</f>
+        <v>7</v>
+      </c>
+      <c r="N550" s="34">
+        <f t="shared" ref="N550" si="511">SUM(G548:G549)</f>
+        <v>5</v>
+      </c>
+      <c r="O550" s="34">
+        <f t="shared" ref="O550" si="512">SUM(H548:H549)</f>
+        <v>7</v>
+      </c>
+      <c r="P550" s="34">
+        <f t="shared" ref="P550" si="513">SUM(I548:I549)</f>
+        <v>7</v>
+      </c>
+      <c r="Q550" s="34">
+        <f t="shared" ref="Q550" si="514">SUM(J548:J549)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A551" s="20">
+        <v>43313</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="F551">
+        <v>4</v>
+      </c>
+      <c r="G551">
+        <v>3</v>
+      </c>
+      <c r="H551">
+        <v>5</v>
+      </c>
+      <c r="I551">
+        <v>4</v>
+      </c>
+      <c r="J551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A552" s="20"/>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>3</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>3</v>
+      </c>
+      <c r="I552">
+        <v>3</v>
+      </c>
+      <c r="J552">
+        <v>3</v>
+      </c>
+      <c r="R552">
+        <f>SUM(C551:J551)</f>
+        <v>25</v>
+      </c>
+      <c r="S552">
+        <f>SUM(C552:J552)</f>
+        <v>13</v>
+      </c>
+      <c r="T552">
+        <f>R552+S552</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A553" s="20"/>
+      <c r="K553" s="34">
+        <f>SUM(C551:C552)</f>
+        <v>2</v>
+      </c>
+      <c r="L553" s="34">
+        <f t="shared" ref="L553" si="515">SUM(E551:E552)</f>
+        <v>0</v>
+      </c>
+      <c r="M553" s="34">
+        <f t="shared" ref="M553" si="516">SUM(F551:F552)</f>
+        <v>7</v>
+      </c>
+      <c r="N553" s="34">
+        <f t="shared" ref="N553" si="517">SUM(G551:G552)</f>
+        <v>4</v>
+      </c>
+      <c r="O553" s="34">
+        <f t="shared" ref="O553" si="518">SUM(H551:H552)</f>
+        <v>8</v>
+      </c>
+      <c r="P553" s="34">
+        <f t="shared" ref="P553" si="519">SUM(I551:I552)</f>
+        <v>7</v>
+      </c>
+      <c r="Q553" s="34">
+        <f t="shared" ref="Q553" si="520">SUM(J551:J552)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A554" s="20">
+        <v>43344</v>
+      </c>
+      <c r="C554">
+        <v>3</v>
+      </c>
+      <c r="F554">
+        <v>5</v>
+      </c>
+      <c r="G554">
+        <v>3</v>
+      </c>
+      <c r="H554">
+        <v>5</v>
+      </c>
+      <c r="I554">
+        <v>5</v>
+      </c>
+      <c r="J554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A555" s="20"/>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>3</v>
+      </c>
+      <c r="G555">
+        <v>2</v>
+      </c>
+      <c r="H555">
+        <v>3</v>
+      </c>
+      <c r="I555">
+        <v>4</v>
+      </c>
+      <c r="J555">
+        <v>5</v>
+      </c>
+      <c r="R555">
+        <f>SUM(C554:J554)</f>
+        <v>29</v>
+      </c>
+      <c r="S555">
+        <f>SUM(C555:J555)</f>
+        <v>17</v>
+      </c>
+      <c r="T555">
+        <f>R555+S555</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A556" s="20"/>
+      <c r="K556" s="34">
+        <f>SUM(C554:C555)</f>
+        <v>3</v>
+      </c>
+      <c r="L556" s="34">
+        <f t="shared" ref="L556" si="521">SUM(E554:E555)</f>
+        <v>0</v>
+      </c>
+      <c r="M556" s="34">
+        <f t="shared" ref="M556" si="522">SUM(F554:F555)</f>
+        <v>8</v>
+      </c>
+      <c r="N556" s="34">
+        <f t="shared" ref="N556" si="523">SUM(G554:G555)</f>
+        <v>5</v>
+      </c>
+      <c r="O556" s="34">
+        <f t="shared" ref="O556" si="524">SUM(H554:H555)</f>
+        <v>8</v>
+      </c>
+      <c r="P556" s="34">
+        <f t="shared" ref="P556" si="525">SUM(I554:I555)</f>
+        <v>9</v>
+      </c>
+      <c r="Q556" s="34">
+        <f t="shared" ref="Q556" si="526">SUM(J554:J555)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A557" s="20">
+        <v>43374</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="F557">
+        <v>4</v>
+      </c>
+      <c r="G557">
+        <v>3</v>
+      </c>
+      <c r="H557">
+        <v>5</v>
+      </c>
+      <c r="I557">
+        <v>5</v>
+      </c>
+      <c r="J557">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A558" s="20"/>
+      <c r="C558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>3</v>
+      </c>
+      <c r="G558">
+        <v>2</v>
+      </c>
+      <c r="H558">
+        <v>3</v>
+      </c>
+      <c r="I558">
+        <v>3</v>
+      </c>
+      <c r="J558">
+        <v>4</v>
+      </c>
+      <c r="R558">
+        <f>SUM(C557:J557)</f>
+        <v>28</v>
+      </c>
+      <c r="S558">
+        <f>SUM(C558:J558)</f>
+        <v>15</v>
+      </c>
+      <c r="T558">
+        <f>R558+S558</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A559" s="20"/>
+      <c r="K559" s="34">
+        <f>SUM(C557:C558)</f>
+        <v>3</v>
+      </c>
+      <c r="L559" s="34">
+        <f t="shared" ref="L559" si="527">SUM(E557:E558)</f>
+        <v>0</v>
+      </c>
+      <c r="M559" s="34">
+        <f t="shared" ref="M559" si="528">SUM(F557:F558)</f>
+        <v>7</v>
+      </c>
+      <c r="N559" s="34">
+        <f t="shared" ref="N559" si="529">SUM(G557:G558)</f>
+        <v>5</v>
+      </c>
+      <c r="O559" s="34">
+        <f t="shared" ref="O559" si="530">SUM(H557:H558)</f>
+        <v>8</v>
+      </c>
+      <c r="P559" s="34">
+        <f t="shared" ref="P559" si="531">SUM(I557:I558)</f>
+        <v>8</v>
+      </c>
+      <c r="Q559" s="34">
+        <f t="shared" ref="Q559" si="532">SUM(J557:J558)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A560" s="20">
+        <v>43405</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+      <c r="F560">
+        <v>4</v>
+      </c>
+      <c r="G560">
+        <v>3</v>
+      </c>
+      <c r="H560">
+        <v>5</v>
+      </c>
+      <c r="I560">
+        <v>5</v>
+      </c>
+      <c r="J560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A561" s="20"/>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>3</v>
+      </c>
+      <c r="G561">
+        <v>2</v>
+      </c>
+      <c r="H561">
+        <v>3</v>
+      </c>
+      <c r="I561">
+        <v>3</v>
+      </c>
+      <c r="J561">
+        <v>5</v>
+      </c>
+      <c r="R561">
+        <f>SUM(C560:J560)</f>
+        <v>27</v>
+      </c>
+      <c r="S561">
+        <f>SUM(C561:J561)</f>
+        <v>16</v>
+      </c>
+      <c r="T561">
+        <f>R561+S561</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A562" s="20"/>
+      <c r="K562" s="34">
+        <f>SUM(C560:C561)</f>
+        <v>2</v>
+      </c>
+      <c r="L562" s="34">
+        <f t="shared" ref="L562" si="533">SUM(E560:E561)</f>
+        <v>0</v>
+      </c>
+      <c r="M562" s="34">
+        <f t="shared" ref="M562" si="534">SUM(F560:F561)</f>
+        <v>7</v>
+      </c>
+      <c r="N562" s="34">
+        <f t="shared" ref="N562" si="535">SUM(G560:G561)</f>
+        <v>5</v>
+      </c>
+      <c r="O562" s="34">
+        <f t="shared" ref="O562" si="536">SUM(H560:H561)</f>
+        <v>8</v>
+      </c>
+      <c r="P562" s="34">
+        <f t="shared" ref="P562" si="537">SUM(I560:I561)</f>
+        <v>8</v>
+      </c>
+      <c r="Q562" s="34">
+        <f t="shared" ref="Q562" si="538">SUM(J560:J561)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A563" s="20">
+        <v>43435</v>
+      </c>
+      <c r="C563">
+        <v>2</v>
+      </c>
+      <c r="F563">
+        <v>4</v>
+      </c>
+      <c r="G563">
+        <v>3</v>
+      </c>
+      <c r="H563">
+        <v>5</v>
+      </c>
+      <c r="I563">
+        <v>4</v>
+      </c>
+      <c r="J563">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A564" s="20"/>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>3</v>
+      </c>
+      <c r="G564">
+        <v>2</v>
+      </c>
+      <c r="H564">
+        <v>4</v>
+      </c>
+      <c r="I564">
+        <v>3</v>
+      </c>
+      <c r="J564">
+        <v>5</v>
+      </c>
+      <c r="R564">
+        <f>SUM(C563:J563)</f>
+        <v>25</v>
+      </c>
+      <c r="S564">
+        <f>SUM(C564:J564)</f>
+        <v>17</v>
+      </c>
+      <c r="T564">
+        <f>R564+S564</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A565" s="20"/>
+      <c r="K565" s="34">
+        <f>SUM(C563:C564)</f>
+        <v>2</v>
+      </c>
+      <c r="L565" s="34">
+        <f t="shared" ref="L565" si="539">SUM(E563:E564)</f>
+        <v>0</v>
+      </c>
+      <c r="M565" s="34">
+        <f t="shared" ref="M565" si="540">SUM(F563:F564)</f>
+        <v>7</v>
+      </c>
+      <c r="N565" s="34">
+        <f t="shared" ref="N565" si="541">SUM(G563:G564)</f>
+        <v>5</v>
+      </c>
+      <c r="O565" s="34">
+        <f t="shared" ref="O565" si="542">SUM(H563:H564)</f>
+        <v>9</v>
+      </c>
+      <c r="P565" s="34">
+        <f t="shared" ref="P565" si="543">SUM(I563:I564)</f>
+        <v>7</v>
+      </c>
+      <c r="Q565" s="34">
+        <f t="shared" ref="Q565" si="544">SUM(J563:J564)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A566" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+      <c r="F566">
+        <v>4</v>
+      </c>
+      <c r="G566">
+        <v>3</v>
+      </c>
+      <c r="H566">
+        <v>5</v>
+      </c>
+      <c r="I566">
+        <v>5</v>
+      </c>
+      <c r="J566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>3</v>
+      </c>
+      <c r="G567">
+        <v>2</v>
+      </c>
+      <c r="H567">
+        <v>3</v>
+      </c>
+      <c r="I567">
+        <v>3</v>
+      </c>
+      <c r="J567">
+        <v>5</v>
+      </c>
+      <c r="R567">
+        <f>SUM(C566:J566)</f>
+        <v>28</v>
+      </c>
+      <c r="S567">
+        <f>SUM(C567:J567)</f>
+        <v>16</v>
+      </c>
+      <c r="T567">
+        <f>R567+S567</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K568" s="34">
+        <f>SUM(C566:C567)</f>
+        <v>3</v>
+      </c>
+      <c r="L568" s="34">
+        <f t="shared" ref="L568" si="545">SUM(E566:E567)</f>
+        <v>0</v>
+      </c>
+      <c r="M568" s="34">
+        <f t="shared" ref="M568" si="546">SUM(F566:F567)</f>
+        <v>7</v>
+      </c>
+      <c r="N568" s="34">
+        <f t="shared" ref="N568" si="547">SUM(G566:G567)</f>
+        <v>5</v>
+      </c>
+      <c r="O568" s="34">
+        <f t="shared" ref="O568" si="548">SUM(H566:H567)</f>
+        <v>8</v>
+      </c>
+      <c r="P568" s="34">
+        <f t="shared" ref="P568" si="549">SUM(I566:I567)</f>
+        <v>8</v>
+      </c>
+      <c r="Q568" s="34">
+        <f t="shared" ref="Q568" si="550">SUM(J566:J567)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A569" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C569">
+        <v>3</v>
+      </c>
+      <c r="F569">
+        <v>5</v>
+      </c>
+      <c r="G569">
+        <v>3</v>
+      </c>
+      <c r="H569">
+        <v>5</v>
+      </c>
+      <c r="I569">
+        <v>4</v>
+      </c>
+      <c r="J569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>3</v>
+      </c>
+      <c r="G570">
+        <v>2</v>
+      </c>
+      <c r="H570">
+        <v>3</v>
+      </c>
+      <c r="I570">
+        <v>3</v>
+      </c>
+      <c r="J570">
+        <v>5</v>
+      </c>
+      <c r="R570">
+        <f>SUM(C569:J569)</f>
+        <v>28</v>
+      </c>
+      <c r="S570">
+        <f>SUM(C570:J570)</f>
+        <v>16</v>
+      </c>
+      <c r="T570">
+        <f>R570+S570</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K571" s="34">
+        <f>SUM(C569:C570)</f>
+        <v>3</v>
+      </c>
+      <c r="L571" s="34">
+        <f t="shared" ref="L571" si="551">SUM(E569:E570)</f>
+        <v>0</v>
+      </c>
+      <c r="M571" s="34">
+        <f t="shared" ref="M571" si="552">SUM(F569:F570)</f>
+        <v>8</v>
+      </c>
+      <c r="N571" s="34">
+        <f t="shared" ref="N571" si="553">SUM(G569:G570)</f>
+        <v>5</v>
+      </c>
+      <c r="O571" s="34">
+        <f t="shared" ref="O571" si="554">SUM(H569:H570)</f>
+        <v>8</v>
+      </c>
+      <c r="P571" s="34">
+        <f t="shared" ref="P571" si="555">SUM(I569:I570)</f>
+        <v>7</v>
+      </c>
+      <c r="Q571" s="34">
+        <f t="shared" ref="Q571" si="556">SUM(J569:J570)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A572" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C572">
+        <v>3</v>
+      </c>
+      <c r="F572">
+        <v>4</v>
+      </c>
+      <c r="G572">
+        <v>3</v>
+      </c>
+      <c r="H572">
+        <v>5</v>
+      </c>
+      <c r="I572">
+        <v>4</v>
+      </c>
+      <c r="J572">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>3</v>
+      </c>
+      <c r="G573">
+        <v>2</v>
+      </c>
+      <c r="H573">
+        <v>3</v>
+      </c>
+      <c r="I573">
+        <v>3</v>
+      </c>
+      <c r="J573">
+        <v>5</v>
+      </c>
+      <c r="R573">
+        <f>SUM(C572:J572)</f>
+        <v>27</v>
+      </c>
+      <c r="S573">
+        <f>SUM(C573:J573)</f>
+        <v>16</v>
+      </c>
+      <c r="T573">
+        <f>R573+S573</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K574" s="34">
+        <f>SUM(C572:C573)</f>
+        <v>3</v>
+      </c>
+      <c r="L574" s="34">
+        <f t="shared" ref="L574" si="557">SUM(E572:E573)</f>
+        <v>0</v>
+      </c>
+      <c r="M574" s="34">
+        <f t="shared" ref="M574" si="558">SUM(F572:F573)</f>
+        <v>7</v>
+      </c>
+      <c r="N574" s="34">
+        <f t="shared" ref="N574" si="559">SUM(G572:G573)</f>
+        <v>5</v>
+      </c>
+      <c r="O574" s="34">
+        <f t="shared" ref="O574" si="560">SUM(H572:H573)</f>
+        <v>8</v>
+      </c>
+      <c r="P574" s="34">
+        <f t="shared" ref="P574" si="561">SUM(I572:I573)</f>
+        <v>7</v>
+      </c>
+      <c r="Q574" s="34">
+        <f t="shared" ref="Q574" si="562">SUM(J572:J573)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A575" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C575">
+        <v>2</v>
+      </c>
+      <c r="F575">
+        <v>4</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575">
+        <v>5</v>
+      </c>
+      <c r="I575">
+        <v>4</v>
+      </c>
+      <c r="J575">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="G576">
+        <v>2</v>
+      </c>
+      <c r="H576">
+        <v>3</v>
+      </c>
+      <c r="I576">
+        <v>3</v>
+      </c>
+      <c r="J576">
+        <v>4</v>
+      </c>
+      <c r="R576">
+        <f>SUM(C575:J575)</f>
+        <v>25</v>
+      </c>
+      <c r="S576">
+        <f>SUM(C576:J576)</f>
+        <v>15</v>
+      </c>
+      <c r="T576">
+        <f>R576+S576</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K577" s="34">
+        <f>SUM(C575:C576)</f>
+        <v>2</v>
+      </c>
+      <c r="L577" s="34">
+        <f t="shared" ref="L577" si="563">SUM(E575:E576)</f>
+        <v>0</v>
+      </c>
+      <c r="M577" s="34">
+        <f t="shared" ref="M577" si="564">SUM(F575:F576)</f>
+        <v>7</v>
+      </c>
+      <c r="N577" s="34">
+        <f t="shared" ref="N577" si="565">SUM(G575:G576)</f>
+        <v>5</v>
+      </c>
+      <c r="O577" s="34">
+        <f t="shared" ref="O577" si="566">SUM(H575:H576)</f>
+        <v>8</v>
+      </c>
+      <c r="P577" s="34">
+        <f t="shared" ref="P577" si="567">SUM(I575:I576)</f>
+        <v>7</v>
+      </c>
+      <c r="Q577" s="34">
+        <f t="shared" ref="Q577" si="568">SUM(J575:J576)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A578" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C578">
+        <v>3</v>
+      </c>
+      <c r="F578">
+        <v>4</v>
+      </c>
+      <c r="G578">
+        <v>3</v>
+      </c>
+      <c r="H578">
+        <v>4</v>
+      </c>
+      <c r="I578">
+        <v>4</v>
+      </c>
+      <c r="J578">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>3</v>
+      </c>
+      <c r="G579">
+        <v>2</v>
+      </c>
+      <c r="H579">
+        <v>3</v>
+      </c>
+      <c r="I579">
+        <v>3</v>
+      </c>
+      <c r="J579">
+        <v>5</v>
+      </c>
+      <c r="R579">
+        <f>SUM(C578:J578)</f>
+        <v>25</v>
+      </c>
+      <c r="S579">
+        <f>SUM(C579:J579)</f>
+        <v>16</v>
+      </c>
+      <c r="T579">
+        <f>R579+S579</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K580" s="34">
+        <f>SUM(C578:C579)</f>
+        <v>3</v>
+      </c>
+      <c r="L580" s="34">
+        <f t="shared" ref="L580" si="569">SUM(E578:E579)</f>
+        <v>0</v>
+      </c>
+      <c r="M580" s="34">
+        <f t="shared" ref="M580" si="570">SUM(F578:F579)</f>
+        <v>7</v>
+      </c>
+      <c r="N580" s="34">
+        <f t="shared" ref="N580" si="571">SUM(G578:G579)</f>
+        <v>5</v>
+      </c>
+      <c r="O580" s="34">
+        <f t="shared" ref="O580" si="572">SUM(H578:H579)</f>
+        <v>7</v>
+      </c>
+      <c r="P580" s="34">
+        <f t="shared" ref="P580" si="573">SUM(I578:I579)</f>
+        <v>7</v>
+      </c>
+      <c r="Q580" s="34">
+        <f t="shared" ref="Q580" si="574">SUM(J578:J579)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A581" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C581">
+        <v>2</v>
+      </c>
+      <c r="F581">
+        <v>4</v>
+      </c>
+      <c r="G581">
+        <v>3</v>
+      </c>
+      <c r="H581">
+        <v>4</v>
+      </c>
+      <c r="I581">
+        <v>4</v>
+      </c>
+      <c r="J581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>3</v>
+      </c>
+      <c r="G582">
+        <v>2</v>
+      </c>
+      <c r="H582">
+        <v>3</v>
+      </c>
+      <c r="I582">
+        <v>3</v>
+      </c>
+      <c r="J582">
+        <v>5</v>
+      </c>
+      <c r="R582">
+        <f>SUM(C581:J581)</f>
+        <v>24</v>
+      </c>
+      <c r="S582">
+        <f>SUM(C582:J582)</f>
+        <v>16</v>
+      </c>
+      <c r="T582">
+        <f>R582+S582</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K583" s="34">
+        <f>SUM(C581:C582)</f>
+        <v>2</v>
+      </c>
+      <c r="L583" s="34">
+        <f t="shared" ref="L583" si="575">SUM(E581:E582)</f>
+        <v>0</v>
+      </c>
+      <c r="M583" s="34">
+        <f t="shared" ref="M583" si="576">SUM(F581:F582)</f>
+        <v>7</v>
+      </c>
+      <c r="N583" s="34">
+        <f t="shared" ref="N583" si="577">SUM(G581:G582)</f>
+        <v>5</v>
+      </c>
+      <c r="O583" s="34">
+        <f t="shared" ref="O583" si="578">SUM(H581:H582)</f>
+        <v>7</v>
+      </c>
+      <c r="P583" s="34">
+        <f t="shared" ref="P583" si="579">SUM(I581:I582)</f>
+        <v>7</v>
+      </c>
+      <c r="Q583" s="34">
+        <f t="shared" ref="Q583" si="580">SUM(J581:J582)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A584" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+      <c r="F584">
+        <v>4</v>
+      </c>
+      <c r="G584">
+        <v>3</v>
+      </c>
+      <c r="H584">
+        <v>4</v>
+      </c>
+      <c r="I584">
+        <v>4</v>
+      </c>
+      <c r="J584">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>3</v>
+      </c>
+      <c r="G585">
+        <v>1.5</v>
+      </c>
+      <c r="H585">
+        <v>3</v>
+      </c>
+      <c r="I585">
+        <v>3</v>
+      </c>
+      <c r="J585">
+        <v>5</v>
+      </c>
+      <c r="R585">
+        <f>SUM(C584:J584)</f>
+        <v>24</v>
+      </c>
+      <c r="S585">
+        <f>SUM(C585:J585)</f>
+        <v>15.5</v>
+      </c>
+      <c r="T585">
+        <f>R585+S585</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K586" s="34">
+        <f>SUM(C584:C585)</f>
+        <v>2</v>
+      </c>
+      <c r="L586" s="34">
+        <f t="shared" ref="L586" si="581">SUM(E584:E585)</f>
+        <v>0</v>
+      </c>
+      <c r="M586" s="34">
+        <f t="shared" ref="M586" si="582">SUM(F584:F585)</f>
+        <v>7</v>
+      </c>
+      <c r="N586" s="34">
+        <f t="shared" ref="N586" si="583">SUM(G584:G585)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O586" s="34">
+        <f t="shared" ref="O586" si="584">SUM(H584:H585)</f>
+        <v>7</v>
+      </c>
+      <c r="P586" s="34">
+        <f t="shared" ref="P586" si="585">SUM(I584:I585)</f>
+        <v>7</v>
+      </c>
+      <c r="Q586" s="34">
+        <f t="shared" ref="Q586" si="586">SUM(J584:J585)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A587" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+      <c r="J587">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="R588">
+        <f>SUM(C587:J587)</f>
+        <v>9</v>
+      </c>
+      <c r="S588">
+        <f>SUM(C588:J588)</f>
+        <v>0</v>
+      </c>
+      <c r="T588">
+        <f>R588+S588</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A590" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="20" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -26201,12 +31807,496 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C5:C89)</f>
+        <v>89077</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G5:G18)</f>
+        <v>60000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4">
+        <f>G4-C4</f>
+        <v>-29077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5">
+        <v>410</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6">
+        <v>12000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8">
+        <v>-100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9">
+        <v>8000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38">
+        <v>7000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="E39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26850,10 +32940,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26948,6 +33038,17 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="538">
   <si>
     <t>UP</t>
   </si>
@@ -1549,6 +1549,114 @@
   <si>
     <t>18/9/2018
 23/1/2019</t>
+  </si>
+  <si>
+    <t>BayanthaK</t>
+  </si>
+  <si>
+    <t>Total Adar theevanam / month / 5 cows</t>
+  </si>
+  <si>
+    <t>1 velaikku</t>
+  </si>
+  <si>
+    <t>for every</t>
+  </si>
+  <si>
+    <t>periya karuppu</t>
+  </si>
+  <si>
+    <t>Kombu vellaikku</t>
+  </si>
+  <si>
+    <t>Below detail is as of 27th Jan, 2019</t>
+  </si>
+  <si>
+    <t>&lt;== all are in cups/velai. Each cup is 0.75</t>
+  </si>
+  <si>
+    <t>Feed/day</t>
+  </si>
+  <si>
+    <t>Pottu boosa/day</t>
+  </si>
+  <si>
+    <t>26/1/2018</t>
+  </si>
+  <si>
+    <t>27/1/2018</t>
+  </si>
+  <si>
+    <t>28/1/2018</t>
+  </si>
+  <si>
+    <t>29/1/2018</t>
+  </si>
+  <si>
+    <t>30/1/2018</t>
+  </si>
+  <si>
+    <t>31/1/2018</t>
+  </si>
+  <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>Kgs for cups</t>
+  </si>
+  <si>
+    <t>Per/velai</t>
+  </si>
+  <si>
+    <t>Per/day</t>
+  </si>
+  <si>
+    <t>Below detail is as of 2nd Feb, 2019</t>
+  </si>
+  <si>
+    <t>Per/month</t>
+  </si>
+  <si>
+    <t>SKM bypass</t>
+  </si>
+  <si>
+    <t>Rs. 890/mootai(50kgs)</t>
+  </si>
+  <si>
+    <t>Total Kgs for X cows</t>
+  </si>
+  <si>
+    <t>Jersey(1)</t>
+  </si>
+  <si>
+    <t>HF(1)</t>
+  </si>
+  <si>
+    <t>vellai, periya karuppu(2)</t>
+  </si>
+  <si>
+    <t>Others(4)</t>
+  </si>
+  <si>
+    <t>Per day adar theevanam/cow</t>
+  </si>
+  <si>
+    <t>For calves</t>
+  </si>
+  <si>
+    <t>Moottai needed for a month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>15th January</t>
+  </si>
+  <si>
+    <t>20th January</t>
+  </si>
+  <si>
+    <t>26th January</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,6 +2001,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1907,9 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2036,7 +2147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2247,11 +2357,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1760995856"/>
-        <c:axId val="-1760990960"/>
+        <c:axId val="-1661455088"/>
+        <c:axId val="-1433600832"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1760995856"/>
+        <c:axId val="-1661455088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,14 +2404,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1760990960"/>
+        <c:crossAx val="-1433600832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1760990960"/>
+        <c:axId val="-1433600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1760995856"/>
+        <c:crossAx val="-1661455088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2441,7 +2551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2652,11 +2761,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1760991504"/>
-        <c:axId val="-1760993680"/>
+        <c:axId val="-1433593216"/>
+        <c:axId val="-1433598656"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1760991504"/>
+        <c:axId val="-1433593216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,14 +2808,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1760993680"/>
+        <c:crossAx val="-1433598656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1760993680"/>
+        <c:axId val="-1433598656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1760991504"/>
+        <c:crossAx val="-1433593216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4309,16 +4418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4327,24 +4437,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4499,18 +4609,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="I18" s="59" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="I18" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -4715,14 +4825,14 @@
       </c>
       <c r="D32">
         <f>SUM(D33:D67)</f>
-        <v>35899.399999999994</v>
+        <v>35842.199999999997</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>273</v>
       </c>
       <c r="H32">
         <f>SUM(H33:H67)</f>
-        <v>45761.599999999999</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4904,7 +5014,7 @@
       </c>
       <c r="N53">
         <f>J64+J79+J95+J111</f>
-        <v>12276</v>
+        <v>11592</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -4935,7 +5045,7 @@
       </c>
       <c r="N54">
         <f>N59+N74+N88+N105</f>
-        <v>480</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4969,7 +5079,7 @@
       </c>
       <c r="N55">
         <f>N60+N75+N89+N106</f>
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -5068,11 +5178,11 @@
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
       <c r="M59" s="54" t="s">
-        <v>222</v>
+        <v>510</v>
       </c>
       <c r="N59" s="54">
-        <f>2*3*30</f>
-        <v>180</v>
+        <f>SUM(B64,B79,B95,B111)</f>
+        <v>7.75</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -5093,13 +5203,14 @@
       <c r="I60" s="44"/>
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
-      <c r="L60" s="45"/>
+      <c r="L60" s="45" t="s">
+        <v>363</v>
+      </c>
       <c r="M60" s="54" t="s">
-        <v>271</v>
+        <v>511</v>
       </c>
       <c r="N60" s="54">
-        <f>2*2*30</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -5123,21 +5234,23 @@
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
       <c r="K61" s="44"/>
-      <c r="L61" s="45"/>
+      <c r="L61" s="45" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
         <v>271</v>
       </c>
       <c r="B62" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" s="44">
         <v>20.6</v>
       </c>
       <c r="D62" s="44">
         <f>B62*C62</f>
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
@@ -5169,7 +5282,7 @@
       </c>
       <c r="H63" s="44">
         <f>D66+(D59/2)</f>
-        <v>91.600000000000009</v>
+        <v>63</v>
       </c>
       <c r="I63" s="44"/>
       <c r="J63" s="44" t="s">
@@ -5183,14 +5296,14 @@
         <v>222</v>
       </c>
       <c r="B64" s="44">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="C64" s="44">
         <v>16.8</v>
       </c>
       <c r="D64" s="44">
         <f>B64*C64</f>
-        <v>50.400000000000006</v>
+        <v>63</v>
       </c>
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
@@ -5199,7 +5312,7 @@
       <c r="I64" s="44"/>
       <c r="J64" s="44">
         <f>H63*2*30</f>
-        <v>5496.0000000000009</v>
+        <v>3780</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="45"/>
@@ -5222,12 +5335,12 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47">
         <f>SUM(B61:B64)</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="C66" s="47"/>
       <c r="D66" s="47">
         <f>SUM(D61:D64)</f>
-        <v>91.600000000000009</v>
+        <v>63</v>
       </c>
       <c r="E66" s="47"/>
       <c r="F66" s="47"/>
@@ -5475,14 +5588,14 @@
         <v>271</v>
       </c>
       <c r="B77" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="44">
         <v>20.6</v>
       </c>
       <c r="D77" s="44">
         <f>B77*C77</f>
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
@@ -5514,11 +5627,11 @@
       </c>
       <c r="H78" s="44">
         <f>D81+(D74/2)</f>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I78" s="44"/>
       <c r="J78" s="44" t="s">
-        <v>362</v>
+        <v>503</v>
       </c>
       <c r="K78" s="44"/>
       <c r="L78" s="45"/>
@@ -5528,14 +5641,14 @@
         <v>222</v>
       </c>
       <c r="B79" s="44">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C79" s="44">
         <v>16.8</v>
       </c>
       <c r="D79" s="44">
         <f>B79*C79</f>
-        <v>50.400000000000006</v>
+        <v>42</v>
       </c>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
@@ -5543,8 +5656,8 @@
       <c r="H79" s="44"/>
       <c r="I79" s="44"/>
       <c r="J79" s="44">
-        <f>H78*2*30</f>
-        <v>4260</v>
+        <f>H78*5*30</f>
+        <v>6300</v>
       </c>
       <c r="K79" s="44"/>
       <c r="L79" s="45"/>
@@ -5567,12 +5680,12 @@
       <c r="A81" s="46"/>
       <c r="B81" s="47">
         <f>SUM(B76:B79)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C81" s="47"/>
       <c r="D81" s="47">
         <f>SUM(D76:D79)</f>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E81" s="47"/>
       <c r="F81" s="47"/>
@@ -6232,7 +6345,7 @@
       </c>
       <c r="H110" s="44">
         <f>D113+(D106/2)</f>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="I110" s="44"/>
       <c r="J110" s="44" t="s">
@@ -6246,14 +6359,14 @@
         <v>222</v>
       </c>
       <c r="B111" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="44">
         <v>16.8</v>
       </c>
       <c r="D111" s="44">
         <f>B111*C111</f>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="E111" s="44"/>
       <c r="F111" s="44"/>
@@ -6262,7 +6375,7 @@
       <c r="I111" s="44"/>
       <c r="J111" s="44">
         <f>H110*2*30</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="K111" s="44"/>
       <c r="L111" s="45"/>
@@ -6285,12 +6398,12 @@
       <c r="A113" s="46"/>
       <c r="B113" s="47">
         <f>SUM(B108:B111)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47">
         <f>SUM(D108:D111)</f>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="E113" s="47"/>
       <c r="F113" s="47"/>
@@ -6340,6 +6453,208 @@
       <c r="D121">
         <f>C121/50</f>
         <v>11.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138" t="s">
+        <v>505</v>
+      </c>
+      <c r="D138" t="s">
+        <v>506</v>
+      </c>
+      <c r="E138" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>504</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>2.75</v>
+      </c>
+      <c r="D139">
+        <v>1.5</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B141" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C141" t="s">
+        <v>519</v>
+      </c>
+      <c r="D141" t="s">
+        <v>518</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <f>C142*1</f>
+        <v>1.875</v>
+      </c>
+      <c r="C142">
+        <f>D142*0.75</f>
+        <v>1.875</v>
+      </c>
+      <c r="D142">
+        <v>2.5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>527</v>
+      </c>
+      <c r="F142">
+        <f>C142*2</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <f>C143*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C143">
+        <f>D143*0.75</f>
+        <v>1.5</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>528</v>
+      </c>
+      <c r="F143">
+        <f>C143*2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <f>C144*4</f>
+        <v>4.5</v>
+      </c>
+      <c r="C144">
+        <f>D144*0.75</f>
+        <v>1.125</v>
+      </c>
+      <c r="D144">
+        <v>1.5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>530</v>
+      </c>
+      <c r="F144">
+        <f>C144*2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <f>C145*2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C145">
+        <f>D145*0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>529</v>
+      </c>
+      <c r="F145">
+        <f>C145*2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <f>C146*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C146">
+        <f>D146*0.75</f>
+        <v>1.5</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F146">
+        <f>C146*2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B147" s="41">
+        <f>SUM(B142:B146)</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B148">
+        <f>B147*2</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B149">
+        <f>B148*31</f>
+        <v>674.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="B150">
+        <f>(B149/50)</f>
+        <v>13.484999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B152" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6364,7 +6679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6556,7 +6871,7 @@
       <c r="B10" s="20">
         <v>43141</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="56">
         <v>43647</v>
       </c>
       <c r="F10" t="s">
@@ -7240,7 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -16977,11 +17292,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T602"/>
+  <dimension ref="A1:T627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K546" sqref="K546"/>
+      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R628" sqref="R628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17847,15 +18162,15 @@
         <v>319</v>
       </c>
       <c r="J81" s="13"/>
-      <c r="K81" s="60">
+      <c r="K81" s="62">
         <f>SUM(K83:P83)</f>
         <v>56.75</v>
       </c>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
     </row>
     <row r="82" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -17934,7 +18249,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="60"/>
+      <c r="I84" s="62"/>
       <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -17953,7 +18268,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="60"/>
+      <c r="I85" s="62"/>
       <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -31749,6 +32064,18 @@
       <c r="C587">
         <v>2</v>
       </c>
+      <c r="F587">
+        <v>4</v>
+      </c>
+      <c r="G587">
+        <v>3</v>
+      </c>
+      <c r="H587">
+        <v>4</v>
+      </c>
+      <c r="I587">
+        <v>4</v>
+      </c>
       <c r="J587">
         <v>7</v>
       </c>
@@ -31757,42 +32084,1109 @@
       <c r="C588">
         <v>0</v>
       </c>
+      <c r="F588">
+        <v>3</v>
+      </c>
+      <c r="G588">
+        <v>2</v>
+      </c>
+      <c r="H588">
+        <v>3</v>
+      </c>
+      <c r="I588">
+        <v>2</v>
+      </c>
+      <c r="J588">
+        <v>5</v>
+      </c>
       <c r="R588">
         <f>SUM(C587:J587)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S588">
         <f>SUM(C588:J588)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T588">
         <f>R588+S588</f>
-        <v>9</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K589" s="34">
+        <f>SUM(C587:C588)</f>
+        <v>2</v>
+      </c>
+      <c r="L589" s="34">
+        <f t="shared" ref="L589" si="587">SUM(E587:E588)</f>
+        <v>0</v>
+      </c>
+      <c r="M589" s="34">
+        <f t="shared" ref="M589" si="588">SUM(F587:F588)</f>
+        <v>7</v>
+      </c>
+      <c r="N589" s="34">
+        <f t="shared" ref="N589" si="589">SUM(G587:G588)</f>
+        <v>5</v>
+      </c>
+      <c r="O589" s="34">
+        <f t="shared" ref="O589" si="590">SUM(H587:H588)</f>
+        <v>7</v>
+      </c>
+      <c r="P589" s="34">
+        <f t="shared" ref="P589" si="591">SUM(I587:I588)</f>
+        <v>6</v>
+      </c>
+      <c r="Q589" s="34">
+        <f t="shared" ref="Q589" si="592">SUM(J587:J588)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="20" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C590">
+        <v>3</v>
+      </c>
+      <c r="F590">
+        <v>4</v>
+      </c>
+      <c r="G590">
+        <v>3</v>
+      </c>
+      <c r="H590">
+        <v>4</v>
+      </c>
+      <c r="I590">
+        <v>3</v>
+      </c>
+      <c r="J590">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>3</v>
+      </c>
+      <c r="G591">
+        <v>2</v>
+      </c>
+      <c r="H591">
+        <v>3</v>
+      </c>
+      <c r="I591">
+        <v>3</v>
+      </c>
+      <c r="J591">
+        <v>5</v>
+      </c>
+      <c r="R591">
+        <f>SUM(C590:J590)</f>
+        <v>24</v>
+      </c>
+      <c r="S591">
+        <f>SUM(C591:J591)</f>
+        <v>16</v>
+      </c>
+      <c r="T591">
+        <f>R591+S591</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K592" s="34">
+        <f>SUM(C590:C591)</f>
+        <v>3</v>
+      </c>
+      <c r="L592" s="34">
+        <f t="shared" ref="L592" si="593">SUM(E590:E591)</f>
+        <v>0</v>
+      </c>
+      <c r="M592" s="34">
+        <f t="shared" ref="M592" si="594">SUM(F590:F591)</f>
+        <v>7</v>
+      </c>
+      <c r="N592" s="34">
+        <f t="shared" ref="N592" si="595">SUM(G590:G591)</f>
+        <v>5</v>
+      </c>
+      <c r="O592" s="34">
+        <f t="shared" ref="O592" si="596">SUM(H590:H591)</f>
+        <v>7</v>
+      </c>
+      <c r="P592" s="34">
+        <f t="shared" ref="P592" si="597">SUM(I590:I591)</f>
+        <v>6</v>
+      </c>
+      <c r="Q592" s="34">
+        <f t="shared" ref="Q592" si="598">SUM(J590:J591)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="20" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C593">
+        <v>3</v>
+      </c>
+      <c r="F593">
+        <v>4</v>
+      </c>
+      <c r="G593">
+        <v>3</v>
+      </c>
+      <c r="H593">
+        <v>5</v>
+      </c>
+      <c r="I593">
+        <v>3</v>
+      </c>
+      <c r="J593">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>2</v>
+      </c>
+      <c r="G594">
+        <v>2</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>3</v>
+      </c>
+      <c r="J594">
+        <v>4</v>
+      </c>
+      <c r="R594">
+        <f>SUM(C593:J593)</f>
+        <v>25</v>
+      </c>
+      <c r="S594">
+        <f>SUM(C594:J594)</f>
+        <v>14</v>
+      </c>
+      <c r="T594">
+        <f>R594+S594</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K595" s="34">
+        <f>SUM(C593:C594)</f>
+        <v>3</v>
+      </c>
+      <c r="L595" s="34">
+        <f t="shared" ref="L595" si="599">SUM(E593:E594)</f>
+        <v>0</v>
+      </c>
+      <c r="M595" s="34">
+        <f t="shared" ref="M595" si="600">SUM(F593:F594)</f>
+        <v>6</v>
+      </c>
+      <c r="N595" s="34">
+        <f t="shared" ref="N595" si="601">SUM(G593:G594)</f>
+        <v>5</v>
+      </c>
+      <c r="O595" s="34">
+        <f t="shared" ref="O595" si="602">SUM(H593:H594)</f>
+        <v>8</v>
+      </c>
+      <c r="P595" s="34">
+        <f t="shared" ref="P595" si="603">SUM(I593:I594)</f>
+        <v>6</v>
+      </c>
+      <c r="Q595" s="34">
+        <f t="shared" ref="Q595" si="604">SUM(J593:J594)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596" s="20" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C596">
+        <v>3</v>
+      </c>
+      <c r="F596">
+        <v>4</v>
+      </c>
+      <c r="G596">
+        <v>3</v>
+      </c>
+      <c r="H596">
+        <v>4</v>
+      </c>
+      <c r="I596">
+        <v>3</v>
+      </c>
+      <c r="J596">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+      <c r="G597">
+        <v>2</v>
+      </c>
+      <c r="H597">
+        <v>3</v>
+      </c>
+      <c r="I597">
+        <v>3</v>
+      </c>
+      <c r="J597">
+        <v>5</v>
+      </c>
+      <c r="R597">
+        <f>SUM(C596:J596)</f>
+        <v>24</v>
+      </c>
+      <c r="S597">
+        <f>SUM(C597:J597)</f>
+        <v>15</v>
+      </c>
+      <c r="T597">
+        <f>R597+S597</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K598" s="34">
+        <f>SUM(C596:C597)</f>
+        <v>3</v>
+      </c>
+      <c r="L598" s="34">
+        <f t="shared" ref="L598" si="605">SUM(E596:E597)</f>
+        <v>0</v>
+      </c>
+      <c r="M598" s="34">
+        <f t="shared" ref="M598" si="606">SUM(F596:F597)</f>
+        <v>6</v>
+      </c>
+      <c r="N598" s="34">
+        <f t="shared" ref="N598" si="607">SUM(G596:G597)</f>
+        <v>5</v>
+      </c>
+      <c r="O598" s="34">
+        <f t="shared" ref="O598" si="608">SUM(H596:H597)</f>
+        <v>7</v>
+      </c>
+      <c r="P598" s="34">
+        <f t="shared" ref="P598" si="609">SUM(I596:I597)</f>
+        <v>6</v>
+      </c>
+      <c r="Q598" s="34">
+        <f t="shared" ref="Q598" si="610">SUM(J596:J597)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A599" s="20" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="F599">
+        <v>4</v>
+      </c>
+      <c r="G599">
+        <v>3</v>
+      </c>
+      <c r="H599">
+        <v>4</v>
+      </c>
+      <c r="I599">
+        <v>3</v>
+      </c>
+      <c r="J599">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>2</v>
+      </c>
+      <c r="G600">
+        <v>2</v>
+      </c>
+      <c r="H600">
+        <v>3</v>
+      </c>
+      <c r="I600">
+        <v>2</v>
+      </c>
+      <c r="J600">
+        <v>5</v>
+      </c>
+      <c r="R600">
+        <f>SUM(C599:J599)</f>
+        <v>24</v>
+      </c>
+      <c r="S600">
+        <f>SUM(C600:J600)</f>
+        <v>14</v>
+      </c>
+      <c r="T600">
+        <f>R600+S600</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K601" s="34">
+        <f>SUM(C599:C600)</f>
+        <v>3</v>
+      </c>
+      <c r="L601" s="34">
+        <f t="shared" ref="L601" si="611">SUM(E599:E600)</f>
+        <v>0</v>
+      </c>
+      <c r="M601" s="34">
+        <f t="shared" ref="M601" si="612">SUM(F599:F600)</f>
+        <v>6</v>
+      </c>
+      <c r="N601" s="34">
+        <f t="shared" ref="N601" si="613">SUM(G599:G600)</f>
+        <v>5</v>
+      </c>
+      <c r="O601" s="34">
+        <f t="shared" ref="O601" si="614">SUM(H599:H600)</f>
+        <v>7</v>
+      </c>
+      <c r="P601" s="34">
+        <f t="shared" ref="P601" si="615">SUM(I599:I600)</f>
+        <v>5</v>
+      </c>
+      <c r="Q601" s="34">
+        <f t="shared" ref="Q601" si="616">SUM(J599:J600)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A602" s="20" t="s">
         <v>494</v>
+      </c>
+      <c r="C602">
+        <v>3</v>
+      </c>
+      <c r="F602">
+        <v>4</v>
+      </c>
+      <c r="G602">
+        <v>3</v>
+      </c>
+      <c r="H602">
+        <v>5</v>
+      </c>
+      <c r="I602">
+        <v>3</v>
+      </c>
+      <c r="J602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="F603">
+        <v>3</v>
+      </c>
+      <c r="G603">
+        <v>2</v>
+      </c>
+      <c r="H603">
+        <v>4</v>
+      </c>
+      <c r="I603">
+        <v>2</v>
+      </c>
+      <c r="J603">
+        <v>5</v>
+      </c>
+      <c r="R603">
+        <f>SUM(C602:J602)</f>
+        <v>24</v>
+      </c>
+      <c r="S603">
+        <f>SUM(C603:J603)</f>
+        <v>16</v>
+      </c>
+      <c r="T603">
+        <f>R603+S603</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A604" s="20"/>
+      <c r="K604" s="34">
+        <f>SUM(C602:C603)</f>
+        <v>3</v>
+      </c>
+      <c r="L604" s="34">
+        <f t="shared" ref="L604" si="617">SUM(E602:E603)</f>
+        <v>0</v>
+      </c>
+      <c r="M604" s="34">
+        <f t="shared" ref="M604" si="618">SUM(F602:F603)</f>
+        <v>7</v>
+      </c>
+      <c r="N604" s="34">
+        <f t="shared" ref="N604" si="619">SUM(G602:G603)</f>
+        <v>5</v>
+      </c>
+      <c r="O604" s="34">
+        <f t="shared" ref="O604" si="620">SUM(H602:H603)</f>
+        <v>9</v>
+      </c>
+      <c r="P604" s="34">
+        <f t="shared" ref="P604" si="621">SUM(I602:I603)</f>
+        <v>5</v>
+      </c>
+      <c r="Q604" s="34">
+        <f t="shared" ref="Q604" si="622">SUM(J602:J603)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A605" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C605">
+        <v>2</v>
+      </c>
+      <c r="F605">
+        <v>4</v>
+      </c>
+      <c r="G605">
+        <v>3</v>
+      </c>
+      <c r="H605">
+        <v>5</v>
+      </c>
+      <c r="I605">
+        <v>4</v>
+      </c>
+      <c r="J605">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>2</v>
+      </c>
+      <c r="G606">
+        <v>2</v>
+      </c>
+      <c r="H606">
+        <v>3</v>
+      </c>
+      <c r="I606">
+        <v>2</v>
+      </c>
+      <c r="J606">
+        <v>5</v>
+      </c>
+      <c r="R606">
+        <f>SUM(C605:J605)</f>
+        <v>25</v>
+      </c>
+      <c r="S606">
+        <f>SUM(C606:J606)</f>
+        <v>14</v>
+      </c>
+      <c r="T606">
+        <f>R606+S606</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K607" s="34">
+        <f>SUM(C605:C606)</f>
+        <v>2</v>
+      </c>
+      <c r="L607" s="34">
+        <f t="shared" ref="L607" si="623">SUM(E605:E606)</f>
+        <v>0</v>
+      </c>
+      <c r="M607" s="34">
+        <f t="shared" ref="M607" si="624">SUM(F605:F606)</f>
+        <v>6</v>
+      </c>
+      <c r="N607" s="34">
+        <f t="shared" ref="N607" si="625">SUM(G605:G606)</f>
+        <v>5</v>
+      </c>
+      <c r="O607" s="34">
+        <f t="shared" ref="O607" si="626">SUM(H605:H606)</f>
+        <v>8</v>
+      </c>
+      <c r="P607" s="34">
+        <f t="shared" ref="P607" si="627">SUM(I605:I606)</f>
+        <v>6</v>
+      </c>
+      <c r="Q607" s="34">
+        <f t="shared" ref="Q607" si="628">SUM(J605:J606)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A608" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C608">
+        <v>2</v>
+      </c>
+      <c r="F608">
+        <v>4</v>
+      </c>
+      <c r="G608">
+        <v>3</v>
+      </c>
+      <c r="H608">
+        <v>5</v>
+      </c>
+      <c r="I608">
+        <v>4</v>
+      </c>
+      <c r="J608">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>3</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609">
+        <v>3</v>
+      </c>
+      <c r="I609">
+        <v>3</v>
+      </c>
+      <c r="J609">
+        <v>4</v>
+      </c>
+      <c r="R609">
+        <f>SUM(C608:J608)</f>
+        <v>25</v>
+      </c>
+      <c r="S609">
+        <f>SUM(C609:J609)</f>
+        <v>14</v>
+      </c>
+      <c r="T609">
+        <f>R609+S609</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="610" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K610" s="34">
+        <f>SUM(C608:C609)</f>
+        <v>2</v>
+      </c>
+      <c r="L610" s="34">
+        <f t="shared" ref="L610" si="629">SUM(E608:E609)</f>
+        <v>0</v>
+      </c>
+      <c r="M610" s="34">
+        <f t="shared" ref="M610" si="630">SUM(F608:F609)</f>
+        <v>7</v>
+      </c>
+      <c r="N610" s="34">
+        <f t="shared" ref="N610" si="631">SUM(G608:G609)</f>
+        <v>4</v>
+      </c>
+      <c r="O610" s="34">
+        <f t="shared" ref="O610" si="632">SUM(H608:H609)</f>
+        <v>8</v>
+      </c>
+      <c r="P610" s="34">
+        <f t="shared" ref="P610" si="633">SUM(I608:I609)</f>
+        <v>7</v>
+      </c>
+      <c r="Q610" s="34">
+        <f t="shared" ref="Q610" si="634">SUM(J608:J609)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A611" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>3</v>
+      </c>
+      <c r="G611">
+        <v>3</v>
+      </c>
+      <c r="H611">
+        <v>4</v>
+      </c>
+      <c r="I611">
+        <v>3</v>
+      </c>
+      <c r="J611">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>2</v>
+      </c>
+      <c r="G612">
+        <v>1</v>
+      </c>
+      <c r="H612">
+        <v>3</v>
+      </c>
+      <c r="I612">
+        <v>3</v>
+      </c>
+      <c r="J612">
+        <v>5</v>
+      </c>
+      <c r="R612">
+        <f>SUM(C611:J611)</f>
+        <v>20</v>
+      </c>
+      <c r="S612">
+        <f>SUM(C612:J612)</f>
+        <v>14</v>
+      </c>
+      <c r="T612">
+        <f>R612+S612</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K613" s="34">
+        <f>SUM(C611:C612)</f>
+        <v>1</v>
+      </c>
+      <c r="L613" s="34">
+        <f t="shared" ref="L613" si="635">SUM(E611:E612)</f>
+        <v>0</v>
+      </c>
+      <c r="M613" s="34">
+        <f t="shared" ref="M613" si="636">SUM(F611:F612)</f>
+        <v>5</v>
+      </c>
+      <c r="N613" s="34">
+        <f t="shared" ref="N613" si="637">SUM(G611:G612)</f>
+        <v>4</v>
+      </c>
+      <c r="O613" s="34">
+        <f t="shared" ref="O613" si="638">SUM(H611:H612)</f>
+        <v>7</v>
+      </c>
+      <c r="P613" s="34">
+        <f t="shared" ref="P613" si="639">SUM(I611:I612)</f>
+        <v>6</v>
+      </c>
+      <c r="Q613" s="34">
+        <f t="shared" ref="Q613" si="640">SUM(J611:J612)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="614" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A614" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+      <c r="F614">
+        <v>3</v>
+      </c>
+      <c r="G614">
+        <v>3</v>
+      </c>
+      <c r="H614">
+        <v>4</v>
+      </c>
+      <c r="I614">
+        <v>3</v>
+      </c>
+      <c r="J614">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>2</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615">
+        <v>3</v>
+      </c>
+      <c r="I615">
+        <v>2</v>
+      </c>
+      <c r="J615">
+        <v>5</v>
+      </c>
+      <c r="R615">
+        <f>SUM(C614:J614)</f>
+        <v>21</v>
+      </c>
+      <c r="S615">
+        <f>SUM(C615:J615)</f>
+        <v>13</v>
+      </c>
+      <c r="T615">
+        <f>R615+S615</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="616" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K616" s="34">
+        <f>SUM(C614:C615)</f>
+        <v>2</v>
+      </c>
+      <c r="L616" s="34">
+        <f t="shared" ref="L616" si="641">SUM(E614:E615)</f>
+        <v>0</v>
+      </c>
+      <c r="M616" s="34">
+        <f t="shared" ref="M616" si="642">SUM(F614:F615)</f>
+        <v>5</v>
+      </c>
+      <c r="N616" s="34">
+        <f t="shared" ref="N616" si="643">SUM(G614:G615)</f>
+        <v>4</v>
+      </c>
+      <c r="O616" s="34">
+        <f t="shared" ref="O616" si="644">SUM(H614:H615)</f>
+        <v>7</v>
+      </c>
+      <c r="P616" s="34">
+        <f t="shared" ref="P616" si="645">SUM(I614:I615)</f>
+        <v>5</v>
+      </c>
+      <c r="Q616" s="34">
+        <f t="shared" ref="Q616" si="646">SUM(J614:J615)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A617" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>3</v>
+      </c>
+      <c r="G617">
+        <v>2</v>
+      </c>
+      <c r="H617">
+        <v>4</v>
+      </c>
+      <c r="I617">
+        <v>3</v>
+      </c>
+      <c r="J617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>2</v>
+      </c>
+      <c r="G618">
+        <v>1</v>
+      </c>
+      <c r="H618">
+        <v>2</v>
+      </c>
+      <c r="I618">
+        <v>2</v>
+      </c>
+      <c r="J618">
+        <v>3</v>
+      </c>
+      <c r="R618">
+        <f>SUM(C617:J617)</f>
+        <v>19</v>
+      </c>
+      <c r="S618">
+        <f>SUM(C618:J618)</f>
+        <v>10</v>
+      </c>
+      <c r="T618">
+        <f>R618+S618</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K619" s="34">
+        <f>SUM(C617:C618)</f>
+        <v>1</v>
+      </c>
+      <c r="L619" s="34">
+        <f t="shared" ref="L619" si="647">SUM(E617:E618)</f>
+        <v>0</v>
+      </c>
+      <c r="M619" s="34">
+        <f t="shared" ref="M619" si="648">SUM(F617:F618)</f>
+        <v>5</v>
+      </c>
+      <c r="N619" s="34">
+        <f t="shared" ref="N619" si="649">SUM(G617:G618)</f>
+        <v>3</v>
+      </c>
+      <c r="O619" s="34">
+        <f t="shared" ref="O619" si="650">SUM(H617:H618)</f>
+        <v>6</v>
+      </c>
+      <c r="P619" s="34">
+        <f t="shared" ref="P619" si="651">SUM(I617:I618)</f>
+        <v>5</v>
+      </c>
+      <c r="Q619" s="34">
+        <f t="shared" ref="Q619" si="652">SUM(J617:J618)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A620" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>3</v>
+      </c>
+      <c r="G620">
+        <v>2</v>
+      </c>
+      <c r="H620">
+        <v>4</v>
+      </c>
+      <c r="I620">
+        <v>3</v>
+      </c>
+      <c r="J620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>2</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621">
+        <v>3</v>
+      </c>
+      <c r="I621">
+        <v>3</v>
+      </c>
+      <c r="J621">
+        <v>5</v>
+      </c>
+      <c r="R621">
+        <f>SUM(C620:J620)</f>
+        <v>18</v>
+      </c>
+      <c r="S621">
+        <f>SUM(C621:J621)</f>
+        <v>14</v>
+      </c>
+      <c r="T621">
+        <f>R621+S621</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="622" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K622" s="34">
+        <f>SUM(C620:C621)</f>
+        <v>0</v>
+      </c>
+      <c r="L622" s="34">
+        <f t="shared" ref="L622" si="653">SUM(E620:E621)</f>
+        <v>0</v>
+      </c>
+      <c r="M622" s="34">
+        <f t="shared" ref="M622" si="654">SUM(F620:F621)</f>
+        <v>5</v>
+      </c>
+      <c r="N622" s="34">
+        <f t="shared" ref="N622" si="655">SUM(G620:G621)</f>
+        <v>3</v>
+      </c>
+      <c r="O622" s="34">
+        <f t="shared" ref="O622" si="656">SUM(H620:H621)</f>
+        <v>7</v>
+      </c>
+      <c r="P622" s="34">
+        <f t="shared" ref="P622" si="657">SUM(I620:I621)</f>
+        <v>6</v>
+      </c>
+      <c r="Q622" s="34">
+        <f t="shared" ref="Q622" si="658">SUM(J620:J621)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A623" s="20">
+        <v>43102</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="E623">
+        <v>0</v>
+      </c>
+      <c r="F623">
+        <v>4</v>
+      </c>
+      <c r="G623">
+        <v>2</v>
+      </c>
+      <c r="H623">
+        <v>4</v>
+      </c>
+      <c r="I623">
+        <v>3</v>
+      </c>
+      <c r="J623">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>2</v>
+      </c>
+      <c r="G624">
+        <v>1</v>
+      </c>
+      <c r="H624">
+        <v>3</v>
+      </c>
+      <c r="I624">
+        <v>3</v>
+      </c>
+      <c r="J624">
+        <v>3</v>
+      </c>
+      <c r="R624">
+        <f>SUM(C623:J623)</f>
+        <v>19</v>
+      </c>
+      <c r="S624">
+        <f>SUM(C624:J624)</f>
+        <v>12</v>
+      </c>
+      <c r="T624">
+        <f>R624+S624</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="625" spans="11:20" x14ac:dyDescent="0.2">
+      <c r="K625" s="34">
+        <f>SUM(C623:C624)</f>
+        <v>0</v>
+      </c>
+      <c r="L625" s="34">
+        <f t="shared" ref="L625" si="659">SUM(E623:E624)</f>
+        <v>0</v>
+      </c>
+      <c r="M625" s="34">
+        <f t="shared" ref="M625" si="660">SUM(F623:F624)</f>
+        <v>6</v>
+      </c>
+      <c r="N625" s="34">
+        <f t="shared" ref="N625" si="661">SUM(G623:G624)</f>
+        <v>3</v>
+      </c>
+      <c r="O625" s="34">
+        <f t="shared" ref="O625" si="662">SUM(H623:H624)</f>
+        <v>7</v>
+      </c>
+      <c r="P625" s="34">
+        <f t="shared" ref="P625" si="663">SUM(I623:I624)</f>
+        <v>6</v>
+      </c>
+      <c r="Q625" s="34">
+        <f t="shared" ref="Q625" si="664">SUM(J623:J624)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" spans="11:20" x14ac:dyDescent="0.2">
+      <c r="R627">
+        <f>SUM(C626:J626)</f>
+        <v>0</v>
+      </c>
+      <c r="S627">
+        <f>SUM(C627:J627)</f>
+        <v>0</v>
+      </c>
+      <c r="T627">
+        <f>R627+S627</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31807,10 +33201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J40"/>
+  <dimension ref="A4:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31829,21 +33223,21 @@
       </c>
       <c r="C4">
         <f>SUM(C5:C89)</f>
-        <v>89077</v>
+        <v>92577</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>456</v>
       </c>
       <c r="G4">
         <f>SUM(G5:G18)</f>
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="I4" t="s">
         <v>457</v>
       </c>
       <c r="J4">
         <f>G4-C4</f>
-        <v>-29077</v>
+        <v>-20577</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -31947,6 +33341,12 @@
       <c r="C10">
         <v>500</v>
       </c>
+      <c r="F10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G10">
+        <v>12000</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -32294,6 +33694,39 @@
       </c>
       <c r="C40">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>535</v>
+      </c>
+      <c r="B41" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B42" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>537</v>
+      </c>
+      <c r="B43" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -32943,7 +34376,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="563">
   <si>
     <t>UP</t>
   </si>
@@ -1691,6 +1691,48 @@
     <t>23/12/2018
 20/1/2019
 11/2/2019</t>
+  </si>
+  <si>
+    <t>Feed and mineral mixture only</t>
+  </si>
+  <si>
+    <t>Only Feed</t>
+  </si>
+  <si>
+    <t>A-Formula-14</t>
+  </si>
+  <si>
+    <t>A-Formula-15</t>
+  </si>
+  <si>
+    <t>Co4(15kg)+Velimasal(.5kg)</t>
+  </si>
+  <si>
+    <t>24/2/2019</t>
+  </si>
+  <si>
+    <t>16/02/2019</t>
+  </si>
+  <si>
+    <t>Below detail is as of 3rd March, 2019</t>
+  </si>
+  <si>
+    <t>A-Formula-16</t>
+  </si>
+  <si>
+    <t>Refer Temp sheet</t>
+  </si>
+  <si>
+    <t>A-Formula-17</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>21/4/2019</t>
+  </si>
+  <si>
+    <t>18/06/2019</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,6 +2086,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2058,6 +2103,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2394,11 +2445,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-976869744"/>
-        <c:axId val="-976869200"/>
+        <c:axId val="1893953488"/>
+        <c:axId val="1893955664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-976869744"/>
+        <c:axId val="1893953488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,14 +2492,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-976869200"/>
+        <c:crossAx val="1893955664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-976869200"/>
+        <c:axId val="1893955664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-976869744"/>
+        <c:crossAx val="1893953488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,11 +2849,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-694895504"/>
-        <c:axId val="-694897136"/>
+        <c:axId val="1893950768"/>
+        <c:axId val="1893952400"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-694895504"/>
+        <c:axId val="1893950768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,14 +2896,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694897136"/>
+        <c:crossAx val="1893952400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-694897136"/>
+        <c:axId val="1893952400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +2954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-694895504"/>
+        <c:crossAx val="1893950768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4455,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4474,24 +4525,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4646,18 +4697,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="I18" s="62" t="s">
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="I18" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -6492,6 +6543,11 @@
         <v>11.4</v>
       </c>
     </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>507</v>
@@ -6691,6 +6747,174 @@
         <v>523</v>
       </c>
       <c r="B152" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B157" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C157" t="s">
+        <v>518</v>
+      </c>
+      <c r="D157" t="s">
+        <v>517</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <f>C158*1</f>
+        <v>1.875</v>
+      </c>
+      <c r="C158">
+        <f>D158*0.75</f>
+        <v>1.875</v>
+      </c>
+      <c r="D158">
+        <v>2.5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>526</v>
+      </c>
+      <c r="F158">
+        <f>C158*2</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <f>C159*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C159">
+        <f>D159*0.75</f>
+        <v>1.5</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>527</v>
+      </c>
+      <c r="F159">
+        <f>C159*2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <f>C160*4</f>
+        <v>4.5</v>
+      </c>
+      <c r="C160">
+        <f>D160*0.75</f>
+        <v>1.125</v>
+      </c>
+      <c r="D160">
+        <v>1.5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>529</v>
+      </c>
+      <c r="F160">
+        <f>C160*2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <f>C161*2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C161">
+        <f>D161*0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>528</v>
+      </c>
+      <c r="F161">
+        <f>C161*2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <f>C162*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="C162">
+        <f>D162*0.75</f>
+        <v>1.5</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>531</v>
+      </c>
+      <c r="F162">
+        <f>C162*2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B163" s="41">
+        <f>SUM(B158:B162)</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B164">
+        <f>B163*2</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B165">
+        <f>B164*31</f>
+        <v>674.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="B166">
+        <f>(B165/50)</f>
+        <v>13.484999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B168" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6704,7 +6928,7 @@
     <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6714,10 +6938,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6727,10 +6951,11 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>160</v>
       </c>
@@ -6747,13 +6972,16 @@
         <v>217</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
@@ -6766,14 +6994,14 @@
       <c r="D2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>42500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6786,14 +7014,17 @@
       <c r="E3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" t="s">
         <v>309</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -6806,14 +7037,15 @@
       <c r="D4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -6826,14 +7058,17 @@
       <c r="E5" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="65">
+        <v>43743</v>
+      </c>
+      <c r="G5" t="s">
         <v>308</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>64000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6846,14 +7081,17 @@
       <c r="E6" t="s">
         <v>327</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="65" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" t="s">
         <v>308</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>54000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -6863,14 +7101,17 @@
       <c r="E7" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="G7" t="s">
         <v>308</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>58000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6880,28 +7121,33 @@
       <c r="E8" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" t="s">
         <v>308</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>56000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>306</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" t="s">
         <v>308</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>58000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -6911,21 +7157,22 @@
       <c r="E10" s="56">
         <v>43647</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" t="s">
         <v>308</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>52500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>499</v>
       </c>
       <c r="B11" s="20">
         <v>43161</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>46000</v>
       </c>
     </row>
@@ -6945,7 +7192,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7111,10 +7358,16 @@
       <c r="A15" t="s">
         <v>372</v>
       </c>
+      <c r="C15" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>373</v>
+      </c>
+      <c r="C16" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7593,10 +7846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7833,259 +8086,294 @@
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>551</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>104</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>326</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>231</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>378</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22" t="s">
+      <c r="B39" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C41" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D41" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C42" s="15">
         <v>17</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C43" s="15">
         <v>20</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C44" s="15">
         <v>10</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="15">
-        <v>24</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="15">
-        <v>32</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="15">
-        <v>15</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="15">
-        <v>25</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C45" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="15">
+        <v>32</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="15">
+        <v>15</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="15">
+        <v>25</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15">
+        <v>17</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C50" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C52" s="13">
         <v>20.6</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C53" s="13">
         <v>21.6</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C54" s="13">
         <v>16.8</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C55" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="13">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="13">
         <v>10</v>
       </c>
     </row>
@@ -8102,11 +8390,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S359"/>
+  <dimension ref="A1:S526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A360" sqref="A360"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J434" sqref="J434:J469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17318,6 +17606,1831 @@
         <v>375</v>
       </c>
     </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360" s="53">
+        <v>43405</v>
+      </c>
+      <c r="H360" t="s">
+        <v>377</v>
+      </c>
+      <c r="I360" t="s">
+        <v>374</v>
+      </c>
+      <c r="J360" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361" s="53">
+        <v>43406</v>
+      </c>
+      <c r="H361" t="s">
+        <v>377</v>
+      </c>
+      <c r="I361" t="s">
+        <v>374</v>
+      </c>
+      <c r="J361" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" s="53">
+        <v>43407</v>
+      </c>
+      <c r="H362" t="s">
+        <v>377</v>
+      </c>
+      <c r="I362" t="s">
+        <v>374</v>
+      </c>
+      <c r="J362" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363" s="53">
+        <v>43408</v>
+      </c>
+      <c r="H363" t="s">
+        <v>377</v>
+      </c>
+      <c r="I363" t="s">
+        <v>374</v>
+      </c>
+      <c r="J363" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" s="53">
+        <v>43409</v>
+      </c>
+      <c r="H364" t="s">
+        <v>377</v>
+      </c>
+      <c r="I364" t="s">
+        <v>374</v>
+      </c>
+      <c r="J364" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365" s="53">
+        <v>43410</v>
+      </c>
+      <c r="H365" t="s">
+        <v>377</v>
+      </c>
+      <c r="I365" t="s">
+        <v>374</v>
+      </c>
+      <c r="J365" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366" s="53">
+        <v>43411</v>
+      </c>
+      <c r="H366" t="s">
+        <v>377</v>
+      </c>
+      <c r="I366" t="s">
+        <v>374</v>
+      </c>
+      <c r="J366" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367" s="53">
+        <v>43412</v>
+      </c>
+      <c r="H367" t="s">
+        <v>377</v>
+      </c>
+      <c r="I367" t="s">
+        <v>374</v>
+      </c>
+      <c r="J367" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" s="53">
+        <v>43413</v>
+      </c>
+      <c r="H368" t="s">
+        <v>377</v>
+      </c>
+      <c r="I368" t="s">
+        <v>374</v>
+      </c>
+      <c r="J368" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="53">
+        <v>43414</v>
+      </c>
+      <c r="H369" t="s">
+        <v>377</v>
+      </c>
+      <c r="I369" t="s">
+        <v>374</v>
+      </c>
+      <c r="J369" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370" s="53">
+        <v>43415</v>
+      </c>
+      <c r="H370" t="s">
+        <v>377</v>
+      </c>
+      <c r="I370" t="s">
+        <v>374</v>
+      </c>
+      <c r="J370" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="53">
+        <v>43416</v>
+      </c>
+      <c r="H371" t="s">
+        <v>377</v>
+      </c>
+      <c r="I371" t="s">
+        <v>374</v>
+      </c>
+      <c r="J371" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="53">
+        <v>43417</v>
+      </c>
+      <c r="H372" t="s">
+        <v>377</v>
+      </c>
+      <c r="I372" t="s">
+        <v>374</v>
+      </c>
+      <c r="J372" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" s="53">
+        <v>43418</v>
+      </c>
+      <c r="H373" t="s">
+        <v>377</v>
+      </c>
+      <c r="I373" t="s">
+        <v>374</v>
+      </c>
+      <c r="J373" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" s="53">
+        <v>43419</v>
+      </c>
+      <c r="H374" t="s">
+        <v>377</v>
+      </c>
+      <c r="I374" t="s">
+        <v>374</v>
+      </c>
+      <c r="J374" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="53">
+        <v>43420</v>
+      </c>
+      <c r="H375" t="s">
+        <v>377</v>
+      </c>
+      <c r="I375" t="s">
+        <v>374</v>
+      </c>
+      <c r="J375" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="53">
+        <v>43421</v>
+      </c>
+      <c r="H376" t="s">
+        <v>377</v>
+      </c>
+      <c r="I376" t="s">
+        <v>374</v>
+      </c>
+      <c r="J376" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="53">
+        <v>43422</v>
+      </c>
+      <c r="H377" t="s">
+        <v>377</v>
+      </c>
+      <c r="I377" t="s">
+        <v>374</v>
+      </c>
+      <c r="J377" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="53">
+        <v>43423</v>
+      </c>
+      <c r="H378" t="s">
+        <v>377</v>
+      </c>
+      <c r="I378" t="s">
+        <v>374</v>
+      </c>
+      <c r="J378" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="53">
+        <v>43424</v>
+      </c>
+      <c r="H379" t="s">
+        <v>377</v>
+      </c>
+      <c r="I379" t="s">
+        <v>374</v>
+      </c>
+      <c r="J379" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="53">
+        <v>43425</v>
+      </c>
+      <c r="H380" t="s">
+        <v>377</v>
+      </c>
+      <c r="I380" t="s">
+        <v>374</v>
+      </c>
+      <c r="J380" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381" s="53">
+        <v>43426</v>
+      </c>
+      <c r="H381" t="s">
+        <v>377</v>
+      </c>
+      <c r="I381" t="s">
+        <v>374</v>
+      </c>
+      <c r="J381" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382" s="53">
+        <v>43427</v>
+      </c>
+      <c r="H382" t="s">
+        <v>377</v>
+      </c>
+      <c r="I382" t="s">
+        <v>374</v>
+      </c>
+      <c r="J382" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="53">
+        <v>43428</v>
+      </c>
+      <c r="H383" t="s">
+        <v>377</v>
+      </c>
+      <c r="I383" t="s">
+        <v>374</v>
+      </c>
+      <c r="J383" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384" s="53">
+        <v>43429</v>
+      </c>
+      <c r="H384" t="s">
+        <v>377</v>
+      </c>
+      <c r="I384" t="s">
+        <v>374</v>
+      </c>
+      <c r="J384" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385" s="53">
+        <v>43430</v>
+      </c>
+      <c r="H385" t="s">
+        <v>377</v>
+      </c>
+      <c r="I385" t="s">
+        <v>374</v>
+      </c>
+      <c r="J385" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386" s="53">
+        <v>43431</v>
+      </c>
+      <c r="H386" t="s">
+        <v>377</v>
+      </c>
+      <c r="I386" t="s">
+        <v>374</v>
+      </c>
+      <c r="J386" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387" s="53">
+        <v>43432</v>
+      </c>
+      <c r="H387" t="s">
+        <v>377</v>
+      </c>
+      <c r="I387" t="s">
+        <v>374</v>
+      </c>
+      <c r="J387" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388" s="53">
+        <v>43433</v>
+      </c>
+      <c r="H388" t="s">
+        <v>377</v>
+      </c>
+      <c r="I388" t="s">
+        <v>374</v>
+      </c>
+      <c r="J388" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389" s="53">
+        <v>43434</v>
+      </c>
+      <c r="H389" t="s">
+        <v>377</v>
+      </c>
+      <c r="I389" t="s">
+        <v>374</v>
+      </c>
+      <c r="J389" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390" s="53">
+        <v>43435</v>
+      </c>
+      <c r="H390" t="s">
+        <v>377</v>
+      </c>
+      <c r="I390" t="s">
+        <v>374</v>
+      </c>
+      <c r="J390" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A391" s="53">
+        <v>43436</v>
+      </c>
+      <c r="H391" t="s">
+        <v>377</v>
+      </c>
+      <c r="I391" t="s">
+        <v>374</v>
+      </c>
+      <c r="J391" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392" s="53">
+        <v>43437</v>
+      </c>
+      <c r="H392" t="s">
+        <v>377</v>
+      </c>
+      <c r="I392" t="s">
+        <v>374</v>
+      </c>
+      <c r="J392" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393" s="53">
+        <v>43438</v>
+      </c>
+      <c r="H393" t="s">
+        <v>377</v>
+      </c>
+      <c r="I393" t="s">
+        <v>374</v>
+      </c>
+      <c r="J393" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A394" s="53">
+        <v>43439</v>
+      </c>
+      <c r="H394" t="s">
+        <v>377</v>
+      </c>
+      <c r="I394" t="s">
+        <v>374</v>
+      </c>
+      <c r="J394" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A395" s="53">
+        <v>43440</v>
+      </c>
+      <c r="H395" t="s">
+        <v>377</v>
+      </c>
+      <c r="I395" t="s">
+        <v>374</v>
+      </c>
+      <c r="J395" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396" s="53">
+        <v>43441</v>
+      </c>
+      <c r="H396" t="s">
+        <v>377</v>
+      </c>
+      <c r="I396" t="s">
+        <v>374</v>
+      </c>
+      <c r="J396" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397" s="53">
+        <v>43442</v>
+      </c>
+      <c r="H397" t="s">
+        <v>377</v>
+      </c>
+      <c r="I397" t="s">
+        <v>374</v>
+      </c>
+      <c r="J397" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398" s="53">
+        <v>43443</v>
+      </c>
+      <c r="H398" t="s">
+        <v>377</v>
+      </c>
+      <c r="I398" t="s">
+        <v>374</v>
+      </c>
+      <c r="J398" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399" s="53">
+        <v>43444</v>
+      </c>
+      <c r="H399" t="s">
+        <v>377</v>
+      </c>
+      <c r="I399" t="s">
+        <v>374</v>
+      </c>
+      <c r="J399" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400" s="53">
+        <v>43445</v>
+      </c>
+      <c r="H400" t="s">
+        <v>377</v>
+      </c>
+      <c r="I400" t="s">
+        <v>374</v>
+      </c>
+      <c r="J400" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401" s="53">
+        <v>43446</v>
+      </c>
+      <c r="H401" t="s">
+        <v>377</v>
+      </c>
+      <c r="I401" t="s">
+        <v>374</v>
+      </c>
+      <c r="J401" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402" s="53">
+        <v>43447</v>
+      </c>
+      <c r="H402" t="s">
+        <v>377</v>
+      </c>
+      <c r="I402" t="s">
+        <v>374</v>
+      </c>
+      <c r="J402" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403" s="53">
+        <v>43448</v>
+      </c>
+      <c r="H403" t="s">
+        <v>377</v>
+      </c>
+      <c r="I403" t="s">
+        <v>374</v>
+      </c>
+      <c r="J403" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404" s="53">
+        <v>43449</v>
+      </c>
+      <c r="H404" t="s">
+        <v>377</v>
+      </c>
+      <c r="I404" t="s">
+        <v>374</v>
+      </c>
+      <c r="J404" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405" s="53">
+        <v>43450</v>
+      </c>
+      <c r="H405" t="s">
+        <v>377</v>
+      </c>
+      <c r="I405" t="s">
+        <v>374</v>
+      </c>
+      <c r="J405" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406" s="53">
+        <v>43451</v>
+      </c>
+      <c r="H406" t="s">
+        <v>377</v>
+      </c>
+      <c r="I406" t="s">
+        <v>374</v>
+      </c>
+      <c r="J406" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407" s="53">
+        <v>43452</v>
+      </c>
+      <c r="H407" t="s">
+        <v>377</v>
+      </c>
+      <c r="I407" t="s">
+        <v>374</v>
+      </c>
+      <c r="J407" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408" s="53">
+        <v>43453</v>
+      </c>
+      <c r="H408" t="s">
+        <v>377</v>
+      </c>
+      <c r="I408" t="s">
+        <v>374</v>
+      </c>
+      <c r="J408" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409" s="53">
+        <v>43454</v>
+      </c>
+      <c r="H409" t="s">
+        <v>377</v>
+      </c>
+      <c r="I409" t="s">
+        <v>374</v>
+      </c>
+      <c r="J409" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410" s="53">
+        <v>43455</v>
+      </c>
+      <c r="H410" t="s">
+        <v>377</v>
+      </c>
+      <c r="I410" t="s">
+        <v>374</v>
+      </c>
+      <c r="J410" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411" s="53">
+        <v>43456</v>
+      </c>
+      <c r="H411" t="s">
+        <v>377</v>
+      </c>
+      <c r="I411" t="s">
+        <v>374</v>
+      </c>
+      <c r="J411" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" s="53">
+        <v>43457</v>
+      </c>
+      <c r="H412" t="s">
+        <v>377</v>
+      </c>
+      <c r="I412" t="s">
+        <v>374</v>
+      </c>
+      <c r="J412" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="53">
+        <v>43458</v>
+      </c>
+      <c r="H413" t="s">
+        <v>377</v>
+      </c>
+      <c r="I413" t="s">
+        <v>374</v>
+      </c>
+      <c r="J413" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" s="53">
+        <v>43459</v>
+      </c>
+      <c r="H414" t="s">
+        <v>377</v>
+      </c>
+      <c r="I414" t="s">
+        <v>374</v>
+      </c>
+      <c r="J414" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" s="53">
+        <v>43460</v>
+      </c>
+      <c r="H415" t="s">
+        <v>377</v>
+      </c>
+      <c r="I415" t="s">
+        <v>374</v>
+      </c>
+      <c r="J415" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416" s="53">
+        <v>43461</v>
+      </c>
+      <c r="H416" t="s">
+        <v>377</v>
+      </c>
+      <c r="I416" t="s">
+        <v>374</v>
+      </c>
+      <c r="J416" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417" s="53">
+        <v>43462</v>
+      </c>
+      <c r="H417" t="s">
+        <v>377</v>
+      </c>
+      <c r="I417" t="s">
+        <v>374</v>
+      </c>
+      <c r="J417" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418" s="53">
+        <v>43463</v>
+      </c>
+      <c r="H418" t="s">
+        <v>377</v>
+      </c>
+      <c r="I418" t="s">
+        <v>374</v>
+      </c>
+      <c r="J418" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419" s="53">
+        <v>43464</v>
+      </c>
+      <c r="H419" t="s">
+        <v>377</v>
+      </c>
+      <c r="I419" t="s">
+        <v>374</v>
+      </c>
+      <c r="J419" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" s="53">
+        <v>43465</v>
+      </c>
+      <c r="H420" t="s">
+        <v>377</v>
+      </c>
+      <c r="I420" t="s">
+        <v>374</v>
+      </c>
+      <c r="J420" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421" s="53">
+        <v>43466</v>
+      </c>
+      <c r="H421" t="s">
+        <v>377</v>
+      </c>
+      <c r="I421" t="s">
+        <v>374</v>
+      </c>
+      <c r="J421" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422" s="53">
+        <v>43467</v>
+      </c>
+      <c r="H422" t="s">
+        <v>377</v>
+      </c>
+      <c r="I422" t="s">
+        <v>374</v>
+      </c>
+      <c r="J422" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423" s="53">
+        <v>43468</v>
+      </c>
+      <c r="H423" t="s">
+        <v>377</v>
+      </c>
+      <c r="I423" t="s">
+        <v>374</v>
+      </c>
+      <c r="J423" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424" s="53">
+        <v>43469</v>
+      </c>
+      <c r="H424" t="s">
+        <v>377</v>
+      </c>
+      <c r="I424" t="s">
+        <v>374</v>
+      </c>
+      <c r="J424" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425" s="53">
+        <v>43470</v>
+      </c>
+      <c r="H425" t="s">
+        <v>377</v>
+      </c>
+      <c r="I425" t="s">
+        <v>374</v>
+      </c>
+      <c r="J425" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426" s="53">
+        <v>43471</v>
+      </c>
+      <c r="H426" t="s">
+        <v>377</v>
+      </c>
+      <c r="I426" t="s">
+        <v>374</v>
+      </c>
+      <c r="J426" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A427" s="53">
+        <v>43472</v>
+      </c>
+      <c r="H427" t="s">
+        <v>377</v>
+      </c>
+      <c r="I427" t="s">
+        <v>374</v>
+      </c>
+      <c r="J427" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A428" s="53">
+        <v>43473</v>
+      </c>
+      <c r="H428" t="s">
+        <v>377</v>
+      </c>
+      <c r="I428" t="s">
+        <v>374</v>
+      </c>
+      <c r="J428" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A429" s="53">
+        <v>43474</v>
+      </c>
+      <c r="H429" t="s">
+        <v>377</v>
+      </c>
+      <c r="I429" t="s">
+        <v>374</v>
+      </c>
+      <c r="J429" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430" s="53">
+        <v>43475</v>
+      </c>
+      <c r="H430" t="s">
+        <v>377</v>
+      </c>
+      <c r="I430" t="s">
+        <v>374</v>
+      </c>
+      <c r="J430" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431" s="53">
+        <v>43476</v>
+      </c>
+      <c r="H431" t="s">
+        <v>377</v>
+      </c>
+      <c r="I431" t="s">
+        <v>374</v>
+      </c>
+      <c r="J431" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432" s="53">
+        <v>43477</v>
+      </c>
+      <c r="H432" t="s">
+        <v>377</v>
+      </c>
+      <c r="I432" t="s">
+        <v>374</v>
+      </c>
+      <c r="J432" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433" s="53">
+        <v>43478</v>
+      </c>
+      <c r="H433" t="s">
+        <v>377</v>
+      </c>
+      <c r="I433" t="s">
+        <v>374</v>
+      </c>
+      <c r="J433" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434" s="53">
+        <v>43479</v>
+      </c>
+      <c r="H434" t="s">
+        <v>495</v>
+      </c>
+      <c r="I434" t="s">
+        <v>552</v>
+      </c>
+      <c r="J434" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435" s="53">
+        <v>43480</v>
+      </c>
+      <c r="H435" t="s">
+        <v>495</v>
+      </c>
+      <c r="I435" t="s">
+        <v>552</v>
+      </c>
+      <c r="J435" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A436" s="53">
+        <v>43481</v>
+      </c>
+      <c r="H436" t="s">
+        <v>495</v>
+      </c>
+      <c r="I436" t="s">
+        <v>552</v>
+      </c>
+      <c r="J436" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A437" s="53">
+        <v>43482</v>
+      </c>
+      <c r="H437" t="s">
+        <v>495</v>
+      </c>
+      <c r="I437" t="s">
+        <v>552</v>
+      </c>
+      <c r="J437" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A438" s="53">
+        <v>43483</v>
+      </c>
+      <c r="H438" t="s">
+        <v>495</v>
+      </c>
+      <c r="I438" t="s">
+        <v>552</v>
+      </c>
+      <c r="J438" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A439" s="53">
+        <v>43484</v>
+      </c>
+      <c r="H439" t="s">
+        <v>495</v>
+      </c>
+      <c r="I439" t="s">
+        <v>552</v>
+      </c>
+      <c r="J439" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A440" s="53">
+        <v>43485</v>
+      </c>
+      <c r="H440" t="s">
+        <v>495</v>
+      </c>
+      <c r="I440" t="s">
+        <v>552</v>
+      </c>
+      <c r="J440" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A441" s="53">
+        <v>43486</v>
+      </c>
+      <c r="H441" t="s">
+        <v>495</v>
+      </c>
+      <c r="I441" t="s">
+        <v>552</v>
+      </c>
+      <c r="J441" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A442" s="53">
+        <v>43487</v>
+      </c>
+      <c r="H442" t="s">
+        <v>495</v>
+      </c>
+      <c r="I442" t="s">
+        <v>552</v>
+      </c>
+      <c r="J442" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A443" s="53">
+        <v>43488</v>
+      </c>
+      <c r="H443" t="s">
+        <v>495</v>
+      </c>
+      <c r="I443" t="s">
+        <v>552</v>
+      </c>
+      <c r="J443" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A444" s="53">
+        <v>43489</v>
+      </c>
+      <c r="H444" t="s">
+        <v>495</v>
+      </c>
+      <c r="I444" t="s">
+        <v>552</v>
+      </c>
+      <c r="J444" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A445" s="53">
+        <v>43490</v>
+      </c>
+      <c r="H445" t="s">
+        <v>495</v>
+      </c>
+      <c r="I445" t="s">
+        <v>552</v>
+      </c>
+      <c r="J445" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A446" s="53">
+        <v>43491</v>
+      </c>
+      <c r="H446" t="s">
+        <v>495</v>
+      </c>
+      <c r="I446" t="s">
+        <v>552</v>
+      </c>
+      <c r="J446" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A447" s="53">
+        <v>43492</v>
+      </c>
+      <c r="H447" t="s">
+        <v>495</v>
+      </c>
+      <c r="I447" t="s">
+        <v>552</v>
+      </c>
+      <c r="J447" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A448" s="53">
+        <v>43493</v>
+      </c>
+      <c r="H448" t="s">
+        <v>495</v>
+      </c>
+      <c r="I448" t="s">
+        <v>552</v>
+      </c>
+      <c r="J448" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A449" s="53">
+        <v>43494</v>
+      </c>
+      <c r="H449" t="s">
+        <v>495</v>
+      </c>
+      <c r="I449" t="s">
+        <v>552</v>
+      </c>
+      <c r="J449" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A450" s="53">
+        <v>43495</v>
+      </c>
+      <c r="H450" t="s">
+        <v>495</v>
+      </c>
+      <c r="I450" t="s">
+        <v>552</v>
+      </c>
+      <c r="J450" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A451" s="53">
+        <v>43496</v>
+      </c>
+      <c r="H451" t="s">
+        <v>495</v>
+      </c>
+      <c r="I451" t="s">
+        <v>552</v>
+      </c>
+      <c r="J451" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452" s="53">
+        <v>43497</v>
+      </c>
+      <c r="H452" t="s">
+        <v>495</v>
+      </c>
+      <c r="I452" t="s">
+        <v>552</v>
+      </c>
+      <c r="J452" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" s="53">
+        <v>43498</v>
+      </c>
+      <c r="H453" t="s">
+        <v>495</v>
+      </c>
+      <c r="I453" t="s">
+        <v>552</v>
+      </c>
+      <c r="J453" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" s="53">
+        <v>43499</v>
+      </c>
+      <c r="H454" t="s">
+        <v>495</v>
+      </c>
+      <c r="I454" t="s">
+        <v>552</v>
+      </c>
+      <c r="J454" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455" s="53">
+        <v>43500</v>
+      </c>
+      <c r="H455" t="s">
+        <v>495</v>
+      </c>
+      <c r="I455" t="s">
+        <v>552</v>
+      </c>
+      <c r="J455" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" s="53">
+        <v>43501</v>
+      </c>
+      <c r="H456" t="s">
+        <v>495</v>
+      </c>
+      <c r="I456" t="s">
+        <v>552</v>
+      </c>
+      <c r="J456" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A457" s="53">
+        <v>43502</v>
+      </c>
+      <c r="H457" t="s">
+        <v>495</v>
+      </c>
+      <c r="I457" t="s">
+        <v>552</v>
+      </c>
+      <c r="J457" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A458" s="53">
+        <v>43503</v>
+      </c>
+      <c r="H458" t="s">
+        <v>495</v>
+      </c>
+      <c r="I458" t="s">
+        <v>552</v>
+      </c>
+      <c r="J458" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A459" s="53">
+        <v>43504</v>
+      </c>
+      <c r="H459" t="s">
+        <v>495</v>
+      </c>
+      <c r="I459" t="s">
+        <v>552</v>
+      </c>
+      <c r="J459" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A460" s="53">
+        <v>43505</v>
+      </c>
+      <c r="H460" t="s">
+        <v>495</v>
+      </c>
+      <c r="I460" t="s">
+        <v>552</v>
+      </c>
+      <c r="J460" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A461" s="53">
+        <v>43506</v>
+      </c>
+      <c r="H461" t="s">
+        <v>495</v>
+      </c>
+      <c r="I461" t="s">
+        <v>552</v>
+      </c>
+      <c r="J461" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A462" s="53">
+        <v>43507</v>
+      </c>
+      <c r="H462" t="s">
+        <v>495</v>
+      </c>
+      <c r="I462" t="s">
+        <v>552</v>
+      </c>
+      <c r="J462" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A463" s="53">
+        <v>43508</v>
+      </c>
+      <c r="H463" t="s">
+        <v>495</v>
+      </c>
+      <c r="I463" t="s">
+        <v>552</v>
+      </c>
+      <c r="J463" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A464" s="53">
+        <v>43509</v>
+      </c>
+      <c r="H464" t="s">
+        <v>495</v>
+      </c>
+      <c r="I464" t="s">
+        <v>552</v>
+      </c>
+      <c r="J464" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A465" s="53">
+        <v>43510</v>
+      </c>
+      <c r="H465" t="s">
+        <v>495</v>
+      </c>
+      <c r="I465" t="s">
+        <v>552</v>
+      </c>
+      <c r="J465" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A466" s="53">
+        <v>43511</v>
+      </c>
+      <c r="H466" t="s">
+        <v>495</v>
+      </c>
+      <c r="I466" t="s">
+        <v>552</v>
+      </c>
+      <c r="J466" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A467" s="53">
+        <v>43512</v>
+      </c>
+      <c r="H467" t="s">
+        <v>495</v>
+      </c>
+      <c r="I467" t="s">
+        <v>552</v>
+      </c>
+      <c r="J467" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A468" s="53">
+        <v>43513</v>
+      </c>
+      <c r="H468" t="s">
+        <v>495</v>
+      </c>
+      <c r="I468" t="s">
+        <v>552</v>
+      </c>
+      <c r="J468" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A469" s="53">
+        <v>43514</v>
+      </c>
+      <c r="H469" t="s">
+        <v>495</v>
+      </c>
+      <c r="I469" t="s">
+        <v>552</v>
+      </c>
+      <c r="J469" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A470" s="53">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A471" s="53">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A472" s="53">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A473" s="53">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A474" s="53">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A475" s="53">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A476" s="53">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A477" s="53">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A478" s="53">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A479" s="53">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="53">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="53">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="53">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="53">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="53">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="53">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="53">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="53">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="53">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="53">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="53">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="53">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="53">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="53">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="53">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="53">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="53">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="53">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="53">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="53">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="53">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="53">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="53">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="53">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="53">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="53">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="53">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="53">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="53">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="53">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="53">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="53">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="53">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="53">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="53">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="53">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="53">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="53">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="53">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="53">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="53">
+        <v>43571</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="B1:B237"/>
@@ -17332,16 +19445,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V680"/>
+  <dimension ref="A1:V712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I644" sqref="I644"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L532" sqref="L532:L619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="17" width="10.140625" customWidth="1"/>
@@ -17677,7 +19790,7 @@
         <v>4.5</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -18209,15 +20322,15 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
-      <c r="L81" s="63">
+      <c r="L81" s="64">
         <f>SUM(L83:Q83)</f>
         <v>56.75</v>
       </c>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="63"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
     </row>
     <row r="82" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -18297,7 +20410,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="63"/>
+      <c r="I84" s="64"/>
       <c r="J84" s="51"/>
       <c r="K84" s="58"/>
     </row>
@@ -18317,7 +20430,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="63"/>
+      <c r="I85" s="64"/>
       <c r="J85" s="51"/>
       <c r="K85" s="58"/>
     </row>
@@ -33409,6 +35522,36 @@
         <v>26</v>
       </c>
     </row>
+    <row r="628" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L628" s="34">
+        <f>SUM(C626:C627)</f>
+        <v>0</v>
+      </c>
+      <c r="M628" s="34">
+        <f t="shared" ref="M628" si="665">SUM(E626:E627)</f>
+        <v>0</v>
+      </c>
+      <c r="N628" s="34">
+        <f t="shared" ref="N628" si="666">SUM(F626:F627)</f>
+        <v>4</v>
+      </c>
+      <c r="O628" s="34">
+        <f t="shared" ref="O628" si="667">SUM(G626:G627)</f>
+        <v>3</v>
+      </c>
+      <c r="P628" s="34">
+        <f t="shared" ref="P628" si="668">SUM(H626:H627)</f>
+        <v>7</v>
+      </c>
+      <c r="Q628" s="34">
+        <f t="shared" ref="Q628" si="669">SUM(I626:I627)</f>
+        <v>3</v>
+      </c>
+      <c r="R628" s="34">
+        <f t="shared" ref="R628" si="670">SUM(J626:J627)</f>
+        <v>9</v>
+      </c>
+    </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A629" s="20">
         <v>43161</v>
@@ -33458,6 +35601,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L631" s="34">
+        <f>SUM(C629:C630)</f>
+        <v>0</v>
+      </c>
+      <c r="M631" s="34">
+        <f t="shared" ref="M631" si="671">SUM(E629:E630)</f>
+        <v>0</v>
+      </c>
+      <c r="N631" s="34">
+        <f t="shared" ref="N631" si="672">SUM(F629:F630)</f>
+        <v>6</v>
+      </c>
+      <c r="O631" s="34">
+        <f t="shared" ref="O631" si="673">SUM(G629:G630)</f>
+        <v>4</v>
+      </c>
+      <c r="P631" s="34">
+        <f t="shared" ref="P631" si="674">SUM(H629:H630)</f>
+        <v>5</v>
+      </c>
+      <c r="Q631" s="34">
+        <f t="shared" ref="Q631" si="675">SUM(I629:I630)</f>
+        <v>3</v>
+      </c>
+      <c r="R631" s="34">
+        <f t="shared" ref="R631" si="676">SUM(J629:J630)</f>
+        <v>10</v>
+      </c>
+    </row>
     <row r="632" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A632" s="20">
         <v>43192</v>
@@ -33507,6 +35680,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="634" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L634" s="34">
+        <f>SUM(C632:C633)</f>
+        <v>0</v>
+      </c>
+      <c r="M634" s="34">
+        <f t="shared" ref="M634" si="677">SUM(E632:E633)</f>
+        <v>0</v>
+      </c>
+      <c r="N634" s="34">
+        <f t="shared" ref="N634" si="678">SUM(F632:F633)</f>
+        <v>4</v>
+      </c>
+      <c r="O634" s="34">
+        <f t="shared" ref="O634" si="679">SUM(G632:G633)</f>
+        <v>3</v>
+      </c>
+      <c r="P634" s="34">
+        <f t="shared" ref="P634" si="680">SUM(H632:H633)</f>
+        <v>5</v>
+      </c>
+      <c r="Q634" s="34">
+        <f t="shared" ref="Q634" si="681">SUM(I632:I633)</f>
+        <v>3</v>
+      </c>
+      <c r="R634" s="34">
+        <f t="shared" ref="R634" si="682">SUM(J632:J633)</f>
+        <v>9</v>
+      </c>
+    </row>
     <row r="635" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A635" s="20">
         <v>43222</v>
@@ -33556,6 +35759,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="637" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L637" s="34">
+        <f>SUM(C635:C636)</f>
+        <v>0</v>
+      </c>
+      <c r="M637" s="34">
+        <f t="shared" ref="M637" si="683">SUM(E635:E636)</f>
+        <v>0</v>
+      </c>
+      <c r="N637" s="34">
+        <f t="shared" ref="N637" si="684">SUM(F635:F636)</f>
+        <v>5</v>
+      </c>
+      <c r="O637" s="34">
+        <f t="shared" ref="O637" si="685">SUM(G635:G636)</f>
+        <v>2</v>
+      </c>
+      <c r="P637" s="34">
+        <f t="shared" ref="P637" si="686">SUM(H635:H636)</f>
+        <v>6</v>
+      </c>
+      <c r="Q637" s="34">
+        <f t="shared" ref="Q637" si="687">SUM(I635:I636)</f>
+        <v>3</v>
+      </c>
+      <c r="R637" s="34">
+        <f t="shared" ref="R637" si="688">SUM(J635:J636)</f>
+        <v>10</v>
+      </c>
+    </row>
     <row r="638" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A638" s="20">
         <v>43253</v>
@@ -33605,6 +35838,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="640" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L640" s="34">
+        <f>SUM(C638:C639)</f>
+        <v>0</v>
+      </c>
+      <c r="M640" s="34">
+        <f t="shared" ref="M640" si="689">SUM(E638:E639)</f>
+        <v>0</v>
+      </c>
+      <c r="N640" s="34">
+        <f t="shared" ref="N640" si="690">SUM(F638:F639)</f>
+        <v>5</v>
+      </c>
+      <c r="O640" s="34">
+        <f t="shared" ref="O640" si="691">SUM(G638:G639)</f>
+        <v>3</v>
+      </c>
+      <c r="P640" s="34">
+        <f t="shared" ref="P640" si="692">SUM(H638:H639)</f>
+        <v>5</v>
+      </c>
+      <c r="Q640" s="34">
+        <f t="shared" ref="Q640" si="693">SUM(I638:I639)</f>
+        <v>3</v>
+      </c>
+      <c r="R640" s="34">
+        <f t="shared" ref="R640" si="694">SUM(J638:J639)</f>
+        <v>9</v>
+      </c>
+    </row>
     <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="20">
         <v>43283</v>
@@ -33654,6 +35917,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L643" s="34">
+        <f>SUM(C641:C642)</f>
+        <v>0</v>
+      </c>
+      <c r="M643" s="34">
+        <f t="shared" ref="M643" si="695">SUM(E641:E642)</f>
+        <v>0</v>
+      </c>
+      <c r="N643" s="34">
+        <f t="shared" ref="N643" si="696">SUM(F641:F642)</f>
+        <v>5</v>
+      </c>
+      <c r="O643" s="34">
+        <f t="shared" ref="O643" si="697">SUM(G641:G642)</f>
+        <v>3</v>
+      </c>
+      <c r="P643" s="34">
+        <f t="shared" ref="P643" si="698">SUM(H641:H642)</f>
+        <v>5</v>
+      </c>
+      <c r="Q643" s="34">
+        <f t="shared" ref="Q643" si="699">SUM(I641:I642)</f>
+        <v>3</v>
+      </c>
+      <c r="R643" s="34">
+        <f t="shared" ref="R643" si="700">SUM(J641:J642)</f>
+        <v>9</v>
+      </c>
+    </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="20">
         <v>43314</v>
@@ -33727,31 +36020,31 @@
         <v>0</v>
       </c>
       <c r="M646" s="34">
-        <f t="shared" ref="M646" si="665">SUM(E644:E645)</f>
+        <f t="shared" ref="M646" si="701">SUM(E644:E645)</f>
         <v>0</v>
       </c>
       <c r="N646" s="34">
-        <f t="shared" ref="N646" si="666">SUM(F644:F645)</f>
+        <f t="shared" ref="N646" si="702">SUM(F644:F645)</f>
         <v>4</v>
       </c>
       <c r="O646" s="34">
-        <f t="shared" ref="O646" si="667">SUM(G644:G645)</f>
+        <f t="shared" ref="O646" si="703">SUM(G644:G645)</f>
         <v>3</v>
       </c>
       <c r="P646" s="34">
-        <f t="shared" ref="P646" si="668">SUM(H644:H645)</f>
+        <f t="shared" ref="P646" si="704">SUM(H644:H645)</f>
         <v>4</v>
       </c>
       <c r="Q646" s="34">
-        <f t="shared" ref="Q646" si="669">SUM(I644:I645)</f>
+        <f t="shared" ref="Q646" si="705">SUM(I644:I645)</f>
         <v>3</v>
       </c>
       <c r="R646" s="34">
-        <f t="shared" ref="R646:S646" si="670">SUM(J644:J645)</f>
+        <f t="shared" ref="R646:S646" si="706">SUM(J644:J645)</f>
         <v>8</v>
       </c>
       <c r="S646" s="34">
-        <f t="shared" si="670"/>
+        <f t="shared" si="706"/>
         <v>9</v>
       </c>
     </row>
@@ -33828,31 +36121,31 @@
         <v>0</v>
       </c>
       <c r="M649" s="34">
-        <f t="shared" ref="M649" si="671">SUM(E647:E648)</f>
+        <f t="shared" ref="M649" si="707">SUM(E647:E648)</f>
         <v>0</v>
       </c>
       <c r="N649" s="34">
-        <f t="shared" ref="N649" si="672">SUM(F647:F648)</f>
+        <f t="shared" ref="N649" si="708">SUM(F647:F648)</f>
         <v>5</v>
       </c>
       <c r="O649" s="34">
-        <f t="shared" ref="O649" si="673">SUM(G647:G648)</f>
+        <f t="shared" ref="O649" si="709">SUM(G647:G648)</f>
         <v>3</v>
       </c>
       <c r="P649" s="34">
-        <f t="shared" ref="P649" si="674">SUM(H647:H648)</f>
+        <f t="shared" ref="P649" si="710">SUM(H647:H648)</f>
         <v>5</v>
       </c>
       <c r="Q649" s="34">
-        <f t="shared" ref="Q649" si="675">SUM(I647:I648)</f>
+        <f t="shared" ref="Q649" si="711">SUM(I647:I648)</f>
         <v>3</v>
       </c>
       <c r="R649" s="34">
-        <f t="shared" ref="R649" si="676">SUM(J647:J648)</f>
+        <f t="shared" ref="R649" si="712">SUM(J647:J648)</f>
         <v>9</v>
       </c>
       <c r="S649" s="34">
-        <f t="shared" ref="S649" si="677">SUM(K647:K648)</f>
+        <f t="shared" ref="S649" si="713">SUM(K647:K648)</f>
         <v>11</v>
       </c>
     </row>
@@ -33929,31 +36222,31 @@
         <v>0</v>
       </c>
       <c r="M652" s="34">
-        <f t="shared" ref="M652" si="678">SUM(E650:E651)</f>
+        <f t="shared" ref="M652" si="714">SUM(E650:E651)</f>
         <v>0</v>
       </c>
       <c r="N652" s="34">
-        <f t="shared" ref="N652" si="679">SUM(F650:F651)</f>
+        <f t="shared" ref="N652" si="715">SUM(F650:F651)</f>
         <v>5</v>
       </c>
       <c r="O652" s="34">
-        <f t="shared" ref="O652" si="680">SUM(G650:G651)</f>
+        <f t="shared" ref="O652" si="716">SUM(G650:G651)</f>
         <v>3</v>
       </c>
       <c r="P652" s="34">
-        <f t="shared" ref="P652" si="681">SUM(H650:H651)</f>
+        <f t="shared" ref="P652" si="717">SUM(H650:H651)</f>
         <v>5</v>
       </c>
       <c r="Q652" s="34">
-        <f t="shared" ref="Q652" si="682">SUM(I650:I651)</f>
+        <f t="shared" ref="Q652" si="718">SUM(I650:I651)</f>
         <v>3</v>
       </c>
       <c r="R652" s="34">
-        <f t="shared" ref="R652" si="683">SUM(J650:J651)</f>
+        <f t="shared" ref="R652" si="719">SUM(J650:J651)</f>
         <v>8</v>
       </c>
       <c r="S652" s="34">
-        <f t="shared" ref="S652" si="684">SUM(K650:K651)</f>
+        <f t="shared" ref="S652" si="720">SUM(K650:K651)</f>
         <v>11</v>
       </c>
     </row>
@@ -34030,31 +36323,31 @@
         <v>0</v>
       </c>
       <c r="M655" s="34">
-        <f t="shared" ref="M655" si="685">SUM(E653:E654)</f>
+        <f t="shared" ref="M655" si="721">SUM(E653:E654)</f>
         <v>0</v>
       </c>
       <c r="N655" s="34">
-        <f t="shared" ref="N655" si="686">SUM(F653:F654)</f>
+        <f t="shared" ref="N655" si="722">SUM(F653:F654)</f>
         <v>4</v>
       </c>
       <c r="O655" s="34">
-        <f t="shared" ref="O655" si="687">SUM(G653:G654)</f>
+        <f t="shared" ref="O655" si="723">SUM(G653:G654)</f>
         <v>3</v>
       </c>
       <c r="P655" s="34">
-        <f t="shared" ref="P655" si="688">SUM(H653:H654)</f>
+        <f t="shared" ref="P655" si="724">SUM(H653:H654)</f>
         <v>5</v>
       </c>
       <c r="Q655" s="34">
-        <f t="shared" ref="Q655" si="689">SUM(I653:I654)</f>
+        <f t="shared" ref="Q655" si="725">SUM(I653:I654)</f>
         <v>3</v>
       </c>
       <c r="R655" s="34">
-        <f t="shared" ref="R655" si="690">SUM(J653:J654)</f>
+        <f t="shared" ref="R655" si="726">SUM(J653:J654)</f>
         <v>7</v>
       </c>
       <c r="S655" s="34">
-        <f t="shared" ref="S655" si="691">SUM(K653:K654)</f>
+        <f t="shared" ref="S655" si="727">SUM(K653:K654)</f>
         <v>9</v>
       </c>
     </row>
@@ -34131,31 +36424,31 @@
         <v>0</v>
       </c>
       <c r="M658" s="34">
-        <f t="shared" ref="M658" si="692">SUM(E656:E657)</f>
+        <f t="shared" ref="M658" si="728">SUM(E656:E657)</f>
         <v>0</v>
       </c>
       <c r="N658" s="34">
-        <f t="shared" ref="N658" si="693">SUM(F656:F657)</f>
+        <f t="shared" ref="N658" si="729">SUM(F656:F657)</f>
         <v>4</v>
       </c>
       <c r="O658" s="34">
-        <f t="shared" ref="O658" si="694">SUM(G656:G657)</f>
+        <f t="shared" ref="O658" si="730">SUM(G656:G657)</f>
         <v>2</v>
       </c>
       <c r="P658" s="34">
-        <f t="shared" ref="P658" si="695">SUM(H656:H657)</f>
+        <f t="shared" ref="P658" si="731">SUM(H656:H657)</f>
         <v>6</v>
       </c>
       <c r="Q658" s="34">
-        <f t="shared" ref="Q658" si="696">SUM(I656:I657)</f>
+        <f t="shared" ref="Q658" si="732">SUM(I656:I657)</f>
         <v>3</v>
       </c>
       <c r="R658" s="34">
-        <f t="shared" ref="R658" si="697">SUM(J656:J657)</f>
+        <f t="shared" ref="R658" si="733">SUM(J656:J657)</f>
         <v>8</v>
       </c>
       <c r="S658" s="34">
-        <f t="shared" ref="S658" si="698">SUM(K656:K657)</f>
+        <f t="shared" ref="S658" si="734">SUM(K656:K657)</f>
         <v>9</v>
       </c>
     </row>
@@ -34232,31 +36525,31 @@
         <v>0</v>
       </c>
       <c r="M661" s="34">
-        <f t="shared" ref="M661" si="699">SUM(E659:E660)</f>
+        <f t="shared" ref="M661" si="735">SUM(E659:E660)</f>
         <v>0</v>
       </c>
       <c r="N661" s="34">
-        <f t="shared" ref="N661" si="700">SUM(F659:F660)</f>
+        <f t="shared" ref="N661" si="736">SUM(F659:F660)</f>
         <v>4</v>
       </c>
       <c r="O661" s="34">
-        <f t="shared" ref="O661" si="701">SUM(G659:G660)</f>
+        <f t="shared" ref="O661" si="737">SUM(G659:G660)</f>
         <v>2</v>
       </c>
       <c r="P661" s="34">
-        <f t="shared" ref="P661" si="702">SUM(H659:H660)</f>
+        <f t="shared" ref="P661" si="738">SUM(H659:H660)</f>
         <v>5</v>
       </c>
       <c r="Q661" s="34">
-        <f t="shared" ref="Q661" si="703">SUM(I659:I660)</f>
+        <f t="shared" ref="Q661" si="739">SUM(I659:I660)</f>
         <v>2</v>
       </c>
       <c r="R661" s="34">
-        <f t="shared" ref="R661" si="704">SUM(J659:J660)</f>
+        <f t="shared" ref="R661" si="740">SUM(J659:J660)</f>
         <v>8</v>
       </c>
       <c r="S661" s="34">
-        <f t="shared" ref="S661" si="705">SUM(K659:K660)</f>
+        <f t="shared" ref="S661" si="741">SUM(K659:K660)</f>
         <v>11</v>
       </c>
     </row>
@@ -34333,31 +36626,31 @@
         <v>0</v>
       </c>
       <c r="M664" s="34">
-        <f t="shared" ref="M664" si="706">SUM(E662:E663)</f>
+        <f t="shared" ref="M664" si="742">SUM(E662:E663)</f>
         <v>0</v>
       </c>
       <c r="N664" s="34">
-        <f t="shared" ref="N664" si="707">SUM(F662:F663)</f>
+        <f t="shared" ref="N664" si="743">SUM(F662:F663)</f>
         <v>4</v>
       </c>
       <c r="O664" s="34">
-        <f t="shared" ref="O664" si="708">SUM(G662:G663)</f>
+        <f t="shared" ref="O664" si="744">SUM(G662:G663)</f>
         <v>3</v>
       </c>
       <c r="P664" s="34">
-        <f t="shared" ref="P664" si="709">SUM(H662:H663)</f>
+        <f t="shared" ref="P664" si="745">SUM(H662:H663)</f>
         <v>3</v>
       </c>
       <c r="Q664" s="34">
-        <f t="shared" ref="Q664" si="710">SUM(I662:I663)</f>
+        <f t="shared" ref="Q664" si="746">SUM(I662:I663)</f>
         <v>3</v>
       </c>
       <c r="R664" s="34">
-        <f t="shared" ref="R664" si="711">SUM(J662:J663)</f>
+        <f t="shared" ref="R664" si="747">SUM(J662:J663)</f>
         <v>9</v>
       </c>
       <c r="S664" s="34">
-        <f t="shared" ref="S664" si="712">SUM(K662:K663)</f>
+        <f t="shared" ref="S664" si="748">SUM(K662:K663)</f>
         <v>11</v>
       </c>
     </row>
@@ -34428,29 +36721,1553 @@
         <v>36</v>
       </c>
     </row>
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L667" s="34">
+        <f>SUM(C665:C666)</f>
+        <v>0</v>
+      </c>
+      <c r="M667" s="34">
+        <f t="shared" ref="M667" si="749">SUM(E665:E666)</f>
+        <v>0</v>
+      </c>
+      <c r="N667" s="34">
+        <f t="shared" ref="N667" si="750">SUM(F665:F666)</f>
+        <v>6</v>
+      </c>
+      <c r="O667" s="34">
+        <f t="shared" ref="O667" si="751">SUM(G665:G666)</f>
+        <v>2</v>
+      </c>
+      <c r="P667" s="34">
+        <f t="shared" ref="P667" si="752">SUM(H665:H666)</f>
+        <v>5</v>
+      </c>
+      <c r="Q667" s="34">
+        <f t="shared" ref="Q667" si="753">SUM(I665:I666)</f>
+        <v>3</v>
+      </c>
+      <c r="R667" s="34">
+        <f t="shared" ref="R667" si="754">SUM(J665:J666)</f>
+        <v>9</v>
+      </c>
+      <c r="S667" s="34">
+        <f t="shared" ref="S667" si="755">SUM(K665:K666)</f>
+        <v>11</v>
+      </c>
+    </row>
     <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="20" t="s">
         <v>544</v>
       </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+      <c r="E668">
+        <v>0</v>
+      </c>
+      <c r="F668">
+        <v>3</v>
+      </c>
+      <c r="G668">
+        <v>3</v>
+      </c>
+      <c r="H668">
+        <v>4</v>
+      </c>
+      <c r="I668">
+        <v>3</v>
+      </c>
+      <c r="J668">
+        <v>5</v>
+      </c>
+      <c r="K668">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>1.5</v>
+      </c>
+      <c r="G669">
+        <v>1</v>
+      </c>
+      <c r="H669">
+        <v>2</v>
+      </c>
+      <c r="I669">
+        <v>0</v>
+      </c>
+      <c r="J669">
+        <v>4</v>
+      </c>
+      <c r="K669">
+        <v>5</v>
+      </c>
+      <c r="T669">
+        <f>SUM(C668:K668)</f>
+        <v>24</v>
+      </c>
+      <c r="U669">
+        <f>SUM(C669:K669)</f>
+        <v>13.5</v>
+      </c>
+      <c r="V669">
+        <f>T669+U669</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L670" s="34">
+        <f>SUM(C668:C669)</f>
+        <v>0</v>
+      </c>
+      <c r="M670" s="34">
+        <f t="shared" ref="M670" si="756">SUM(E668:E669)</f>
+        <v>0</v>
+      </c>
+      <c r="N670" s="34">
+        <f t="shared" ref="N670" si="757">SUM(F668:F669)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O670" s="34">
+        <f t="shared" ref="O670" si="758">SUM(G668:G669)</f>
+        <v>4</v>
+      </c>
+      <c r="P670" s="34">
+        <f t="shared" ref="P670" si="759">SUM(H668:H669)</f>
+        <v>6</v>
+      </c>
+      <c r="Q670" s="34">
+        <f t="shared" ref="Q670" si="760">SUM(I668:I669)</f>
+        <v>3</v>
+      </c>
+      <c r="R670" s="34">
+        <f t="shared" ref="R670" si="761">SUM(J668:J669)</f>
+        <v>9</v>
+      </c>
+      <c r="S670" s="34">
+        <f t="shared" ref="S670" si="762">SUM(K668:K669)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="20" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>0</v>
+      </c>
+      <c r="F671">
+        <v>3</v>
+      </c>
+      <c r="G671">
+        <v>3</v>
+      </c>
+      <c r="H671">
+        <v>3</v>
+      </c>
+      <c r="I671">
+        <v>3</v>
+      </c>
+      <c r="J671">
+        <v>5</v>
+      </c>
+      <c r="K671">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C672">
+        <v>0</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672">
+        <v>1.5</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672">
+        <v>2</v>
+      </c>
+      <c r="I672">
+        <v>0</v>
+      </c>
+      <c r="J672">
+        <v>4</v>
+      </c>
+      <c r="K672">
+        <v>5</v>
+      </c>
+      <c r="T672">
+        <f>SUM(C671:K671)</f>
+        <v>23</v>
+      </c>
+      <c r="U672">
+        <f>SUM(C672:K672)</f>
+        <v>13.5</v>
+      </c>
+      <c r="V672">
+        <f>T672+U672</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L673" s="34">
+        <f>SUM(C671:C672)</f>
+        <v>0</v>
+      </c>
+      <c r="M673" s="34">
+        <f t="shared" ref="M673" si="763">SUM(E671:E672)</f>
+        <v>0</v>
+      </c>
+      <c r="N673" s="34">
+        <f t="shared" ref="N673" si="764">SUM(F671:F672)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O673" s="34">
+        <f t="shared" ref="O673" si="765">SUM(G671:G672)</f>
+        <v>4</v>
+      </c>
+      <c r="P673" s="34">
+        <f t="shared" ref="P673" si="766">SUM(H671:H672)</f>
+        <v>5</v>
+      </c>
+      <c r="Q673" s="34">
+        <f t="shared" ref="Q673" si="767">SUM(I671:I672)</f>
+        <v>3</v>
+      </c>
+      <c r="R673" s="34">
+        <f t="shared" ref="R673" si="768">SUM(J671:J672)</f>
+        <v>9</v>
+      </c>
+      <c r="S673" s="34">
+        <f t="shared" ref="S673" si="769">SUM(K671:K672)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A674" s="20" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="E674">
+        <v>0</v>
+      </c>
+      <c r="F674">
+        <v>3</v>
+      </c>
+      <c r="G674">
+        <v>3</v>
+      </c>
+      <c r="H674">
+        <v>3</v>
+      </c>
+      <c r="I674">
+        <v>2</v>
+      </c>
+      <c r="J674">
+        <v>5</v>
+      </c>
+      <c r="K674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="E675">
+        <v>0</v>
+      </c>
+      <c r="F675">
+        <v>2</v>
+      </c>
+      <c r="G675">
+        <v>2</v>
+      </c>
+      <c r="H675">
+        <v>3</v>
+      </c>
+      <c r="I675">
+        <v>0</v>
+      </c>
+      <c r="J675">
+        <v>4</v>
+      </c>
+      <c r="K675">
+        <v>5</v>
+      </c>
+      <c r="T675">
+        <f>SUM(C674:K674)</f>
+        <v>22</v>
+      </c>
+      <c r="U675">
+        <f>SUM(C675:K675)</f>
+        <v>16</v>
+      </c>
+      <c r="V675">
+        <f>T675+U675</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="676" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L676" s="34">
+        <f>SUM(C674:C675)</f>
+        <v>0</v>
+      </c>
+      <c r="M676" s="34">
+        <f t="shared" ref="M676" si="770">SUM(E674:E675)</f>
+        <v>0</v>
+      </c>
+      <c r="N676" s="34">
+        <f t="shared" ref="N676" si="771">SUM(F674:F675)</f>
+        <v>5</v>
+      </c>
+      <c r="O676" s="34">
+        <f t="shared" ref="O676" si="772">SUM(G674:G675)</f>
+        <v>5</v>
+      </c>
+      <c r="P676" s="34">
+        <f t="shared" ref="P676" si="773">SUM(H674:H675)</f>
+        <v>6</v>
+      </c>
+      <c r="Q676" s="34">
+        <f t="shared" ref="Q676" si="774">SUM(I674:I675)</f>
+        <v>2</v>
+      </c>
+      <c r="R676" s="34">
+        <f t="shared" ref="R676" si="775">SUM(J674:J675)</f>
+        <v>9</v>
+      </c>
+      <c r="S676" s="34">
+        <f t="shared" ref="S676" si="776">SUM(K674:K675)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="677" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A677" s="20" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="E677">
+        <v>0</v>
+      </c>
+      <c r="F677">
+        <v>3</v>
+      </c>
+      <c r="G677">
+        <v>2</v>
+      </c>
+      <c r="H677">
+        <v>3</v>
+      </c>
+      <c r="I677">
+        <v>2</v>
+      </c>
+      <c r="J677">
+        <v>5</v>
+      </c>
+      <c r="K677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>0</v>
+      </c>
+      <c r="F678">
+        <v>2</v>
+      </c>
+      <c r="G678">
+        <v>2</v>
+      </c>
+      <c r="H678">
+        <v>3</v>
+      </c>
+      <c r="I678">
+        <v>0</v>
+      </c>
+      <c r="J678">
+        <v>3</v>
+      </c>
+      <c r="K678">
+        <v>5</v>
+      </c>
+      <c r="T678">
+        <f>SUM(C677:K677)</f>
+        <v>21</v>
+      </c>
+      <c r="U678">
+        <f>SUM(C678:K678)</f>
+        <v>15</v>
+      </c>
+      <c r="V678">
+        <f>T678+U678</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="679" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L679" s="34">
+        <f>SUM(C677:C678)</f>
+        <v>0</v>
+      </c>
+      <c r="M679" s="34">
+        <f t="shared" ref="M679" si="777">SUM(E677:E678)</f>
+        <v>0</v>
+      </c>
+      <c r="N679" s="34">
+        <f t="shared" ref="N679" si="778">SUM(F677:F678)</f>
+        <v>5</v>
+      </c>
+      <c r="O679" s="34">
+        <f t="shared" ref="O679" si="779">SUM(G677:G678)</f>
+        <v>4</v>
+      </c>
+      <c r="P679" s="34">
+        <f t="shared" ref="P679" si="780">SUM(H677:H678)</f>
+        <v>6</v>
+      </c>
+      <c r="Q679" s="34">
+        <f t="shared" ref="Q679" si="781">SUM(I677:I678)</f>
+        <v>2</v>
+      </c>
+      <c r="R679" s="34">
+        <f t="shared" ref="R679" si="782">SUM(J677:J678)</f>
+        <v>8</v>
+      </c>
+      <c r="S679" s="34">
+        <f t="shared" ref="S679" si="783">SUM(K677:K678)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A680" s="20" t="s">
         <v>540</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="E680">
+        <v>0</v>
+      </c>
+      <c r="F680">
+        <v>2</v>
+      </c>
+      <c r="G680">
+        <v>2</v>
+      </c>
+      <c r="H680">
+        <v>3</v>
+      </c>
+      <c r="I680">
+        <v>3</v>
+      </c>
+      <c r="J680">
+        <v>5</v>
+      </c>
+      <c r="K680">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C681">
+        <v>0</v>
+      </c>
+      <c r="E681">
+        <v>0</v>
+      </c>
+      <c r="F681">
+        <v>2</v>
+      </c>
+      <c r="G681">
+        <v>2</v>
+      </c>
+      <c r="H681">
+        <v>2</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+      <c r="J681">
+        <v>3</v>
+      </c>
+      <c r="K681">
+        <v>5</v>
+      </c>
+      <c r="T681">
+        <f>SUM(C680:K680)</f>
+        <v>21</v>
+      </c>
+      <c r="U681">
+        <f>SUM(C681:K681)</f>
+        <v>14</v>
+      </c>
+      <c r="V681">
+        <f>T681+U681</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="682" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L682" s="34">
+        <f>SUM(C680:C681)</f>
+        <v>0</v>
+      </c>
+      <c r="M682" s="34">
+        <f t="shared" ref="M682" si="784">SUM(E680:E681)</f>
+        <v>0</v>
+      </c>
+      <c r="N682" s="34">
+        <f t="shared" ref="N682" si="785">SUM(F680:F681)</f>
+        <v>4</v>
+      </c>
+      <c r="O682" s="34">
+        <f t="shared" ref="O682" si="786">SUM(G680:G681)</f>
+        <v>4</v>
+      </c>
+      <c r="P682" s="34">
+        <f t="shared" ref="P682" si="787">SUM(H680:H681)</f>
+        <v>5</v>
+      </c>
+      <c r="Q682" s="34">
+        <f t="shared" ref="Q682" si="788">SUM(I680:I681)</f>
+        <v>3</v>
+      </c>
+      <c r="R682" s="34">
+        <f t="shared" ref="R682" si="789">SUM(J680:J681)</f>
+        <v>8</v>
+      </c>
+      <c r="S682" s="34">
+        <f t="shared" ref="S682" si="790">SUM(K680:K681)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A683" s="53">
+        <v>43517</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+      <c r="F683">
+        <v>3</v>
+      </c>
+      <c r="G683">
+        <v>2</v>
+      </c>
+      <c r="H683">
+        <v>3</v>
+      </c>
+      <c r="I683">
+        <v>2</v>
+      </c>
+      <c r="J683">
+        <v>4</v>
+      </c>
+      <c r="K683">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="E684">
+        <v>0</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <v>1</v>
+      </c>
+      <c r="H684">
+        <v>2</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+      <c r="J684">
+        <v>0</v>
+      </c>
+      <c r="K684">
+        <v>3</v>
+      </c>
+      <c r="T684">
+        <f>SUM(C683:K683)</f>
+        <v>20</v>
+      </c>
+      <c r="U684">
+        <f>SUM(C684:K684)</f>
+        <v>6</v>
+      </c>
+      <c r="V684">
+        <f>T684+U684</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="685" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L685" s="34">
+        <f>SUM(C683:C684)</f>
+        <v>0</v>
+      </c>
+      <c r="M685" s="34">
+        <f t="shared" ref="M685" si="791">SUM(E683:E684)</f>
+        <v>0</v>
+      </c>
+      <c r="N685" s="34">
+        <f t="shared" ref="N685" si="792">SUM(F683:F684)</f>
+        <v>3</v>
+      </c>
+      <c r="O685" s="34">
+        <f t="shared" ref="O685" si="793">SUM(G683:G684)</f>
+        <v>3</v>
+      </c>
+      <c r="P685" s="34">
+        <f t="shared" ref="P685" si="794">SUM(H683:H684)</f>
+        <v>5</v>
+      </c>
+      <c r="Q685" s="34">
+        <f t="shared" ref="Q685" si="795">SUM(I683:I684)</f>
+        <v>2</v>
+      </c>
+      <c r="R685" s="34">
+        <f t="shared" ref="R685" si="796">SUM(J683:J684)</f>
+        <v>4</v>
+      </c>
+      <c r="S685" s="34">
+        <f t="shared" ref="S685" si="797">SUM(K683:K684)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A686" s="53">
+        <v>43518</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="E686">
+        <v>0</v>
+      </c>
+      <c r="F686">
+        <v>3</v>
+      </c>
+      <c r="G686">
+        <v>3</v>
+      </c>
+      <c r="H686">
+        <v>3</v>
+      </c>
+      <c r="I686">
+        <v>3</v>
+      </c>
+      <c r="J686">
+        <v>5</v>
+      </c>
+      <c r="K686">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C687">
+        <v>0</v>
+      </c>
+      <c r="E687">
+        <v>0</v>
+      </c>
+      <c r="F687">
+        <v>2</v>
+      </c>
+      <c r="G687">
+        <v>1</v>
+      </c>
+      <c r="H687">
+        <v>1</v>
+      </c>
+      <c r="I687">
+        <v>0</v>
+      </c>
+      <c r="J687">
+        <v>4</v>
+      </c>
+      <c r="K687">
+        <v>5</v>
+      </c>
+      <c r="T687">
+        <f>SUM(C686:K686)</f>
+        <v>23</v>
+      </c>
+      <c r="U687">
+        <f>SUM(C687:K687)</f>
+        <v>13</v>
+      </c>
+      <c r="V687">
+        <f>T687+U687</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="688" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L688" s="34">
+        <f>SUM(C686:C687)</f>
+        <v>0</v>
+      </c>
+      <c r="M688" s="34">
+        <f t="shared" ref="M688" si="798">SUM(E686:E687)</f>
+        <v>0</v>
+      </c>
+      <c r="N688" s="34">
+        <f t="shared" ref="N688" si="799">SUM(F686:F687)</f>
+        <v>5</v>
+      </c>
+      <c r="O688" s="34">
+        <f t="shared" ref="O688" si="800">SUM(G686:G687)</f>
+        <v>4</v>
+      </c>
+      <c r="P688" s="34">
+        <f t="shared" ref="P688" si="801">SUM(H686:H687)</f>
+        <v>4</v>
+      </c>
+      <c r="Q688" s="34">
+        <f t="shared" ref="Q688" si="802">SUM(I686:I687)</f>
+        <v>3</v>
+      </c>
+      <c r="R688" s="34">
+        <f t="shared" ref="R688" si="803">SUM(J686:J687)</f>
+        <v>9</v>
+      </c>
+      <c r="S688" s="34">
+        <f t="shared" ref="S688" si="804">SUM(K686:K687)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A689" s="53">
+        <v>43519</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
+      </c>
+      <c r="F689">
+        <v>3</v>
+      </c>
+      <c r="G689">
+        <v>3</v>
+      </c>
+      <c r="H689">
+        <v>1</v>
+      </c>
+      <c r="I689">
+        <v>3</v>
+      </c>
+      <c r="J689">
+        <v>3</v>
+      </c>
+      <c r="K689">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C690">
+        <v>0</v>
+      </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
+      <c r="F690">
+        <v>2</v>
+      </c>
+      <c r="G690">
+        <v>2</v>
+      </c>
+      <c r="H690">
+        <v>1</v>
+      </c>
+      <c r="I690">
+        <v>0</v>
+      </c>
+      <c r="J690">
+        <v>3</v>
+      </c>
+      <c r="K690">
+        <v>4</v>
+      </c>
+      <c r="T690">
+        <f>SUM(C689:K689)</f>
+        <v>18</v>
+      </c>
+      <c r="U690">
+        <f>SUM(C690:K690)</f>
+        <v>12</v>
+      </c>
+      <c r="V690">
+        <f>T690+U690</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="691" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L691" s="34">
+        <f>SUM(C689:C690)</f>
+        <v>0</v>
+      </c>
+      <c r="M691" s="34">
+        <f t="shared" ref="M691" si="805">SUM(E689:E690)</f>
+        <v>0</v>
+      </c>
+      <c r="N691" s="34">
+        <f t="shared" ref="N691" si="806">SUM(F689:F690)</f>
+        <v>5</v>
+      </c>
+      <c r="O691" s="34">
+        <f t="shared" ref="O691" si="807">SUM(G689:G690)</f>
+        <v>5</v>
+      </c>
+      <c r="P691" s="34">
+        <f t="shared" ref="P691" si="808">SUM(H689:H690)</f>
+        <v>2</v>
+      </c>
+      <c r="Q691" s="34">
+        <f t="shared" ref="Q691" si="809">SUM(I689:I690)</f>
+        <v>3</v>
+      </c>
+      <c r="R691" s="34">
+        <f t="shared" ref="R691" si="810">SUM(J689:J690)</f>
+        <v>6</v>
+      </c>
+      <c r="S691" s="34">
+        <f t="shared" ref="S691" si="811">SUM(K689:K690)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A692" s="53">
+        <v>43520</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+      <c r="F692">
+        <v>3</v>
+      </c>
+      <c r="G692">
+        <v>3</v>
+      </c>
+      <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692">
+        <v>2</v>
+      </c>
+      <c r="J692">
+        <v>4</v>
+      </c>
+      <c r="K692">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>2</v>
+      </c>
+      <c r="G693">
+        <v>2</v>
+      </c>
+      <c r="H693">
+        <v>1</v>
+      </c>
+      <c r="I693">
+        <v>0</v>
+      </c>
+      <c r="J693">
+        <v>3</v>
+      </c>
+      <c r="K693">
+        <v>4</v>
+      </c>
+      <c r="T693">
+        <f>SUM(C692:K692)</f>
+        <v>18</v>
+      </c>
+      <c r="U693">
+        <f>SUM(C693:K693)</f>
+        <v>12</v>
+      </c>
+      <c r="V693">
+        <f>T693+U693</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="694" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L694" s="34">
+        <f>SUM(C692:C693)</f>
+        <v>0</v>
+      </c>
+      <c r="M694" s="34">
+        <f t="shared" ref="M694" si="812">SUM(E692:E693)</f>
+        <v>0</v>
+      </c>
+      <c r="N694" s="34">
+        <f t="shared" ref="N694" si="813">SUM(F692:F693)</f>
+        <v>5</v>
+      </c>
+      <c r="O694" s="34">
+        <f t="shared" ref="O694" si="814">SUM(G692:G693)</f>
+        <v>5</v>
+      </c>
+      <c r="P694" s="34">
+        <f t="shared" ref="P694" si="815">SUM(H692:H693)</f>
+        <v>2</v>
+      </c>
+      <c r="Q694" s="34">
+        <f t="shared" ref="Q694" si="816">SUM(I692:I693)</f>
+        <v>2</v>
+      </c>
+      <c r="R694" s="34">
+        <f t="shared" ref="R694" si="817">SUM(J692:J693)</f>
+        <v>7</v>
+      </c>
+      <c r="S694" s="34">
+        <f t="shared" ref="S694" si="818">SUM(K692:K693)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A695" s="53">
+        <v>43521</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="E695">
+        <v>0</v>
+      </c>
+      <c r="F695">
+        <v>3</v>
+      </c>
+      <c r="G695">
+        <v>3</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+      <c r="I695">
+        <v>2</v>
+      </c>
+      <c r="J695">
+        <v>4</v>
+      </c>
+      <c r="K695">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C696">
+        <v>0</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+      <c r="F696">
+        <v>2</v>
+      </c>
+      <c r="G696">
+        <v>2</v>
+      </c>
+      <c r="H696">
+        <v>1</v>
+      </c>
+      <c r="I696">
+        <v>0</v>
+      </c>
+      <c r="J696">
+        <v>3</v>
+      </c>
+      <c r="K696">
+        <v>4</v>
+      </c>
+      <c r="T696">
+        <f>SUM(C695:K695)</f>
+        <v>18</v>
+      </c>
+      <c r="U696">
+        <f>SUM(C696:K696)</f>
+        <v>12</v>
+      </c>
+      <c r="V696">
+        <f>T696+U696</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="697" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L697" s="34">
+        <f>SUM(C695:C696)</f>
+        <v>0</v>
+      </c>
+      <c r="M697" s="34">
+        <f t="shared" ref="M697" si="819">SUM(E695:E696)</f>
+        <v>0</v>
+      </c>
+      <c r="N697" s="34">
+        <f t="shared" ref="N697" si="820">SUM(F695:F696)</f>
+        <v>5</v>
+      </c>
+      <c r="O697" s="34">
+        <f t="shared" ref="O697" si="821">SUM(G695:G696)</f>
+        <v>5</v>
+      </c>
+      <c r="P697" s="34">
+        <f t="shared" ref="P697" si="822">SUM(H695:H696)</f>
+        <v>2</v>
+      </c>
+      <c r="Q697" s="34">
+        <f t="shared" ref="Q697" si="823">SUM(I695:I696)</f>
+        <v>2</v>
+      </c>
+      <c r="R697" s="34">
+        <f t="shared" ref="R697" si="824">SUM(J695:J696)</f>
+        <v>7</v>
+      </c>
+      <c r="S697" s="34">
+        <f t="shared" ref="S697" si="825">SUM(K695:K696)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A698" s="53">
+        <v>43522</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>0</v>
+      </c>
+      <c r="F698">
+        <v>3</v>
+      </c>
+      <c r="G698">
+        <v>3</v>
+      </c>
+      <c r="H698">
+        <v>3</v>
+      </c>
+      <c r="I698">
+        <v>2</v>
+      </c>
+      <c r="J698">
+        <v>4</v>
+      </c>
+      <c r="K698">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C699">
+        <v>0</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699">
+        <v>2</v>
+      </c>
+      <c r="G699">
+        <v>2</v>
+      </c>
+      <c r="H699">
+        <v>1</v>
+      </c>
+      <c r="I699">
+        <v>0</v>
+      </c>
+      <c r="J699">
+        <v>3</v>
+      </c>
+      <c r="K699">
+        <v>5</v>
+      </c>
+      <c r="T699">
+        <f>SUM(C698:K698)</f>
+        <v>20</v>
+      </c>
+      <c r="U699">
+        <f>SUM(C699:K699)</f>
+        <v>13</v>
+      </c>
+      <c r="V699">
+        <f>T699+U699</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="700" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L700" s="34">
+        <f>SUM(C698:C699)</f>
+        <v>0</v>
+      </c>
+      <c r="M700" s="34">
+        <f t="shared" ref="M700" si="826">SUM(E698:E699)</f>
+        <v>0</v>
+      </c>
+      <c r="N700" s="34">
+        <f t="shared" ref="N700" si="827">SUM(F698:F699)</f>
+        <v>5</v>
+      </c>
+      <c r="O700" s="34">
+        <f t="shared" ref="O700" si="828">SUM(G698:G699)</f>
+        <v>5</v>
+      </c>
+      <c r="P700" s="34">
+        <f t="shared" ref="P700" si="829">SUM(H698:H699)</f>
+        <v>4</v>
+      </c>
+      <c r="Q700" s="34">
+        <f t="shared" ref="Q700" si="830">SUM(I698:I699)</f>
+        <v>2</v>
+      </c>
+      <c r="R700" s="34">
+        <f t="shared" ref="R700" si="831">SUM(J698:J699)</f>
+        <v>7</v>
+      </c>
+      <c r="S700" s="34">
+        <f t="shared" ref="S700" si="832">SUM(K698:K699)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="701" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A701" s="53">
+        <v>43523</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="E701">
+        <v>0</v>
+      </c>
+      <c r="F701">
+        <v>3</v>
+      </c>
+      <c r="G701">
+        <v>3</v>
+      </c>
+      <c r="H701">
+        <v>3</v>
+      </c>
+      <c r="I701">
+        <v>2</v>
+      </c>
+      <c r="J701">
+        <v>4</v>
+      </c>
+      <c r="K701">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>0</v>
+      </c>
+      <c r="F702">
+        <v>2</v>
+      </c>
+      <c r="G702">
+        <v>2</v>
+      </c>
+      <c r="H702">
+        <v>2</v>
+      </c>
+      <c r="I702">
+        <v>0</v>
+      </c>
+      <c r="J702">
+        <v>3</v>
+      </c>
+      <c r="K702">
+        <v>5</v>
+      </c>
+      <c r="T702">
+        <f>SUM(C701:K701)</f>
+        <v>21</v>
+      </c>
+      <c r="U702">
+        <f>SUM(C702:K702)</f>
+        <v>14</v>
+      </c>
+      <c r="V702">
+        <f>T702+U702</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="703" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L703" s="34">
+        <f>SUM(C701:C702)</f>
+        <v>0</v>
+      </c>
+      <c r="M703" s="34">
+        <f t="shared" ref="M703" si="833">SUM(E701:E702)</f>
+        <v>0</v>
+      </c>
+      <c r="N703" s="34">
+        <f t="shared" ref="N703" si="834">SUM(F701:F702)</f>
+        <v>5</v>
+      </c>
+      <c r="O703" s="34">
+        <f t="shared" ref="O703" si="835">SUM(G701:G702)</f>
+        <v>5</v>
+      </c>
+      <c r="P703" s="34">
+        <f t="shared" ref="P703" si="836">SUM(H701:H702)</f>
+        <v>5</v>
+      </c>
+      <c r="Q703" s="34">
+        <f t="shared" ref="Q703" si="837">SUM(I701:I702)</f>
+        <v>2</v>
+      </c>
+      <c r="R703" s="34">
+        <f t="shared" ref="R703" si="838">SUM(J701:J702)</f>
+        <v>7</v>
+      </c>
+      <c r="S703" s="34">
+        <f t="shared" ref="S703" si="839">SUM(K701:K702)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="704" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A704" s="53">
+        <v>43524</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+      <c r="E704">
+        <v>0</v>
+      </c>
+      <c r="F704">
+        <v>3</v>
+      </c>
+      <c r="G704">
+        <v>3</v>
+      </c>
+      <c r="H704">
+        <v>3</v>
+      </c>
+      <c r="I704">
+        <v>2</v>
+      </c>
+      <c r="J704">
+        <v>4</v>
+      </c>
+      <c r="K704">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>0</v>
+      </c>
+      <c r="F705">
+        <v>2</v>
+      </c>
+      <c r="G705">
+        <v>2</v>
+      </c>
+      <c r="H705">
+        <v>2</v>
+      </c>
+      <c r="I705">
+        <v>0</v>
+      </c>
+      <c r="J705">
+        <v>3</v>
+      </c>
+      <c r="K705">
+        <v>5</v>
+      </c>
+      <c r="T705">
+        <f>SUM(C704:K704)</f>
+        <v>21</v>
+      </c>
+      <c r="U705">
+        <f>SUM(C705:K705)</f>
+        <v>14</v>
+      </c>
+      <c r="V705">
+        <f>T705+U705</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="706" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L706" s="34">
+        <f>SUM(C704:C705)</f>
+        <v>0</v>
+      </c>
+      <c r="M706" s="34">
+        <f t="shared" ref="M706" si="840">SUM(E704:E705)</f>
+        <v>0</v>
+      </c>
+      <c r="N706" s="34">
+        <f t="shared" ref="N706" si="841">SUM(F704:F705)</f>
+        <v>5</v>
+      </c>
+      <c r="O706" s="34">
+        <f t="shared" ref="O706" si="842">SUM(G704:G705)</f>
+        <v>5</v>
+      </c>
+      <c r="P706" s="34">
+        <f t="shared" ref="P706" si="843">SUM(H704:H705)</f>
+        <v>5</v>
+      </c>
+      <c r="Q706" s="34">
+        <f t="shared" ref="Q706" si="844">SUM(I704:I705)</f>
+        <v>2</v>
+      </c>
+      <c r="R706" s="34">
+        <f t="shared" ref="R706" si="845">SUM(J704:J705)</f>
+        <v>7</v>
+      </c>
+      <c r="S706" s="34">
+        <f t="shared" ref="S706" si="846">SUM(K704:K705)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A707" s="53">
+        <v>43525</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+      <c r="E707">
+        <v>0</v>
+      </c>
+      <c r="F707">
+        <v>3</v>
+      </c>
+      <c r="G707">
+        <v>3</v>
+      </c>
+      <c r="H707">
+        <v>3</v>
+      </c>
+      <c r="I707">
+        <v>2</v>
+      </c>
+      <c r="J707">
+        <v>4</v>
+      </c>
+      <c r="K707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
+      <c r="F708">
+        <v>2</v>
+      </c>
+      <c r="G708">
+        <v>2</v>
+      </c>
+      <c r="H708">
+        <v>2</v>
+      </c>
+      <c r="I708">
+        <v>0</v>
+      </c>
+      <c r="J708">
+        <v>3</v>
+      </c>
+      <c r="K708">
+        <v>4</v>
+      </c>
+      <c r="T708">
+        <f>SUM(C707:K707)</f>
+        <v>21</v>
+      </c>
+      <c r="U708">
+        <f>SUM(C708:K708)</f>
+        <v>13</v>
+      </c>
+      <c r="V708">
+        <f>T708+U708</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="709" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L709" s="34">
+        <f>SUM(C707:C708)</f>
+        <v>0</v>
+      </c>
+      <c r="M709" s="34">
+        <f t="shared" ref="M709" si="847">SUM(E707:E708)</f>
+        <v>0</v>
+      </c>
+      <c r="N709" s="34">
+        <f t="shared" ref="N709" si="848">SUM(F707:F708)</f>
+        <v>5</v>
+      </c>
+      <c r="O709" s="34">
+        <f t="shared" ref="O709" si="849">SUM(G707:G708)</f>
+        <v>5</v>
+      </c>
+      <c r="P709" s="34">
+        <f t="shared" ref="P709" si="850">SUM(H707:H708)</f>
+        <v>5</v>
+      </c>
+      <c r="Q709" s="34">
+        <f t="shared" ref="Q709" si="851">SUM(I707:I708)</f>
+        <v>2</v>
+      </c>
+      <c r="R709" s="34">
+        <f t="shared" ref="R709" si="852">SUM(J707:J708)</f>
+        <v>7</v>
+      </c>
+      <c r="S709" s="34">
+        <f t="shared" ref="S709" si="853">SUM(K707:K708)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="710" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A710" s="53">
+        <v>43526</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="E710">
+        <v>0</v>
+      </c>
+      <c r="F710">
+        <v>3</v>
+      </c>
+      <c r="G710">
+        <v>3</v>
+      </c>
+      <c r="H710">
+        <v>3</v>
+      </c>
+      <c r="I710">
+        <v>2</v>
+      </c>
+      <c r="J710">
+        <v>4</v>
+      </c>
+      <c r="K710">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="E711">
+        <v>0</v>
+      </c>
+      <c r="F711">
+        <v>2</v>
+      </c>
+      <c r="G711">
+        <v>2</v>
+      </c>
+      <c r="H711">
+        <v>2</v>
+      </c>
+      <c r="I711">
+        <v>0</v>
+      </c>
+      <c r="J711">
+        <v>3</v>
+      </c>
+      <c r="K711">
+        <v>4</v>
+      </c>
+      <c r="T711">
+        <f>SUM(C710:K710)</f>
+        <v>21</v>
+      </c>
+      <c r="U711">
+        <f>SUM(C711:K711)</f>
+        <v>13</v>
+      </c>
+      <c r="V711">
+        <f>T711+U711</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="712" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L712" s="34">
+        <f>SUM(C710:C711)</f>
+        <v>0</v>
+      </c>
+      <c r="M712" s="34">
+        <f t="shared" ref="M712" si="854">SUM(E710:E711)</f>
+        <v>0</v>
+      </c>
+      <c r="N712" s="34">
+        <f t="shared" ref="N712" si="855">SUM(F710:F711)</f>
+        <v>5</v>
+      </c>
+      <c r="O712" s="34">
+        <f t="shared" ref="O712" si="856">SUM(G710:G711)</f>
+        <v>5</v>
+      </c>
+      <c r="P712" s="34">
+        <f t="shared" ref="P712" si="857">SUM(H710:H711)</f>
+        <v>5</v>
+      </c>
+      <c r="Q712" s="34">
+        <f t="shared" ref="Q712" si="858">SUM(I710:I711)</f>
+        <v>2</v>
+      </c>
+      <c r="R712" s="34">
+        <f t="shared" ref="R712" si="859">SUM(J710:J711)</f>
+        <v>7</v>
+      </c>
+      <c r="S712" s="34">
+        <f t="shared" ref="S712" si="860">SUM(K710:K711)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="570">
   <si>
     <t>UP</t>
   </si>
@@ -1733,6 +1733,27 @@
   </si>
   <si>
     <t>18/06/2019</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>In Mango tree side</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>16th March, 2019</t>
+  </si>
+  <si>
+    <t>COFS-31</t>
+  </si>
+  <si>
+    <t>Veli masal</t>
+  </si>
+  <si>
+    <t>17th March, 2019</t>
   </si>
 </sst>
 </file>
@@ -2089,6 +2110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2103,12 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2445,11 +2466,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1893953488"/>
-        <c:axId val="1893955664"/>
+        <c:axId val="1198669904"/>
+        <c:axId val="1198673168"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1893953488"/>
+        <c:axId val="1198669904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,14 +2513,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893955664"/>
+        <c:crossAx val="1198673168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1893955664"/>
+        <c:axId val="1198673168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893953488"/>
+        <c:crossAx val="1198669904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,11 +2870,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1893950768"/>
-        <c:axId val="1893952400"/>
+        <c:axId val="1198676976"/>
+        <c:axId val="1198670448"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1893950768"/>
+        <c:axId val="1198676976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,14 +2917,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893952400"/>
+        <c:crossAx val="1198670448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1893952400"/>
+        <c:axId val="1198670448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,7 +2975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893950768"/>
+        <c:crossAx val="1198676976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4525,24 +4546,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4697,18 +4718,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="I18" s="63" t="s">
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="I18" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -7058,7 +7079,7 @@
       <c r="E5" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="60">
         <v>43743</v>
       </c>
       <c r="G5" t="s">
@@ -7081,7 +7102,7 @@
       <c r="E6" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="60" t="s">
         <v>562</v>
       </c>
       <c r="G6" t="s">
@@ -7101,7 +7122,7 @@
       <c r="E7" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="61" t="s">
         <v>562</v>
       </c>
       <c r="G7" t="s">
@@ -7191,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7320,6 +7341,9 @@
       <c r="E11" s="13" t="s">
         <v>311</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7331,6 +7355,9 @@
       <c r="E12" t="s">
         <v>293</v>
       </c>
+      <c r="F12" s="53">
+        <v>43541</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7342,6 +7369,9 @@
       <c r="E13" t="s">
         <v>293</v>
       </c>
+      <c r="F13" s="53">
+        <v>43541</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7353,6 +7383,9 @@
       <c r="E14" t="s">
         <v>293</v>
       </c>
+      <c r="F14" s="53">
+        <v>43541</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7361,6 +7394,9 @@
       <c r="C15" t="s">
         <v>555</v>
       </c>
+      <c r="F15" s="53">
+        <v>43541</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7369,11 +7405,14 @@
       <c r="C16" t="s">
         <v>555</v>
       </c>
+      <c r="F16" s="53">
+        <v>43541</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7423,10 +7462,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7691,6 +7730,35 @@
       </c>
       <c r="C36" s="24" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>565</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>568</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -19447,7 +19515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V712"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L532" sqref="L532:L619"/>
     </sheetView>
@@ -20322,15 +20390,15 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
-      <c r="L81" s="64">
+      <c r="L81" s="66">
         <f>SUM(L83:Q83)</f>
         <v>56.75</v>
       </c>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="64"/>
-      <c r="Q81" s="64"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="66"/>
     </row>
     <row r="82" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -20410,7 +20478,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="64"/>
+      <c r="I84" s="66"/>
       <c r="J84" s="51"/>
       <c r="K84" s="58"/>
     </row>
@@ -20430,7 +20498,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="64"/>
+      <c r="I85" s="66"/>
       <c r="J85" s="51"/>
       <c r="K85" s="58"/>
     </row>
@@ -38282,10 +38350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J46"/>
+  <dimension ref="A4:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38304,21 +38372,21 @@
       </c>
       <c r="C4">
         <f>SUM(C5:C89)</f>
-        <v>102577</v>
+        <v>114577</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>456</v>
       </c>
       <c r="G4">
         <f>SUM(G5:G18)</f>
-        <v>72000</v>
+        <v>87000</v>
       </c>
       <c r="I4" t="s">
         <v>457</v>
       </c>
       <c r="J4">
         <f>G4-C4</f>
-        <v>-30577</v>
+        <v>-27577</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -38439,6 +38507,12 @@
       <c r="C11">
         <v>500</v>
       </c>
+      <c r="F11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G11">
+        <v>15000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -38840,6 +38914,16 @@
         <v>442</v>
       </c>
       <c r="C46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48">
         <v>2000</v>
       </c>
     </row>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="576">
   <si>
     <t>UP</t>
   </si>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>Current calf status</t>
-  </si>
-  <si>
-    <t>Dead on 22nd June, 2018</t>
   </si>
   <si>
     <t>A-Formula-9</t>
@@ -1754,6 +1751,29 @@
   </si>
   <si>
     <t>17th March, 2019</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>30th March</t>
+  </si>
+  <si>
+    <t>2nd March</t>
+  </si>
+  <si>
+    <t>3rd March</t>
+  </si>
+  <si>
+    <t>19/5/2018
+18/4/2019</t>
+  </si>
+  <si>
+    <t>Dead on 22nd June, 2018
+2019 calf died on birth</t>
+  </si>
+  <si>
+    <t>SOLD on 06th April, 2019</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,6 +2150,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,11 +2489,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1198669904"/>
-        <c:axId val="1198673168"/>
+        <c:axId val="-1491690528"/>
+        <c:axId val="-1491698688"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1198669904"/>
+        <c:axId val="-1491690528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,14 +2536,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198673168"/>
+        <c:crossAx val="-1491698688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1198673168"/>
+        <c:axId val="-1491698688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198669904"/>
+        <c:crossAx val="-1491690528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2870,11 +2893,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1198676976"/>
-        <c:axId val="1198670448"/>
+        <c:axId val="-1491689440"/>
+        <c:axId val="-1491693792"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1198676976"/>
+        <c:axId val="-1491689440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,14 +2940,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198670448"/>
+        <c:crossAx val="-1491693792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1198670448"/>
+        <c:axId val="-1491693792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,7 +2998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198676976"/>
+        <c:crossAx val="-1491689440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4652,10 +4675,10 @@
         <v>43211</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4719,13 +4742,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="I18" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
@@ -4733,14 +4756,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19">
         <f>SUM(F20:F31)</f>
         <v>74</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L19">
         <f>SUM(L20:L37)</f>
@@ -4749,7 +4772,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -4762,7 +4785,7 @@
         <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20">
         <v>0.3</v>
@@ -4777,7 +4800,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -4790,7 +4813,7 @@
         <v>8.5</v>
       </c>
       <c r="I21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -4805,7 +4828,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -4818,7 +4841,7 @@
         <v>10.5</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4833,7 +4856,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4846,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -4865,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4930,14 +4953,14 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32">
         <f>SUM(D33:D67)</f>
         <v>35842.199999999997</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H32">
         <f>SUM(H33:H67)</f>
@@ -4946,13 +4969,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33">
         <v>6000</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H33">
         <v>13000</v>
@@ -4960,13 +4983,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D34">
         <v>12000</v>
       </c>
       <c r="G34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H34">
         <v>12000</v>
@@ -4974,13 +4997,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D35">
         <v>14670</v>
       </c>
       <c r="G35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35">
         <v>14670</v>
@@ -4988,13 +5011,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36">
         <v>2000</v>
       </c>
       <c r="G36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H36">
         <v>5000</v>
@@ -5002,13 +5025,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D37">
         <v>1000</v>
       </c>
       <c r="G37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H37">
         <v>1000</v>
@@ -5016,16 +5039,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" t="s">
         <v>263</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>264</v>
-      </c>
-      <c r="E42" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5044,7 +5067,7 @@
         <v>10.200000000000001</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43">
         <v>17</v>
@@ -5052,7 +5075,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44">
         <v>18</v>
@@ -5071,7 +5094,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -5098,7 +5121,7 @@
         <v>27.75</v>
       </c>
       <c r="H48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48">
         <f>F48*6*30</f>
@@ -5119,7 +5142,7 @@
       <c r="K53" s="41"/>
       <c r="L53" s="42"/>
       <c r="M53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N53">
         <f>J64+J79+J95+J111</f>
@@ -5129,20 +5152,20 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="43"/>
       <c r="B54" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" s="44"/>
       <c r="G54" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
@@ -5150,7 +5173,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="45"/>
       <c r="M54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N54">
         <f>N59+N74+N88+N105</f>
@@ -5184,7 +5207,7 @@
       <c r="K55" s="44"/>
       <c r="L55" s="45"/>
       <c r="M55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N55">
         <f>N60+N75+N89+N106</f>
@@ -5193,7 +5216,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="44">
         <v>0</v>
@@ -5220,7 +5243,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" s="44">
         <v>0</v>
@@ -5243,7 +5266,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" s="44">
         <v>0</v>
@@ -5272,7 +5295,7 @@
       <c r="A59" s="43"/>
       <c r="B59" s="44"/>
       <c r="C59" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" s="44">
         <f>SUM(D55:D58)</f>
@@ -5287,7 +5310,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
       <c r="M59" s="54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N59" s="54">
         <f>SUM(B64,B79,B95,B111)</f>
@@ -5297,10 +5320,10 @@
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="43"/>
       <c r="B60" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>20</v>
@@ -5313,10 +5336,10 @@
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
       <c r="L60" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M60" s="54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N60" s="54">
         <v>0</v>
@@ -5344,12 +5367,12 @@
       <c r="J61" s="44"/>
       <c r="K61" s="44"/>
       <c r="L61" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B62" s="44">
         <v>0</v>
@@ -5372,7 +5395,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="44">
         <v>0</v>
@@ -5387,7 +5410,7 @@
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H63" s="44">
         <f>D66+(D59/2)</f>
@@ -5395,14 +5418,14 @@
       </c>
       <c r="I63" s="44"/>
       <c r="J63" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K63" s="44"/>
       <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="44">
         <v>3.75</v>
@@ -5491,20 +5514,20 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="43"/>
       <c r="B69" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69" s="44"/>
       <c r="G69" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H69" s="44"/>
       <c r="I69" s="44"/>
@@ -5541,7 +5564,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B71" s="44">
         <v>0</v>
@@ -5568,7 +5591,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="44">
         <v>0</v>
@@ -5591,7 +5614,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" s="44">
         <v>0</v>
@@ -5620,7 +5643,7 @@
       <c r="A74" s="43"/>
       <c r="B74" s="44"/>
       <c r="C74" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D74" s="44">
         <f>SUM(D70:D73)</f>
@@ -5635,7 +5658,7 @@
       <c r="K74" s="44"/>
       <c r="L74" s="45"/>
       <c r="M74" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N74" s="54">
         <f>2*3*30</f>
@@ -5645,10 +5668,10 @@
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D75" s="44" t="s">
         <v>20</v>
@@ -5662,7 +5685,7 @@
       <c r="K75" s="44"/>
       <c r="L75" s="45"/>
       <c r="M75" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N75" s="54">
         <f>2*1*30</f>
@@ -5694,7 +5717,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B77" s="44">
         <v>0</v>
@@ -5717,7 +5740,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" s="44">
         <v>0</v>
@@ -5732,7 +5755,7 @@
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H78" s="44">
         <f>D81+(D74/2)</f>
@@ -5740,14 +5763,14 @@
       </c>
       <c r="I78" s="44"/>
       <c r="J78" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K78" s="44"/>
       <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="44">
         <v>2.5</v>
@@ -5850,20 +5873,20 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="43"/>
       <c r="B85" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D85" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F85" s="44"/>
       <c r="G85" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H85" s="44"/>
       <c r="I85" s="44"/>
@@ -5900,7 +5923,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B87" s="44">
         <v>0</v>
@@ -5927,7 +5950,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B88" s="44">
         <v>0</v>
@@ -5948,7 +5971,7 @@
       <c r="K88" s="44"/>
       <c r="L88" s="45"/>
       <c r="M88" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N88" s="54">
         <f>1.5*2*30</f>
@@ -5957,7 +5980,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89" s="44">
         <v>0</v>
@@ -5982,7 +6005,7 @@
       <c r="K89" s="44"/>
       <c r="L89" s="45"/>
       <c r="M89" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N89" s="54">
         <f>0*1*30</f>
@@ -5993,7 +6016,7 @@
       <c r="A90" s="43"/>
       <c r="B90" s="44"/>
       <c r="C90" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D90" s="44">
         <f>SUM(D86:D89)</f>
@@ -6011,10 +6034,10 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="43"/>
       <c r="B91" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D91" s="44" t="s">
         <v>20</v>
@@ -6053,7 +6076,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B93" s="44">
         <v>0</v>
@@ -6076,7 +6099,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="44">
         <v>0</v>
@@ -6091,7 +6114,7 @@
       <c r="E94" s="44"/>
       <c r="F94" s="44"/>
       <c r="G94" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H94" s="44">
         <f>D97+(D90/2)</f>
@@ -6099,14 +6122,14 @@
       </c>
       <c r="I94" s="44"/>
       <c r="J94" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K94" s="44"/>
       <c r="L94" s="45"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="44">
         <v>1.5</v>
@@ -6209,20 +6232,20 @@
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="43"/>
       <c r="B101" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D101" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H101" s="44"/>
       <c r="I101" s="44"/>
@@ -6259,7 +6282,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B103" s="44">
         <v>0</v>
@@ -6286,7 +6309,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B104" s="44">
         <v>0</v>
@@ -6309,7 +6332,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B105" s="44">
         <v>0</v>
@@ -6334,7 +6357,7 @@
       <c r="K105" s="44"/>
       <c r="L105" s="45"/>
       <c r="M105" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N105" s="54">
         <f>1*1*30</f>
@@ -6345,7 +6368,7 @@
       <c r="A106" s="43"/>
       <c r="B106" s="44"/>
       <c r="C106" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D106" s="44">
         <f>SUM(D102:D105)</f>
@@ -6360,7 +6383,7 @@
       <c r="K106" s="44"/>
       <c r="L106" s="45"/>
       <c r="M106" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N106" s="54">
         <f>0*1*30</f>
@@ -6370,10 +6393,10 @@
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="43"/>
       <c r="B107" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>20</v>
@@ -6412,7 +6435,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B109" s="44">
         <v>0</v>
@@ -6435,7 +6458,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B110" s="44">
         <v>0</v>
@@ -6450,7 +6473,7 @@
       <c r="E110" s="44"/>
       <c r="F110" s="44"/>
       <c r="G110" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H110" s="44">
         <f>D113+(D106/2)</f>
@@ -6458,14 +6481,14 @@
       </c>
       <c r="I110" s="44"/>
       <c r="J110" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K110" s="44"/>
       <c r="L110" s="45"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" s="44">
         <v>0</v>
@@ -6536,16 +6559,16 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>407</v>
+      </c>
+      <c r="B120" t="s">
+        <v>406</v>
+      </c>
+      <c r="C120" t="s">
         <v>408</v>
       </c>
-      <c r="B120" t="s">
-        <v>407</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>409</v>
-      </c>
-      <c r="D120" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -6566,31 +6589,31 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D138" t="s">
         <v>504</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>505</v>
-      </c>
-      <c r="E138" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6605,26 +6628,26 @@
         <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B141" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D141" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6640,7 +6663,7 @@
         <v>2.5</v>
       </c>
       <c r="E142" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F142">
         <f>C142*2</f>
@@ -6660,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F143">
         <f>C143*2</f>
@@ -6680,7 +6703,7 @@
         <v>1.5</v>
       </c>
       <c r="E144" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F144">
         <f>C144*2</f>
@@ -6700,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F145">
         <f>C145*2</f>
@@ -6720,7 +6743,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F146">
         <f>C146*2</f>
@@ -6729,7 +6752,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B147" s="41">
         <f>SUM(B142:B146)</f>
@@ -6738,7 +6761,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B148">
         <f>B147*2</f>
@@ -6747,7 +6770,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B149">
         <f>B148*31</f>
@@ -6756,7 +6779,7 @@
     </row>
     <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B150">
         <f>(B149/50)</f>
@@ -6765,34 +6788,34 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B152" t="s">
         <v>523</v>
-      </c>
-      <c r="B152" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B157" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C157" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D157" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -6808,7 +6831,7 @@
         <v>2.5</v>
       </c>
       <c r="E158" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F158">
         <f>C158*2</f>
@@ -6828,7 +6851,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F159">
         <f>C159*2</f>
@@ -6848,7 +6871,7 @@
         <v>1.5</v>
       </c>
       <c r="E160" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F160">
         <f>C160*2</f>
@@ -6868,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F161">
         <f>C161*2</f>
@@ -6888,7 +6911,7 @@
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F162">
         <f>C162*2</f>
@@ -6897,7 +6920,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B163" s="41">
         <f>SUM(B158:B162)</f>
@@ -6906,7 +6929,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B164">
         <f>B163*2</f>
@@ -6915,7 +6938,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B165">
         <f>B164*31</f>
@@ -6924,7 +6947,7 @@
     </row>
     <row r="166" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B166">
         <f>(B165/50)</f>
@@ -6933,10 +6956,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B168" t="s">
         <v>523</v>
-      </c>
-      <c r="B168" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -6961,15 +6984,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -6990,16 +7013,16 @@
         <v>163</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7016,7 +7039,7 @@
         <v>140</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2">
         <v>42500</v>
@@ -7029,17 +7052,20 @@
       <c r="B3" s="30">
         <v>43190</v>
       </c>
+      <c r="C3" s="31" t="s">
+        <v>575</v>
+      </c>
       <c r="D3" s="31" t="s">
         <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H3">
         <v>42500</v>
@@ -7060,7 +7086,7 @@
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H4">
         <v>45000</v>
@@ -7070,20 +7096,20 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
+      <c r="B5" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="60">
         <v>43743</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5">
         <v>64000</v>
@@ -7097,16 +7123,16 @@
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6">
         <v>54000</v>
@@ -7120,13 +7146,13 @@
         <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7">
         <v>58000</v>
@@ -7134,17 +7160,17 @@
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="20">
         <v>43319</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8">
         <v>56000</v>
@@ -7152,17 +7178,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>575</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H9">
         <v>58000</v>
@@ -7170,7 +7199,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="20">
         <v>43141</v>
@@ -7180,7 +7209,7 @@
       </c>
       <c r="F10" s="56"/>
       <c r="G10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10">
         <v>52500</v>
@@ -7188,7 +7217,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" s="20">
         <v>43161</v>
@@ -7212,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7250,13 +7279,13 @@
         <v>108</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
@@ -7290,25 +7319,25 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -7336,24 +7365,24 @@
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="20">
         <v>43288</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" s="53">
         <v>43541</v>
@@ -7361,13 +7390,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="20">
         <v>43412</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="53">
         <v>43541</v>
@@ -7375,13 +7404,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="20">
         <v>43442</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="53">
         <v>43541</v>
@@ -7389,10 +7418,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F15" s="53">
         <v>43541</v>
@@ -7400,10 +7429,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F16" s="53">
         <v>43541</v>
@@ -7543,7 +7572,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="25">
         <v>43350</v>
@@ -7562,13 +7591,13 @@
         <v>43348</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -7612,15 +7641,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="25">
         <v>43350</v>
@@ -7628,7 +7657,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="25">
         <v>43259</v>
@@ -7683,23 +7712,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="25">
         <v>43380</v>
@@ -7707,7 +7736,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="25">
         <v>43289</v>
@@ -7715,7 +7744,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="25">
         <v>43198</v>
@@ -7723,42 +7752,42 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>564</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>565</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7798,7 +7827,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1">
         <v>24275</v>
@@ -7810,10 +7839,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2">
         <v>1050</v>
@@ -7821,10 +7850,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>1305</v>
@@ -7832,10 +7861,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4">
         <v>7020</v>
@@ -7843,10 +7872,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5">
         <v>8775</v>
@@ -7854,13 +7883,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7">
         <v>13000</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K7">
         <f>B1-F1</f>
@@ -7869,7 +7898,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8">
         <v>12000</v>
@@ -7877,7 +7906,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9">
         <v>1080</v>
@@ -7885,7 +7914,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10">
         <v>650</v>
@@ -7893,7 +7922,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11">
         <v>750</v>
@@ -7901,7 +7930,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12">
         <v>650</v>
@@ -7987,17 +8016,17 @@
         <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -8026,7 +8055,7 @@
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>54</v>
@@ -8035,13 +8064,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -8074,116 +8103,116 @@
         <v>34</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
         <v>173</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
         <v>167</v>
       </c>
-      <c r="E14" t="s">
-        <v>168</v>
-      </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
         <v>244</v>
-      </c>
-      <c r="F16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" t="s">
         <v>281</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>282</v>
-      </c>
-      <c r="F17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>557</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -8208,21 +8237,21 @@
     </row>
     <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8251,50 +8280,50 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8399,7 +8428,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" s="15">
         <v>20</v>
@@ -8407,7 +8436,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" s="13">
         <v>20.6</v>
@@ -8415,7 +8444,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" s="13">
         <v>21.6</v>
@@ -8423,7 +8452,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="13">
         <v>16.8</v>
@@ -8431,7 +8460,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" s="13">
         <v>16</v>
@@ -12063,7 +12092,7 @@
         <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I115" t="s">
         <v>103</v>
@@ -12886,7 +12915,7 @@
         <v>104</v>
       </c>
       <c r="I141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>11</v>
@@ -12918,7 +12947,7 @@
         <v>104</v>
       </c>
       <c r="I142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J142" s="11" t="s">
         <v>11</v>
@@ -12950,7 +12979,7 @@
         <v>104</v>
       </c>
       <c r="I143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J143" s="11" t="s">
         <v>11</v>
@@ -12982,7 +13011,7 @@
         <v>104</v>
       </c>
       <c r="I144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J144" s="11" t="s">
         <v>11</v>
@@ -13014,7 +13043,7 @@
         <v>104</v>
       </c>
       <c r="I145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J145" s="11" t="s">
         <v>11</v>
@@ -13046,7 +13075,7 @@
         <v>104</v>
       </c>
       <c r="I146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J146" s="11" t="s">
         <v>11</v>
@@ -13078,7 +13107,7 @@
         <v>104</v>
       </c>
       <c r="I147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J147" s="11" t="s">
         <v>11</v>
@@ -13110,7 +13139,7 @@
         <v>104</v>
       </c>
       <c r="I148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J148" s="11" t="s">
         <v>11</v>
@@ -13142,7 +13171,7 @@
         <v>104</v>
       </c>
       <c r="I149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J149" s="11" t="s">
         <v>11</v>
@@ -13174,7 +13203,7 @@
         <v>104</v>
       </c>
       <c r="I150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J150" s="11" t="s">
         <v>11</v>
@@ -13206,7 +13235,7 @@
         <v>104</v>
       </c>
       <c r="I151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J151" s="11" t="s">
         <v>11</v>
@@ -13238,7 +13267,7 @@
         <v>104</v>
       </c>
       <c r="I152" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J152" s="11" t="s">
         <v>11</v>
@@ -13270,7 +13299,7 @@
         <v>104</v>
       </c>
       <c r="I153" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J153" s="11" t="s">
         <v>11</v>
@@ -13302,7 +13331,7 @@
         <v>104</v>
       </c>
       <c r="I154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J154" s="11" t="s">
         <v>11</v>
@@ -13334,7 +13363,7 @@
         <v>104</v>
       </c>
       <c r="I155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J155" s="11" t="s">
         <v>11</v>
@@ -13366,7 +13395,7 @@
         <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J156" s="11" t="s">
         <v>11</v>
@@ -13398,7 +13427,7 @@
         <v>104</v>
       </c>
       <c r="I157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J157" s="11" t="s">
         <v>11</v>
@@ -13430,7 +13459,7 @@
         <v>104</v>
       </c>
       <c r="I158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J158" s="11" t="s">
         <v>11</v>
@@ -13462,7 +13491,7 @@
         <v>104</v>
       </c>
       <c r="I159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J159" s="11" t="s">
         <v>11</v>
@@ -13494,7 +13523,7 @@
         <v>104</v>
       </c>
       <c r="I160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J160" s="11" t="s">
         <v>11</v>
@@ -13526,7 +13555,7 @@
         <v>104</v>
       </c>
       <c r="I161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J161" s="11" t="s">
         <v>11</v>
@@ -13558,7 +13587,7 @@
         <v>104</v>
       </c>
       <c r="I162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J162" s="11" t="s">
         <v>11</v>
@@ -13590,7 +13619,7 @@
         <v>104</v>
       </c>
       <c r="I163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J163" s="11" t="s">
         <v>11</v>
@@ -13622,7 +13651,7 @@
         <v>104</v>
       </c>
       <c r="I164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J164" s="11" t="s">
         <v>11</v>
@@ -13654,7 +13683,7 @@
         <v>104</v>
       </c>
       <c r="I165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J165" s="11" t="s">
         <v>11</v>
@@ -13686,7 +13715,7 @@
         <v>104</v>
       </c>
       <c r="I166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J166" s="11" t="s">
         <v>11</v>
@@ -13718,7 +13747,7 @@
         <v>104</v>
       </c>
       <c r="I167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J167" s="11" t="s">
         <v>11</v>
@@ -13750,7 +13779,7 @@
         <v>104</v>
       </c>
       <c r="I168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J168" s="11" t="s">
         <v>11</v>
@@ -13782,7 +13811,7 @@
         <v>104</v>
       </c>
       <c r="I169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J169" s="11" t="s">
         <v>11</v>
@@ -13814,7 +13843,7 @@
         <v>104</v>
       </c>
       <c r="I170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J170" s="11" t="s">
         <v>11</v>
@@ -13846,7 +13875,7 @@
         <v>104</v>
       </c>
       <c r="I171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J171" s="11" t="s">
         <v>11</v>
@@ -13878,7 +13907,7 @@
         <v>104</v>
       </c>
       <c r="I172" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J172" s="11" t="s">
         <v>11</v>
@@ -13910,7 +13939,7 @@
         <v>104</v>
       </c>
       <c r="I173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J173" s="11" t="s">
         <v>11</v>
@@ -13942,7 +13971,7 @@
         <v>104</v>
       </c>
       <c r="I174" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J174" s="11" t="s">
         <v>11</v>
@@ -13974,7 +14003,7 @@
         <v>104</v>
       </c>
       <c r="I175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J175" s="11" t="s">
         <v>11</v>
@@ -14006,7 +14035,7 @@
         <v>104</v>
       </c>
       <c r="I176" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J176" s="11" t="s">
         <v>11</v>
@@ -14038,7 +14067,7 @@
         <v>104</v>
       </c>
       <c r="I177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J177" s="11" t="s">
         <v>11</v>
@@ -14046,7 +14075,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>24</v>
@@ -14070,7 +14099,7 @@
         <v>104</v>
       </c>
       <c r="I178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J178" s="11" t="s">
         <v>11</v>
@@ -14078,7 +14107,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>26</v>
@@ -14102,7 +14131,7 @@
         <v>104</v>
       </c>
       <c r="I179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J179" s="11" t="s">
         <v>11</v>
@@ -14110,7 +14139,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>24</v>
@@ -14134,7 +14163,7 @@
         <v>104</v>
       </c>
       <c r="I180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J180" s="11" t="s">
         <v>11</v>
@@ -14142,7 +14171,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>26</v>
@@ -14166,7 +14195,7 @@
         <v>104</v>
       </c>
       <c r="I181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J181" s="11" t="s">
         <v>11</v>
@@ -14174,7 +14203,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>24</v>
@@ -14198,7 +14227,7 @@
         <v>104</v>
       </c>
       <c r="I182" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J182" s="11" t="s">
         <v>11</v>
@@ -14206,7 +14235,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>26</v>
@@ -14230,7 +14259,7 @@
         <v>104</v>
       </c>
       <c r="I183" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J183" s="11" t="s">
         <v>11</v>
@@ -14238,7 +14267,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>24</v>
@@ -14262,7 +14291,7 @@
         <v>104</v>
       </c>
       <c r="I184" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J184" s="11" t="s">
         <v>11</v>
@@ -14270,7 +14299,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>26</v>
@@ -14294,7 +14323,7 @@
         <v>104</v>
       </c>
       <c r="I185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J185" s="11" t="s">
         <v>11</v>
@@ -14302,7 +14331,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>24</v>
@@ -14326,7 +14355,7 @@
         <v>104</v>
       </c>
       <c r="I186" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J186" s="11" t="s">
         <v>11</v>
@@ -14334,7 +14363,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>26</v>
@@ -14358,7 +14387,7 @@
         <v>104</v>
       </c>
       <c r="I187" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J187" s="11" t="s">
         <v>11</v>
@@ -14366,7 +14395,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>24</v>
@@ -14390,7 +14419,7 @@
         <v>104</v>
       </c>
       <c r="I188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J188" s="11" t="s">
         <v>11</v>
@@ -14398,7 +14427,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>26</v>
@@ -14422,7 +14451,7 @@
         <v>104</v>
       </c>
       <c r="I189" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J189" s="11" t="s">
         <v>11</v>
@@ -14433,7 +14462,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>24</v>
@@ -14457,7 +14486,7 @@
         <v>104</v>
       </c>
       <c r="I190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J190" s="11" t="s">
         <v>11</v>
@@ -14468,7 +14497,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>26</v>
@@ -14492,7 +14521,7 @@
         <v>104</v>
       </c>
       <c r="I191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J191" s="11" t="s">
         <v>11</v>
@@ -14525,7 +14554,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>24</v>
@@ -14549,7 +14578,7 @@
         <v>104</v>
       </c>
       <c r="I192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J192" s="11" t="s">
         <v>11</v>
@@ -14567,7 +14596,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>26</v>
@@ -14591,7 +14620,7 @@
         <v>104</v>
       </c>
       <c r="I193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J193" s="11" t="s">
         <v>11</v>
@@ -14599,7 +14628,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>24</v>
@@ -14623,7 +14652,7 @@
         <v>104</v>
       </c>
       <c r="I194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J194" s="11" t="s">
         <v>11</v>
@@ -14631,7 +14660,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>26</v>
@@ -14655,7 +14684,7 @@
         <v>104</v>
       </c>
       <c r="I195" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J195" s="11" t="s">
         <v>11</v>
@@ -14663,7 +14692,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>24</v>
@@ -14684,10 +14713,10 @@
         <v>635.78</v>
       </c>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I196" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J196" s="11" t="s">
         <v>11</v>
@@ -14695,7 +14724,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>26</v>
@@ -14716,10 +14745,10 @@
         <v>434.95</v>
       </c>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I197" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J197" s="11" t="s">
         <v>11</v>
@@ -14727,7 +14756,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>24</v>
@@ -14748,10 +14777,10 @@
         <v>634.75</v>
       </c>
       <c r="H198" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J198" s="11" t="s">
         <v>11</v>
@@ -14759,7 +14788,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>26</v>
@@ -14780,10 +14809,10 @@
         <v>489.29</v>
       </c>
       <c r="H199" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J199" s="11" t="s">
         <v>11</v>
@@ -14791,7 +14820,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>24</v>
@@ -14812,10 +14841,10 @@
         <v>635.84</v>
       </c>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J200" s="11" t="s">
         <v>11</v>
@@ -14823,7 +14852,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>26</v>
@@ -14844,10 +14873,10 @@
         <v>385.7</v>
       </c>
       <c r="H201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I201" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J201" s="11" t="s">
         <v>11</v>
@@ -14855,7 +14884,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>24</v>
@@ -14876,10 +14905,10 @@
         <v>676.63</v>
       </c>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J202" s="11" t="s">
         <v>11</v>
@@ -14887,7 +14916,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>26</v>
@@ -14908,10 +14937,10 @@
         <v>467.25</v>
       </c>
       <c r="H203" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J203" s="11" t="s">
         <v>11</v>
@@ -14919,7 +14948,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>24</v>
@@ -14940,10 +14969,10 @@
         <v>657.68</v>
       </c>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J204" s="11" t="s">
         <v>11</v>
@@ -14951,7 +14980,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>26</v>
@@ -14972,10 +15001,10 @@
         <v>480.17</v>
       </c>
       <c r="H205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J205" s="11" t="s">
         <v>11</v>
@@ -14983,7 +15012,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>24</v>
@@ -15004,10 +15033,10 @@
         <v>557.61</v>
       </c>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I206" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J206" s="11" t="s">
         <v>11</v>
@@ -15015,7 +15044,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>26</v>
@@ -15036,10 +15065,10 @@
         <v>493.7</v>
       </c>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J207" s="11" t="s">
         <v>11</v>
@@ -15047,7 +15076,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>24</v>
@@ -15068,10 +15097,10 @@
         <v>596.85</v>
       </c>
       <c r="H208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J208" s="11" t="s">
         <v>11</v>
@@ -15079,7 +15108,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>26</v>
@@ -15100,10 +15129,10 @@
         <v>493.7</v>
       </c>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J209" s="11" t="s">
         <v>11</v>
@@ -15111,7 +15140,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>24</v>
@@ -15132,10 +15161,10 @@
         <v>663.4</v>
       </c>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I210" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J210" s="11" t="s">
         <v>11</v>
@@ -15143,7 +15172,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>26</v>
@@ -15164,10 +15193,10 @@
         <v>456.23</v>
       </c>
       <c r="H211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I211" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J211" s="11" t="s">
         <v>11</v>
@@ -15175,7 +15204,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>24</v>
@@ -15196,10 +15225,10 @@
         <v>653.79</v>
       </c>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I212" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J212" s="11" t="s">
         <v>11</v>
@@ -15207,7 +15236,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>26</v>
@@ -15228,10 +15257,10 @@
         <v>466.53</v>
       </c>
       <c r="H213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I213" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J213" s="11" t="s">
         <v>11</v>
@@ -15239,7 +15268,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>24</v>
@@ -15260,10 +15289,10 @@
         <v>367.96</v>
       </c>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J214" s="11" t="s">
         <v>11</v>
@@ -15271,16 +15300,16 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I215" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J215" s="11" t="s">
         <v>11</v>
@@ -15309,10 +15338,10 @@
         <v>569</v>
       </c>
       <c r="H216" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I216" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J216" s="11" t="s">
         <v>11</v>
@@ -15341,10 +15370,10 @@
         <v>435.06</v>
       </c>
       <c r="H217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I217" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J217" s="11" t="s">
         <v>11</v>
@@ -15373,10 +15402,10 @@
         <v>561.35</v>
       </c>
       <c r="H218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I218" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J218" s="11" t="s">
         <v>11</v>
@@ -15405,10 +15434,10 @@
         <v>376.62</v>
       </c>
       <c r="H219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I219" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J219" s="11" t="s">
         <v>11</v>
@@ -15437,10 +15466,10 @@
         <v>629.65</v>
       </c>
       <c r="H220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J220" s="11" t="s">
         <v>11</v>
@@ -15469,10 +15498,10 @@
         <v>426.88</v>
       </c>
       <c r="H221" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J221" s="11" t="s">
         <v>11</v>
@@ -15486,10 +15515,10 @@
         <v>24</v>
       </c>
       <c r="H222" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J222" s="11" t="s">
         <v>11</v>
@@ -15518,10 +15547,10 @@
         <v>416.21</v>
       </c>
       <c r="H223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J223" s="11" t="s">
         <v>11</v>
@@ -15550,10 +15579,10 @@
         <v>559.21</v>
       </c>
       <c r="H224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I224" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J224" s="11" t="s">
         <v>11</v>
@@ -15567,13 +15596,13 @@
         <v>26</v>
       </c>
       <c r="H225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I225" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
@@ -15584,13 +15613,13 @@
         <v>24</v>
       </c>
       <c r="H226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I226" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
@@ -15601,13 +15630,13 @@
         <v>26</v>
       </c>
       <c r="H227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J227" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -15618,13 +15647,13 @@
         <v>24</v>
       </c>
       <c r="H228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I228" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -15635,13 +15664,13 @@
         <v>26</v>
       </c>
       <c r="H229" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I229" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
@@ -15652,13 +15681,13 @@
         <v>24</v>
       </c>
       <c r="H230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J230" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
@@ -15669,13 +15698,13 @@
         <v>26</v>
       </c>
       <c r="H231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J231" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -15686,13 +15715,13 @@
         <v>24</v>
       </c>
       <c r="H232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -15703,13 +15732,13 @@
         <v>26</v>
       </c>
       <c r="H233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I233" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J233" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -15735,13 +15764,13 @@
         <v>625.21</v>
       </c>
       <c r="H234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -15752,13 +15781,13 @@
         <v>26</v>
       </c>
       <c r="H235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -15784,13 +15813,13 @@
         <v>612.57000000000005</v>
       </c>
       <c r="H236" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -15801,13 +15830,13 @@
         <v>26</v>
       </c>
       <c r="H237" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -15818,13 +15847,13 @@
         <v>24</v>
       </c>
       <c r="H238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
@@ -15850,18 +15879,18 @@
         <v>128.06</v>
       </c>
       <c r="H239" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>24</v>
@@ -15882,18 +15911,18 @@
         <v>606.16999999999996</v>
       </c>
       <c r="H240" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B241" s="12" t="s">
         <v>26</v>
@@ -15914,18 +15943,18 @@
         <v>223.87</v>
       </c>
       <c r="H241" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>24</v>
@@ -15946,18 +15975,18 @@
         <v>488.78</v>
       </c>
       <c r="H242" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>26</v>
@@ -15978,18 +16007,18 @@
         <v>309.52</v>
       </c>
       <c r="H243" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I243" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>24</v>
@@ -16010,18 +16039,18 @@
         <v>563.48</v>
       </c>
       <c r="H244" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I244" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>26</v>
@@ -16042,52 +16071,52 @@
         <v>238.11</v>
       </c>
       <c r="H245" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I245" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J245" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H246" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J246" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H247" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I247" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J247" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>24</v>
@@ -16108,18 +16137,18 @@
         <v>536.48</v>
       </c>
       <c r="H248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I248" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>26</v>
@@ -16140,560 +16169,560 @@
         <v>201.92</v>
       </c>
       <c r="H249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I249" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J249" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H250" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I250" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J250" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H251" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I251" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J251" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J252" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J253" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J254" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B255" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I255" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H256" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I256" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J256" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H257" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I257" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J257" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H258" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I258" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J258" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L258" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H259" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I259" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J259" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K259" t="s">
+        <v>311</v>
+      </c>
+      <c r="L259" t="s">
         <v>312</v>
-      </c>
-      <c r="L259" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L260" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B261" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I261" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J261" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K261" t="s">
+        <v>311</v>
+      </c>
+      <c r="L261" t="s">
         <v>312</v>
-      </c>
-      <c r="L261" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J262" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L262" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H263" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I263" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J263" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K263" t="s">
+        <v>311</v>
+      </c>
+      <c r="L263" t="s">
         <v>312</v>
-      </c>
-      <c r="L263" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H264" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I264" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J264" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L264" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B265" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I265" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J265" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K265" t="s">
+        <v>311</v>
+      </c>
+      <c r="L265" t="s">
         <v>312</v>
-      </c>
-      <c r="L265" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H266" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I266" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J266" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L266" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J267" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K267" t="s">
+        <v>311</v>
+      </c>
+      <c r="L267" t="s">
         <v>312</v>
-      </c>
-      <c r="L267" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I268" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J268" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H269" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I269" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J269" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A270" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H270" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I270" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J270" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L270" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A271" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B271" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H271" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I271" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J271" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L271" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A272" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H272" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I272" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J272" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L272" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A273" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B273" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H273" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I273" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J273" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L273" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A274" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H274" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I274" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J274" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L274" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A275" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H275" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I275" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J275" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L275" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B276" s="4"/>
       <c r="H276" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I276" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J276" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L276" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A277" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B277" s="12"/>
       <c r="H277" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I277" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J277" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L277" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -16704,16 +16733,16 @@
         <v>24</v>
       </c>
       <c r="H278" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I278" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J278" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L278" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -16724,16 +16753,16 @@
         <v>26</v>
       </c>
       <c r="H279" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I279" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J279" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L279" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -16744,16 +16773,16 @@
         <v>24</v>
       </c>
       <c r="H280" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I280" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J280" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L280" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -16764,16 +16793,16 @@
         <v>26</v>
       </c>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I281" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J281" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L281" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -16784,16 +16813,16 @@
         <v>24</v>
       </c>
       <c r="H282" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J282" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L282" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -16804,7 +16833,7 @@
         <v>26</v>
       </c>
       <c r="I283" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J283" s="11" t="s">
         <v>11</v>
@@ -16815,7 +16844,7 @@
         <v>43533</v>
       </c>
       <c r="I284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J284" s="11" t="s">
         <v>11</v>
@@ -16826,7 +16855,7 @@
         <v>43564</v>
       </c>
       <c r="I285" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J285" s="11" t="s">
         <v>11</v>
@@ -16837,7 +16866,7 @@
         <v>43564</v>
       </c>
       <c r="I286" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J286" s="11" t="s">
         <v>11</v>
@@ -16848,7 +16877,7 @@
         <v>43594</v>
       </c>
       <c r="I287" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J287" s="11" t="s">
         <v>11</v>
@@ -16859,7 +16888,7 @@
         <v>43594</v>
       </c>
       <c r="I288" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J288" s="11" t="s">
         <v>11</v>
@@ -16870,7 +16899,7 @@
         <v>43625</v>
       </c>
       <c r="I289" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J289" s="11" t="s">
         <v>11</v>
@@ -16881,7 +16910,7 @@
         <v>43625</v>
       </c>
       <c r="I290" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J290" s="11" t="s">
         <v>11</v>
@@ -16892,7 +16921,7 @@
         <v>43655</v>
       </c>
       <c r="I291" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J291" s="11" t="s">
         <v>11</v>
@@ -16903,7 +16932,7 @@
         <v>43655</v>
       </c>
       <c r="I292" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J292" s="11" t="s">
         <v>11</v>
@@ -16914,7 +16943,7 @@
         <v>43686</v>
       </c>
       <c r="I293" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J293" s="11" t="s">
         <v>11</v>
@@ -16925,7 +16954,7 @@
         <v>43686</v>
       </c>
       <c r="I294" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J294" s="11" t="s">
         <v>11</v>
@@ -16936,7 +16965,7 @@
         <v>43717</v>
       </c>
       <c r="I295" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J295" s="11" t="s">
         <v>11</v>
@@ -16947,7 +16976,7 @@
         <v>43717</v>
       </c>
       <c r="I296" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J296" s="11" t="s">
         <v>11</v>
@@ -16958,7 +16987,7 @@
         <v>43747</v>
       </c>
       <c r="I297" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J297" s="11" t="s">
         <v>11</v>
@@ -16969,7 +16998,7 @@
         <v>43747</v>
       </c>
       <c r="I298" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J298" s="11" t="s">
         <v>11</v>
@@ -16980,7 +17009,7 @@
         <v>43778</v>
       </c>
       <c r="I299" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J299" s="11" t="s">
         <v>11</v>
@@ -16991,7 +17020,7 @@
         <v>43778</v>
       </c>
       <c r="I300" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J300" s="11" t="s">
         <v>11</v>
@@ -17002,7 +17031,7 @@
         <v>43808</v>
       </c>
       <c r="I301" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J301" s="11" t="s">
         <v>11</v>
@@ -17013,7 +17042,7 @@
         <v>43808</v>
       </c>
       <c r="I302" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J302" s="11" t="s">
         <v>11</v>
@@ -17021,10 +17050,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I303" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J303" s="11" t="s">
         <v>11</v>
@@ -17032,10 +17061,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I304" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J304" s="11" t="s">
         <v>11</v>
@@ -17043,10 +17072,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I305" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J305" s="11" t="s">
         <v>11</v>
@@ -17054,10 +17083,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I306" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J306" s="11" t="s">
         <v>11</v>
@@ -17065,10 +17094,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I307" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J307" s="11" t="s">
         <v>11</v>
@@ -17076,10 +17105,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I308" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J308" s="11" t="s">
         <v>11</v>
@@ -17087,13 +17116,13 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H309" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I309" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J309" s="11" t="s">
         <v>11</v>
@@ -17101,84 +17130,84 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H310" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I310" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H311" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I311" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H312" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I312" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H313" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I313" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H314" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I314" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H315" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I315" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H316" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I316" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H317" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -17187,7 +17216,7 @@
       </c>
       <c r="B318" s="36"/>
       <c r="H318" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -17195,7 +17224,7 @@
         <v>43364</v>
       </c>
       <c r="H319" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -17203,7 +17232,7 @@
         <v>43365</v>
       </c>
       <c r="H320" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -17211,7 +17240,7 @@
         <v>43366</v>
       </c>
       <c r="H321" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -17219,7 +17248,7 @@
         <v>43367</v>
       </c>
       <c r="H322" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -17227,7 +17256,7 @@
         <v>43368</v>
       </c>
       <c r="H323" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -17235,7 +17264,7 @@
         <v>43369</v>
       </c>
       <c r="H324" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -17243,7 +17272,7 @@
         <v>43370</v>
       </c>
       <c r="H325" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -17251,7 +17280,7 @@
         <v>43371</v>
       </c>
       <c r="H326" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -17259,7 +17288,7 @@
         <v>43372</v>
       </c>
       <c r="H327" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -17267,7 +17296,7 @@
         <v>43373</v>
       </c>
       <c r="H328" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -17275,7 +17304,7 @@
         <v>43374</v>
       </c>
       <c r="H329" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -17283,7 +17312,7 @@
         <v>43375</v>
       </c>
       <c r="H330" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -17291,7 +17320,7 @@
         <v>43376</v>
       </c>
       <c r="H331" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -17299,7 +17328,7 @@
         <v>43377</v>
       </c>
       <c r="H332" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -17307,7 +17336,7 @@
         <v>43378</v>
       </c>
       <c r="H333" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -17315,13 +17344,13 @@
         <v>43379</v>
       </c>
       <c r="H334" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I334" t="s">
+        <v>373</v>
+      </c>
+      <c r="J334" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J334" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -17329,13 +17358,13 @@
         <v>43380</v>
       </c>
       <c r="H335" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I335" t="s">
+        <v>373</v>
+      </c>
+      <c r="J335" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J335" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -17343,13 +17372,13 @@
         <v>43381</v>
       </c>
       <c r="H336" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I336" t="s">
+        <v>373</v>
+      </c>
+      <c r="J336" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J336" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -17357,13 +17386,13 @@
         <v>43382</v>
       </c>
       <c r="H337" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I337" t="s">
+        <v>373</v>
+      </c>
+      <c r="J337" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J337" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -17371,13 +17400,13 @@
         <v>43383</v>
       </c>
       <c r="H338" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I338" t="s">
+        <v>373</v>
+      </c>
+      <c r="J338" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J338" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
@@ -17385,13 +17414,13 @@
         <v>43384</v>
       </c>
       <c r="H339" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I339" t="s">
+        <v>373</v>
+      </c>
+      <c r="J339" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J339" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -17399,13 +17428,13 @@
         <v>43385</v>
       </c>
       <c r="H340" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I340" t="s">
+        <v>373</v>
+      </c>
+      <c r="J340" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J340" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -17413,13 +17442,13 @@
         <v>43386</v>
       </c>
       <c r="H341" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I341" t="s">
+        <v>373</v>
+      </c>
+      <c r="J341" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J341" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -17427,13 +17456,13 @@
         <v>43387</v>
       </c>
       <c r="H342" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I342" t="s">
+        <v>373</v>
+      </c>
+      <c r="J342" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J342" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
@@ -17441,13 +17470,13 @@
         <v>43388</v>
       </c>
       <c r="H343" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I343" t="s">
+        <v>373</v>
+      </c>
+      <c r="J343" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J343" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -17455,13 +17484,13 @@
         <v>43389</v>
       </c>
       <c r="H344" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I344" t="s">
+        <v>373</v>
+      </c>
+      <c r="J344" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J344" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -17469,13 +17498,13 @@
         <v>43390</v>
       </c>
       <c r="H345" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I345" t="s">
+        <v>373</v>
+      </c>
+      <c r="J345" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J345" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -17483,13 +17512,13 @@
         <v>43391</v>
       </c>
       <c r="H346" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I346" t="s">
+        <v>373</v>
+      </c>
+      <c r="J346" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J346" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
@@ -17497,13 +17526,13 @@
         <v>43392</v>
       </c>
       <c r="H347" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I347" t="s">
+        <v>373</v>
+      </c>
+      <c r="J347" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J347" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
@@ -17511,13 +17540,13 @@
         <v>43393</v>
       </c>
       <c r="H348" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I348" t="s">
+        <v>373</v>
+      </c>
+      <c r="J348" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J348" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
@@ -17525,13 +17554,13 @@
         <v>43394</v>
       </c>
       <c r="H349" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I349" t="s">
+        <v>373</v>
+      </c>
+      <c r="J349" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J349" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
@@ -17539,13 +17568,13 @@
         <v>43395</v>
       </c>
       <c r="H350" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I350" t="s">
+        <v>373</v>
+      </c>
+      <c r="J350" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J350" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
@@ -17553,13 +17582,13 @@
         <v>43396</v>
       </c>
       <c r="H351" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I351" t="s">
+        <v>373</v>
+      </c>
+      <c r="J351" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J351" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -17567,13 +17596,13 @@
         <v>43397</v>
       </c>
       <c r="H352" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I352" t="s">
+        <v>373</v>
+      </c>
+      <c r="J352" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J352" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
@@ -17581,13 +17610,13 @@
         <v>43398</v>
       </c>
       <c r="H353" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I353" t="s">
+        <v>373</v>
+      </c>
+      <c r="J353" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J353" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
@@ -17595,13 +17624,13 @@
         <v>43399</v>
       </c>
       <c r="H354" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I354" t="s">
+        <v>373</v>
+      </c>
+      <c r="J354" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J354" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
@@ -17609,13 +17638,13 @@
         <v>43400</v>
       </c>
       <c r="H355" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I355" t="s">
+        <v>373</v>
+      </c>
+      <c r="J355" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J355" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
@@ -17623,13 +17652,13 @@
         <v>43401</v>
       </c>
       <c r="H356" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I356" t="s">
+        <v>373</v>
+      </c>
+      <c r="J356" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J356" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
@@ -17637,13 +17666,13 @@
         <v>43402</v>
       </c>
       <c r="H357" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I357" t="s">
+        <v>373</v>
+      </c>
+      <c r="J357" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J357" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
@@ -17651,13 +17680,13 @@
         <v>43403</v>
       </c>
       <c r="H358" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I358" t="s">
+        <v>373</v>
+      </c>
+      <c r="J358" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J358" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
@@ -17665,13 +17694,13 @@
         <v>43404</v>
       </c>
       <c r="H359" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I359" t="s">
+        <v>373</v>
+      </c>
+      <c r="J359" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J359" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
@@ -17679,13 +17708,13 @@
         <v>43405</v>
       </c>
       <c r="H360" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I360" t="s">
+        <v>373</v>
+      </c>
+      <c r="J360" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J360" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
@@ -17693,13 +17722,13 @@
         <v>43406</v>
       </c>
       <c r="H361" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I361" t="s">
+        <v>373</v>
+      </c>
+      <c r="J361" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J361" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
@@ -17707,13 +17736,13 @@
         <v>43407</v>
       </c>
       <c r="H362" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I362" t="s">
+        <v>373</v>
+      </c>
+      <c r="J362" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J362" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
@@ -17721,13 +17750,13 @@
         <v>43408</v>
       </c>
       <c r="H363" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I363" t="s">
+        <v>373</v>
+      </c>
+      <c r="J363" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J363" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
@@ -17735,13 +17764,13 @@
         <v>43409</v>
       </c>
       <c r="H364" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I364" t="s">
+        <v>373</v>
+      </c>
+      <c r="J364" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J364" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
@@ -17749,13 +17778,13 @@
         <v>43410</v>
       </c>
       <c r="H365" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I365" t="s">
+        <v>373</v>
+      </c>
+      <c r="J365" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J365" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
@@ -17763,13 +17792,13 @@
         <v>43411</v>
       </c>
       <c r="H366" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I366" t="s">
+        <v>373</v>
+      </c>
+      <c r="J366" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J366" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
@@ -17777,13 +17806,13 @@
         <v>43412</v>
       </c>
       <c r="H367" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I367" t="s">
+        <v>373</v>
+      </c>
+      <c r="J367" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J367" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
@@ -17791,13 +17820,13 @@
         <v>43413</v>
       </c>
       <c r="H368" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I368" t="s">
+        <v>373</v>
+      </c>
+      <c r="J368" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J368" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
@@ -17805,13 +17834,13 @@
         <v>43414</v>
       </c>
       <c r="H369" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I369" t="s">
+        <v>373</v>
+      </c>
+      <c r="J369" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J369" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
@@ -17819,13 +17848,13 @@
         <v>43415</v>
       </c>
       <c r="H370" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I370" t="s">
+        <v>373</v>
+      </c>
+      <c r="J370" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J370" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
@@ -17833,13 +17862,13 @@
         <v>43416</v>
       </c>
       <c r="H371" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I371" t="s">
+        <v>373</v>
+      </c>
+      <c r="J371" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J371" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -17847,13 +17876,13 @@
         <v>43417</v>
       </c>
       <c r="H372" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I372" t="s">
+        <v>373</v>
+      </c>
+      <c r="J372" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J372" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
@@ -17861,13 +17890,13 @@
         <v>43418</v>
       </c>
       <c r="H373" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I373" t="s">
+        <v>373</v>
+      </c>
+      <c r="J373" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J373" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
@@ -17875,13 +17904,13 @@
         <v>43419</v>
       </c>
       <c r="H374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I374" t="s">
+        <v>373</v>
+      </c>
+      <c r="J374" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J374" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
@@ -17889,13 +17918,13 @@
         <v>43420</v>
       </c>
       <c r="H375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I375" t="s">
+        <v>373</v>
+      </c>
+      <c r="J375" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J375" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
@@ -17903,13 +17932,13 @@
         <v>43421</v>
       </c>
       <c r="H376" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I376" t="s">
+        <v>373</v>
+      </c>
+      <c r="J376" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J376" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
@@ -17917,13 +17946,13 @@
         <v>43422</v>
       </c>
       <c r="H377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I377" t="s">
+        <v>373</v>
+      </c>
+      <c r="J377" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J377" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
@@ -17931,13 +17960,13 @@
         <v>43423</v>
       </c>
       <c r="H378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I378" t="s">
+        <v>373</v>
+      </c>
+      <c r="J378" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J378" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
@@ -17945,13 +17974,13 @@
         <v>43424</v>
       </c>
       <c r="H379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I379" t="s">
+        <v>373</v>
+      </c>
+      <c r="J379" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J379" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
@@ -17959,13 +17988,13 @@
         <v>43425</v>
       </c>
       <c r="H380" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I380" t="s">
+        <v>373</v>
+      </c>
+      <c r="J380" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J380" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
@@ -17973,13 +18002,13 @@
         <v>43426</v>
       </c>
       <c r="H381" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I381" t="s">
+        <v>373</v>
+      </c>
+      <c r="J381" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J381" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -17987,13 +18016,13 @@
         <v>43427</v>
       </c>
       <c r="H382" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I382" t="s">
+        <v>373</v>
+      </c>
+      <c r="J382" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J382" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
@@ -18001,13 +18030,13 @@
         <v>43428</v>
       </c>
       <c r="H383" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I383" t="s">
+        <v>373</v>
+      </c>
+      <c r="J383" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J383" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
@@ -18015,13 +18044,13 @@
         <v>43429</v>
       </c>
       <c r="H384" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I384" t="s">
+        <v>373</v>
+      </c>
+      <c r="J384" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J384" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
@@ -18029,13 +18058,13 @@
         <v>43430</v>
       </c>
       <c r="H385" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I385" t="s">
+        <v>373</v>
+      </c>
+      <c r="J385" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J385" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
@@ -18043,13 +18072,13 @@
         <v>43431</v>
       </c>
       <c r="H386" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I386" t="s">
+        <v>373</v>
+      </c>
+      <c r="J386" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J386" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
@@ -18057,13 +18086,13 @@
         <v>43432</v>
       </c>
       <c r="H387" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I387" t="s">
+        <v>373</v>
+      </c>
+      <c r="J387" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J387" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
@@ -18071,13 +18100,13 @@
         <v>43433</v>
       </c>
       <c r="H388" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I388" t="s">
+        <v>373</v>
+      </c>
+      <c r="J388" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J388" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
@@ -18085,13 +18114,13 @@
         <v>43434</v>
       </c>
       <c r="H389" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I389" t="s">
+        <v>373</v>
+      </c>
+      <c r="J389" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J389" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
@@ -18099,13 +18128,13 @@
         <v>43435</v>
       </c>
       <c r="H390" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I390" t="s">
+        <v>373</v>
+      </c>
+      <c r="J390" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J390" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
@@ -18113,13 +18142,13 @@
         <v>43436</v>
       </c>
       <c r="H391" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I391" t="s">
+        <v>373</v>
+      </c>
+      <c r="J391" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J391" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
@@ -18127,13 +18156,13 @@
         <v>43437</v>
       </c>
       <c r="H392" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I392" t="s">
+        <v>373</v>
+      </c>
+      <c r="J392" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J392" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
@@ -18141,13 +18170,13 @@
         <v>43438</v>
       </c>
       <c r="H393" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I393" t="s">
+        <v>373</v>
+      </c>
+      <c r="J393" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J393" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
@@ -18155,13 +18184,13 @@
         <v>43439</v>
       </c>
       <c r="H394" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I394" t="s">
+        <v>373</v>
+      </c>
+      <c r="J394" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J394" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
@@ -18169,13 +18198,13 @@
         <v>43440</v>
       </c>
       <c r="H395" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I395" t="s">
+        <v>373</v>
+      </c>
+      <c r="J395" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J395" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
@@ -18183,13 +18212,13 @@
         <v>43441</v>
       </c>
       <c r="H396" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I396" t="s">
+        <v>373</v>
+      </c>
+      <c r="J396" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J396" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
@@ -18197,13 +18226,13 @@
         <v>43442</v>
       </c>
       <c r="H397" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I397" t="s">
+        <v>373</v>
+      </c>
+      <c r="J397" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J397" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
@@ -18211,13 +18240,13 @@
         <v>43443</v>
       </c>
       <c r="H398" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I398" t="s">
+        <v>373</v>
+      </c>
+      <c r="J398" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J398" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
@@ -18225,13 +18254,13 @@
         <v>43444</v>
       </c>
       <c r="H399" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I399" t="s">
+        <v>373</v>
+      </c>
+      <c r="J399" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J399" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
@@ -18239,13 +18268,13 @@
         <v>43445</v>
       </c>
       <c r="H400" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I400" t="s">
+        <v>373</v>
+      </c>
+      <c r="J400" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J400" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
@@ -18253,13 +18282,13 @@
         <v>43446</v>
       </c>
       <c r="H401" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I401" t="s">
+        <v>373</v>
+      </c>
+      <c r="J401" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J401" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
@@ -18267,13 +18296,13 @@
         <v>43447</v>
       </c>
       <c r="H402" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I402" t="s">
+        <v>373</v>
+      </c>
+      <c r="J402" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J402" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
@@ -18281,13 +18310,13 @@
         <v>43448</v>
       </c>
       <c r="H403" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I403" t="s">
+        <v>373</v>
+      </c>
+      <c r="J403" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J403" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
@@ -18295,13 +18324,13 @@
         <v>43449</v>
       </c>
       <c r="H404" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I404" t="s">
+        <v>373</v>
+      </c>
+      <c r="J404" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J404" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -18309,13 +18338,13 @@
         <v>43450</v>
       </c>
       <c r="H405" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I405" t="s">
+        <v>373</v>
+      </c>
+      <c r="J405" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J405" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -18323,13 +18352,13 @@
         <v>43451</v>
       </c>
       <c r="H406" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I406" t="s">
+        <v>373</v>
+      </c>
+      <c r="J406" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J406" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -18337,13 +18366,13 @@
         <v>43452</v>
       </c>
       <c r="H407" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I407" t="s">
+        <v>373</v>
+      </c>
+      <c r="J407" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J407" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -18351,13 +18380,13 @@
         <v>43453</v>
       </c>
       <c r="H408" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I408" t="s">
+        <v>373</v>
+      </c>
+      <c r="J408" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J408" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -18365,13 +18394,13 @@
         <v>43454</v>
       </c>
       <c r="H409" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I409" t="s">
+        <v>373</v>
+      </c>
+      <c r="J409" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J409" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -18379,13 +18408,13 @@
         <v>43455</v>
       </c>
       <c r="H410" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I410" t="s">
+        <v>373</v>
+      </c>
+      <c r="J410" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J410" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -18393,13 +18422,13 @@
         <v>43456</v>
       </c>
       <c r="H411" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I411" t="s">
+        <v>373</v>
+      </c>
+      <c r="J411" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J411" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
@@ -18407,13 +18436,13 @@
         <v>43457</v>
       </c>
       <c r="H412" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I412" t="s">
+        <v>373</v>
+      </c>
+      <c r="J412" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J412" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -18421,13 +18450,13 @@
         <v>43458</v>
       </c>
       <c r="H413" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I413" t="s">
+        <v>373</v>
+      </c>
+      <c r="J413" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J413" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -18435,13 +18464,13 @@
         <v>43459</v>
       </c>
       <c r="H414" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I414" t="s">
+        <v>373</v>
+      </c>
+      <c r="J414" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J414" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
@@ -18449,13 +18478,13 @@
         <v>43460</v>
       </c>
       <c r="H415" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I415" t="s">
+        <v>373</v>
+      </c>
+      <c r="J415" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J415" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
@@ -18463,13 +18492,13 @@
         <v>43461</v>
       </c>
       <c r="H416" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I416" t="s">
+        <v>373</v>
+      </c>
+      <c r="J416" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J416" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
@@ -18477,13 +18506,13 @@
         <v>43462</v>
       </c>
       <c r="H417" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I417" t="s">
+        <v>373</v>
+      </c>
+      <c r="J417" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J417" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
@@ -18491,13 +18520,13 @@
         <v>43463</v>
       </c>
       <c r="H418" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I418" t="s">
+        <v>373</v>
+      </c>
+      <c r="J418" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J418" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
@@ -18505,13 +18534,13 @@
         <v>43464</v>
       </c>
       <c r="H419" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I419" t="s">
+        <v>373</v>
+      </c>
+      <c r="J419" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J419" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
@@ -18519,13 +18548,13 @@
         <v>43465</v>
       </c>
       <c r="H420" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I420" t="s">
+        <v>373</v>
+      </c>
+      <c r="J420" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J420" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
@@ -18533,13 +18562,13 @@
         <v>43466</v>
       </c>
       <c r="H421" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I421" t="s">
+        <v>373</v>
+      </c>
+      <c r="J421" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J421" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
@@ -18547,13 +18576,13 @@
         <v>43467</v>
       </c>
       <c r="H422" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I422" t="s">
+        <v>373</v>
+      </c>
+      <c r="J422" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J422" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
@@ -18561,13 +18590,13 @@
         <v>43468</v>
       </c>
       <c r="H423" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I423" t="s">
+        <v>373</v>
+      </c>
+      <c r="J423" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J423" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
@@ -18575,13 +18604,13 @@
         <v>43469</v>
       </c>
       <c r="H424" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I424" t="s">
+        <v>373</v>
+      </c>
+      <c r="J424" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J424" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
@@ -18589,13 +18618,13 @@
         <v>43470</v>
       </c>
       <c r="H425" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I425" t="s">
+        <v>373</v>
+      </c>
+      <c r="J425" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J425" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
@@ -18603,13 +18632,13 @@
         <v>43471</v>
       </c>
       <c r="H426" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I426" t="s">
+        <v>373</v>
+      </c>
+      <c r="J426" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J426" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
@@ -18617,13 +18646,13 @@
         <v>43472</v>
       </c>
       <c r="H427" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I427" t="s">
+        <v>373</v>
+      </c>
+      <c r="J427" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J427" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
@@ -18631,13 +18660,13 @@
         <v>43473</v>
       </c>
       <c r="H428" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I428" t="s">
+        <v>373</v>
+      </c>
+      <c r="J428" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J428" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
@@ -18645,13 +18674,13 @@
         <v>43474</v>
       </c>
       <c r="H429" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I429" t="s">
+        <v>373</v>
+      </c>
+      <c r="J429" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J429" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
@@ -18659,13 +18688,13 @@
         <v>43475</v>
       </c>
       <c r="H430" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I430" t="s">
+        <v>373</v>
+      </c>
+      <c r="J430" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J430" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -18673,13 +18702,13 @@
         <v>43476</v>
       </c>
       <c r="H431" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I431" t="s">
+        <v>373</v>
+      </c>
+      <c r="J431" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J431" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -18687,13 +18716,13 @@
         <v>43477</v>
       </c>
       <c r="H432" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I432" t="s">
+        <v>373</v>
+      </c>
+      <c r="J432" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J432" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -18701,13 +18730,13 @@
         <v>43478</v>
       </c>
       <c r="H433" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I433" t="s">
+        <v>373</v>
+      </c>
+      <c r="J433" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="J433" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -18715,13 +18744,13 @@
         <v>43479</v>
       </c>
       <c r="H434" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I434" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J434" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
@@ -18729,13 +18758,13 @@
         <v>43480</v>
       </c>
       <c r="H435" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I435" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J435" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
@@ -18743,13 +18772,13 @@
         <v>43481</v>
       </c>
       <c r="H436" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I436" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J436" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
@@ -18757,13 +18786,13 @@
         <v>43482</v>
       </c>
       <c r="H437" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I437" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J437" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
@@ -18771,13 +18800,13 @@
         <v>43483</v>
       </c>
       <c r="H438" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I438" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J438" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
@@ -18785,13 +18814,13 @@
         <v>43484</v>
       </c>
       <c r="H439" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I439" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J439" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
@@ -18799,13 +18828,13 @@
         <v>43485</v>
       </c>
       <c r="H440" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I440" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J440" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
@@ -18813,13 +18842,13 @@
         <v>43486</v>
       </c>
       <c r="H441" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I441" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J441" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
@@ -18827,13 +18856,13 @@
         <v>43487</v>
       </c>
       <c r="H442" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I442" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J442" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
@@ -18841,13 +18870,13 @@
         <v>43488</v>
       </c>
       <c r="H443" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I443" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J443" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
@@ -18855,13 +18884,13 @@
         <v>43489</v>
       </c>
       <c r="H444" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I444" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J444" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
@@ -18869,13 +18898,13 @@
         <v>43490</v>
       </c>
       <c r="H445" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I445" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J445" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
@@ -18883,13 +18912,13 @@
         <v>43491</v>
       </c>
       <c r="H446" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I446" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J446" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
@@ -18897,13 +18926,13 @@
         <v>43492</v>
       </c>
       <c r="H447" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I447" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J447" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
@@ -18911,13 +18940,13 @@
         <v>43493</v>
       </c>
       <c r="H448" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I448" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J448" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
@@ -18925,13 +18954,13 @@
         <v>43494</v>
       </c>
       <c r="H449" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I449" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J449" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
@@ -18939,13 +18968,13 @@
         <v>43495</v>
       </c>
       <c r="H450" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I450" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J450" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
@@ -18953,13 +18982,13 @@
         <v>43496</v>
       </c>
       <c r="H451" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I451" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J451" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
@@ -18967,13 +18996,13 @@
         <v>43497</v>
       </c>
       <c r="H452" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I452" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J452" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
@@ -18981,13 +19010,13 @@
         <v>43498</v>
       </c>
       <c r="H453" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I453" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J453" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
@@ -18995,13 +19024,13 @@
         <v>43499</v>
       </c>
       <c r="H454" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I454" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J454" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
@@ -19009,13 +19038,13 @@
         <v>43500</v>
       </c>
       <c r="H455" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I455" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J455" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
@@ -19023,13 +19052,13 @@
         <v>43501</v>
       </c>
       <c r="H456" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I456" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J456" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.2">
@@ -19037,13 +19066,13 @@
         <v>43502</v>
       </c>
       <c r="H457" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I457" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J457" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.2">
@@ -19051,13 +19080,13 @@
         <v>43503</v>
       </c>
       <c r="H458" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I458" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J458" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.2">
@@ -19065,13 +19094,13 @@
         <v>43504</v>
       </c>
       <c r="H459" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I459" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J459" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
@@ -19079,13 +19108,13 @@
         <v>43505</v>
       </c>
       <c r="H460" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I460" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J460" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -19093,13 +19122,13 @@
         <v>43506</v>
       </c>
       <c r="H461" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I461" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J461" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
@@ -19107,13 +19136,13 @@
         <v>43507</v>
       </c>
       <c r="H462" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I462" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J462" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
@@ -19121,13 +19150,13 @@
         <v>43508</v>
       </c>
       <c r="H463" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I463" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J463" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
@@ -19135,13 +19164,13 @@
         <v>43509</v>
       </c>
       <c r="H464" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I464" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J464" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
@@ -19149,13 +19178,13 @@
         <v>43510</v>
       </c>
       <c r="H465" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I465" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J465" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
@@ -19163,13 +19192,13 @@
         <v>43511</v>
       </c>
       <c r="H466" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I466" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J466" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
@@ -19177,13 +19206,13 @@
         <v>43512</v>
       </c>
       <c r="H467" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I467" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J467" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
@@ -19191,13 +19220,13 @@
         <v>43513</v>
       </c>
       <c r="H468" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I468" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J468" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
@@ -19205,13 +19234,13 @@
         <v>43514</v>
       </c>
       <c r="H469" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I469" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J469" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
@@ -19545,52 +19574,52 @@
         <v>157</v>
       </c>
       <c r="G1" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>286</v>
-      </c>
       <c r="I1" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>157</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>286</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U1" t="s">
         <v>356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>357</v>
-      </c>
-      <c r="V1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -20386,7 +20415,7 @@
     </row>
     <row r="81" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="I81" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
@@ -20408,22 +20437,22 @@
         <v>28</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N82" s="13" t="s">
         <v>157</v>
       </c>
       <c r="O82" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="P82" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="P82" s="13" t="s">
-        <v>286</v>
-      </c>
       <c r="Q82" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S82" s="13"/>
       <c r="T82" s="13" t="s">
@@ -20433,7 +20462,7 @@
         <v>26</v>
       </c>
       <c r="V82" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
@@ -21117,7 +21146,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -21197,7 +21226,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113">
         <v>4.5</v>
@@ -21277,7 +21306,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E116">
         <v>4.5</v>
@@ -21354,7 +21383,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C119">
         <v>6</v>
@@ -21434,7 +21463,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -21514,7 +21543,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C125">
         <v>4.5</v>
@@ -21594,7 +21623,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -21674,7 +21703,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -21762,7 +21791,7 @@
     </row>
     <row r="134" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C134" s="11">
         <v>5</v>
@@ -21850,7 +21879,7 @@
     </row>
     <row r="137" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" s="11">
         <v>5</v>
@@ -21935,7 +21964,7 @@
     </row>
     <row r="140" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C140" s="11">
         <v>4.5</v>
@@ -22022,7 +22051,7 @@
     </row>
     <row r="143" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C143" s="11">
         <v>4.5</v>
@@ -22114,7 +22143,7 @@
     </row>
     <row r="146" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C146" s="11">
         <v>4</v>
@@ -22206,7 +22235,7 @@
     </row>
     <row r="149" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C149" s="11">
         <v>4</v>
@@ -22298,7 +22327,7 @@
     </row>
     <row r="152" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C152" s="11">
         <v>2</v>
@@ -22385,7 +22414,7 @@
     </row>
     <row r="155" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="11">
         <v>4</v>
@@ -22481,7 +22510,7 @@
     </row>
     <row r="158" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C158" s="11">
         <v>3</v>
@@ -22582,7 +22611,7 @@
     </row>
     <row r="161" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C161" s="11">
         <v>4</v>
@@ -22683,7 +22712,7 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F164" s="11">
         <v>6</v>
@@ -22797,13 +22826,13 @@
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
       <c r="T167" t="s">
+        <v>355</v>
+      </c>
+      <c r="U167" t="s">
         <v>356</v>
       </c>
-      <c r="U167" t="s">
+      <c r="V167" t="s">
         <v>357</v>
-      </c>
-      <c r="V167" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.2">
@@ -23687,7 +23716,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C203">
         <v>4</v>
@@ -23762,7 +23791,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C206">
         <v>4</v>
@@ -23837,7 +23866,7 @@
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C209">
         <v>4</v>
@@ -23912,7 +23941,7 @@
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C212">
         <v>4</v>
@@ -23987,7 +24016,7 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -24062,7 +24091,7 @@
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -24137,7 +24166,7 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -24212,7 +24241,7 @@
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C224">
         <v>4</v>
@@ -24287,7 +24316,7 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -24362,7 +24391,7 @@
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -24437,7 +24466,7 @@
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C233">
         <v>4</v>
@@ -24512,7 +24541,7 @@
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C236">
         <v>4</v>
@@ -24587,7 +24616,7 @@
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -24662,7 +24691,7 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -24737,7 +24766,7 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -24812,7 +24841,7 @@
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C248">
         <v>4</v>
@@ -24887,7 +24916,7 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C251">
         <v>4</v>
@@ -24962,7 +24991,7 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -26030,7 +26059,7 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C293">
         <v>4</v>
@@ -26116,7 +26145,7 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C296">
         <v>4</v>
@@ -26202,7 +26231,7 @@
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -26288,7 +26317,7 @@
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C302">
         <v>3</v>
@@ -26374,7 +26403,7 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A305" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C305">
         <v>3</v>
@@ -26460,7 +26489,7 @@
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C308">
         <v>3</v>
@@ -26546,7 +26575,7 @@
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A311" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C311">
         <v>3</v>
@@ -26632,7 +26661,7 @@
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C314">
         <v>3</v>
@@ -26718,7 +26747,7 @@
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A317" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C317">
         <v>3</v>
@@ -26804,7 +26833,7 @@
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C320">
         <v>3</v>
@@ -26890,7 +26919,7 @@
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A323" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -26976,7 +27005,7 @@
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -27062,7 +27091,7 @@
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -27148,7 +27177,7 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A332" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C332">
         <v>2</v>
@@ -27234,7 +27263,7 @@
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C335">
         <v>2.5</v>
@@ -27320,7 +27349,7 @@
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A338" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C338">
         <v>2</v>
@@ -27406,7 +27435,7 @@
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A341" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C341">
         <v>3</v>
@@ -27492,7 +27521,7 @@
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A344" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -27578,7 +27607,7 @@
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A347" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.2">
@@ -27810,7 +27839,7 @@
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L358" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M358" s="34">
         <f t="shared" ref="M358" si="125">SUM(E356:E357)</f>
@@ -28614,7 +28643,7 @@
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A386" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C386">
         <v>2</v>
@@ -28700,7 +28729,7 @@
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A389" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C389">
         <v>2</v>
@@ -28786,7 +28815,7 @@
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A392" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C392">
         <v>2</v>
@@ -28872,7 +28901,7 @@
     </row>
     <row r="395" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A395" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C395">
         <v>2</v>
@@ -28958,7 +28987,7 @@
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A398" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C398">
         <v>2</v>
@@ -29044,7 +29073,7 @@
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C401">
         <v>2</v>
@@ -29130,7 +29159,7 @@
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C404">
         <v>2</v>
@@ -29216,7 +29245,7 @@
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -29302,7 +29331,7 @@
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -29388,7 +29417,7 @@
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C413">
         <v>2</v>
@@ -29474,7 +29503,7 @@
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C416">
         <v>2</v>
@@ -29560,7 +29589,7 @@
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C419">
         <v>2</v>
@@ -29646,7 +29675,7 @@
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C422">
         <v>2</v>
@@ -29732,7 +29761,7 @@
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C425">
         <v>2</v>
@@ -29818,7 +29847,7 @@
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C428">
         <v>2.5</v>
@@ -29904,7 +29933,7 @@
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C431">
         <v>2</v>
@@ -29990,7 +30019,7 @@
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C434">
         <v>1.5</v>
@@ -30076,7 +30105,7 @@
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C437">
         <v>2</v>
@@ -31194,7 +31223,7 @@
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A476" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C476">
         <v>2</v>
@@ -31280,7 +31309,7 @@
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A479" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C479">
         <v>2</v>
@@ -31366,7 +31395,7 @@
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A482" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C482">
         <v>2</v>
@@ -31452,7 +31481,7 @@
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A485" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -31538,7 +31567,7 @@
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A488" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C488">
         <v>2</v>
@@ -31624,7 +31653,7 @@
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A491" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C491">
         <v>2</v>
@@ -31710,7 +31739,7 @@
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A494" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -31796,7 +31825,7 @@
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A497" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C497">
         <v>2</v>
@@ -31882,7 +31911,7 @@
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A500" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C500">
         <v>2</v>
@@ -31968,7 +31997,7 @@
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A503" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C503">
         <v>2</v>
@@ -32054,7 +32083,7 @@
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A506" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C506">
         <v>2</v>
@@ -32140,7 +32169,7 @@
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A509" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C509">
         <v>2</v>
@@ -32226,7 +32255,7 @@
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A512" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C512">
         <v>2</v>
@@ -32312,7 +32341,7 @@
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A515" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C515">
         <v>2</v>
@@ -32398,7 +32427,7 @@
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A518" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C518">
         <v>2</v>
@@ -32484,7 +32513,7 @@
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A521" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C521">
         <v>2</v>
@@ -32570,7 +32599,7 @@
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A524" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C524">
         <v>2</v>
@@ -32656,7 +32685,7 @@
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A527" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C527">
         <v>2</v>
@@ -33798,7 +33827,7 @@
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C566">
         <v>3</v>
@@ -33884,7 +33913,7 @@
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C569">
         <v>3</v>
@@ -33970,7 +33999,7 @@
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C572">
         <v>3</v>
@@ -34056,7 +34085,7 @@
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C575">
         <v>2</v>
@@ -34142,7 +34171,7 @@
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C578">
         <v>3</v>
@@ -34228,7 +34257,7 @@
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C581">
         <v>2</v>
@@ -34314,7 +34343,7 @@
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C584">
         <v>2</v>
@@ -34400,7 +34429,7 @@
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C587">
         <v>2</v>
@@ -34486,7 +34515,7 @@
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C590">
         <v>3</v>
@@ -34572,7 +34601,7 @@
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A593" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C593">
         <v>3</v>
@@ -34658,7 +34687,7 @@
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A596" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C596">
         <v>3</v>
@@ -34744,7 +34773,7 @@
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A599" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C599">
         <v>3</v>
@@ -34830,7 +34859,7 @@
     </row>
     <row r="602" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A602" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C602">
         <v>3</v>
@@ -34917,7 +34946,7 @@
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A605" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C605">
         <v>2</v>
@@ -35003,7 +35032,7 @@
     </row>
     <row r="608" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A608" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C608">
         <v>2</v>
@@ -35089,7 +35118,7 @@
     </row>
     <row r="611" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A611" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -35175,7 +35204,7 @@
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A614" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C614">
         <v>2</v>
@@ -35261,7 +35290,7 @@
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A617" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -35347,7 +35376,7 @@
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A620" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -36522,7 +36551,7 @@
     </row>
     <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -36623,7 +36652,7 @@
     </row>
     <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -36724,7 +36753,7 @@
     </row>
     <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -36825,7 +36854,7 @@
     </row>
     <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C668">
         <v>0</v>
@@ -36926,7 +36955,7 @@
     </row>
     <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -37027,7 +37056,7 @@
     </row>
     <row r="674" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A674" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -37128,7 +37157,7 @@
     </row>
     <row r="677" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A677" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -37229,7 +37258,7 @@
     </row>
     <row r="680" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A680" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -38350,10 +38379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J48"/>
+  <dimension ref="A4:J52"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A33" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38368,39 +38397,39 @@
   <sheetData>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4">
-        <f>SUM(C5:C89)</f>
-        <v>114577</v>
+        <f>SUM(C5:C91)</f>
+        <v>126077</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G4">
         <f>SUM(G5:G18)</f>
-        <v>87000</v>
+        <v>102000</v>
       </c>
       <c r="I4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J4">
         <f>G4-C4</f>
-        <v>-27577</v>
+        <v>-24077</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5">
         <v>410</v>
       </c>
       <c r="F5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G5">
         <v>12000</v>
@@ -38408,19 +38437,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6">
         <v>12000</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G6">
         <v>12000</v>
@@ -38428,16 +38457,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7">
         <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G7">
         <v>12000</v>
@@ -38445,16 +38474,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8">
         <v>-100</v>
       </c>
       <c r="F8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G8">
         <v>12000</v>
@@ -38462,19 +38491,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9">
         <v>8000</v>
       </c>
       <c r="D9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G9">
         <v>12000</v>
@@ -38482,16 +38511,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10">
         <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G10">
         <v>12000</v>
@@ -38499,16 +38528,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11">
         <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G11">
         <v>15000</v>
@@ -38516,24 +38545,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12">
         <v>10000</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="F12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G12">
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13">
         <v>187</v>
@@ -38541,10 +38576,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14">
         <v>500</v>
@@ -38552,10 +38587,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15">
         <v>300</v>
@@ -38563,10 +38598,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16">
         <v>500</v>
@@ -38574,24 +38609,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17">
         <v>7000</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18">
         <v>300</v>
@@ -38599,10 +38634,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -38610,10 +38645,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20">
         <v>2000</v>
@@ -38621,10 +38656,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21">
         <v>-500</v>
@@ -38632,10 +38667,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C22">
         <v>-200</v>
@@ -38643,10 +38678,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -38654,24 +38689,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C24">
         <v>10000</v>
       </c>
       <c r="D24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -38679,10 +38714,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C26">
         <v>300</v>
@@ -38690,10 +38725,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C27">
         <v>700</v>
@@ -38701,10 +38736,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -38712,10 +38747,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -38723,10 +38758,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30">
         <v>1880</v>
@@ -38734,24 +38769,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C31">
         <v>5000</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32">
         <v>2000</v>
@@ -38759,10 +38794,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -38770,10 +38805,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34">
         <v>500</v>
@@ -38781,10 +38816,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35">
         <v>2200</v>
@@ -38792,10 +38827,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C36">
         <v>500</v>
@@ -38803,10 +38838,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C37">
         <v>500</v>
@@ -38814,38 +38849,38 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38">
         <v>7000</v>
       </c>
       <c r="D38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C39">
         <v>500</v>
       </c>
       <c r="E39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40">
         <v>2500</v>
@@ -38853,10 +38888,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -38864,10 +38899,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C42">
         <v>500</v>
@@ -38875,10 +38910,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -38886,10 +38921,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C44">
         <v>7000</v>
@@ -38897,10 +38932,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C45">
         <v>1000</v>
@@ -38908,23 +38943,85 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46">
         <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47" t="s">
+        <v>441</v>
+      </c>
       <c r="C47">
         <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>571</v>
+      </c>
+      <c r="B48" t="s">
+        <v>441</v>
+      </c>
       <c r="C48">
-        <v>2000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>572</v>
+      </c>
+      <c r="B49" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>570</v>
+      </c>
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50">
+        <v>500</v>
+      </c>
+      <c r="E50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>570</v>
+      </c>
+      <c r="B51" t="s">
+        <v>441</v>
+      </c>
+      <c r="C51">
+        <v>7000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>570</v>
+      </c>
+      <c r="B52" t="s">
+        <v>441</v>
+      </c>
+      <c r="C52">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -38951,7 +39048,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -39005,7 +39102,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -39360,7 +39457,7 @@
         <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -39616,7 +39713,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="20">
         <v>43225</v>
@@ -39627,7 +39724,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="20">
         <v>43225</v>
@@ -39649,7 +39746,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>148</v>
@@ -39660,7 +39757,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="20">
         <v>43380</v>
@@ -39671,10 +39768,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" t="s">
         <v>497</v>
-      </c>
-      <c r="B14" t="s">
-        <v>498</v>
       </c>
       <c r="C14">
         <v>46000</v>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -2136,6 +2136,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2150,9 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2489,11 +2489,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1491690528"/>
-        <c:axId val="-1491698688"/>
+        <c:axId val="-1000096064"/>
+        <c:axId val="-1000091168"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1491690528"/>
+        <c:axId val="-1000096064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2536,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491698688"/>
+        <c:crossAx val="-1000091168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1491698688"/>
+        <c:axId val="-1000091168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491690528"/>
+        <c:crossAx val="-1000096064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,11 +2893,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1491689440"/>
-        <c:axId val="-1491693792"/>
+        <c:axId val="-1000089536"/>
+        <c:axId val="-1000094976"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1491689440"/>
+        <c:axId val="-1000089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,14 +2940,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491693792"/>
+        <c:crossAx val="-1000094976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1491693792"/>
+        <c:axId val="-1000094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +2998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491689440"/>
+        <c:crossAx val="-1000089536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4569,24 +4569,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4741,18 +4741,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="I18" s="65" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="I18" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -6984,7 +6984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -7096,7 +7096,7 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="62" t="s">
         <v>573</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -19542,19 +19542,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V712"/>
+  <dimension ref="A1:V903"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L532" sqref="L532:L619"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T709" sqref="T709:V858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="17" width="10.140625" customWidth="1"/>
+    <col min="5" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="17" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -20419,15 +20422,15 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
-      <c r="L81" s="66">
+      <c r="L81" s="67">
         <f>SUM(L83:Q83)</f>
         <v>56.75</v>
       </c>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
     </row>
     <row r="82" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -20507,7 +20510,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="66"/>
+      <c r="I84" s="67"/>
       <c r="J84" s="51"/>
       <c r="K84" s="58"/>
     </row>
@@ -20527,7 +20530,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="66"/>
+      <c r="I85" s="67"/>
       <c r="J85" s="51"/>
       <c r="K85" s="58"/>
     </row>
@@ -38365,6 +38368,4231 @@
       <c r="S712" s="34">
         <f t="shared" ref="S712" si="860">SUM(K710:K711)</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A713" s="53">
+        <v>43527</v>
+      </c>
+      <c r="F713">
+        <v>3</v>
+      </c>
+      <c r="G713">
+        <v>2</v>
+      </c>
+      <c r="H713">
+        <v>3</v>
+      </c>
+      <c r="J713">
+        <v>3</v>
+      </c>
+      <c r="K713">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F714">
+        <v>2</v>
+      </c>
+      <c r="G714">
+        <v>1</v>
+      </c>
+      <c r="H714">
+        <v>2</v>
+      </c>
+      <c r="J714">
+        <v>5</v>
+      </c>
+      <c r="K714">
+        <v>4</v>
+      </c>
+      <c r="T714">
+        <f t="shared" ref="T714:T745" si="861">SUM(C713:K713)</f>
+        <v>17</v>
+      </c>
+      <c r="U714">
+        <f t="shared" ref="U714:U745" si="862">SUM(C714:K714)</f>
+        <v>14</v>
+      </c>
+      <c r="V714">
+        <f t="shared" ref="V714" si="863">T714+U714</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="715" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L715" s="34">
+        <f t="shared" ref="L715" si="864">SUM(C713:C714)</f>
+        <v>0</v>
+      </c>
+      <c r="M715" s="34">
+        <f t="shared" ref="M715" si="865">SUM(E713:E714)</f>
+        <v>0</v>
+      </c>
+      <c r="N715" s="34">
+        <f t="shared" ref="N715" si="866">SUM(F713:F714)</f>
+        <v>5</v>
+      </c>
+      <c r="O715" s="34">
+        <f t="shared" ref="O715" si="867">SUM(G713:G714)</f>
+        <v>3</v>
+      </c>
+      <c r="P715" s="34">
+        <f t="shared" ref="P715" si="868">SUM(H713:H714)</f>
+        <v>5</v>
+      </c>
+      <c r="Q715" s="34">
+        <f t="shared" ref="Q715" si="869">SUM(I713:I714)</f>
+        <v>0</v>
+      </c>
+      <c r="R715" s="34">
+        <f t="shared" ref="R715" si="870">SUM(J713:J714)</f>
+        <v>8</v>
+      </c>
+      <c r="S715" s="34">
+        <f t="shared" ref="S715" si="871">SUM(K713:K714)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="716" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A716" s="53">
+        <v>43528</v>
+      </c>
+      <c r="F716">
+        <v>3</v>
+      </c>
+      <c r="G716">
+        <v>2</v>
+      </c>
+      <c r="H716">
+        <v>3</v>
+      </c>
+      <c r="J716">
+        <v>3</v>
+      </c>
+      <c r="K716">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F717">
+        <v>2</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+      <c r="H717">
+        <v>2</v>
+      </c>
+      <c r="J717">
+        <v>3</v>
+      </c>
+      <c r="K717">
+        <v>5</v>
+      </c>
+      <c r="T717">
+        <f t="shared" ref="T717:T748" si="872">SUM(C716:K716)</f>
+        <v>16</v>
+      </c>
+      <c r="U717">
+        <f t="shared" ref="U717:U748" si="873">SUM(C717:K717)</f>
+        <v>13</v>
+      </c>
+      <c r="V717">
+        <f t="shared" ref="V717" si="874">T717+U717</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="718" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L718" s="34">
+        <f t="shared" ref="L718" si="875">SUM(C716:C717)</f>
+        <v>0</v>
+      </c>
+      <c r="M718" s="34">
+        <f t="shared" ref="M718" si="876">SUM(E716:E717)</f>
+        <v>0</v>
+      </c>
+      <c r="N718" s="34">
+        <f t="shared" ref="N718" si="877">SUM(F716:F717)</f>
+        <v>5</v>
+      </c>
+      <c r="O718" s="34">
+        <f t="shared" ref="O718" si="878">SUM(G716:G717)</f>
+        <v>3</v>
+      </c>
+      <c r="P718" s="34">
+        <f t="shared" ref="P718" si="879">SUM(H716:H717)</f>
+        <v>5</v>
+      </c>
+      <c r="Q718" s="34">
+        <f t="shared" ref="Q718" si="880">SUM(I716:I717)</f>
+        <v>0</v>
+      </c>
+      <c r="R718" s="34">
+        <f t="shared" ref="R718" si="881">SUM(J716:J717)</f>
+        <v>6</v>
+      </c>
+      <c r="S718" s="34">
+        <f t="shared" ref="S718" si="882">SUM(K716:K717)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A719" s="53">
+        <v>43529</v>
+      </c>
+      <c r="F719">
+        <v>3</v>
+      </c>
+      <c r="G719">
+        <v>3</v>
+      </c>
+      <c r="H719">
+        <v>3</v>
+      </c>
+      <c r="J719">
+        <v>4</v>
+      </c>
+      <c r="K719">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F720">
+        <v>2</v>
+      </c>
+      <c r="G720">
+        <v>1</v>
+      </c>
+      <c r="H720">
+        <v>2</v>
+      </c>
+      <c r="J720">
+        <v>4</v>
+      </c>
+      <c r="K720">
+        <v>5</v>
+      </c>
+      <c r="T720">
+        <f t="shared" ref="T720:T751" si="883">SUM(C719:K719)</f>
+        <v>19</v>
+      </c>
+      <c r="U720">
+        <f t="shared" ref="U720:U751" si="884">SUM(C720:K720)</f>
+        <v>14</v>
+      </c>
+      <c r="V720">
+        <f t="shared" ref="V720" si="885">T720+U720</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="721" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L721" s="34">
+        <f t="shared" ref="L721" si="886">SUM(C719:C720)</f>
+        <v>0</v>
+      </c>
+      <c r="M721" s="34">
+        <f t="shared" ref="M721" si="887">SUM(E719:E720)</f>
+        <v>0</v>
+      </c>
+      <c r="N721" s="34">
+        <f t="shared" ref="N721" si="888">SUM(F719:F720)</f>
+        <v>5</v>
+      </c>
+      <c r="O721" s="34">
+        <f t="shared" ref="O721" si="889">SUM(G719:G720)</f>
+        <v>4</v>
+      </c>
+      <c r="P721" s="34">
+        <f t="shared" ref="P721" si="890">SUM(H719:H720)</f>
+        <v>5</v>
+      </c>
+      <c r="Q721" s="34">
+        <f t="shared" ref="Q721" si="891">SUM(I719:I720)</f>
+        <v>0</v>
+      </c>
+      <c r="R721" s="34">
+        <f t="shared" ref="R721" si="892">SUM(J719:J720)</f>
+        <v>8</v>
+      </c>
+      <c r="S721" s="34">
+        <f t="shared" ref="S721" si="893">SUM(K719:K720)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="722" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A722" s="53">
+        <v>43530</v>
+      </c>
+      <c r="F722">
+        <v>3</v>
+      </c>
+      <c r="G722">
+        <v>3</v>
+      </c>
+      <c r="H722">
+        <v>3</v>
+      </c>
+      <c r="J722">
+        <v>3</v>
+      </c>
+      <c r="K722">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F723">
+        <v>2</v>
+      </c>
+      <c r="G723">
+        <v>2</v>
+      </c>
+      <c r="H723">
+        <v>2</v>
+      </c>
+      <c r="J723">
+        <v>3</v>
+      </c>
+      <c r="K723">
+        <v>4</v>
+      </c>
+      <c r="T723">
+        <f t="shared" ref="T723:T754" si="894">SUM(C722:K722)</f>
+        <v>17</v>
+      </c>
+      <c r="U723">
+        <f t="shared" ref="U723:U754" si="895">SUM(C723:K723)</f>
+        <v>13</v>
+      </c>
+      <c r="V723">
+        <f t="shared" ref="V723" si="896">T723+U723</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L724" s="34">
+        <f t="shared" ref="L724" si="897">SUM(C722:C723)</f>
+        <v>0</v>
+      </c>
+      <c r="M724" s="34">
+        <f t="shared" ref="M724" si="898">SUM(E722:E723)</f>
+        <v>0</v>
+      </c>
+      <c r="N724" s="34">
+        <f t="shared" ref="N724" si="899">SUM(F722:F723)</f>
+        <v>5</v>
+      </c>
+      <c r="O724" s="34">
+        <f t="shared" ref="O724" si="900">SUM(G722:G723)</f>
+        <v>5</v>
+      </c>
+      <c r="P724" s="34">
+        <f t="shared" ref="P724" si="901">SUM(H722:H723)</f>
+        <v>5</v>
+      </c>
+      <c r="Q724" s="34">
+        <f t="shared" ref="Q724" si="902">SUM(I722:I723)</f>
+        <v>0</v>
+      </c>
+      <c r="R724" s="34">
+        <f t="shared" ref="R724" si="903">SUM(J722:J723)</f>
+        <v>6</v>
+      </c>
+      <c r="S724" s="34">
+        <f t="shared" ref="S724" si="904">SUM(K722:K723)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A725" s="53">
+        <v>43531</v>
+      </c>
+      <c r="F725">
+        <v>3</v>
+      </c>
+      <c r="G725">
+        <v>2</v>
+      </c>
+      <c r="H725">
+        <v>2</v>
+      </c>
+      <c r="J725">
+        <v>4</v>
+      </c>
+      <c r="K725">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F726">
+        <v>2</v>
+      </c>
+      <c r="G726">
+        <v>1</v>
+      </c>
+      <c r="H726">
+        <v>2</v>
+      </c>
+      <c r="J726">
+        <v>3</v>
+      </c>
+      <c r="K726">
+        <v>5</v>
+      </c>
+      <c r="T726">
+        <f t="shared" ref="T726:T757" si="905">SUM(C725:K725)</f>
+        <v>16</v>
+      </c>
+      <c r="U726">
+        <f t="shared" ref="U726:U757" si="906">SUM(C726:K726)</f>
+        <v>13</v>
+      </c>
+      <c r="V726">
+        <f t="shared" ref="V726" si="907">T726+U726</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="727" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L727" s="34">
+        <f t="shared" ref="L727" si="908">SUM(C725:C726)</f>
+        <v>0</v>
+      </c>
+      <c r="M727" s="34">
+        <f t="shared" ref="M727" si="909">SUM(E725:E726)</f>
+        <v>0</v>
+      </c>
+      <c r="N727" s="34">
+        <f t="shared" ref="N727" si="910">SUM(F725:F726)</f>
+        <v>5</v>
+      </c>
+      <c r="O727" s="34">
+        <f t="shared" ref="O727" si="911">SUM(G725:G726)</f>
+        <v>3</v>
+      </c>
+      <c r="P727" s="34">
+        <f t="shared" ref="P727" si="912">SUM(H725:H726)</f>
+        <v>4</v>
+      </c>
+      <c r="Q727" s="34">
+        <f t="shared" ref="Q727" si="913">SUM(I725:I726)</f>
+        <v>0</v>
+      </c>
+      <c r="R727" s="34">
+        <f t="shared" ref="R727" si="914">SUM(J725:J726)</f>
+        <v>7</v>
+      </c>
+      <c r="S727" s="34">
+        <f t="shared" ref="S727" si="915">SUM(K725:K726)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="728" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A728" s="53">
+        <v>43532</v>
+      </c>
+      <c r="F728">
+        <v>3</v>
+      </c>
+      <c r="G728">
+        <v>2</v>
+      </c>
+      <c r="H728">
+        <v>3</v>
+      </c>
+      <c r="J728">
+        <v>4</v>
+      </c>
+      <c r="K728">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F729">
+        <v>2</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+      <c r="H729">
+        <v>2</v>
+      </c>
+      <c r="J729">
+        <v>3</v>
+      </c>
+      <c r="K729">
+        <v>5</v>
+      </c>
+      <c r="T729">
+        <f t="shared" ref="T729:T760" si="916">SUM(C728:K728)</f>
+        <v>17</v>
+      </c>
+      <c r="U729">
+        <f t="shared" ref="U729:U760" si="917">SUM(C729:K729)</f>
+        <v>13</v>
+      </c>
+      <c r="V729">
+        <f t="shared" ref="V729" si="918">T729+U729</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="730" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L730" s="34">
+        <f t="shared" ref="L730" si="919">SUM(C728:C729)</f>
+        <v>0</v>
+      </c>
+      <c r="M730" s="34">
+        <f t="shared" ref="M730" si="920">SUM(E728:E729)</f>
+        <v>0</v>
+      </c>
+      <c r="N730" s="34">
+        <f t="shared" ref="N730" si="921">SUM(F728:F729)</f>
+        <v>5</v>
+      </c>
+      <c r="O730" s="34">
+        <f t="shared" ref="O730" si="922">SUM(G728:G729)</f>
+        <v>3</v>
+      </c>
+      <c r="P730" s="34">
+        <f t="shared" ref="P730" si="923">SUM(H728:H729)</f>
+        <v>5</v>
+      </c>
+      <c r="Q730" s="34">
+        <f t="shared" ref="Q730" si="924">SUM(I728:I729)</f>
+        <v>0</v>
+      </c>
+      <c r="R730" s="34">
+        <f t="shared" ref="R730" si="925">SUM(J728:J729)</f>
+        <v>7</v>
+      </c>
+      <c r="S730" s="34">
+        <f t="shared" ref="S730" si="926">SUM(K728:K729)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A731" s="53">
+        <v>43533</v>
+      </c>
+      <c r="F731">
+        <v>3</v>
+      </c>
+      <c r="G731">
+        <v>2</v>
+      </c>
+      <c r="H731">
+        <v>3</v>
+      </c>
+      <c r="J731">
+        <v>4</v>
+      </c>
+      <c r="K731">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F732">
+        <v>2</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+      <c r="H732">
+        <v>2</v>
+      </c>
+      <c r="J732">
+        <v>3</v>
+      </c>
+      <c r="K732">
+        <v>5</v>
+      </c>
+      <c r="T732">
+        <f t="shared" ref="T732:T763" si="927">SUM(C731:K731)</f>
+        <v>17</v>
+      </c>
+      <c r="U732">
+        <f t="shared" ref="U732:U763" si="928">SUM(C732:K732)</f>
+        <v>13</v>
+      </c>
+      <c r="V732">
+        <f t="shared" ref="V732" si="929">T732+U732</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="733" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L733" s="34">
+        <f t="shared" ref="L733" si="930">SUM(C731:C732)</f>
+        <v>0</v>
+      </c>
+      <c r="M733" s="34">
+        <f t="shared" ref="M733" si="931">SUM(E731:E732)</f>
+        <v>0</v>
+      </c>
+      <c r="N733" s="34">
+        <f t="shared" ref="N733" si="932">SUM(F731:F732)</f>
+        <v>5</v>
+      </c>
+      <c r="O733" s="34">
+        <f t="shared" ref="O733" si="933">SUM(G731:G732)</f>
+        <v>3</v>
+      </c>
+      <c r="P733" s="34">
+        <f t="shared" ref="P733" si="934">SUM(H731:H732)</f>
+        <v>5</v>
+      </c>
+      <c r="Q733" s="34">
+        <f t="shared" ref="Q733" si="935">SUM(I731:I732)</f>
+        <v>0</v>
+      </c>
+      <c r="R733" s="34">
+        <f t="shared" ref="R733" si="936">SUM(J731:J732)</f>
+        <v>7</v>
+      </c>
+      <c r="S733" s="34">
+        <f t="shared" ref="S733" si="937">SUM(K731:K732)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A734" s="53">
+        <v>43534</v>
+      </c>
+      <c r="F734">
+        <v>3</v>
+      </c>
+      <c r="G734">
+        <v>2</v>
+      </c>
+      <c r="H734">
+        <v>3</v>
+      </c>
+      <c r="J734">
+        <v>4</v>
+      </c>
+      <c r="K734">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F735">
+        <v>2</v>
+      </c>
+      <c r="G735">
+        <v>1</v>
+      </c>
+      <c r="H735">
+        <v>2</v>
+      </c>
+      <c r="J735">
+        <v>3</v>
+      </c>
+      <c r="K735">
+        <v>5</v>
+      </c>
+      <c r="T735">
+        <f t="shared" ref="T735:T766" si="938">SUM(C734:K734)</f>
+        <v>17</v>
+      </c>
+      <c r="U735">
+        <f t="shared" ref="U735:U766" si="939">SUM(C735:K735)</f>
+        <v>13</v>
+      </c>
+      <c r="V735">
+        <f t="shared" ref="V735" si="940">T735+U735</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="736" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L736" s="34">
+        <f t="shared" ref="L736" si="941">SUM(C734:C735)</f>
+        <v>0</v>
+      </c>
+      <c r="M736" s="34">
+        <f t="shared" ref="M736" si="942">SUM(E734:E735)</f>
+        <v>0</v>
+      </c>
+      <c r="N736" s="34">
+        <f t="shared" ref="N736" si="943">SUM(F734:F735)</f>
+        <v>5</v>
+      </c>
+      <c r="O736" s="34">
+        <f t="shared" ref="O736" si="944">SUM(G734:G735)</f>
+        <v>3</v>
+      </c>
+      <c r="P736" s="34">
+        <f t="shared" ref="P736" si="945">SUM(H734:H735)</f>
+        <v>5</v>
+      </c>
+      <c r="Q736" s="34">
+        <f t="shared" ref="Q736" si="946">SUM(I734:I735)</f>
+        <v>0</v>
+      </c>
+      <c r="R736" s="34">
+        <f t="shared" ref="R736" si="947">SUM(J734:J735)</f>
+        <v>7</v>
+      </c>
+      <c r="S736" s="34">
+        <f t="shared" ref="S736" si="948">SUM(K734:K735)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="737" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A737" s="53">
+        <v>43535</v>
+      </c>
+      <c r="F737">
+        <v>3</v>
+      </c>
+      <c r="G737">
+        <v>2</v>
+      </c>
+      <c r="H737">
+        <v>3</v>
+      </c>
+      <c r="J737">
+        <v>4</v>
+      </c>
+      <c r="K737">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F738">
+        <v>2</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+      <c r="H738">
+        <v>2</v>
+      </c>
+      <c r="J738">
+        <v>3</v>
+      </c>
+      <c r="K738">
+        <v>5</v>
+      </c>
+      <c r="T738">
+        <f t="shared" ref="T738:T769" si="949">SUM(C737:K737)</f>
+        <v>18</v>
+      </c>
+      <c r="U738">
+        <f t="shared" ref="U738:U769" si="950">SUM(C738:K738)</f>
+        <v>13</v>
+      </c>
+      <c r="V738">
+        <f t="shared" ref="V738" si="951">T738+U738</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="739" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L739" s="34">
+        <f t="shared" ref="L739" si="952">SUM(C737:C738)</f>
+        <v>0</v>
+      </c>
+      <c r="M739" s="34">
+        <f t="shared" ref="M739" si="953">SUM(E737:E738)</f>
+        <v>0</v>
+      </c>
+      <c r="N739" s="34">
+        <f t="shared" ref="N739" si="954">SUM(F737:F738)</f>
+        <v>5</v>
+      </c>
+      <c r="O739" s="34">
+        <f t="shared" ref="O739" si="955">SUM(G737:G738)</f>
+        <v>3</v>
+      </c>
+      <c r="P739" s="34">
+        <f t="shared" ref="P739" si="956">SUM(H737:H738)</f>
+        <v>5</v>
+      </c>
+      <c r="Q739" s="34">
+        <f t="shared" ref="Q739" si="957">SUM(I737:I738)</f>
+        <v>0</v>
+      </c>
+      <c r="R739" s="34">
+        <f t="shared" ref="R739" si="958">SUM(J737:J738)</f>
+        <v>7</v>
+      </c>
+      <c r="S739" s="34">
+        <f t="shared" ref="S739" si="959">SUM(K737:K738)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="740" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A740" s="53">
+        <v>43536</v>
+      </c>
+      <c r="F740">
+        <v>3</v>
+      </c>
+      <c r="G740">
+        <v>2</v>
+      </c>
+      <c r="H740">
+        <v>3</v>
+      </c>
+      <c r="J740">
+        <v>4</v>
+      </c>
+      <c r="K740">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F741">
+        <v>2</v>
+      </c>
+      <c r="G741">
+        <v>1</v>
+      </c>
+      <c r="H741">
+        <v>2</v>
+      </c>
+      <c r="J741">
+        <v>3</v>
+      </c>
+      <c r="K741">
+        <v>4</v>
+      </c>
+      <c r="T741">
+        <f t="shared" ref="T741:T772" si="960">SUM(C740:K740)</f>
+        <v>17</v>
+      </c>
+      <c r="U741">
+        <f t="shared" ref="U741:U772" si="961">SUM(C741:K741)</f>
+        <v>12</v>
+      </c>
+      <c r="V741">
+        <f t="shared" ref="V741" si="962">T741+U741</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="742" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L742" s="34">
+        <f t="shared" ref="L742" si="963">SUM(C740:C741)</f>
+        <v>0</v>
+      </c>
+      <c r="M742" s="34">
+        <f t="shared" ref="M742" si="964">SUM(E740:E741)</f>
+        <v>0</v>
+      </c>
+      <c r="N742" s="34">
+        <f t="shared" ref="N742" si="965">SUM(F740:F741)</f>
+        <v>5</v>
+      </c>
+      <c r="O742" s="34">
+        <f t="shared" ref="O742" si="966">SUM(G740:G741)</f>
+        <v>3</v>
+      </c>
+      <c r="P742" s="34">
+        <f t="shared" ref="P742" si="967">SUM(H740:H741)</f>
+        <v>5</v>
+      </c>
+      <c r="Q742" s="34">
+        <f t="shared" ref="Q742" si="968">SUM(I740:I741)</f>
+        <v>0</v>
+      </c>
+      <c r="R742" s="34">
+        <f t="shared" ref="R742" si="969">SUM(J740:J741)</f>
+        <v>7</v>
+      </c>
+      <c r="S742" s="34">
+        <f t="shared" ref="S742" si="970">SUM(K740:K741)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A743" s="53">
+        <v>43537</v>
+      </c>
+      <c r="F743">
+        <v>3</v>
+      </c>
+      <c r="G743">
+        <v>2</v>
+      </c>
+      <c r="H743">
+        <v>3</v>
+      </c>
+      <c r="J743">
+        <v>4</v>
+      </c>
+      <c r="K743">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F744">
+        <v>2</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+      <c r="H744">
+        <v>2</v>
+      </c>
+      <c r="J744">
+        <v>3</v>
+      </c>
+      <c r="K744">
+        <v>5</v>
+      </c>
+      <c r="T744">
+        <f t="shared" ref="T744:T775" si="971">SUM(C743:K743)</f>
+        <v>17</v>
+      </c>
+      <c r="U744">
+        <f t="shared" ref="U744:U775" si="972">SUM(C744:K744)</f>
+        <v>13</v>
+      </c>
+      <c r="V744">
+        <f t="shared" ref="V744" si="973">T744+U744</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="745" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L745" s="34">
+        <f t="shared" ref="L745" si="974">SUM(C743:C744)</f>
+        <v>0</v>
+      </c>
+      <c r="M745" s="34">
+        <f t="shared" ref="M745" si="975">SUM(E743:E744)</f>
+        <v>0</v>
+      </c>
+      <c r="N745" s="34">
+        <f t="shared" ref="N745" si="976">SUM(F743:F744)</f>
+        <v>5</v>
+      </c>
+      <c r="O745" s="34">
+        <f t="shared" ref="O745" si="977">SUM(G743:G744)</f>
+        <v>3</v>
+      </c>
+      <c r="P745" s="34">
+        <f t="shared" ref="P745" si="978">SUM(H743:H744)</f>
+        <v>5</v>
+      </c>
+      <c r="Q745" s="34">
+        <f t="shared" ref="Q745" si="979">SUM(I743:I744)</f>
+        <v>0</v>
+      </c>
+      <c r="R745" s="34">
+        <f t="shared" ref="R745" si="980">SUM(J743:J744)</f>
+        <v>7</v>
+      </c>
+      <c r="S745" s="34">
+        <f t="shared" ref="S745" si="981">SUM(K743:K744)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A746" s="53">
+        <v>43538</v>
+      </c>
+      <c r="F746">
+        <v>3</v>
+      </c>
+      <c r="G746">
+        <v>2</v>
+      </c>
+      <c r="H746">
+        <v>3</v>
+      </c>
+      <c r="J746">
+        <v>4</v>
+      </c>
+      <c r="K746">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F747">
+        <v>2</v>
+      </c>
+      <c r="G747">
+        <v>1</v>
+      </c>
+      <c r="H747">
+        <v>2</v>
+      </c>
+      <c r="J747">
+        <v>3</v>
+      </c>
+      <c r="K747">
+        <v>5</v>
+      </c>
+      <c r="T747">
+        <f t="shared" ref="T747:T778" si="982">SUM(C746:K746)</f>
+        <v>17</v>
+      </c>
+      <c r="U747">
+        <f t="shared" ref="U747:U778" si="983">SUM(C747:K747)</f>
+        <v>13</v>
+      </c>
+      <c r="V747">
+        <f t="shared" ref="V747" si="984">T747+U747</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="748" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L748" s="34">
+        <f t="shared" ref="L748" si="985">SUM(C746:C747)</f>
+        <v>0</v>
+      </c>
+      <c r="M748" s="34">
+        <f t="shared" ref="M748" si="986">SUM(E746:E747)</f>
+        <v>0</v>
+      </c>
+      <c r="N748" s="34">
+        <f t="shared" ref="N748" si="987">SUM(F746:F747)</f>
+        <v>5</v>
+      </c>
+      <c r="O748" s="34">
+        <f t="shared" ref="O748" si="988">SUM(G746:G747)</f>
+        <v>3</v>
+      </c>
+      <c r="P748" s="34">
+        <f t="shared" ref="P748" si="989">SUM(H746:H747)</f>
+        <v>5</v>
+      </c>
+      <c r="Q748" s="34">
+        <f t="shared" ref="Q748" si="990">SUM(I746:I747)</f>
+        <v>0</v>
+      </c>
+      <c r="R748" s="34">
+        <f t="shared" ref="R748" si="991">SUM(J746:J747)</f>
+        <v>7</v>
+      </c>
+      <c r="S748" s="34">
+        <f t="shared" ref="S748" si="992">SUM(K746:K747)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A749" s="53">
+        <v>43539</v>
+      </c>
+      <c r="F749">
+        <v>3</v>
+      </c>
+      <c r="G749">
+        <v>2</v>
+      </c>
+      <c r="H749">
+        <v>3</v>
+      </c>
+      <c r="J749">
+        <v>4</v>
+      </c>
+      <c r="K749">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F750">
+        <v>2</v>
+      </c>
+      <c r="G750">
+        <v>1</v>
+      </c>
+      <c r="H750">
+        <v>2</v>
+      </c>
+      <c r="J750">
+        <v>3</v>
+      </c>
+      <c r="K750">
+        <v>4</v>
+      </c>
+      <c r="T750">
+        <f t="shared" ref="T750:T781" si="993">SUM(C749:K749)</f>
+        <v>17</v>
+      </c>
+      <c r="U750">
+        <f t="shared" ref="U750:U781" si="994">SUM(C750:K750)</f>
+        <v>12</v>
+      </c>
+      <c r="V750">
+        <f t="shared" ref="V750" si="995">T750+U750</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="751" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L751" s="34">
+        <f t="shared" ref="L751" si="996">SUM(C749:C750)</f>
+        <v>0</v>
+      </c>
+      <c r="M751" s="34">
+        <f t="shared" ref="M751" si="997">SUM(E749:E750)</f>
+        <v>0</v>
+      </c>
+      <c r="N751" s="34">
+        <f t="shared" ref="N751" si="998">SUM(F749:F750)</f>
+        <v>5</v>
+      </c>
+      <c r="O751" s="34">
+        <f t="shared" ref="O751" si="999">SUM(G749:G750)</f>
+        <v>3</v>
+      </c>
+      <c r="P751" s="34">
+        <f t="shared" ref="P751" si="1000">SUM(H749:H750)</f>
+        <v>5</v>
+      </c>
+      <c r="Q751" s="34">
+        <f t="shared" ref="Q751" si="1001">SUM(I749:I750)</f>
+        <v>0</v>
+      </c>
+      <c r="R751" s="34">
+        <f t="shared" ref="R751" si="1002">SUM(J749:J750)</f>
+        <v>7</v>
+      </c>
+      <c r="S751" s="34">
+        <f t="shared" ref="S751" si="1003">SUM(K749:K750)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A752" s="53">
+        <v>43540</v>
+      </c>
+      <c r="F752">
+        <v>3</v>
+      </c>
+      <c r="G752">
+        <v>2</v>
+      </c>
+      <c r="H752">
+        <v>3</v>
+      </c>
+      <c r="J752">
+        <v>4</v>
+      </c>
+      <c r="K752">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F753">
+        <v>2</v>
+      </c>
+      <c r="G753">
+        <v>1</v>
+      </c>
+      <c r="H753">
+        <v>2</v>
+      </c>
+      <c r="J753">
+        <v>3</v>
+      </c>
+      <c r="K753">
+        <v>4</v>
+      </c>
+      <c r="T753">
+        <f t="shared" ref="T753:T784" si="1004">SUM(C752:K752)</f>
+        <v>17</v>
+      </c>
+      <c r="U753">
+        <f t="shared" ref="U753:U784" si="1005">SUM(C753:K753)</f>
+        <v>12</v>
+      </c>
+      <c r="V753">
+        <f t="shared" ref="V753" si="1006">T753+U753</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="754" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L754" s="34">
+        <f t="shared" ref="L754" si="1007">SUM(C752:C753)</f>
+        <v>0</v>
+      </c>
+      <c r="M754" s="34">
+        <f t="shared" ref="M754" si="1008">SUM(E752:E753)</f>
+        <v>0</v>
+      </c>
+      <c r="N754" s="34">
+        <f t="shared" ref="N754" si="1009">SUM(F752:F753)</f>
+        <v>5</v>
+      </c>
+      <c r="O754" s="34">
+        <f t="shared" ref="O754" si="1010">SUM(G752:G753)</f>
+        <v>3</v>
+      </c>
+      <c r="P754" s="34">
+        <f t="shared" ref="P754" si="1011">SUM(H752:H753)</f>
+        <v>5</v>
+      </c>
+      <c r="Q754" s="34">
+        <f t="shared" ref="Q754" si="1012">SUM(I752:I753)</f>
+        <v>0</v>
+      </c>
+      <c r="R754" s="34">
+        <f t="shared" ref="R754" si="1013">SUM(J752:J753)</f>
+        <v>7</v>
+      </c>
+      <c r="S754" s="34">
+        <f t="shared" ref="S754" si="1014">SUM(K752:K753)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A755" s="53">
+        <v>43541</v>
+      </c>
+      <c r="F755">
+        <v>3</v>
+      </c>
+      <c r="G755">
+        <v>2</v>
+      </c>
+      <c r="H755">
+        <v>3</v>
+      </c>
+      <c r="J755">
+        <v>4</v>
+      </c>
+      <c r="K755">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F756">
+        <v>2</v>
+      </c>
+      <c r="G756">
+        <v>1</v>
+      </c>
+      <c r="H756">
+        <v>2</v>
+      </c>
+      <c r="J756">
+        <v>3</v>
+      </c>
+      <c r="K756">
+        <v>5</v>
+      </c>
+      <c r="T756">
+        <f t="shared" ref="T756:T787" si="1015">SUM(C755:K755)</f>
+        <v>17</v>
+      </c>
+      <c r="U756">
+        <f t="shared" ref="U756:U787" si="1016">SUM(C756:K756)</f>
+        <v>13</v>
+      </c>
+      <c r="V756">
+        <f t="shared" ref="V756" si="1017">T756+U756</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="757" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L757" s="34">
+        <f t="shared" ref="L757" si="1018">SUM(C755:C756)</f>
+        <v>0</v>
+      </c>
+      <c r="M757" s="34">
+        <f t="shared" ref="M757" si="1019">SUM(E755:E756)</f>
+        <v>0</v>
+      </c>
+      <c r="N757" s="34">
+        <f t="shared" ref="N757" si="1020">SUM(F755:F756)</f>
+        <v>5</v>
+      </c>
+      <c r="O757" s="34">
+        <f t="shared" ref="O757" si="1021">SUM(G755:G756)</f>
+        <v>3</v>
+      </c>
+      <c r="P757" s="34">
+        <f t="shared" ref="P757" si="1022">SUM(H755:H756)</f>
+        <v>5</v>
+      </c>
+      <c r="Q757" s="34">
+        <f t="shared" ref="Q757" si="1023">SUM(I755:I756)</f>
+        <v>0</v>
+      </c>
+      <c r="R757" s="34">
+        <f t="shared" ref="R757" si="1024">SUM(J755:J756)</f>
+        <v>7</v>
+      </c>
+      <c r="S757" s="34">
+        <f t="shared" ref="S757" si="1025">SUM(K755:K756)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A758" s="53">
+        <v>43542</v>
+      </c>
+      <c r="F758">
+        <v>3</v>
+      </c>
+      <c r="G758">
+        <v>2</v>
+      </c>
+      <c r="H758">
+        <v>3</v>
+      </c>
+      <c r="J758">
+        <v>4</v>
+      </c>
+      <c r="K758">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F759">
+        <v>2</v>
+      </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
+      <c r="H759">
+        <v>2</v>
+      </c>
+      <c r="J759">
+        <v>3</v>
+      </c>
+      <c r="K759">
+        <v>4</v>
+      </c>
+      <c r="T759">
+        <f t="shared" ref="T759:T790" si="1026">SUM(C758:K758)</f>
+        <v>17</v>
+      </c>
+      <c r="U759">
+        <f t="shared" ref="U759:U790" si="1027">SUM(C759:K759)</f>
+        <v>12</v>
+      </c>
+      <c r="V759">
+        <f t="shared" ref="V759" si="1028">T759+U759</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="760" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L760" s="34">
+        <f t="shared" ref="L760" si="1029">SUM(C758:C759)</f>
+        <v>0</v>
+      </c>
+      <c r="M760" s="34">
+        <f t="shared" ref="M760" si="1030">SUM(E758:E759)</f>
+        <v>0</v>
+      </c>
+      <c r="N760" s="34">
+        <f t="shared" ref="N760" si="1031">SUM(F758:F759)</f>
+        <v>5</v>
+      </c>
+      <c r="O760" s="34">
+        <f t="shared" ref="O760" si="1032">SUM(G758:G759)</f>
+        <v>3</v>
+      </c>
+      <c r="P760" s="34">
+        <f t="shared" ref="P760" si="1033">SUM(H758:H759)</f>
+        <v>5</v>
+      </c>
+      <c r="Q760" s="34">
+        <f t="shared" ref="Q760" si="1034">SUM(I758:I759)</f>
+        <v>0</v>
+      </c>
+      <c r="R760" s="34">
+        <f t="shared" ref="R760" si="1035">SUM(J758:J759)</f>
+        <v>7</v>
+      </c>
+      <c r="S760" s="34">
+        <f t="shared" ref="S760" si="1036">SUM(K758:K759)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A761" s="53">
+        <v>43543</v>
+      </c>
+      <c r="F761">
+        <v>3</v>
+      </c>
+      <c r="G761">
+        <v>2</v>
+      </c>
+      <c r="H761">
+        <v>3</v>
+      </c>
+      <c r="J761">
+        <v>4</v>
+      </c>
+      <c r="K761">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F762">
+        <v>2</v>
+      </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
+      <c r="H762">
+        <v>2</v>
+      </c>
+      <c r="J762">
+        <v>3</v>
+      </c>
+      <c r="K762">
+        <v>4</v>
+      </c>
+      <c r="T762">
+        <f t="shared" ref="T762:T793" si="1037">SUM(C761:K761)</f>
+        <v>17</v>
+      </c>
+      <c r="U762">
+        <f t="shared" ref="U762:U793" si="1038">SUM(C762:K762)</f>
+        <v>12</v>
+      </c>
+      <c r="V762">
+        <f t="shared" ref="V762" si="1039">T762+U762</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="763" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L763" s="34">
+        <f t="shared" ref="L763" si="1040">SUM(C761:C762)</f>
+        <v>0</v>
+      </c>
+      <c r="M763" s="34">
+        <f t="shared" ref="M763" si="1041">SUM(E761:E762)</f>
+        <v>0</v>
+      </c>
+      <c r="N763" s="34">
+        <f t="shared" ref="N763" si="1042">SUM(F761:F762)</f>
+        <v>5</v>
+      </c>
+      <c r="O763" s="34">
+        <f t="shared" ref="O763" si="1043">SUM(G761:G762)</f>
+        <v>3</v>
+      </c>
+      <c r="P763" s="34">
+        <f t="shared" ref="P763" si="1044">SUM(H761:H762)</f>
+        <v>5</v>
+      </c>
+      <c r="Q763" s="34">
+        <f t="shared" ref="Q763" si="1045">SUM(I761:I762)</f>
+        <v>0</v>
+      </c>
+      <c r="R763" s="34">
+        <f t="shared" ref="R763" si="1046">SUM(J761:J762)</f>
+        <v>7</v>
+      </c>
+      <c r="S763" s="34">
+        <f t="shared" ref="S763" si="1047">SUM(K761:K762)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A764" s="53">
+        <v>43544</v>
+      </c>
+      <c r="F764">
+        <v>3</v>
+      </c>
+      <c r="G764">
+        <v>2</v>
+      </c>
+      <c r="H764">
+        <v>3</v>
+      </c>
+      <c r="J764">
+        <v>4</v>
+      </c>
+      <c r="K764">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F765">
+        <v>2</v>
+      </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="J765">
+        <v>3</v>
+      </c>
+      <c r="K765">
+        <v>4</v>
+      </c>
+      <c r="T765">
+        <f t="shared" ref="T765:T796" si="1048">SUM(C764:K764)</f>
+        <v>17</v>
+      </c>
+      <c r="U765">
+        <f t="shared" ref="U765:U796" si="1049">SUM(C765:K765)</f>
+        <v>12</v>
+      </c>
+      <c r="V765">
+        <f t="shared" ref="V765" si="1050">T765+U765</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="766" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L766" s="34">
+        <f t="shared" ref="L766" si="1051">SUM(C764:C765)</f>
+        <v>0</v>
+      </c>
+      <c r="M766" s="34">
+        <f t="shared" ref="M766" si="1052">SUM(E764:E765)</f>
+        <v>0</v>
+      </c>
+      <c r="N766" s="34">
+        <f t="shared" ref="N766" si="1053">SUM(F764:F765)</f>
+        <v>5</v>
+      </c>
+      <c r="O766" s="34">
+        <f t="shared" ref="O766" si="1054">SUM(G764:G765)</f>
+        <v>3</v>
+      </c>
+      <c r="P766" s="34">
+        <f t="shared" ref="P766" si="1055">SUM(H764:H765)</f>
+        <v>5</v>
+      </c>
+      <c r="Q766" s="34">
+        <f t="shared" ref="Q766" si="1056">SUM(I764:I765)</f>
+        <v>0</v>
+      </c>
+      <c r="R766" s="34">
+        <f t="shared" ref="R766" si="1057">SUM(J764:J765)</f>
+        <v>7</v>
+      </c>
+      <c r="S766" s="34">
+        <f t="shared" ref="S766" si="1058">SUM(K764:K765)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A767" s="53">
+        <v>43545</v>
+      </c>
+      <c r="F767">
+        <v>3</v>
+      </c>
+      <c r="G767">
+        <v>2</v>
+      </c>
+      <c r="H767">
+        <v>3</v>
+      </c>
+      <c r="J767">
+        <v>4</v>
+      </c>
+      <c r="K767">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F768">
+        <v>2</v>
+      </c>
+      <c r="G768">
+        <v>1</v>
+      </c>
+      <c r="H768">
+        <v>2</v>
+      </c>
+      <c r="J768">
+        <v>2</v>
+      </c>
+      <c r="K768">
+        <v>4</v>
+      </c>
+      <c r="T768">
+        <f t="shared" ref="T768:T799" si="1059">SUM(C767:K767)</f>
+        <v>17</v>
+      </c>
+      <c r="U768">
+        <f t="shared" ref="U768:U799" si="1060">SUM(C768:K768)</f>
+        <v>11</v>
+      </c>
+      <c r="V768">
+        <f t="shared" ref="V768" si="1061">T768+U768</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L769" s="34">
+        <f t="shared" ref="L769" si="1062">SUM(C767:C768)</f>
+        <v>0</v>
+      </c>
+      <c r="M769" s="34">
+        <f t="shared" ref="M769" si="1063">SUM(E767:E768)</f>
+        <v>0</v>
+      </c>
+      <c r="N769" s="34">
+        <f t="shared" ref="N769" si="1064">SUM(F767:F768)</f>
+        <v>5</v>
+      </c>
+      <c r="O769" s="34">
+        <f t="shared" ref="O769" si="1065">SUM(G767:G768)</f>
+        <v>3</v>
+      </c>
+      <c r="P769" s="34">
+        <f t="shared" ref="P769" si="1066">SUM(H767:H768)</f>
+        <v>5</v>
+      </c>
+      <c r="Q769" s="34">
+        <f t="shared" ref="Q769" si="1067">SUM(I767:I768)</f>
+        <v>0</v>
+      </c>
+      <c r="R769" s="34">
+        <f t="shared" ref="R769" si="1068">SUM(J767:J768)</f>
+        <v>6</v>
+      </c>
+      <c r="S769" s="34">
+        <f t="shared" ref="S769" si="1069">SUM(K767:K768)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A770" s="53">
+        <v>43546</v>
+      </c>
+      <c r="F770">
+        <v>3</v>
+      </c>
+      <c r="G770">
+        <v>2</v>
+      </c>
+      <c r="H770">
+        <v>3</v>
+      </c>
+      <c r="J770">
+        <v>3</v>
+      </c>
+      <c r="K770">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F771">
+        <v>2</v>
+      </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="J771">
+        <v>3</v>
+      </c>
+      <c r="K771">
+        <v>5</v>
+      </c>
+      <c r="T771">
+        <f t="shared" ref="T771:T802" si="1070">SUM(C770:K770)</f>
+        <v>16</v>
+      </c>
+      <c r="U771">
+        <f t="shared" ref="U771:U802" si="1071">SUM(C771:K771)</f>
+        <v>13</v>
+      </c>
+      <c r="V771">
+        <f t="shared" ref="V771" si="1072">T771+U771</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L772" s="34">
+        <f t="shared" ref="L772" si="1073">SUM(C770:C771)</f>
+        <v>0</v>
+      </c>
+      <c r="M772" s="34">
+        <f t="shared" ref="M772" si="1074">SUM(E770:E771)</f>
+        <v>0</v>
+      </c>
+      <c r="N772" s="34">
+        <f t="shared" ref="N772" si="1075">SUM(F770:F771)</f>
+        <v>5</v>
+      </c>
+      <c r="O772" s="34">
+        <f t="shared" ref="O772" si="1076">SUM(G770:G771)</f>
+        <v>3</v>
+      </c>
+      <c r="P772" s="34">
+        <f t="shared" ref="P772" si="1077">SUM(H770:H771)</f>
+        <v>5</v>
+      </c>
+      <c r="Q772" s="34">
+        <f t="shared" ref="Q772" si="1078">SUM(I770:I771)</f>
+        <v>0</v>
+      </c>
+      <c r="R772" s="34">
+        <f t="shared" ref="R772" si="1079">SUM(J770:J771)</f>
+        <v>6</v>
+      </c>
+      <c r="S772" s="34">
+        <f t="shared" ref="S772" si="1080">SUM(K770:K771)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A773" s="53">
+        <v>43547</v>
+      </c>
+      <c r="F773">
+        <v>3</v>
+      </c>
+      <c r="G773">
+        <v>2</v>
+      </c>
+      <c r="H773">
+        <v>3</v>
+      </c>
+      <c r="J773">
+        <v>4</v>
+      </c>
+      <c r="K773">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F774">
+        <v>2</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="J774">
+        <v>3</v>
+      </c>
+      <c r="K774">
+        <v>4</v>
+      </c>
+      <c r="T774">
+        <f t="shared" ref="T774:T805" si="1081">SUM(C773:K773)</f>
+        <v>17</v>
+      </c>
+      <c r="U774">
+        <f t="shared" ref="U774:U805" si="1082">SUM(C774:K774)</f>
+        <v>12</v>
+      </c>
+      <c r="V774">
+        <f t="shared" ref="V774" si="1083">T774+U774</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L775" s="34">
+        <f t="shared" ref="L775" si="1084">SUM(C773:C774)</f>
+        <v>0</v>
+      </c>
+      <c r="M775" s="34">
+        <f t="shared" ref="M775" si="1085">SUM(E773:E774)</f>
+        <v>0</v>
+      </c>
+      <c r="N775" s="34">
+        <f t="shared" ref="N775" si="1086">SUM(F773:F774)</f>
+        <v>5</v>
+      </c>
+      <c r="O775" s="34">
+        <f t="shared" ref="O775" si="1087">SUM(G773:G774)</f>
+        <v>3</v>
+      </c>
+      <c r="P775" s="34">
+        <f t="shared" ref="P775" si="1088">SUM(H773:H774)</f>
+        <v>5</v>
+      </c>
+      <c r="Q775" s="34">
+        <f t="shared" ref="Q775" si="1089">SUM(I773:I774)</f>
+        <v>0</v>
+      </c>
+      <c r="R775" s="34">
+        <f t="shared" ref="R775" si="1090">SUM(J773:J774)</f>
+        <v>7</v>
+      </c>
+      <c r="S775" s="34">
+        <f t="shared" ref="S775" si="1091">SUM(K773:K774)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A776" s="53">
+        <v>43548</v>
+      </c>
+      <c r="F776">
+        <v>3</v>
+      </c>
+      <c r="G776">
+        <v>2</v>
+      </c>
+      <c r="H776">
+        <v>3</v>
+      </c>
+      <c r="J776">
+        <v>3</v>
+      </c>
+      <c r="K776">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F777">
+        <v>2</v>
+      </c>
+      <c r="G777">
+        <v>1</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+      <c r="J777">
+        <v>3</v>
+      </c>
+      <c r="K777">
+        <v>4</v>
+      </c>
+      <c r="T777">
+        <f t="shared" ref="T777:T808" si="1092">SUM(C776:K776)</f>
+        <v>16</v>
+      </c>
+      <c r="U777">
+        <f t="shared" ref="U777:U808" si="1093">SUM(C777:K777)</f>
+        <v>12</v>
+      </c>
+      <c r="V777">
+        <f t="shared" ref="V777" si="1094">T777+U777</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L778" s="34">
+        <f t="shared" ref="L778" si="1095">SUM(C776:C777)</f>
+        <v>0</v>
+      </c>
+      <c r="M778" s="34">
+        <f t="shared" ref="M778" si="1096">SUM(E776:E777)</f>
+        <v>0</v>
+      </c>
+      <c r="N778" s="34">
+        <f t="shared" ref="N778" si="1097">SUM(F776:F777)</f>
+        <v>5</v>
+      </c>
+      <c r="O778" s="34">
+        <f t="shared" ref="O778" si="1098">SUM(G776:G777)</f>
+        <v>3</v>
+      </c>
+      <c r="P778" s="34">
+        <f t="shared" ref="P778" si="1099">SUM(H776:H777)</f>
+        <v>5</v>
+      </c>
+      <c r="Q778" s="34">
+        <f t="shared" ref="Q778" si="1100">SUM(I776:I777)</f>
+        <v>0</v>
+      </c>
+      <c r="R778" s="34">
+        <f t="shared" ref="R778" si="1101">SUM(J776:J777)</f>
+        <v>6</v>
+      </c>
+      <c r="S778" s="34">
+        <f t="shared" ref="S778" si="1102">SUM(K776:K777)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A779" s="53">
+        <v>43549</v>
+      </c>
+      <c r="F779">
+        <v>3</v>
+      </c>
+      <c r="G779">
+        <v>2</v>
+      </c>
+      <c r="H779">
+        <v>3</v>
+      </c>
+      <c r="J779">
+        <v>3</v>
+      </c>
+      <c r="K779">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F780">
+        <v>2</v>
+      </c>
+      <c r="G780">
+        <v>1</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="J780">
+        <v>2</v>
+      </c>
+      <c r="K780">
+        <v>4</v>
+      </c>
+      <c r="T780">
+        <f t="shared" ref="T780:T811" si="1103">SUM(C779:K779)</f>
+        <v>16</v>
+      </c>
+      <c r="U780">
+        <f t="shared" ref="U780:U811" si="1104">SUM(C780:K780)</f>
+        <v>11</v>
+      </c>
+      <c r="V780">
+        <f t="shared" ref="V780" si="1105">T780+U780</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L781" s="34">
+        <f t="shared" ref="L781" si="1106">SUM(C779:C780)</f>
+        <v>0</v>
+      </c>
+      <c r="M781" s="34">
+        <f t="shared" ref="M781" si="1107">SUM(E779:E780)</f>
+        <v>0</v>
+      </c>
+      <c r="N781" s="34">
+        <f t="shared" ref="N781" si="1108">SUM(F779:F780)</f>
+        <v>5</v>
+      </c>
+      <c r="O781" s="34">
+        <f t="shared" ref="O781" si="1109">SUM(G779:G780)</f>
+        <v>3</v>
+      </c>
+      <c r="P781" s="34">
+        <f t="shared" ref="P781" si="1110">SUM(H779:H780)</f>
+        <v>5</v>
+      </c>
+      <c r="Q781" s="34">
+        <f t="shared" ref="Q781" si="1111">SUM(I779:I780)</f>
+        <v>0</v>
+      </c>
+      <c r="R781" s="34">
+        <f t="shared" ref="R781" si="1112">SUM(J779:J780)</f>
+        <v>5</v>
+      </c>
+      <c r="S781" s="34">
+        <f t="shared" ref="S781" si="1113">SUM(K779:K780)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A782" s="53">
+        <v>43550</v>
+      </c>
+      <c r="F782">
+        <v>3</v>
+      </c>
+      <c r="G782">
+        <v>2</v>
+      </c>
+      <c r="H782">
+        <v>3</v>
+      </c>
+      <c r="J782">
+        <v>3</v>
+      </c>
+      <c r="K782">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F783">
+        <v>2</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+      <c r="J783">
+        <v>3</v>
+      </c>
+      <c r="K783">
+        <v>3</v>
+      </c>
+      <c r="T783">
+        <f t="shared" ref="T783:T814" si="1114">SUM(C782:K782)</f>
+        <v>15</v>
+      </c>
+      <c r="U783">
+        <f t="shared" ref="U783:U814" si="1115">SUM(C783:K783)</f>
+        <v>11</v>
+      </c>
+      <c r="V783">
+        <f t="shared" ref="V783" si="1116">T783+U783</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L784" s="34">
+        <f t="shared" ref="L784" si="1117">SUM(C782:C783)</f>
+        <v>0</v>
+      </c>
+      <c r="M784" s="34">
+        <f t="shared" ref="M784" si="1118">SUM(E782:E783)</f>
+        <v>0</v>
+      </c>
+      <c r="N784" s="34">
+        <f t="shared" ref="N784" si="1119">SUM(F782:F783)</f>
+        <v>5</v>
+      </c>
+      <c r="O784" s="34">
+        <f t="shared" ref="O784" si="1120">SUM(G782:G783)</f>
+        <v>3</v>
+      </c>
+      <c r="P784" s="34">
+        <f t="shared" ref="P784" si="1121">SUM(H782:H783)</f>
+        <v>5</v>
+      </c>
+      <c r="Q784" s="34">
+        <f t="shared" ref="Q784" si="1122">SUM(I782:I783)</f>
+        <v>0</v>
+      </c>
+      <c r="R784" s="34">
+        <f t="shared" ref="R784" si="1123">SUM(J782:J783)</f>
+        <v>6</v>
+      </c>
+      <c r="S784" s="34">
+        <f t="shared" ref="S784" si="1124">SUM(K782:K783)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A785" s="53">
+        <v>43551</v>
+      </c>
+      <c r="F785">
+        <v>3</v>
+      </c>
+      <c r="G785">
+        <v>2</v>
+      </c>
+      <c r="H785">
+        <v>3</v>
+      </c>
+      <c r="J785">
+        <v>3</v>
+      </c>
+      <c r="K785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F786">
+        <v>2</v>
+      </c>
+      <c r="G786">
+        <v>1</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+      <c r="J786">
+        <v>3</v>
+      </c>
+      <c r="K786">
+        <v>3</v>
+      </c>
+      <c r="T786">
+        <f t="shared" ref="T786:T817" si="1125">SUM(C785:K785)</f>
+        <v>15</v>
+      </c>
+      <c r="U786">
+        <f t="shared" ref="U786:U817" si="1126">SUM(C786:K786)</f>
+        <v>11</v>
+      </c>
+      <c r="V786">
+        <f t="shared" ref="V786" si="1127">T786+U786</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L787" s="34">
+        <f t="shared" ref="L787" si="1128">SUM(C785:C786)</f>
+        <v>0</v>
+      </c>
+      <c r="M787" s="34">
+        <f t="shared" ref="M787" si="1129">SUM(E785:E786)</f>
+        <v>0</v>
+      </c>
+      <c r="N787" s="34">
+        <f t="shared" ref="N787" si="1130">SUM(F785:F786)</f>
+        <v>5</v>
+      </c>
+      <c r="O787" s="34">
+        <f t="shared" ref="O787" si="1131">SUM(G785:G786)</f>
+        <v>3</v>
+      </c>
+      <c r="P787" s="34">
+        <f t="shared" ref="P787" si="1132">SUM(H785:H786)</f>
+        <v>5</v>
+      </c>
+      <c r="Q787" s="34">
+        <f t="shared" ref="Q787" si="1133">SUM(I785:I786)</f>
+        <v>0</v>
+      </c>
+      <c r="R787" s="34">
+        <f t="shared" ref="R787" si="1134">SUM(J785:J786)</f>
+        <v>6</v>
+      </c>
+      <c r="S787" s="34">
+        <f t="shared" ref="S787" si="1135">SUM(K785:K786)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A788" s="53">
+        <v>43552</v>
+      </c>
+      <c r="F788">
+        <v>3</v>
+      </c>
+      <c r="G788">
+        <v>2</v>
+      </c>
+      <c r="H788">
+        <v>3</v>
+      </c>
+      <c r="J788">
+        <v>3</v>
+      </c>
+      <c r="K788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F789">
+        <v>2</v>
+      </c>
+      <c r="G789">
+        <v>1</v>
+      </c>
+      <c r="H789">
+        <v>2</v>
+      </c>
+      <c r="J789">
+        <v>3</v>
+      </c>
+      <c r="K789">
+        <v>3</v>
+      </c>
+      <c r="T789">
+        <f t="shared" ref="T789:T820" si="1136">SUM(C788:K788)</f>
+        <v>15</v>
+      </c>
+      <c r="U789">
+        <f t="shared" ref="U789:U820" si="1137">SUM(C789:K789)</f>
+        <v>11</v>
+      </c>
+      <c r="V789">
+        <f t="shared" ref="V789" si="1138">T789+U789</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L790" s="34">
+        <f t="shared" ref="L790" si="1139">SUM(C788:C789)</f>
+        <v>0</v>
+      </c>
+      <c r="M790" s="34">
+        <f t="shared" ref="M790" si="1140">SUM(E788:E789)</f>
+        <v>0</v>
+      </c>
+      <c r="N790" s="34">
+        <f t="shared" ref="N790" si="1141">SUM(F788:F789)</f>
+        <v>5</v>
+      </c>
+      <c r="O790" s="34">
+        <f t="shared" ref="O790" si="1142">SUM(G788:G789)</f>
+        <v>3</v>
+      </c>
+      <c r="P790" s="34">
+        <f t="shared" ref="P790" si="1143">SUM(H788:H789)</f>
+        <v>5</v>
+      </c>
+      <c r="Q790" s="34">
+        <f t="shared" ref="Q790" si="1144">SUM(I788:I789)</f>
+        <v>0</v>
+      </c>
+      <c r="R790" s="34">
+        <f t="shared" ref="R790" si="1145">SUM(J788:J789)</f>
+        <v>6</v>
+      </c>
+      <c r="S790" s="34">
+        <f t="shared" ref="S790" si="1146">SUM(K788:K789)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A791" s="53">
+        <v>43553</v>
+      </c>
+      <c r="F791">
+        <v>3</v>
+      </c>
+      <c r="G791">
+        <v>2</v>
+      </c>
+      <c r="H791">
+        <v>3</v>
+      </c>
+      <c r="J791">
+        <v>3</v>
+      </c>
+      <c r="K791">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F792">
+        <v>1</v>
+      </c>
+      <c r="G792">
+        <v>1</v>
+      </c>
+      <c r="H792">
+        <v>1</v>
+      </c>
+      <c r="J792">
+        <v>3</v>
+      </c>
+      <c r="K792">
+        <v>4</v>
+      </c>
+      <c r="T792">
+        <f t="shared" ref="T792:T823" si="1147">SUM(C791:K791)</f>
+        <v>16</v>
+      </c>
+      <c r="U792">
+        <f t="shared" ref="U792:U823" si="1148">SUM(C792:K792)</f>
+        <v>10</v>
+      </c>
+      <c r="V792">
+        <f t="shared" ref="V792" si="1149">T792+U792</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L793" s="34">
+        <f t="shared" ref="L793" si="1150">SUM(C791:C792)</f>
+        <v>0</v>
+      </c>
+      <c r="M793" s="34">
+        <f t="shared" ref="M793" si="1151">SUM(E791:E792)</f>
+        <v>0</v>
+      </c>
+      <c r="N793" s="34">
+        <f t="shared" ref="N793" si="1152">SUM(F791:F792)</f>
+        <v>4</v>
+      </c>
+      <c r="O793" s="34">
+        <f t="shared" ref="O793" si="1153">SUM(G791:G792)</f>
+        <v>3</v>
+      </c>
+      <c r="P793" s="34">
+        <f t="shared" ref="P793" si="1154">SUM(H791:H792)</f>
+        <v>4</v>
+      </c>
+      <c r="Q793" s="34">
+        <f t="shared" ref="Q793" si="1155">SUM(I791:I792)</f>
+        <v>0</v>
+      </c>
+      <c r="R793" s="34">
+        <f t="shared" ref="R793" si="1156">SUM(J791:J792)</f>
+        <v>6</v>
+      </c>
+      <c r="S793" s="34">
+        <f t="shared" ref="S793" si="1157">SUM(K791:K792)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A794" s="53">
+        <v>43554</v>
+      </c>
+      <c r="F794">
+        <v>3</v>
+      </c>
+      <c r="G794">
+        <v>2</v>
+      </c>
+      <c r="H794">
+        <v>3</v>
+      </c>
+      <c r="J794">
+        <v>3</v>
+      </c>
+      <c r="K794">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F795">
+        <v>1</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="H795">
+        <v>1</v>
+      </c>
+      <c r="J795">
+        <v>3</v>
+      </c>
+      <c r="K795">
+        <v>4</v>
+      </c>
+      <c r="T795">
+        <f t="shared" ref="T795:T826" si="1158">SUM(C794:K794)</f>
+        <v>16</v>
+      </c>
+      <c r="U795">
+        <f t="shared" ref="U795:U826" si="1159">SUM(C795:K795)</f>
+        <v>10</v>
+      </c>
+      <c r="V795">
+        <f t="shared" ref="V795" si="1160">T795+U795</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L796" s="34">
+        <f t="shared" ref="L796" si="1161">SUM(C794:C795)</f>
+        <v>0</v>
+      </c>
+      <c r="M796" s="34">
+        <f t="shared" ref="M796" si="1162">SUM(E794:E795)</f>
+        <v>0</v>
+      </c>
+      <c r="N796" s="34">
+        <f t="shared" ref="N796" si="1163">SUM(F794:F795)</f>
+        <v>4</v>
+      </c>
+      <c r="O796" s="34">
+        <f t="shared" ref="O796" si="1164">SUM(G794:G795)</f>
+        <v>3</v>
+      </c>
+      <c r="P796" s="34">
+        <f t="shared" ref="P796" si="1165">SUM(H794:H795)</f>
+        <v>4</v>
+      </c>
+      <c r="Q796" s="34">
+        <f t="shared" ref="Q796" si="1166">SUM(I794:I795)</f>
+        <v>0</v>
+      </c>
+      <c r="R796" s="34">
+        <f t="shared" ref="R796" si="1167">SUM(J794:J795)</f>
+        <v>6</v>
+      </c>
+      <c r="S796" s="34">
+        <f t="shared" ref="S796" si="1168">SUM(K794:K795)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A797" s="53">
+        <v>43555</v>
+      </c>
+      <c r="F797">
+        <v>3</v>
+      </c>
+      <c r="G797">
+        <v>2</v>
+      </c>
+      <c r="H797">
+        <v>3</v>
+      </c>
+      <c r="J797">
+        <v>3</v>
+      </c>
+      <c r="K797">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F798">
+        <v>1</v>
+      </c>
+      <c r="G798">
+        <v>1</v>
+      </c>
+      <c r="H798">
+        <v>1</v>
+      </c>
+      <c r="J798">
+        <v>3</v>
+      </c>
+      <c r="K798">
+        <v>4</v>
+      </c>
+      <c r="T798">
+        <f t="shared" ref="T798:T829" si="1169">SUM(C797:K797)</f>
+        <v>16</v>
+      </c>
+      <c r="U798">
+        <f t="shared" ref="U798:U829" si="1170">SUM(C798:K798)</f>
+        <v>10</v>
+      </c>
+      <c r="V798">
+        <f t="shared" ref="V798" si="1171">T798+U798</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L799" s="34">
+        <f t="shared" ref="L799" si="1172">SUM(C797:C798)</f>
+        <v>0</v>
+      </c>
+      <c r="M799" s="34">
+        <f t="shared" ref="M799" si="1173">SUM(E797:E798)</f>
+        <v>0</v>
+      </c>
+      <c r="N799" s="34">
+        <f t="shared" ref="N799" si="1174">SUM(F797:F798)</f>
+        <v>4</v>
+      </c>
+      <c r="O799" s="34">
+        <f t="shared" ref="O799" si="1175">SUM(G797:G798)</f>
+        <v>3</v>
+      </c>
+      <c r="P799" s="34">
+        <f t="shared" ref="P799" si="1176">SUM(H797:H798)</f>
+        <v>4</v>
+      </c>
+      <c r="Q799" s="34">
+        <f t="shared" ref="Q799" si="1177">SUM(I797:I798)</f>
+        <v>0</v>
+      </c>
+      <c r="R799" s="34">
+        <f t="shared" ref="R799" si="1178">SUM(J797:J798)</f>
+        <v>6</v>
+      </c>
+      <c r="S799" s="34">
+        <f t="shared" ref="S799" si="1179">SUM(K797:K798)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A800" s="53">
+        <v>43556</v>
+      </c>
+      <c r="F800">
+        <v>3</v>
+      </c>
+      <c r="G800">
+        <v>2</v>
+      </c>
+      <c r="H800">
+        <v>3</v>
+      </c>
+      <c r="J800">
+        <v>3</v>
+      </c>
+      <c r="K800">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F801">
+        <v>1</v>
+      </c>
+      <c r="G801">
+        <v>1</v>
+      </c>
+      <c r="H801">
+        <v>1</v>
+      </c>
+      <c r="J801">
+        <v>3</v>
+      </c>
+      <c r="K801">
+        <v>3</v>
+      </c>
+      <c r="T801">
+        <f t="shared" ref="T801:T832" si="1180">SUM(C800:K800)</f>
+        <v>16</v>
+      </c>
+      <c r="U801">
+        <f t="shared" ref="U801:U832" si="1181">SUM(C801:K801)</f>
+        <v>9</v>
+      </c>
+      <c r="V801">
+        <f t="shared" ref="V801" si="1182">T801+U801</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L802" s="34">
+        <f t="shared" ref="L802" si="1183">SUM(C800:C801)</f>
+        <v>0</v>
+      </c>
+      <c r="M802" s="34">
+        <f t="shared" ref="M802" si="1184">SUM(E800:E801)</f>
+        <v>0</v>
+      </c>
+      <c r="N802" s="34">
+        <f t="shared" ref="N802" si="1185">SUM(F800:F801)</f>
+        <v>4</v>
+      </c>
+      <c r="O802" s="34">
+        <f t="shared" ref="O802" si="1186">SUM(G800:G801)</f>
+        <v>3</v>
+      </c>
+      <c r="P802" s="34">
+        <f t="shared" ref="P802" si="1187">SUM(H800:H801)</f>
+        <v>4</v>
+      </c>
+      <c r="Q802" s="34">
+        <f t="shared" ref="Q802" si="1188">SUM(I800:I801)</f>
+        <v>0</v>
+      </c>
+      <c r="R802" s="34">
+        <f t="shared" ref="R802" si="1189">SUM(J800:J801)</f>
+        <v>6</v>
+      </c>
+      <c r="S802" s="34">
+        <f t="shared" ref="S802" si="1190">SUM(K800:K801)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A803" s="53">
+        <v>43557</v>
+      </c>
+      <c r="F803">
+        <v>3</v>
+      </c>
+      <c r="G803">
+        <v>2</v>
+      </c>
+      <c r="H803">
+        <v>3</v>
+      </c>
+      <c r="J803">
+        <v>3</v>
+      </c>
+      <c r="K803">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F804">
+        <v>1</v>
+      </c>
+      <c r="G804">
+        <v>1</v>
+      </c>
+      <c r="H804">
+        <v>1</v>
+      </c>
+      <c r="J804">
+        <v>3</v>
+      </c>
+      <c r="K804">
+        <v>4</v>
+      </c>
+      <c r="T804">
+        <f t="shared" ref="T804:T835" si="1191">SUM(C803:K803)</f>
+        <v>15</v>
+      </c>
+      <c r="U804">
+        <f t="shared" ref="U804:U835" si="1192">SUM(C804:K804)</f>
+        <v>10</v>
+      </c>
+      <c r="V804">
+        <f t="shared" ref="V804" si="1193">T804+U804</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L805" s="34">
+        <f t="shared" ref="L805" si="1194">SUM(C803:C804)</f>
+        <v>0</v>
+      </c>
+      <c r="M805" s="34">
+        <f t="shared" ref="M805" si="1195">SUM(E803:E804)</f>
+        <v>0</v>
+      </c>
+      <c r="N805" s="34">
+        <f t="shared" ref="N805" si="1196">SUM(F803:F804)</f>
+        <v>4</v>
+      </c>
+      <c r="O805" s="34">
+        <f t="shared" ref="O805" si="1197">SUM(G803:G804)</f>
+        <v>3</v>
+      </c>
+      <c r="P805" s="34">
+        <f t="shared" ref="P805" si="1198">SUM(H803:H804)</f>
+        <v>4</v>
+      </c>
+      <c r="Q805" s="34">
+        <f t="shared" ref="Q805" si="1199">SUM(I803:I804)</f>
+        <v>0</v>
+      </c>
+      <c r="R805" s="34">
+        <f t="shared" ref="R805" si="1200">SUM(J803:J804)</f>
+        <v>6</v>
+      </c>
+      <c r="S805" s="34">
+        <f t="shared" ref="S805" si="1201">SUM(K803:K804)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A806" s="53">
+        <v>43558</v>
+      </c>
+      <c r="F806">
+        <v>3</v>
+      </c>
+      <c r="G806">
+        <v>2</v>
+      </c>
+      <c r="H806">
+        <v>3</v>
+      </c>
+      <c r="J806">
+        <v>3</v>
+      </c>
+      <c r="K806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F807">
+        <v>1</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="H807">
+        <v>1</v>
+      </c>
+      <c r="J807">
+        <v>3</v>
+      </c>
+      <c r="K807">
+        <v>4</v>
+      </c>
+      <c r="T807">
+        <f t="shared" ref="T807:T838" si="1202">SUM(C806:K806)</f>
+        <v>15</v>
+      </c>
+      <c r="U807">
+        <f t="shared" ref="U807:U838" si="1203">SUM(C807:K807)</f>
+        <v>10</v>
+      </c>
+      <c r="V807">
+        <f t="shared" ref="V807" si="1204">T807+U807</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L808" s="34">
+        <f t="shared" ref="L808" si="1205">SUM(C806:C807)</f>
+        <v>0</v>
+      </c>
+      <c r="M808" s="34">
+        <f t="shared" ref="M808" si="1206">SUM(E806:E807)</f>
+        <v>0</v>
+      </c>
+      <c r="N808" s="34">
+        <f t="shared" ref="N808" si="1207">SUM(F806:F807)</f>
+        <v>4</v>
+      </c>
+      <c r="O808" s="34">
+        <f t="shared" ref="O808" si="1208">SUM(G806:G807)</f>
+        <v>3</v>
+      </c>
+      <c r="P808" s="34">
+        <f t="shared" ref="P808" si="1209">SUM(H806:H807)</f>
+        <v>4</v>
+      </c>
+      <c r="Q808" s="34">
+        <f t="shared" ref="Q808" si="1210">SUM(I806:I807)</f>
+        <v>0</v>
+      </c>
+      <c r="R808" s="34">
+        <f t="shared" ref="R808" si="1211">SUM(J806:J807)</f>
+        <v>6</v>
+      </c>
+      <c r="S808" s="34">
+        <f t="shared" ref="S808" si="1212">SUM(K806:K807)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A809" s="53">
+        <v>43559</v>
+      </c>
+      <c r="F809">
+        <v>3</v>
+      </c>
+      <c r="G809">
+        <v>2</v>
+      </c>
+      <c r="H809">
+        <v>3</v>
+      </c>
+      <c r="J809">
+        <v>3</v>
+      </c>
+      <c r="K809">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F810">
+        <v>1</v>
+      </c>
+      <c r="G810">
+        <v>1</v>
+      </c>
+      <c r="H810">
+        <v>1</v>
+      </c>
+      <c r="J810">
+        <v>3</v>
+      </c>
+      <c r="K810">
+        <v>3</v>
+      </c>
+      <c r="T810">
+        <f t="shared" ref="T810:T841" si="1213">SUM(C809:K809)</f>
+        <v>15</v>
+      </c>
+      <c r="U810">
+        <f t="shared" ref="U810:U841" si="1214">SUM(C810:K810)</f>
+        <v>9</v>
+      </c>
+      <c r="V810">
+        <f t="shared" ref="V810" si="1215">T810+U810</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L811" s="34">
+        <f t="shared" ref="L811" si="1216">SUM(C809:C810)</f>
+        <v>0</v>
+      </c>
+      <c r="M811" s="34">
+        <f t="shared" ref="M811" si="1217">SUM(E809:E810)</f>
+        <v>0</v>
+      </c>
+      <c r="N811" s="34">
+        <f t="shared" ref="N811" si="1218">SUM(F809:F810)</f>
+        <v>4</v>
+      </c>
+      <c r="O811" s="34">
+        <f t="shared" ref="O811" si="1219">SUM(G809:G810)</f>
+        <v>3</v>
+      </c>
+      <c r="P811" s="34">
+        <f t="shared" ref="P811" si="1220">SUM(H809:H810)</f>
+        <v>4</v>
+      </c>
+      <c r="Q811" s="34">
+        <f t="shared" ref="Q811" si="1221">SUM(I809:I810)</f>
+        <v>0</v>
+      </c>
+      <c r="R811" s="34">
+        <f t="shared" ref="R811" si="1222">SUM(J809:J810)</f>
+        <v>6</v>
+      </c>
+      <c r="S811" s="34">
+        <f t="shared" ref="S811" si="1223">SUM(K809:K810)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A812" s="53">
+        <v>43560</v>
+      </c>
+      <c r="F812">
+        <v>3</v>
+      </c>
+      <c r="G812">
+        <v>2</v>
+      </c>
+      <c r="H812">
+        <v>3</v>
+      </c>
+      <c r="J812">
+        <v>3</v>
+      </c>
+      <c r="K812">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F813">
+        <v>1</v>
+      </c>
+      <c r="G813">
+        <v>1</v>
+      </c>
+      <c r="H813">
+        <v>1</v>
+      </c>
+      <c r="J813">
+        <v>3</v>
+      </c>
+      <c r="K813">
+        <v>4</v>
+      </c>
+      <c r="T813">
+        <f t="shared" ref="T813:T858" si="1224">SUM(C812:K812)</f>
+        <v>15</v>
+      </c>
+      <c r="U813">
+        <f t="shared" ref="U813:U858" si="1225">SUM(C813:K813)</f>
+        <v>10</v>
+      </c>
+      <c r="V813">
+        <f t="shared" ref="V813" si="1226">T813+U813</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L814" s="34">
+        <f t="shared" ref="L814" si="1227">SUM(C812:C813)</f>
+        <v>0</v>
+      </c>
+      <c r="M814" s="34">
+        <f t="shared" ref="M814" si="1228">SUM(E812:E813)</f>
+        <v>0</v>
+      </c>
+      <c r="N814" s="34">
+        <f t="shared" ref="N814" si="1229">SUM(F812:F813)</f>
+        <v>4</v>
+      </c>
+      <c r="O814" s="34">
+        <f t="shared" ref="O814" si="1230">SUM(G812:G813)</f>
+        <v>3</v>
+      </c>
+      <c r="P814" s="34">
+        <f t="shared" ref="P814" si="1231">SUM(H812:H813)</f>
+        <v>4</v>
+      </c>
+      <c r="Q814" s="34">
+        <f t="shared" ref="Q814" si="1232">SUM(I812:I813)</f>
+        <v>0</v>
+      </c>
+      <c r="R814" s="34">
+        <f t="shared" ref="R814" si="1233">SUM(J812:J813)</f>
+        <v>6</v>
+      </c>
+      <c r="S814" s="34">
+        <f t="shared" ref="S814" si="1234">SUM(K812:K813)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A815" s="53">
+        <v>43561</v>
+      </c>
+      <c r="F815">
+        <v>3</v>
+      </c>
+      <c r="G815">
+        <v>2</v>
+      </c>
+      <c r="H815">
+        <v>3</v>
+      </c>
+      <c r="J815">
+        <v>4</v>
+      </c>
+      <c r="K815">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F816">
+        <v>1</v>
+      </c>
+      <c r="G816">
+        <v>1</v>
+      </c>
+      <c r="H816">
+        <v>1</v>
+      </c>
+      <c r="J816">
+        <v>3</v>
+      </c>
+      <c r="K816">
+        <v>5</v>
+      </c>
+      <c r="T816">
+        <f t="shared" ref="T816:T858" si="1235">SUM(C815:K815)</f>
+        <v>17</v>
+      </c>
+      <c r="U816">
+        <f t="shared" ref="U816:U858" si="1236">SUM(C816:K816)</f>
+        <v>11</v>
+      </c>
+      <c r="V816">
+        <f t="shared" ref="V816" si="1237">T816+U816</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L817" s="34">
+        <f t="shared" ref="L817" si="1238">SUM(C815:C816)</f>
+        <v>0</v>
+      </c>
+      <c r="M817" s="34">
+        <f t="shared" ref="M817" si="1239">SUM(E815:E816)</f>
+        <v>0</v>
+      </c>
+      <c r="N817" s="34">
+        <f t="shared" ref="N817" si="1240">SUM(F815:F816)</f>
+        <v>4</v>
+      </c>
+      <c r="O817" s="34">
+        <f t="shared" ref="O817" si="1241">SUM(G815:G816)</f>
+        <v>3</v>
+      </c>
+      <c r="P817" s="34">
+        <f t="shared" ref="P817" si="1242">SUM(H815:H816)</f>
+        <v>4</v>
+      </c>
+      <c r="Q817" s="34">
+        <f t="shared" ref="Q817" si="1243">SUM(I815:I816)</f>
+        <v>0</v>
+      </c>
+      <c r="R817" s="34">
+        <f t="shared" ref="R817" si="1244">SUM(J815:J816)</f>
+        <v>7</v>
+      </c>
+      <c r="S817" s="34">
+        <f t="shared" ref="S817" si="1245">SUM(K815:K816)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A818" s="53">
+        <v>43562</v>
+      </c>
+      <c r="F818">
+        <v>3</v>
+      </c>
+      <c r="G818">
+        <v>2</v>
+      </c>
+      <c r="H818">
+        <v>3</v>
+      </c>
+      <c r="J818">
+        <v>4</v>
+      </c>
+      <c r="K818">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F819">
+        <v>1</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+      <c r="H819">
+        <v>1</v>
+      </c>
+      <c r="J819">
+        <v>3</v>
+      </c>
+      <c r="K819">
+        <v>4</v>
+      </c>
+      <c r="T819">
+        <f t="shared" ref="T819:T858" si="1246">SUM(C818:K818)</f>
+        <v>17</v>
+      </c>
+      <c r="U819">
+        <f t="shared" ref="U819:U858" si="1247">SUM(C819:K819)</f>
+        <v>10</v>
+      </c>
+      <c r="V819">
+        <f t="shared" ref="V819" si="1248">T819+U819</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L820" s="34">
+        <f t="shared" ref="L820" si="1249">SUM(C818:C819)</f>
+        <v>0</v>
+      </c>
+      <c r="M820" s="34">
+        <f t="shared" ref="M820" si="1250">SUM(E818:E819)</f>
+        <v>0</v>
+      </c>
+      <c r="N820" s="34">
+        <f t="shared" ref="N820" si="1251">SUM(F818:F819)</f>
+        <v>4</v>
+      </c>
+      <c r="O820" s="34">
+        <f t="shared" ref="O820" si="1252">SUM(G818:G819)</f>
+        <v>3</v>
+      </c>
+      <c r="P820" s="34">
+        <f t="shared" ref="P820" si="1253">SUM(H818:H819)</f>
+        <v>4</v>
+      </c>
+      <c r="Q820" s="34">
+        <f t="shared" ref="Q820" si="1254">SUM(I818:I819)</f>
+        <v>0</v>
+      </c>
+      <c r="R820" s="34">
+        <f t="shared" ref="R820" si="1255">SUM(J818:J819)</f>
+        <v>7</v>
+      </c>
+      <c r="S820" s="34">
+        <f t="shared" ref="S820" si="1256">SUM(K818:K819)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A821" s="53">
+        <v>43563</v>
+      </c>
+      <c r="F821">
+        <v>3</v>
+      </c>
+      <c r="G821">
+        <v>2</v>
+      </c>
+      <c r="H821">
+        <v>3</v>
+      </c>
+      <c r="J821">
+        <v>3</v>
+      </c>
+      <c r="K821">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F822">
+        <v>1</v>
+      </c>
+      <c r="G822">
+        <v>1</v>
+      </c>
+      <c r="H822">
+        <v>1</v>
+      </c>
+      <c r="J822">
+        <v>3</v>
+      </c>
+      <c r="K822">
+        <v>4</v>
+      </c>
+      <c r="T822">
+        <f t="shared" ref="T822:T858" si="1257">SUM(C821:K821)</f>
+        <v>16</v>
+      </c>
+      <c r="U822">
+        <f t="shared" ref="U822:U858" si="1258">SUM(C822:K822)</f>
+        <v>10</v>
+      </c>
+      <c r="V822">
+        <f t="shared" ref="V822" si="1259">T822+U822</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L823" s="34">
+        <f t="shared" ref="L823" si="1260">SUM(C821:C822)</f>
+        <v>0</v>
+      </c>
+      <c r="M823" s="34">
+        <f t="shared" ref="M823" si="1261">SUM(E821:E822)</f>
+        <v>0</v>
+      </c>
+      <c r="N823" s="34">
+        <f t="shared" ref="N823" si="1262">SUM(F821:F822)</f>
+        <v>4</v>
+      </c>
+      <c r="O823" s="34">
+        <f t="shared" ref="O823" si="1263">SUM(G821:G822)</f>
+        <v>3</v>
+      </c>
+      <c r="P823" s="34">
+        <f t="shared" ref="P823" si="1264">SUM(H821:H822)</f>
+        <v>4</v>
+      </c>
+      <c r="Q823" s="34">
+        <f t="shared" ref="Q823" si="1265">SUM(I821:I822)</f>
+        <v>0</v>
+      </c>
+      <c r="R823" s="34">
+        <f t="shared" ref="R823" si="1266">SUM(J821:J822)</f>
+        <v>6</v>
+      </c>
+      <c r="S823" s="34">
+        <f t="shared" ref="S823" si="1267">SUM(K821:K822)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A824" s="53">
+        <v>43564</v>
+      </c>
+      <c r="F824">
+        <v>3</v>
+      </c>
+      <c r="G824">
+        <v>2</v>
+      </c>
+      <c r="H824">
+        <v>3</v>
+      </c>
+      <c r="J824">
+        <v>3</v>
+      </c>
+      <c r="K824">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F825">
+        <v>1</v>
+      </c>
+      <c r="G825">
+        <v>1</v>
+      </c>
+      <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="J825">
+        <v>3</v>
+      </c>
+      <c r="K825">
+        <v>4</v>
+      </c>
+      <c r="T825">
+        <f t="shared" ref="T825:T858" si="1268">SUM(C824:K824)</f>
+        <v>16</v>
+      </c>
+      <c r="U825">
+        <f t="shared" ref="U825:U858" si="1269">SUM(C825:K825)</f>
+        <v>10</v>
+      </c>
+      <c r="V825">
+        <f t="shared" ref="V825" si="1270">T825+U825</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L826" s="34">
+        <f t="shared" ref="L826" si="1271">SUM(C824:C825)</f>
+        <v>0</v>
+      </c>
+      <c r="M826" s="34">
+        <f t="shared" ref="M826" si="1272">SUM(E824:E825)</f>
+        <v>0</v>
+      </c>
+      <c r="N826" s="34">
+        <f t="shared" ref="N826" si="1273">SUM(F824:F825)</f>
+        <v>4</v>
+      </c>
+      <c r="O826" s="34">
+        <f t="shared" ref="O826" si="1274">SUM(G824:G825)</f>
+        <v>3</v>
+      </c>
+      <c r="P826" s="34">
+        <f t="shared" ref="P826" si="1275">SUM(H824:H825)</f>
+        <v>4</v>
+      </c>
+      <c r="Q826" s="34">
+        <f t="shared" ref="Q826" si="1276">SUM(I824:I825)</f>
+        <v>0</v>
+      </c>
+      <c r="R826" s="34">
+        <f t="shared" ref="R826" si="1277">SUM(J824:J825)</f>
+        <v>6</v>
+      </c>
+      <c r="S826" s="34">
+        <f t="shared" ref="S826" si="1278">SUM(K824:K825)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A827" s="53">
+        <v>43565</v>
+      </c>
+      <c r="F827">
+        <v>3</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>3</v>
+      </c>
+      <c r="J827">
+        <v>3</v>
+      </c>
+      <c r="K827">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F828">
+        <v>1</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828">
+        <v>1</v>
+      </c>
+      <c r="J828">
+        <v>3</v>
+      </c>
+      <c r="K828">
+        <v>4</v>
+      </c>
+      <c r="T828">
+        <f t="shared" ref="T828:T858" si="1279">SUM(C827:K827)</f>
+        <v>14</v>
+      </c>
+      <c r="U828">
+        <f t="shared" ref="U828:U858" si="1280">SUM(C828:K828)</f>
+        <v>9</v>
+      </c>
+      <c r="V828">
+        <f t="shared" ref="V828" si="1281">T828+U828</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L829" s="34">
+        <f t="shared" ref="L829" si="1282">SUM(C827:C828)</f>
+        <v>0</v>
+      </c>
+      <c r="M829" s="34">
+        <f t="shared" ref="M829" si="1283">SUM(E827:E828)</f>
+        <v>0</v>
+      </c>
+      <c r="N829" s="34">
+        <f t="shared" ref="N829" si="1284">SUM(F827:F828)</f>
+        <v>4</v>
+      </c>
+      <c r="O829" s="34">
+        <f t="shared" ref="O829" si="1285">SUM(G827:G828)</f>
+        <v>0</v>
+      </c>
+      <c r="P829" s="34">
+        <f t="shared" ref="P829" si="1286">SUM(H827:H828)</f>
+        <v>4</v>
+      </c>
+      <c r="Q829" s="34">
+        <f t="shared" ref="Q829" si="1287">SUM(I827:I828)</f>
+        <v>0</v>
+      </c>
+      <c r="R829" s="34">
+        <f t="shared" ref="R829" si="1288">SUM(J827:J828)</f>
+        <v>6</v>
+      </c>
+      <c r="S829" s="34">
+        <f t="shared" ref="S829" si="1289">SUM(K827:K828)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A830" s="53">
+        <v>43566</v>
+      </c>
+      <c r="F830">
+        <v>3</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>3</v>
+      </c>
+      <c r="J830">
+        <v>3</v>
+      </c>
+      <c r="K830">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F831">
+        <v>1</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831">
+        <v>1</v>
+      </c>
+      <c r="J831">
+        <v>3</v>
+      </c>
+      <c r="K831">
+        <v>4</v>
+      </c>
+      <c r="T831">
+        <f t="shared" ref="T831:T858" si="1290">SUM(C830:K830)</f>
+        <v>14</v>
+      </c>
+      <c r="U831">
+        <f t="shared" ref="U831:U858" si="1291">SUM(C831:K831)</f>
+        <v>9</v>
+      </c>
+      <c r="V831">
+        <f t="shared" ref="V831" si="1292">T831+U831</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L832" s="34">
+        <f t="shared" ref="L832" si="1293">SUM(C830:C831)</f>
+        <v>0</v>
+      </c>
+      <c r="M832" s="34">
+        <f t="shared" ref="M832" si="1294">SUM(E830:E831)</f>
+        <v>0</v>
+      </c>
+      <c r="N832" s="34">
+        <f t="shared" ref="N832" si="1295">SUM(F830:F831)</f>
+        <v>4</v>
+      </c>
+      <c r="O832" s="34">
+        <f t="shared" ref="O832" si="1296">SUM(G830:G831)</f>
+        <v>0</v>
+      </c>
+      <c r="P832" s="34">
+        <f t="shared" ref="P832" si="1297">SUM(H830:H831)</f>
+        <v>4</v>
+      </c>
+      <c r="Q832" s="34">
+        <f t="shared" ref="Q832" si="1298">SUM(I830:I831)</f>
+        <v>0</v>
+      </c>
+      <c r="R832" s="34">
+        <f t="shared" ref="R832" si="1299">SUM(J830:J831)</f>
+        <v>6</v>
+      </c>
+      <c r="S832" s="34">
+        <f t="shared" ref="S832" si="1300">SUM(K830:K831)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="833" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A833" s="53">
+        <v>43567</v>
+      </c>
+      <c r="F833">
+        <v>3</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>3</v>
+      </c>
+      <c r="J833">
+        <v>3</v>
+      </c>
+      <c r="K833">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="834" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F834">
+        <v>1</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+      <c r="J834">
+        <v>3</v>
+      </c>
+      <c r="K834">
+        <v>4</v>
+      </c>
+      <c r="T834">
+        <f t="shared" ref="T834:T858" si="1301">SUM(C833:K833)</f>
+        <v>14</v>
+      </c>
+      <c r="U834">
+        <f t="shared" ref="U834:U858" si="1302">SUM(C834:K834)</f>
+        <v>9</v>
+      </c>
+      <c r="V834">
+        <f t="shared" ref="V834" si="1303">T834+U834</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="835" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L835" s="34">
+        <f t="shared" ref="L835" si="1304">SUM(C833:C834)</f>
+        <v>0</v>
+      </c>
+      <c r="M835" s="34">
+        <f t="shared" ref="M835" si="1305">SUM(E833:E834)</f>
+        <v>0</v>
+      </c>
+      <c r="N835" s="34">
+        <f t="shared" ref="N835" si="1306">SUM(F833:F834)</f>
+        <v>4</v>
+      </c>
+      <c r="O835" s="34">
+        <f t="shared" ref="O835" si="1307">SUM(G833:G834)</f>
+        <v>0</v>
+      </c>
+      <c r="P835" s="34">
+        <f t="shared" ref="P835" si="1308">SUM(H833:H834)</f>
+        <v>4</v>
+      </c>
+      <c r="Q835" s="34">
+        <f t="shared" ref="Q835" si="1309">SUM(I833:I834)</f>
+        <v>0</v>
+      </c>
+      <c r="R835" s="34">
+        <f t="shared" ref="R835" si="1310">SUM(J833:J834)</f>
+        <v>6</v>
+      </c>
+      <c r="S835" s="34">
+        <f t="shared" ref="S835" si="1311">SUM(K833:K834)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A836" s="53">
+        <v>43568</v>
+      </c>
+      <c r="F836">
+        <v>3</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>3</v>
+      </c>
+      <c r="J836">
+        <v>3</v>
+      </c>
+      <c r="K836">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F837">
+        <v>1</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+      <c r="J837">
+        <v>3</v>
+      </c>
+      <c r="K837">
+        <v>4</v>
+      </c>
+      <c r="T837">
+        <f t="shared" ref="T837:T858" si="1312">SUM(C836:K836)</f>
+        <v>14</v>
+      </c>
+      <c r="U837">
+        <f t="shared" ref="U837:U858" si="1313">SUM(C837:K837)</f>
+        <v>9</v>
+      </c>
+      <c r="V837">
+        <f t="shared" ref="V837" si="1314">T837+U837</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="838" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L838" s="34">
+        <f t="shared" ref="L838" si="1315">SUM(C836:C837)</f>
+        <v>0</v>
+      </c>
+      <c r="M838" s="34">
+        <f t="shared" ref="M838" si="1316">SUM(E836:E837)</f>
+        <v>0</v>
+      </c>
+      <c r="N838" s="34">
+        <f t="shared" ref="N838" si="1317">SUM(F836:F837)</f>
+        <v>4</v>
+      </c>
+      <c r="O838" s="34">
+        <f t="shared" ref="O838" si="1318">SUM(G836:G837)</f>
+        <v>0</v>
+      </c>
+      <c r="P838" s="34">
+        <f t="shared" ref="P838" si="1319">SUM(H836:H837)</f>
+        <v>4</v>
+      </c>
+      <c r="Q838" s="34">
+        <f t="shared" ref="Q838" si="1320">SUM(I836:I837)</f>
+        <v>0</v>
+      </c>
+      <c r="R838" s="34">
+        <f t="shared" ref="R838" si="1321">SUM(J836:J837)</f>
+        <v>6</v>
+      </c>
+      <c r="S838" s="34">
+        <f t="shared" ref="S838" si="1322">SUM(K836:K837)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="839" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A839" s="53">
+        <v>43569</v>
+      </c>
+      <c r="F839">
+        <v>3</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>3</v>
+      </c>
+      <c r="J839">
+        <v>3</v>
+      </c>
+      <c r="K839">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F840">
+        <v>1</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>1</v>
+      </c>
+      <c r="J840">
+        <v>3</v>
+      </c>
+      <c r="K840">
+        <v>4</v>
+      </c>
+      <c r="T840">
+        <f t="shared" ref="T840:T858" si="1323">SUM(C839:K839)</f>
+        <v>14</v>
+      </c>
+      <c r="U840">
+        <f t="shared" ref="U840:U858" si="1324">SUM(C840:K840)</f>
+        <v>9</v>
+      </c>
+      <c r="V840">
+        <f t="shared" ref="V840" si="1325">T840+U840</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="841" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L841" s="34">
+        <f t="shared" ref="L841" si="1326">SUM(C839:C840)</f>
+        <v>0</v>
+      </c>
+      <c r="M841" s="34">
+        <f t="shared" ref="M841" si="1327">SUM(E839:E840)</f>
+        <v>0</v>
+      </c>
+      <c r="N841" s="34">
+        <f t="shared" ref="N841" si="1328">SUM(F839:F840)</f>
+        <v>4</v>
+      </c>
+      <c r="O841" s="34">
+        <f t="shared" ref="O841" si="1329">SUM(G839:G840)</f>
+        <v>0</v>
+      </c>
+      <c r="P841" s="34">
+        <f t="shared" ref="P841" si="1330">SUM(H839:H840)</f>
+        <v>4</v>
+      </c>
+      <c r="Q841" s="34">
+        <f t="shared" ref="Q841" si="1331">SUM(I839:I840)</f>
+        <v>0</v>
+      </c>
+      <c r="R841" s="34">
+        <f t="shared" ref="R841" si="1332">SUM(J839:J840)</f>
+        <v>6</v>
+      </c>
+      <c r="S841" s="34">
+        <f t="shared" ref="S841" si="1333">SUM(K839:K840)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="842" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A842" s="53">
+        <v>43570</v>
+      </c>
+      <c r="F842">
+        <v>3</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>3</v>
+      </c>
+      <c r="J842">
+        <v>3</v>
+      </c>
+      <c r="K842">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F843">
+        <v>1</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+      <c r="H843">
+        <v>1</v>
+      </c>
+      <c r="J843">
+        <v>3</v>
+      </c>
+      <c r="K843">
+        <v>4</v>
+      </c>
+      <c r="T843">
+        <f t="shared" ref="T843:T858" si="1334">SUM(C842:K842)</f>
+        <v>14</v>
+      </c>
+      <c r="U843">
+        <f t="shared" ref="U843:U858" si="1335">SUM(C843:K843)</f>
+        <v>9</v>
+      </c>
+      <c r="V843">
+        <f t="shared" ref="V843" si="1336">T843+U843</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="844" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L844" s="34">
+        <f t="shared" ref="L844" si="1337">SUM(C842:C843)</f>
+        <v>0</v>
+      </c>
+      <c r="M844" s="34">
+        <f t="shared" ref="M844" si="1338">SUM(E842:E843)</f>
+        <v>0</v>
+      </c>
+      <c r="N844" s="34">
+        <f t="shared" ref="N844" si="1339">SUM(F842:F843)</f>
+        <v>4</v>
+      </c>
+      <c r="O844" s="34">
+        <f t="shared" ref="O844" si="1340">SUM(G842:G843)</f>
+        <v>0</v>
+      </c>
+      <c r="P844" s="34">
+        <f t="shared" ref="P844" si="1341">SUM(H842:H843)</f>
+        <v>4</v>
+      </c>
+      <c r="Q844" s="34">
+        <f t="shared" ref="Q844" si="1342">SUM(I842:I843)</f>
+        <v>0</v>
+      </c>
+      <c r="R844" s="34">
+        <f t="shared" ref="R844" si="1343">SUM(J842:J843)</f>
+        <v>6</v>
+      </c>
+      <c r="S844" s="34">
+        <f t="shared" ref="S844" si="1344">SUM(K842:K843)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="845" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A845" s="53">
+        <v>43571</v>
+      </c>
+      <c r="F845">
+        <v>3</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+      <c r="H845">
+        <v>3</v>
+      </c>
+      <c r="J845">
+        <v>3</v>
+      </c>
+      <c r="K845">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F846">
+        <v>1</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+      <c r="H846">
+        <v>1</v>
+      </c>
+      <c r="J846">
+        <v>3</v>
+      </c>
+      <c r="K846">
+        <v>5</v>
+      </c>
+      <c r="T846">
+        <f t="shared" ref="T846:T858" si="1345">SUM(C845:K845)</f>
+        <v>14</v>
+      </c>
+      <c r="U846">
+        <f t="shared" ref="U846:U858" si="1346">SUM(C846:K846)</f>
+        <v>10</v>
+      </c>
+      <c r="V846">
+        <f t="shared" ref="V846" si="1347">T846+U846</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="847" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L847" s="34">
+        <f t="shared" ref="L847" si="1348">SUM(C845:C846)</f>
+        <v>0</v>
+      </c>
+      <c r="M847" s="34">
+        <f t="shared" ref="M847" si="1349">SUM(E845:E846)</f>
+        <v>0</v>
+      </c>
+      <c r="N847" s="34">
+        <f t="shared" ref="N847" si="1350">SUM(F845:F846)</f>
+        <v>4</v>
+      </c>
+      <c r="O847" s="34">
+        <f t="shared" ref="O847" si="1351">SUM(G845:G846)</f>
+        <v>0</v>
+      </c>
+      <c r="P847" s="34">
+        <f t="shared" ref="P847" si="1352">SUM(H845:H846)</f>
+        <v>4</v>
+      </c>
+      <c r="Q847" s="34">
+        <f t="shared" ref="Q847" si="1353">SUM(I845:I846)</f>
+        <v>0</v>
+      </c>
+      <c r="R847" s="34">
+        <f t="shared" ref="R847" si="1354">SUM(J845:J846)</f>
+        <v>6</v>
+      </c>
+      <c r="S847" s="34">
+        <f t="shared" ref="S847" si="1355">SUM(K845:K846)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="848" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A848" s="53">
+        <v>43572</v>
+      </c>
+      <c r="F848">
+        <v>3</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+      <c r="H848">
+        <v>3</v>
+      </c>
+      <c r="J848">
+        <v>3</v>
+      </c>
+      <c r="K848">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F849">
+        <v>1</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+      <c r="H849">
+        <v>1</v>
+      </c>
+      <c r="J849">
+        <v>3</v>
+      </c>
+      <c r="K849">
+        <v>4</v>
+      </c>
+      <c r="T849">
+        <f t="shared" ref="T849:T858" si="1356">SUM(C848:K848)</f>
+        <v>14</v>
+      </c>
+      <c r="U849">
+        <f t="shared" ref="U849:U858" si="1357">SUM(C849:K849)</f>
+        <v>9</v>
+      </c>
+      <c r="V849">
+        <f t="shared" ref="V849" si="1358">T849+U849</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="850" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L850" s="34">
+        <f t="shared" ref="L850" si="1359">SUM(C848:C849)</f>
+        <v>0</v>
+      </c>
+      <c r="M850" s="34">
+        <f t="shared" ref="M850" si="1360">SUM(E848:E849)</f>
+        <v>0</v>
+      </c>
+      <c r="N850" s="34">
+        <f t="shared" ref="N850" si="1361">SUM(F848:F849)</f>
+        <v>4</v>
+      </c>
+      <c r="O850" s="34">
+        <f t="shared" ref="O850" si="1362">SUM(G848:G849)</f>
+        <v>0</v>
+      </c>
+      <c r="P850" s="34">
+        <f t="shared" ref="P850" si="1363">SUM(H848:H849)</f>
+        <v>4</v>
+      </c>
+      <c r="Q850" s="34">
+        <f t="shared" ref="Q850" si="1364">SUM(I848:I849)</f>
+        <v>0</v>
+      </c>
+      <c r="R850" s="34">
+        <f t="shared" ref="R850" si="1365">SUM(J848:J849)</f>
+        <v>6</v>
+      </c>
+      <c r="S850" s="34">
+        <f t="shared" ref="S850" si="1366">SUM(K848:K849)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="851" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A851" s="53">
+        <v>43573</v>
+      </c>
+      <c r="F851">
+        <v>3</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>3</v>
+      </c>
+      <c r="J851">
+        <v>4</v>
+      </c>
+      <c r="K851">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F852">
+        <v>1</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852">
+        <v>1</v>
+      </c>
+      <c r="J852">
+        <v>3</v>
+      </c>
+      <c r="K852">
+        <v>4</v>
+      </c>
+      <c r="T852">
+        <f t="shared" ref="T852:T858" si="1367">SUM(C851:K851)</f>
+        <v>15</v>
+      </c>
+      <c r="U852">
+        <f t="shared" ref="U852:U858" si="1368">SUM(C852:K852)</f>
+        <v>9</v>
+      </c>
+      <c r="V852">
+        <f t="shared" ref="V852" si="1369">T852+U852</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="853" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L853" s="34">
+        <f t="shared" ref="L853" si="1370">SUM(C851:C852)</f>
+        <v>0</v>
+      </c>
+      <c r="M853" s="34">
+        <f t="shared" ref="M853" si="1371">SUM(E851:E852)</f>
+        <v>0</v>
+      </c>
+      <c r="N853" s="34">
+        <f t="shared" ref="N853" si="1372">SUM(F851:F852)</f>
+        <v>4</v>
+      </c>
+      <c r="O853" s="34">
+        <f t="shared" ref="O853" si="1373">SUM(G851:G852)</f>
+        <v>0</v>
+      </c>
+      <c r="P853" s="34">
+        <f t="shared" ref="P853" si="1374">SUM(H851:H852)</f>
+        <v>4</v>
+      </c>
+      <c r="Q853" s="34">
+        <f t="shared" ref="Q853" si="1375">SUM(I851:I852)</f>
+        <v>0</v>
+      </c>
+      <c r="R853" s="34">
+        <f t="shared" ref="R853" si="1376">SUM(J851:J852)</f>
+        <v>7</v>
+      </c>
+      <c r="S853" s="34">
+        <f t="shared" ref="S853" si="1377">SUM(K851:K852)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A854" s="53">
+        <v>43574</v>
+      </c>
+      <c r="E854">
+        <v>4</v>
+      </c>
+      <c r="F854">
+        <v>3</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>3</v>
+      </c>
+      <c r="J854">
+        <v>3</v>
+      </c>
+      <c r="K854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E855">
+        <v>0</v>
+      </c>
+      <c r="F855">
+        <v>1</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>1</v>
+      </c>
+      <c r="J855">
+        <v>3</v>
+      </c>
+      <c r="K855">
+        <v>4</v>
+      </c>
+      <c r="T855">
+        <f t="shared" ref="T855:T858" si="1378">SUM(C854:K854)</f>
+        <v>17</v>
+      </c>
+      <c r="U855">
+        <f t="shared" ref="U855:U858" si="1379">SUM(C855:K855)</f>
+        <v>9</v>
+      </c>
+      <c r="V855">
+        <f t="shared" ref="V855" si="1380">T855+U855</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="856" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L856" s="34">
+        <f t="shared" ref="L856" si="1381">SUM(C854:C855)</f>
+        <v>0</v>
+      </c>
+      <c r="M856" s="34">
+        <f t="shared" ref="M856" si="1382">SUM(E854:E855)</f>
+        <v>4</v>
+      </c>
+      <c r="N856" s="34">
+        <f t="shared" ref="N856" si="1383">SUM(F854:F855)</f>
+        <v>4</v>
+      </c>
+      <c r="O856" s="34">
+        <f t="shared" ref="O856" si="1384">SUM(G854:G855)</f>
+        <v>0</v>
+      </c>
+      <c r="P856" s="34">
+        <f t="shared" ref="P856" si="1385">SUM(H854:H855)</f>
+        <v>4</v>
+      </c>
+      <c r="Q856" s="34">
+        <f t="shared" ref="Q856" si="1386">SUM(I854:I855)</f>
+        <v>0</v>
+      </c>
+      <c r="R856" s="34">
+        <f t="shared" ref="R856" si="1387">SUM(J854:J855)</f>
+        <v>6</v>
+      </c>
+      <c r="S856" s="34">
+        <f t="shared" ref="S856" si="1388">SUM(K854:K855)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="857" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A857" s="53">
+        <v>43575</v>
+      </c>
+      <c r="E857">
+        <v>3</v>
+      </c>
+      <c r="F857">
+        <v>2</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+      <c r="H857">
+        <v>2</v>
+      </c>
+      <c r="J857">
+        <v>3</v>
+      </c>
+      <c r="K857">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E858">
+        <v>4.5</v>
+      </c>
+      <c r="F858">
+        <v>1</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+      <c r="H858">
+        <v>1</v>
+      </c>
+      <c r="J858">
+        <v>3</v>
+      </c>
+      <c r="K858">
+        <v>3</v>
+      </c>
+      <c r="T858">
+        <f t="shared" ref="T858" si="1389">SUM(C857:K857)</f>
+        <v>14</v>
+      </c>
+      <c r="U858">
+        <f t="shared" ref="U858" si="1390">SUM(C858:K858)</f>
+        <v>12.5</v>
+      </c>
+      <c r="V858">
+        <f t="shared" ref="V858" si="1391">T858+U858</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A860" s="53">
+        <v>43576</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A863" s="53">
+        <v>43577</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A866" s="53">
+        <v>43578</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A869" s="53">
+        <v>43579</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A872" s="53">
+        <v>43580</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A875" s="53">
+        <v>43581</v>
+      </c>
+      <c r="G875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A878" s="53">
+        <v>43582</v>
+      </c>
+      <c r="G878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A881" s="53">
+        <v>43583</v>
+      </c>
+      <c r="G881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A884" s="53">
+        <v>43584</v>
+      </c>
+      <c r="G884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" s="53">
+        <v>43585</v>
+      </c>
+      <c r="G887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G903">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="583">
   <si>
     <t>UP</t>
   </si>
@@ -1774,6 +1774,27 @@
   </si>
   <si>
     <t>SOLD on 06th April, 2019</t>
+  </si>
+  <si>
+    <t>20th April</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Chinna karuppu</t>
+  </si>
+  <si>
+    <t>2nd May</t>
+  </si>
+  <si>
+    <t>4th May</t>
+  </si>
+  <si>
+    <t>11th May</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,6 +2160,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2489,11 +2511,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1000096064"/>
-        <c:axId val="-1000091168"/>
+        <c:axId val="724040400"/>
+        <c:axId val="1005557008"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1000096064"/>
+        <c:axId val="724040400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2558,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1000091168"/>
+        <c:crossAx val="1005557008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1000091168"/>
+        <c:axId val="1005557008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1000096064"/>
+        <c:crossAx val="724040400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,11 +2915,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1000089536"/>
-        <c:axId val="-1000094976"/>
+        <c:axId val="1005559728"/>
+        <c:axId val="1005568432"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1000089536"/>
+        <c:axId val="1005559728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,14 +2962,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1000094976"/>
+        <c:crossAx val="1005568432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1000094976"/>
+        <c:axId val="1005568432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +3020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1000089536"/>
+        <c:crossAx val="1005559728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4569,24 +4591,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4741,18 +4763,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="I18" s="66" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="I18" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -6982,10 +7004,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7222,8 +7244,19 @@
       <c r="B11" s="20">
         <v>43161</v>
       </c>
+      <c r="E11" s="63">
+        <v>43587</v>
+      </c>
       <c r="H11">
         <v>46000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="63">
+        <v>43221</v>
       </c>
     </row>
   </sheetData>
@@ -19544,9 +19577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T709" sqref="T709:V858"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E860" sqref="E860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20422,15 +20455,15 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
-      <c r="L81" s="67">
+      <c r="L81" s="68">
         <f>SUM(L83:Q83)</f>
         <v>56.75</v>
       </c>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
     </row>
     <row r="82" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -20510,7 +20543,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="67"/>
+      <c r="I84" s="68"/>
       <c r="J84" s="51"/>
       <c r="K84" s="58"/>
     </row>
@@ -20530,7 +20563,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="67"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="51"/>
       <c r="K85" s="58"/>
     </row>
@@ -38374,6 +38407,9 @@
       <c r="A713" s="53">
         <v>43527</v>
       </c>
+      <c r="E713">
+        <v>0</v>
+      </c>
       <c r="F713">
         <v>3</v>
       </c>
@@ -38391,6 +38427,9 @@
       </c>
     </row>
     <row r="714" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E714">
+        <v>0</v>
+      </c>
       <c r="F714">
         <v>2</v>
       </c>
@@ -38407,11 +38446,11 @@
         <v>4</v>
       </c>
       <c r="T714">
-        <f t="shared" ref="T714:T745" si="861">SUM(C713:K713)</f>
+        <f t="shared" ref="T714" si="861">SUM(C713:K713)</f>
         <v>17</v>
       </c>
       <c r="U714">
-        <f t="shared" ref="U714:U745" si="862">SUM(C714:K714)</f>
+        <f t="shared" ref="U714" si="862">SUM(C714:K714)</f>
         <v>14</v>
       </c>
       <c r="V714">
@@ -38457,6 +38496,9 @@
       <c r="A716" s="53">
         <v>43528</v>
       </c>
+      <c r="E716">
+        <v>0</v>
+      </c>
       <c r="F716">
         <v>3</v>
       </c>
@@ -38474,6 +38516,9 @@
       </c>
     </row>
     <row r="717" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E717">
+        <v>0</v>
+      </c>
       <c r="F717">
         <v>2</v>
       </c>
@@ -38490,11 +38535,11 @@
         <v>5</v>
       </c>
       <c r="T717">
-        <f t="shared" ref="T717:T748" si="872">SUM(C716:K716)</f>
+        <f t="shared" ref="T717" si="872">SUM(C716:K716)</f>
         <v>16</v>
       </c>
       <c r="U717">
-        <f t="shared" ref="U717:U748" si="873">SUM(C717:K717)</f>
+        <f t="shared" ref="U717" si="873">SUM(C717:K717)</f>
         <v>13</v>
       </c>
       <c r="V717">
@@ -38540,6 +38585,9 @@
       <c r="A719" s="53">
         <v>43529</v>
       </c>
+      <c r="E719">
+        <v>0</v>
+      </c>
       <c r="F719">
         <v>3</v>
       </c>
@@ -38557,6 +38605,9 @@
       </c>
     </row>
     <row r="720" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E720">
+        <v>0</v>
+      </c>
       <c r="F720">
         <v>2</v>
       </c>
@@ -38573,11 +38624,11 @@
         <v>5</v>
       </c>
       <c r="T720">
-        <f t="shared" ref="T720:T751" si="883">SUM(C719:K719)</f>
+        <f t="shared" ref="T720" si="883">SUM(C719:K719)</f>
         <v>19</v>
       </c>
       <c r="U720">
-        <f t="shared" ref="U720:U751" si="884">SUM(C720:K720)</f>
+        <f t="shared" ref="U720" si="884">SUM(C720:K720)</f>
         <v>14</v>
       </c>
       <c r="V720">
@@ -38623,6 +38674,9 @@
       <c r="A722" s="53">
         <v>43530</v>
       </c>
+      <c r="E722">
+        <v>0</v>
+      </c>
       <c r="F722">
         <v>3</v>
       </c>
@@ -38640,6 +38694,9 @@
       </c>
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E723">
+        <v>0</v>
+      </c>
       <c r="F723">
         <v>2</v>
       </c>
@@ -38656,11 +38713,11 @@
         <v>4</v>
       </c>
       <c r="T723">
-        <f t="shared" ref="T723:T754" si="894">SUM(C722:K722)</f>
+        <f t="shared" ref="T723" si="894">SUM(C722:K722)</f>
         <v>17</v>
       </c>
       <c r="U723">
-        <f t="shared" ref="U723:U754" si="895">SUM(C723:K723)</f>
+        <f t="shared" ref="U723" si="895">SUM(C723:K723)</f>
         <v>13</v>
       </c>
       <c r="V723">
@@ -38706,6 +38763,9 @@
       <c r="A725" s="53">
         <v>43531</v>
       </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
       <c r="F725">
         <v>3</v>
       </c>
@@ -38723,6 +38783,9 @@
       </c>
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E726">
+        <v>0</v>
+      </c>
       <c r="F726">
         <v>2</v>
       </c>
@@ -38739,11 +38802,11 @@
         <v>5</v>
       </c>
       <c r="T726">
-        <f t="shared" ref="T726:T757" si="905">SUM(C725:K725)</f>
+        <f t="shared" ref="T726" si="905">SUM(C725:K725)</f>
         <v>16</v>
       </c>
       <c r="U726">
-        <f t="shared" ref="U726:U757" si="906">SUM(C726:K726)</f>
+        <f t="shared" ref="U726" si="906">SUM(C726:K726)</f>
         <v>13</v>
       </c>
       <c r="V726">
@@ -38789,6 +38852,9 @@
       <c r="A728" s="53">
         <v>43532</v>
       </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
       <c r="F728">
         <v>3</v>
       </c>
@@ -38806,6 +38872,9 @@
       </c>
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E729">
+        <v>0</v>
+      </c>
       <c r="F729">
         <v>2</v>
       </c>
@@ -38822,11 +38891,11 @@
         <v>5</v>
       </c>
       <c r="T729">
-        <f t="shared" ref="T729:T760" si="916">SUM(C728:K728)</f>
+        <f t="shared" ref="T729" si="916">SUM(C728:K728)</f>
         <v>17</v>
       </c>
       <c r="U729">
-        <f t="shared" ref="U729:U760" si="917">SUM(C729:K729)</f>
+        <f t="shared" ref="U729" si="917">SUM(C729:K729)</f>
         <v>13</v>
       </c>
       <c r="V729">
@@ -38872,6 +38941,9 @@
       <c r="A731" s="53">
         <v>43533</v>
       </c>
+      <c r="E731">
+        <v>0</v>
+      </c>
       <c r="F731">
         <v>3</v>
       </c>
@@ -38889,6 +38961,9 @@
       </c>
     </row>
     <row r="732" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E732">
+        <v>0</v>
+      </c>
       <c r="F732">
         <v>2</v>
       </c>
@@ -38905,11 +38980,11 @@
         <v>5</v>
       </c>
       <c r="T732">
-        <f t="shared" ref="T732:T763" si="927">SUM(C731:K731)</f>
+        <f t="shared" ref="T732" si="927">SUM(C731:K731)</f>
         <v>17</v>
       </c>
       <c r="U732">
-        <f t="shared" ref="U732:U763" si="928">SUM(C732:K732)</f>
+        <f t="shared" ref="U732" si="928">SUM(C732:K732)</f>
         <v>13</v>
       </c>
       <c r="V732">
@@ -38955,6 +39030,9 @@
       <c r="A734" s="53">
         <v>43534</v>
       </c>
+      <c r="E734">
+        <v>0</v>
+      </c>
       <c r="F734">
         <v>3</v>
       </c>
@@ -38972,6 +39050,9 @@
       </c>
     </row>
     <row r="735" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E735">
+        <v>0</v>
+      </c>
       <c r="F735">
         <v>2</v>
       </c>
@@ -38988,11 +39069,11 @@
         <v>5</v>
       </c>
       <c r="T735">
-        <f t="shared" ref="T735:T766" si="938">SUM(C734:K734)</f>
+        <f t="shared" ref="T735" si="938">SUM(C734:K734)</f>
         <v>17</v>
       </c>
       <c r="U735">
-        <f t="shared" ref="U735:U766" si="939">SUM(C735:K735)</f>
+        <f t="shared" ref="U735" si="939">SUM(C735:K735)</f>
         <v>13</v>
       </c>
       <c r="V735">
@@ -39038,6 +39119,9 @@
       <c r="A737" s="53">
         <v>43535</v>
       </c>
+      <c r="E737">
+        <v>0</v>
+      </c>
       <c r="F737">
         <v>3</v>
       </c>
@@ -39055,6 +39139,9 @@
       </c>
     </row>
     <row r="738" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E738">
+        <v>0</v>
+      </c>
       <c r="F738">
         <v>2</v>
       </c>
@@ -39071,11 +39158,11 @@
         <v>5</v>
       </c>
       <c r="T738">
-        <f t="shared" ref="T738:T769" si="949">SUM(C737:K737)</f>
+        <f t="shared" ref="T738" si="949">SUM(C737:K737)</f>
         <v>18</v>
       </c>
       <c r="U738">
-        <f t="shared" ref="U738:U769" si="950">SUM(C738:K738)</f>
+        <f t="shared" ref="U738" si="950">SUM(C738:K738)</f>
         <v>13</v>
       </c>
       <c r="V738">
@@ -39121,6 +39208,9 @@
       <c r="A740" s="53">
         <v>43536</v>
       </c>
+      <c r="E740">
+        <v>0</v>
+      </c>
       <c r="F740">
         <v>3</v>
       </c>
@@ -39138,6 +39228,9 @@
       </c>
     </row>
     <row r="741" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E741">
+        <v>0</v>
+      </c>
       <c r="F741">
         <v>2</v>
       </c>
@@ -39154,11 +39247,11 @@
         <v>4</v>
       </c>
       <c r="T741">
-        <f t="shared" ref="T741:T772" si="960">SUM(C740:K740)</f>
+        <f t="shared" ref="T741" si="960">SUM(C740:K740)</f>
         <v>17</v>
       </c>
       <c r="U741">
-        <f t="shared" ref="U741:U772" si="961">SUM(C741:K741)</f>
+        <f t="shared" ref="U741" si="961">SUM(C741:K741)</f>
         <v>12</v>
       </c>
       <c r="V741">
@@ -39204,6 +39297,9 @@
       <c r="A743" s="53">
         <v>43537</v>
       </c>
+      <c r="E743">
+        <v>0</v>
+      </c>
       <c r="F743">
         <v>3</v>
       </c>
@@ -39221,6 +39317,9 @@
       </c>
     </row>
     <row r="744" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E744">
+        <v>0</v>
+      </c>
       <c r="F744">
         <v>2</v>
       </c>
@@ -39237,11 +39336,11 @@
         <v>5</v>
       </c>
       <c r="T744">
-        <f t="shared" ref="T744:T775" si="971">SUM(C743:K743)</f>
+        <f t="shared" ref="T744" si="971">SUM(C743:K743)</f>
         <v>17</v>
       </c>
       <c r="U744">
-        <f t="shared" ref="U744:U775" si="972">SUM(C744:K744)</f>
+        <f t="shared" ref="U744" si="972">SUM(C744:K744)</f>
         <v>13</v>
       </c>
       <c r="V744">
@@ -39287,6 +39386,9 @@
       <c r="A746" s="53">
         <v>43538</v>
       </c>
+      <c r="E746">
+        <v>0</v>
+      </c>
       <c r="F746">
         <v>3</v>
       </c>
@@ -39304,6 +39406,9 @@
       </c>
     </row>
     <row r="747" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E747">
+        <v>0</v>
+      </c>
       <c r="F747">
         <v>2</v>
       </c>
@@ -39320,11 +39425,11 @@
         <v>5</v>
       </c>
       <c r="T747">
-        <f t="shared" ref="T747:T778" si="982">SUM(C746:K746)</f>
+        <f t="shared" ref="T747" si="982">SUM(C746:K746)</f>
         <v>17</v>
       </c>
       <c r="U747">
-        <f t="shared" ref="U747:U778" si="983">SUM(C747:K747)</f>
+        <f t="shared" ref="U747" si="983">SUM(C747:K747)</f>
         <v>13</v>
       </c>
       <c r="V747">
@@ -39370,6 +39475,9 @@
       <c r="A749" s="53">
         <v>43539</v>
       </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
       <c r="F749">
         <v>3</v>
       </c>
@@ -39387,6 +39495,9 @@
       </c>
     </row>
     <row r="750" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E750">
+        <v>0</v>
+      </c>
       <c r="F750">
         <v>2</v>
       </c>
@@ -39403,11 +39514,11 @@
         <v>4</v>
       </c>
       <c r="T750">
-        <f t="shared" ref="T750:T781" si="993">SUM(C749:K749)</f>
+        <f t="shared" ref="T750" si="993">SUM(C749:K749)</f>
         <v>17</v>
       </c>
       <c r="U750">
-        <f t="shared" ref="U750:U781" si="994">SUM(C750:K750)</f>
+        <f t="shared" ref="U750" si="994">SUM(C750:K750)</f>
         <v>12</v>
       </c>
       <c r="V750">
@@ -39453,6 +39564,9 @@
       <c r="A752" s="53">
         <v>43540</v>
       </c>
+      <c r="E752">
+        <v>0</v>
+      </c>
       <c r="F752">
         <v>3</v>
       </c>
@@ -39470,6 +39584,9 @@
       </c>
     </row>
     <row r="753" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E753">
+        <v>0</v>
+      </c>
       <c r="F753">
         <v>2</v>
       </c>
@@ -39486,11 +39603,11 @@
         <v>4</v>
       </c>
       <c r="T753">
-        <f t="shared" ref="T753:T784" si="1004">SUM(C752:K752)</f>
+        <f t="shared" ref="T753" si="1004">SUM(C752:K752)</f>
         <v>17</v>
       </c>
       <c r="U753">
-        <f t="shared" ref="U753:U784" si="1005">SUM(C753:K753)</f>
+        <f t="shared" ref="U753" si="1005">SUM(C753:K753)</f>
         <v>12</v>
       </c>
       <c r="V753">
@@ -39536,6 +39653,9 @@
       <c r="A755" s="53">
         <v>43541</v>
       </c>
+      <c r="E755">
+        <v>0</v>
+      </c>
       <c r="F755">
         <v>3</v>
       </c>
@@ -39553,6 +39673,9 @@
       </c>
     </row>
     <row r="756" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E756">
+        <v>0</v>
+      </c>
       <c r="F756">
         <v>2</v>
       </c>
@@ -39569,11 +39692,11 @@
         <v>5</v>
       </c>
       <c r="T756">
-        <f t="shared" ref="T756:T787" si="1015">SUM(C755:K755)</f>
+        <f t="shared" ref="T756" si="1015">SUM(C755:K755)</f>
         <v>17</v>
       </c>
       <c r="U756">
-        <f t="shared" ref="U756:U787" si="1016">SUM(C756:K756)</f>
+        <f t="shared" ref="U756" si="1016">SUM(C756:K756)</f>
         <v>13</v>
       </c>
       <c r="V756">
@@ -39619,6 +39742,9 @@
       <c r="A758" s="53">
         <v>43542</v>
       </c>
+      <c r="E758">
+        <v>0</v>
+      </c>
       <c r="F758">
         <v>3</v>
       </c>
@@ -39636,6 +39762,9 @@
       </c>
     </row>
     <row r="759" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E759">
+        <v>0</v>
+      </c>
       <c r="F759">
         <v>2</v>
       </c>
@@ -39652,11 +39781,11 @@
         <v>4</v>
       </c>
       <c r="T759">
-        <f t="shared" ref="T759:T790" si="1026">SUM(C758:K758)</f>
+        <f t="shared" ref="T759" si="1026">SUM(C758:K758)</f>
         <v>17</v>
       </c>
       <c r="U759">
-        <f t="shared" ref="U759:U790" si="1027">SUM(C759:K759)</f>
+        <f t="shared" ref="U759" si="1027">SUM(C759:K759)</f>
         <v>12</v>
       </c>
       <c r="V759">
@@ -39702,6 +39831,9 @@
       <c r="A761" s="53">
         <v>43543</v>
       </c>
+      <c r="E761">
+        <v>0</v>
+      </c>
       <c r="F761">
         <v>3</v>
       </c>
@@ -39719,6 +39851,9 @@
       </c>
     </row>
     <row r="762" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E762">
+        <v>0</v>
+      </c>
       <c r="F762">
         <v>2</v>
       </c>
@@ -39735,11 +39870,11 @@
         <v>4</v>
       </c>
       <c r="T762">
-        <f t="shared" ref="T762:T793" si="1037">SUM(C761:K761)</f>
+        <f t="shared" ref="T762" si="1037">SUM(C761:K761)</f>
         <v>17</v>
       </c>
       <c r="U762">
-        <f t="shared" ref="U762:U793" si="1038">SUM(C762:K762)</f>
+        <f t="shared" ref="U762" si="1038">SUM(C762:K762)</f>
         <v>12</v>
       </c>
       <c r="V762">
@@ -39785,6 +39920,9 @@
       <c r="A764" s="53">
         <v>43544</v>
       </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
       <c r="F764">
         <v>3</v>
       </c>
@@ -39802,6 +39940,9 @@
       </c>
     </row>
     <row r="765" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E765">
+        <v>0</v>
+      </c>
       <c r="F765">
         <v>2</v>
       </c>
@@ -39818,11 +39959,11 @@
         <v>4</v>
       </c>
       <c r="T765">
-        <f t="shared" ref="T765:T796" si="1048">SUM(C764:K764)</f>
+        <f t="shared" ref="T765" si="1048">SUM(C764:K764)</f>
         <v>17</v>
       </c>
       <c r="U765">
-        <f t="shared" ref="U765:U796" si="1049">SUM(C765:K765)</f>
+        <f t="shared" ref="U765" si="1049">SUM(C765:K765)</f>
         <v>12</v>
       </c>
       <c r="V765">
@@ -39868,6 +40009,9 @@
       <c r="A767" s="53">
         <v>43545</v>
       </c>
+      <c r="E767">
+        <v>0</v>
+      </c>
       <c r="F767">
         <v>3</v>
       </c>
@@ -39885,6 +40029,9 @@
       </c>
     </row>
     <row r="768" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E768">
+        <v>0</v>
+      </c>
       <c r="F768">
         <v>2</v>
       </c>
@@ -39901,11 +40048,11 @@
         <v>4</v>
       </c>
       <c r="T768">
-        <f t="shared" ref="T768:T799" si="1059">SUM(C767:K767)</f>
+        <f t="shared" ref="T768" si="1059">SUM(C767:K767)</f>
         <v>17</v>
       </c>
       <c r="U768">
-        <f t="shared" ref="U768:U799" si="1060">SUM(C768:K768)</f>
+        <f t="shared" ref="U768" si="1060">SUM(C768:K768)</f>
         <v>11</v>
       </c>
       <c r="V768">
@@ -39951,6 +40098,9 @@
       <c r="A770" s="53">
         <v>43546</v>
       </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
       <c r="F770">
         <v>3</v>
       </c>
@@ -39968,6 +40118,9 @@
       </c>
     </row>
     <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E771">
+        <v>0</v>
+      </c>
       <c r="F771">
         <v>2</v>
       </c>
@@ -39984,11 +40137,11 @@
         <v>5</v>
       </c>
       <c r="T771">
-        <f t="shared" ref="T771:T802" si="1070">SUM(C770:K770)</f>
+        <f t="shared" ref="T771" si="1070">SUM(C770:K770)</f>
         <v>16</v>
       </c>
       <c r="U771">
-        <f t="shared" ref="U771:U802" si="1071">SUM(C771:K771)</f>
+        <f t="shared" ref="U771" si="1071">SUM(C771:K771)</f>
         <v>13</v>
       </c>
       <c r="V771">
@@ -40034,6 +40187,9 @@
       <c r="A773" s="53">
         <v>43547</v>
       </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
       <c r="F773">
         <v>3</v>
       </c>
@@ -40051,6 +40207,9 @@
       </c>
     </row>
     <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E774">
+        <v>0</v>
+      </c>
       <c r="F774">
         <v>2</v>
       </c>
@@ -40067,11 +40226,11 @@
         <v>4</v>
       </c>
       <c r="T774">
-        <f t="shared" ref="T774:T805" si="1081">SUM(C773:K773)</f>
+        <f t="shared" ref="T774" si="1081">SUM(C773:K773)</f>
         <v>17</v>
       </c>
       <c r="U774">
-        <f t="shared" ref="U774:U805" si="1082">SUM(C774:K774)</f>
+        <f t="shared" ref="U774" si="1082">SUM(C774:K774)</f>
         <v>12</v>
       </c>
       <c r="V774">
@@ -40117,6 +40276,9 @@
       <c r="A776" s="53">
         <v>43548</v>
       </c>
+      <c r="E776">
+        <v>0</v>
+      </c>
       <c r="F776">
         <v>3</v>
       </c>
@@ -40134,6 +40296,9 @@
       </c>
     </row>
     <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E777">
+        <v>0</v>
+      </c>
       <c r="F777">
         <v>2</v>
       </c>
@@ -40150,11 +40315,11 @@
         <v>4</v>
       </c>
       <c r="T777">
-        <f t="shared" ref="T777:T808" si="1092">SUM(C776:K776)</f>
+        <f t="shared" ref="T777" si="1092">SUM(C776:K776)</f>
         <v>16</v>
       </c>
       <c r="U777">
-        <f t="shared" ref="U777:U808" si="1093">SUM(C777:K777)</f>
+        <f t="shared" ref="U777" si="1093">SUM(C777:K777)</f>
         <v>12</v>
       </c>
       <c r="V777">
@@ -40200,6 +40365,9 @@
       <c r="A779" s="53">
         <v>43549</v>
       </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
       <c r="F779">
         <v>3</v>
       </c>
@@ -40217,6 +40385,9 @@
       </c>
     </row>
     <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E780">
+        <v>0</v>
+      </c>
       <c r="F780">
         <v>2</v>
       </c>
@@ -40233,11 +40404,11 @@
         <v>4</v>
       </c>
       <c r="T780">
-        <f t="shared" ref="T780:T811" si="1103">SUM(C779:K779)</f>
+        <f t="shared" ref="T780" si="1103">SUM(C779:K779)</f>
         <v>16</v>
       </c>
       <c r="U780">
-        <f t="shared" ref="U780:U811" si="1104">SUM(C780:K780)</f>
+        <f t="shared" ref="U780" si="1104">SUM(C780:K780)</f>
         <v>11</v>
       </c>
       <c r="V780">
@@ -40283,6 +40454,9 @@
       <c r="A782" s="53">
         <v>43550</v>
       </c>
+      <c r="E782">
+        <v>0</v>
+      </c>
       <c r="F782">
         <v>3</v>
       </c>
@@ -40300,6 +40474,9 @@
       </c>
     </row>
     <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E783">
+        <v>0</v>
+      </c>
       <c r="F783">
         <v>2</v>
       </c>
@@ -40316,11 +40493,11 @@
         <v>3</v>
       </c>
       <c r="T783">
-        <f t="shared" ref="T783:T814" si="1114">SUM(C782:K782)</f>
+        <f t="shared" ref="T783" si="1114">SUM(C782:K782)</f>
         <v>15</v>
       </c>
       <c r="U783">
-        <f t="shared" ref="U783:U814" si="1115">SUM(C783:K783)</f>
+        <f t="shared" ref="U783" si="1115">SUM(C783:K783)</f>
         <v>11</v>
       </c>
       <c r="V783">
@@ -40366,6 +40543,9 @@
       <c r="A785" s="53">
         <v>43551</v>
       </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
       <c r="F785">
         <v>3</v>
       </c>
@@ -40383,6 +40563,9 @@
       </c>
     </row>
     <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E786">
+        <v>0</v>
+      </c>
       <c r="F786">
         <v>2</v>
       </c>
@@ -40399,11 +40582,11 @@
         <v>3</v>
       </c>
       <c r="T786">
-        <f t="shared" ref="T786:T817" si="1125">SUM(C785:K785)</f>
+        <f t="shared" ref="T786" si="1125">SUM(C785:K785)</f>
         <v>15</v>
       </c>
       <c r="U786">
-        <f t="shared" ref="U786:U817" si="1126">SUM(C786:K786)</f>
+        <f t="shared" ref="U786" si="1126">SUM(C786:K786)</f>
         <v>11</v>
       </c>
       <c r="V786">
@@ -40449,6 +40632,9 @@
       <c r="A788" s="53">
         <v>43552</v>
       </c>
+      <c r="E788">
+        <v>0</v>
+      </c>
       <c r="F788">
         <v>3</v>
       </c>
@@ -40466,6 +40652,9 @@
       </c>
     </row>
     <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E789">
+        <v>0</v>
+      </c>
       <c r="F789">
         <v>2</v>
       </c>
@@ -40482,11 +40671,11 @@
         <v>3</v>
       </c>
       <c r="T789">
-        <f t="shared" ref="T789:T820" si="1136">SUM(C788:K788)</f>
+        <f t="shared" ref="T789" si="1136">SUM(C788:K788)</f>
         <v>15</v>
       </c>
       <c r="U789">
-        <f t="shared" ref="U789:U820" si="1137">SUM(C789:K789)</f>
+        <f t="shared" ref="U789" si="1137">SUM(C789:K789)</f>
         <v>11</v>
       </c>
       <c r="V789">
@@ -40532,6 +40721,9 @@
       <c r="A791" s="53">
         <v>43553</v>
       </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
       <c r="F791">
         <v>3</v>
       </c>
@@ -40549,6 +40741,9 @@
       </c>
     </row>
     <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E792">
+        <v>0</v>
+      </c>
       <c r="F792">
         <v>1</v>
       </c>
@@ -40565,11 +40760,11 @@
         <v>4</v>
       </c>
       <c r="T792">
-        <f t="shared" ref="T792:T823" si="1147">SUM(C791:K791)</f>
+        <f t="shared" ref="T792" si="1147">SUM(C791:K791)</f>
         <v>16</v>
       </c>
       <c r="U792">
-        <f t="shared" ref="U792:U823" si="1148">SUM(C792:K792)</f>
+        <f t="shared" ref="U792" si="1148">SUM(C792:K792)</f>
         <v>10</v>
       </c>
       <c r="V792">
@@ -40615,6 +40810,9 @@
       <c r="A794" s="53">
         <v>43554</v>
       </c>
+      <c r="E794">
+        <v>0</v>
+      </c>
       <c r="F794">
         <v>3</v>
       </c>
@@ -40632,6 +40830,9 @@
       </c>
     </row>
     <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E795">
+        <v>0</v>
+      </c>
       <c r="F795">
         <v>1</v>
       </c>
@@ -40648,11 +40849,11 @@
         <v>4</v>
       </c>
       <c r="T795">
-        <f t="shared" ref="T795:T826" si="1158">SUM(C794:K794)</f>
+        <f t="shared" ref="T795" si="1158">SUM(C794:K794)</f>
         <v>16</v>
       </c>
       <c r="U795">
-        <f t="shared" ref="U795:U826" si="1159">SUM(C795:K795)</f>
+        <f t="shared" ref="U795" si="1159">SUM(C795:K795)</f>
         <v>10</v>
       </c>
       <c r="V795">
@@ -40698,6 +40899,9 @@
       <c r="A797" s="53">
         <v>43555</v>
       </c>
+      <c r="E797">
+        <v>0</v>
+      </c>
       <c r="F797">
         <v>3</v>
       </c>
@@ -40715,6 +40919,9 @@
       </c>
     </row>
     <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E798">
+        <v>0</v>
+      </c>
       <c r="F798">
         <v>1</v>
       </c>
@@ -40731,11 +40938,11 @@
         <v>4</v>
       </c>
       <c r="T798">
-        <f t="shared" ref="T798:T829" si="1169">SUM(C797:K797)</f>
+        <f t="shared" ref="T798" si="1169">SUM(C797:K797)</f>
         <v>16</v>
       </c>
       <c r="U798">
-        <f t="shared" ref="U798:U829" si="1170">SUM(C798:K798)</f>
+        <f t="shared" ref="U798" si="1170">SUM(C798:K798)</f>
         <v>10</v>
       </c>
       <c r="V798">
@@ -40781,6 +40988,9 @@
       <c r="A800" s="53">
         <v>43556</v>
       </c>
+      <c r="E800">
+        <v>0</v>
+      </c>
       <c r="F800">
         <v>3</v>
       </c>
@@ -40798,6 +41008,9 @@
       </c>
     </row>
     <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E801">
+        <v>0</v>
+      </c>
       <c r="F801">
         <v>1</v>
       </c>
@@ -40814,11 +41027,11 @@
         <v>3</v>
       </c>
       <c r="T801">
-        <f t="shared" ref="T801:T832" si="1180">SUM(C800:K800)</f>
+        <f t="shared" ref="T801" si="1180">SUM(C800:K800)</f>
         <v>16</v>
       </c>
       <c r="U801">
-        <f t="shared" ref="U801:U832" si="1181">SUM(C801:K801)</f>
+        <f t="shared" ref="U801" si="1181">SUM(C801:K801)</f>
         <v>9</v>
       </c>
       <c r="V801">
@@ -40864,6 +41077,9 @@
       <c r="A803" s="53">
         <v>43557</v>
       </c>
+      <c r="E803">
+        <v>0</v>
+      </c>
       <c r="F803">
         <v>3</v>
       </c>
@@ -40881,6 +41097,9 @@
       </c>
     </row>
     <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E804">
+        <v>0</v>
+      </c>
       <c r="F804">
         <v>1</v>
       </c>
@@ -40897,11 +41116,11 @@
         <v>4</v>
       </c>
       <c r="T804">
-        <f t="shared" ref="T804:T835" si="1191">SUM(C803:K803)</f>
+        <f t="shared" ref="T804" si="1191">SUM(C803:K803)</f>
         <v>15</v>
       </c>
       <c r="U804">
-        <f t="shared" ref="U804:U835" si="1192">SUM(C804:K804)</f>
+        <f t="shared" ref="U804" si="1192">SUM(C804:K804)</f>
         <v>10</v>
       </c>
       <c r="V804">
@@ -40947,6 +41166,9 @@
       <c r="A806" s="53">
         <v>43558</v>
       </c>
+      <c r="E806">
+        <v>0</v>
+      </c>
       <c r="F806">
         <v>3</v>
       </c>
@@ -40964,6 +41186,9 @@
       </c>
     </row>
     <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E807">
+        <v>0</v>
+      </c>
       <c r="F807">
         <v>1</v>
       </c>
@@ -40980,11 +41205,11 @@
         <v>4</v>
       </c>
       <c r="T807">
-        <f t="shared" ref="T807:T838" si="1202">SUM(C806:K806)</f>
+        <f t="shared" ref="T807" si="1202">SUM(C806:K806)</f>
         <v>15</v>
       </c>
       <c r="U807">
-        <f t="shared" ref="U807:U838" si="1203">SUM(C807:K807)</f>
+        <f t="shared" ref="U807" si="1203">SUM(C807:K807)</f>
         <v>10</v>
       </c>
       <c r="V807">
@@ -41030,6 +41255,9 @@
       <c r="A809" s="53">
         <v>43559</v>
       </c>
+      <c r="E809">
+        <v>0</v>
+      </c>
       <c r="F809">
         <v>3</v>
       </c>
@@ -41047,6 +41275,9 @@
       </c>
     </row>
     <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E810">
+        <v>0</v>
+      </c>
       <c r="F810">
         <v>1</v>
       </c>
@@ -41063,11 +41294,11 @@
         <v>3</v>
       </c>
       <c r="T810">
-        <f t="shared" ref="T810:T841" si="1213">SUM(C809:K809)</f>
+        <f t="shared" ref="T810" si="1213">SUM(C809:K809)</f>
         <v>15</v>
       </c>
       <c r="U810">
-        <f t="shared" ref="U810:U841" si="1214">SUM(C810:K810)</f>
+        <f t="shared" ref="U810" si="1214">SUM(C810:K810)</f>
         <v>9</v>
       </c>
       <c r="V810">
@@ -41113,6 +41344,9 @@
       <c r="A812" s="53">
         <v>43560</v>
       </c>
+      <c r="E812">
+        <v>0</v>
+      </c>
       <c r="F812">
         <v>3</v>
       </c>
@@ -41130,6 +41364,9 @@
       </c>
     </row>
     <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E813">
+        <v>0</v>
+      </c>
       <c r="F813">
         <v>1</v>
       </c>
@@ -41146,11 +41383,11 @@
         <v>4</v>
       </c>
       <c r="T813">
-        <f t="shared" ref="T813:T858" si="1224">SUM(C812:K812)</f>
+        <f t="shared" ref="T813" si="1224">SUM(C812:K812)</f>
         <v>15</v>
       </c>
       <c r="U813">
-        <f t="shared" ref="U813:U858" si="1225">SUM(C813:K813)</f>
+        <f t="shared" ref="U813" si="1225">SUM(C813:K813)</f>
         <v>10</v>
       </c>
       <c r="V813">
@@ -41196,6 +41433,9 @@
       <c r="A815" s="53">
         <v>43561</v>
       </c>
+      <c r="E815">
+        <v>0</v>
+      </c>
       <c r="F815">
         <v>3</v>
       </c>
@@ -41213,6 +41453,9 @@
       </c>
     </row>
     <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E816">
+        <v>0</v>
+      </c>
       <c r="F816">
         <v>1</v>
       </c>
@@ -41229,11 +41472,11 @@
         <v>5</v>
       </c>
       <c r="T816">
-        <f t="shared" ref="T816:T858" si="1235">SUM(C815:K815)</f>
+        <f t="shared" ref="T816" si="1235">SUM(C815:K815)</f>
         <v>17</v>
       </c>
       <c r="U816">
-        <f t="shared" ref="U816:U858" si="1236">SUM(C816:K816)</f>
+        <f t="shared" ref="U816" si="1236">SUM(C816:K816)</f>
         <v>11</v>
       </c>
       <c r="V816">
@@ -41279,6 +41522,9 @@
       <c r="A818" s="53">
         <v>43562</v>
       </c>
+      <c r="E818">
+        <v>0</v>
+      </c>
       <c r="F818">
         <v>3</v>
       </c>
@@ -41296,6 +41542,9 @@
       </c>
     </row>
     <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E819">
+        <v>0</v>
+      </c>
       <c r="F819">
         <v>1</v>
       </c>
@@ -41312,11 +41561,11 @@
         <v>4</v>
       </c>
       <c r="T819">
-        <f t="shared" ref="T819:T858" si="1246">SUM(C818:K818)</f>
+        <f t="shared" ref="T819" si="1246">SUM(C818:K818)</f>
         <v>17</v>
       </c>
       <c r="U819">
-        <f t="shared" ref="U819:U858" si="1247">SUM(C819:K819)</f>
+        <f t="shared" ref="U819" si="1247">SUM(C819:K819)</f>
         <v>10</v>
       </c>
       <c r="V819">
@@ -41362,6 +41611,9 @@
       <c r="A821" s="53">
         <v>43563</v>
       </c>
+      <c r="E821">
+        <v>0</v>
+      </c>
       <c r="F821">
         <v>3</v>
       </c>
@@ -41379,6 +41631,9 @@
       </c>
     </row>
     <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E822">
+        <v>0</v>
+      </c>
       <c r="F822">
         <v>1</v>
       </c>
@@ -41395,11 +41650,11 @@
         <v>4</v>
       </c>
       <c r="T822">
-        <f t="shared" ref="T822:T858" si="1257">SUM(C821:K821)</f>
+        <f t="shared" ref="T822" si="1257">SUM(C821:K821)</f>
         <v>16</v>
       </c>
       <c r="U822">
-        <f t="shared" ref="U822:U858" si="1258">SUM(C822:K822)</f>
+        <f t="shared" ref="U822" si="1258">SUM(C822:K822)</f>
         <v>10</v>
       </c>
       <c r="V822">
@@ -41445,6 +41700,9 @@
       <c r="A824" s="53">
         <v>43564</v>
       </c>
+      <c r="E824">
+        <v>0</v>
+      </c>
       <c r="F824">
         <v>3</v>
       </c>
@@ -41462,6 +41720,9 @@
       </c>
     </row>
     <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E825">
+        <v>0</v>
+      </c>
       <c r="F825">
         <v>1</v>
       </c>
@@ -41478,11 +41739,11 @@
         <v>4</v>
       </c>
       <c r="T825">
-        <f t="shared" ref="T825:T858" si="1268">SUM(C824:K824)</f>
+        <f t="shared" ref="T825" si="1268">SUM(C824:K824)</f>
         <v>16</v>
       </c>
       <c r="U825">
-        <f t="shared" ref="U825:U858" si="1269">SUM(C825:K825)</f>
+        <f t="shared" ref="U825" si="1269">SUM(C825:K825)</f>
         <v>10</v>
       </c>
       <c r="V825">
@@ -41528,6 +41789,9 @@
       <c r="A827" s="53">
         <v>43565</v>
       </c>
+      <c r="E827">
+        <v>0</v>
+      </c>
       <c r="F827">
         <v>3</v>
       </c>
@@ -41545,6 +41809,9 @@
       </c>
     </row>
     <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E828">
+        <v>0</v>
+      </c>
       <c r="F828">
         <v>1</v>
       </c>
@@ -41561,11 +41828,11 @@
         <v>4</v>
       </c>
       <c r="T828">
-        <f t="shared" ref="T828:T858" si="1279">SUM(C827:K827)</f>
+        <f t="shared" ref="T828" si="1279">SUM(C827:K827)</f>
         <v>14</v>
       </c>
       <c r="U828">
-        <f t="shared" ref="U828:U858" si="1280">SUM(C828:K828)</f>
+        <f t="shared" ref="U828" si="1280">SUM(C828:K828)</f>
         <v>9</v>
       </c>
       <c r="V828">
@@ -41611,6 +41878,9 @@
       <c r="A830" s="53">
         <v>43566</v>
       </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
       <c r="F830">
         <v>3</v>
       </c>
@@ -41628,6 +41898,9 @@
       </c>
     </row>
     <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E831">
+        <v>0</v>
+      </c>
       <c r="F831">
         <v>1</v>
       </c>
@@ -41644,11 +41917,11 @@
         <v>4</v>
       </c>
       <c r="T831">
-        <f t="shared" ref="T831:T858" si="1290">SUM(C830:K830)</f>
+        <f t="shared" ref="T831" si="1290">SUM(C830:K830)</f>
         <v>14</v>
       </c>
       <c r="U831">
-        <f t="shared" ref="U831:U858" si="1291">SUM(C831:K831)</f>
+        <f t="shared" ref="U831" si="1291">SUM(C831:K831)</f>
         <v>9</v>
       </c>
       <c r="V831">
@@ -41694,6 +41967,9 @@
       <c r="A833" s="53">
         <v>43567</v>
       </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
       <c r="F833">
         <v>3</v>
       </c>
@@ -41711,6 +41987,9 @@
       </c>
     </row>
     <row r="834" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E834">
+        <v>0</v>
+      </c>
       <c r="F834">
         <v>1</v>
       </c>
@@ -41727,11 +42006,11 @@
         <v>4</v>
       </c>
       <c r="T834">
-        <f t="shared" ref="T834:T858" si="1301">SUM(C833:K833)</f>
+        <f t="shared" ref="T834" si="1301">SUM(C833:K833)</f>
         <v>14</v>
       </c>
       <c r="U834">
-        <f t="shared" ref="U834:U858" si="1302">SUM(C834:K834)</f>
+        <f t="shared" ref="U834" si="1302">SUM(C834:K834)</f>
         <v>9</v>
       </c>
       <c r="V834">
@@ -41777,6 +42056,9 @@
       <c r="A836" s="53">
         <v>43568</v>
       </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
       <c r="F836">
         <v>3</v>
       </c>
@@ -41794,6 +42076,9 @@
       </c>
     </row>
     <row r="837" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E837">
+        <v>0</v>
+      </c>
       <c r="F837">
         <v>1</v>
       </c>
@@ -41810,11 +42095,11 @@
         <v>4</v>
       </c>
       <c r="T837">
-        <f t="shared" ref="T837:T858" si="1312">SUM(C836:K836)</f>
+        <f t="shared" ref="T837" si="1312">SUM(C836:K836)</f>
         <v>14</v>
       </c>
       <c r="U837">
-        <f t="shared" ref="U837:U858" si="1313">SUM(C837:K837)</f>
+        <f t="shared" ref="U837" si="1313">SUM(C837:K837)</f>
         <v>9</v>
       </c>
       <c r="V837">
@@ -41860,6 +42145,9 @@
       <c r="A839" s="53">
         <v>43569</v>
       </c>
+      <c r="E839">
+        <v>0</v>
+      </c>
       <c r="F839">
         <v>3</v>
       </c>
@@ -41877,6 +42165,9 @@
       </c>
     </row>
     <row r="840" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E840">
+        <v>0</v>
+      </c>
       <c r="F840">
         <v>1</v>
       </c>
@@ -41893,11 +42184,11 @@
         <v>4</v>
       </c>
       <c r="T840">
-        <f t="shared" ref="T840:T858" si="1323">SUM(C839:K839)</f>
+        <f t="shared" ref="T840" si="1323">SUM(C839:K839)</f>
         <v>14</v>
       </c>
       <c r="U840">
-        <f t="shared" ref="U840:U858" si="1324">SUM(C840:K840)</f>
+        <f t="shared" ref="U840" si="1324">SUM(C840:K840)</f>
         <v>9</v>
       </c>
       <c r="V840">
@@ -41943,6 +42234,9 @@
       <c r="A842" s="53">
         <v>43570</v>
       </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
       <c r="F842">
         <v>3</v>
       </c>
@@ -41960,6 +42254,9 @@
       </c>
     </row>
     <row r="843" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E843">
+        <v>0</v>
+      </c>
       <c r="F843">
         <v>1</v>
       </c>
@@ -41976,11 +42273,11 @@
         <v>4</v>
       </c>
       <c r="T843">
-        <f t="shared" ref="T843:T858" si="1334">SUM(C842:K842)</f>
+        <f t="shared" ref="T843" si="1334">SUM(C842:K842)</f>
         <v>14</v>
       </c>
       <c r="U843">
-        <f t="shared" ref="U843:U858" si="1335">SUM(C843:K843)</f>
+        <f t="shared" ref="U843" si="1335">SUM(C843:K843)</f>
         <v>9</v>
       </c>
       <c r="V843">
@@ -42026,6 +42323,9 @@
       <c r="A845" s="53">
         <v>43571</v>
       </c>
+      <c r="E845">
+        <v>0</v>
+      </c>
       <c r="F845">
         <v>3</v>
       </c>
@@ -42043,6 +42343,9 @@
       </c>
     </row>
     <row r="846" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E846">
+        <v>0</v>
+      </c>
       <c r="F846">
         <v>1</v>
       </c>
@@ -42059,11 +42362,11 @@
         <v>5</v>
       </c>
       <c r="T846">
-        <f t="shared" ref="T846:T858" si="1345">SUM(C845:K845)</f>
+        <f t="shared" ref="T846" si="1345">SUM(C845:K845)</f>
         <v>14</v>
       </c>
       <c r="U846">
-        <f t="shared" ref="U846:U858" si="1346">SUM(C846:K846)</f>
+        <f t="shared" ref="U846" si="1346">SUM(C846:K846)</f>
         <v>10</v>
       </c>
       <c r="V846">
@@ -42109,6 +42412,9 @@
       <c r="A848" s="53">
         <v>43572</v>
       </c>
+      <c r="E848">
+        <v>0</v>
+      </c>
       <c r="F848">
         <v>3</v>
       </c>
@@ -42126,6 +42432,9 @@
       </c>
     </row>
     <row r="849" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E849">
+        <v>0</v>
+      </c>
       <c r="F849">
         <v>1</v>
       </c>
@@ -42142,11 +42451,11 @@
         <v>4</v>
       </c>
       <c r="T849">
-        <f t="shared" ref="T849:T858" si="1356">SUM(C848:K848)</f>
+        <f t="shared" ref="T849" si="1356">SUM(C848:K848)</f>
         <v>14</v>
       </c>
       <c r="U849">
-        <f t="shared" ref="U849:U858" si="1357">SUM(C849:K849)</f>
+        <f t="shared" ref="U849" si="1357">SUM(C849:K849)</f>
         <v>9</v>
       </c>
       <c r="V849">
@@ -42192,6 +42501,9 @@
       <c r="A851" s="53">
         <v>43573</v>
       </c>
+      <c r="E851">
+        <v>0</v>
+      </c>
       <c r="F851">
         <v>3</v>
       </c>
@@ -42209,6 +42521,9 @@
       </c>
     </row>
     <row r="852" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E852">
+        <v>0</v>
+      </c>
       <c r="F852">
         <v>1</v>
       </c>
@@ -42225,11 +42540,11 @@
         <v>4</v>
       </c>
       <c r="T852">
-        <f t="shared" ref="T852:T858" si="1367">SUM(C851:K851)</f>
+        <f t="shared" ref="T852" si="1367">SUM(C851:K851)</f>
         <v>15</v>
       </c>
       <c r="U852">
-        <f t="shared" ref="U852:U858" si="1368">SUM(C852:K852)</f>
+        <f t="shared" ref="U852" si="1368">SUM(C852:K852)</f>
         <v>9</v>
       </c>
       <c r="V852">
@@ -42314,11 +42629,11 @@
         <v>4</v>
       </c>
       <c r="T855">
-        <f t="shared" ref="T855:T858" si="1378">SUM(C854:K854)</f>
+        <f t="shared" ref="T855" si="1378">SUM(C854:K854)</f>
         <v>17</v>
       </c>
       <c r="U855">
-        <f t="shared" ref="U855:U858" si="1379">SUM(C855:K855)</f>
+        <f t="shared" ref="U855" si="1379">SUM(C855:K855)</f>
         <v>9</v>
       </c>
       <c r="V855">
@@ -42607,10 +42922,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J52"/>
+  <dimension ref="A4:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42629,21 +42944,21 @@
       </c>
       <c r="C4">
         <f>SUM(C5:C91)</f>
-        <v>126077</v>
+        <v>140832</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>455</v>
       </c>
       <c r="G4">
         <f>SUM(G5:G18)</f>
-        <v>102000</v>
+        <v>117000</v>
       </c>
       <c r="I4" t="s">
         <v>456</v>
       </c>
       <c r="J4">
         <f>G4-C4</f>
-        <v>-24077</v>
+        <v>-23832</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -42764,6 +43079,9 @@
       <c r="C11">
         <v>500</v>
       </c>
+      <c r="D11" t="s">
+        <v>582</v>
+      </c>
       <c r="F11" t="s">
         <v>562</v>
       </c>
@@ -42801,6 +43119,15 @@
       <c r="C13">
         <v>187</v>
       </c>
+      <c r="D13" t="s">
+        <v>582</v>
+      </c>
+      <c r="F13" t="s">
+        <v>577</v>
+      </c>
+      <c r="G13">
+        <v>15000</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -42812,6 +43139,9 @@
       <c r="C14">
         <v>500</v>
       </c>
+      <c r="D14" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -42823,6 +43153,9 @@
       <c r="C15">
         <v>300</v>
       </c>
+      <c r="D15" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -42834,6 +43167,9 @@
       <c r="C16">
         <v>500</v>
       </c>
+      <c r="D16" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -42859,6 +43195,9 @@
       <c r="C18">
         <v>300</v>
       </c>
+      <c r="D18" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -42870,6 +43209,9 @@
       <c r="C19">
         <v>800</v>
       </c>
+      <c r="D19" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -42881,6 +43223,9 @@
       <c r="C20">
         <v>2000</v>
       </c>
+      <c r="D20" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -42892,6 +43237,9 @@
       <c r="C21">
         <v>-500</v>
       </c>
+      <c r="D21" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -42903,6 +43251,9 @@
       <c r="C22">
         <v>-200</v>
       </c>
+      <c r="D22" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -42914,6 +43265,9 @@
       <c r="C23">
         <v>200</v>
       </c>
+      <c r="D23" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -42939,6 +43293,9 @@
       <c r="C25">
         <v>2000</v>
       </c>
+      <c r="D25" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -42950,6 +43307,9 @@
       <c r="C26">
         <v>300</v>
       </c>
+      <c r="D26" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -42961,6 +43321,9 @@
       <c r="C27">
         <v>700</v>
       </c>
+      <c r="D27" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -42972,6 +43335,9 @@
       <c r="C28">
         <v>500</v>
       </c>
+      <c r="D28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -42983,6 +43349,9 @@
       <c r="C29">
         <v>10000</v>
       </c>
+      <c r="D29" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -42994,6 +43363,9 @@
       <c r="C30">
         <v>1880</v>
       </c>
+      <c r="D30" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -43019,6 +43391,9 @@
       <c r="C32">
         <v>2000</v>
       </c>
+      <c r="D32" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -43030,6 +43405,9 @@
       <c r="C33">
         <v>100</v>
       </c>
+      <c r="D33" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -43041,6 +43419,9 @@
       <c r="C34">
         <v>500</v>
       </c>
+      <c r="D34" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -43052,6 +43433,9 @@
       <c r="C35">
         <v>2200</v>
       </c>
+      <c r="D35" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -43063,6 +43447,9 @@
       <c r="C36">
         <v>500</v>
       </c>
+      <c r="D36" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -43074,6 +43461,9 @@
       <c r="C37">
         <v>500</v>
       </c>
+      <c r="D37" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -43099,6 +43489,9 @@
       <c r="C39">
         <v>500</v>
       </c>
+      <c r="D39" t="s">
+        <v>582</v>
+      </c>
       <c r="E39" t="s">
         <v>495</v>
       </c>
@@ -43113,6 +43506,9 @@
       <c r="C40">
         <v>2500</v>
       </c>
+      <c r="D40" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -43124,6 +43520,9 @@
       <c r="C41">
         <v>1000</v>
       </c>
+      <c r="D41" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -43135,6 +43534,9 @@
       <c r="C42">
         <v>500</v>
       </c>
+      <c r="D42" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -43146,6 +43548,9 @@
       <c r="C43">
         <v>2000</v>
       </c>
+      <c r="D43" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -43157,6 +43562,9 @@
       <c r="C44">
         <v>7000</v>
       </c>
+      <c r="D44" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -43168,6 +43576,9 @@
       <c r="C45">
         <v>1000</v>
       </c>
+      <c r="D45" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -43179,6 +43590,9 @@
       <c r="C46">
         <v>2000</v>
       </c>
+      <c r="D46" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -43190,6 +43604,9 @@
       <c r="C47">
         <v>10000</v>
       </c>
+      <c r="D47" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -43201,6 +43618,9 @@
       <c r="C48">
         <v>1000</v>
       </c>
+      <c r="D48" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -43212,6 +43632,9 @@
       <c r="C49">
         <v>1000</v>
       </c>
+      <c r="D49" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -43223,6 +43646,9 @@
       <c r="C50">
         <v>500</v>
       </c>
+      <c r="D50" t="s">
+        <v>582</v>
+      </c>
       <c r="E50" t="s">
         <v>495</v>
       </c>
@@ -43235,10 +43661,10 @@
         <v>441</v>
       </c>
       <c r="C51">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="D51" t="s">
-        <v>449</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -43249,7 +43675,57 @@
         <v>441</v>
       </c>
       <c r="C52">
-        <v>4000</v>
+        <v>7000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>576</v>
+      </c>
+      <c r="B53" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="D53" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>579</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>580</v>
+      </c>
+      <c r="C55">
+        <v>5000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>581</v>
+      </c>
+      <c r="C56">
+        <v>2255</v>
+      </c>
+      <c r="D56" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="584">
   <si>
     <t>UP</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>Co4(15kg)+Velimasal(.5kg)</t>
   </si>
   <si>
-    <t>24/2/2019</t>
-  </si>
-  <si>
     <t>16/02/2019</t>
   </si>
   <si>
@@ -1782,9 +1779,6 @@
     <t>April</t>
   </si>
   <si>
-    <t>Chinna karuppu</t>
-  </si>
-  <si>
     <t>2nd May</t>
   </si>
   <si>
@@ -1795,6 +1789,15 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Katta kaal</t>
+  </si>
+  <si>
+    <t>Sold on 09th May, 2019</t>
+  </si>
+  <si>
+    <t>-NA-</t>
   </si>
 </sst>
 </file>
@@ -2139,14 +2142,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2161,6 +2158,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2511,11 +2514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="724040400"/>
-        <c:axId val="1005557008"/>
+        <c:axId val="398556480"/>
+        <c:axId val="686914544"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="724040400"/>
+        <c:axId val="398556480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,14 +2561,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005557008"/>
+        <c:crossAx val="686914544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1005557008"/>
+        <c:axId val="686914544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724040400"/>
+        <c:crossAx val="398556480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,11 +2918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1005559728"/>
-        <c:axId val="1005568432"/>
+        <c:axId val="686902576"/>
+        <c:axId val="686911280"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1005559728"/>
+        <c:axId val="686902576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,14 +2965,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005568432"/>
+        <c:crossAx val="686911280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1005568432"/>
+        <c:axId val="686911280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005559728"/>
+        <c:crossAx val="686902576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6800,7 +6803,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="57" t="s">
+      <c r="A150" s="56" t="s">
         <v>531</v>
       </c>
       <c r="B150">
@@ -6818,12 +6821,12 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -6968,7 +6971,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="57" t="s">
+      <c r="A166" s="56" t="s">
         <v>531</v>
       </c>
       <c r="B166">
@@ -7006,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7038,7 +7041,7 @@
         <v>216</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>306</v>
@@ -7068,28 +7071,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="31">
         <v>43190</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="31">
         <v>42500</v>
       </c>
     </row>
@@ -7097,7 +7100,7 @@
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -7106,11 +7109,14 @@
       <c r="D4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>583</v>
+      </c>
       <c r="G4" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="31">
         <v>45000</v>
       </c>
     </row>
@@ -7118,16 +7124,16 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="60" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="58">
         <v>43743</v>
       </c>
       <c r="G5" t="s">
@@ -7141,17 +7147,17 @@
       <c r="A6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>561</v>
+      <c r="F6" t="s">
+        <v>560</v>
       </c>
       <c r="G6" t="s">
         <v>307</v>
@@ -7170,8 +7176,8 @@
       <c r="E7" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>561</v>
+      <c r="F7" s="59" t="s">
+        <v>560</v>
       </c>
       <c r="G7" t="s">
         <v>307</v>
@@ -7206,12 +7212,14 @@
         <v>298</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>574</v>
+      </c>
+      <c r="E9" s="62">
+        <v>43520</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>583</v>
+      </c>
       <c r="G9" t="s">
         <v>307</v>
       </c>
@@ -7226,10 +7234,12 @@
       <c r="B10" s="20">
         <v>43141</v>
       </c>
-      <c r="E10" s="56">
-        <v>43647</v>
-      </c>
-      <c r="F10" s="56"/>
+      <c r="E10" s="61">
+        <v>43472</v>
+      </c>
+      <c r="F10" s="61">
+        <v>43776</v>
+      </c>
       <c r="G10" t="s">
         <v>307</v>
       </c>
@@ -7244,8 +7254,14 @@
       <c r="B11" s="20">
         <v>43161</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="61">
         <v>43587</v>
+      </c>
+      <c r="F11" s="61">
+        <v>43863</v>
+      </c>
+      <c r="G11" t="s">
+        <v>308</v>
       </c>
       <c r="H11">
         <v>46000</v>
@@ -7253,10 +7269,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="63">
+        <v>581</v>
+      </c>
+      <c r="B12" s="61">
         <v>43221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>582</v>
+      </c>
+      <c r="E12" s="61">
+        <v>43617</v>
+      </c>
+      <c r="G12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12">
+        <v>48000</v>
       </c>
     </row>
   </sheetData>
@@ -7454,7 +7482,7 @@
         <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F15" s="53">
         <v>43541</v>
@@ -7465,7 +7493,7 @@
         <v>372</v>
       </c>
       <c r="C16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F16" s="53">
         <v>43541</v>
@@ -7796,31 +7824,31 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>563</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>564</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>566</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>567</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8234,18 +8262,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>556</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -20545,7 +20573,7 @@
       </c>
       <c r="I84" s="68"/>
       <c r="J84" s="51"/>
-      <c r="K84" s="58"/>
+      <c r="K84" s="57"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C85">
@@ -20565,7 +20593,7 @@
       </c>
       <c r="I85" s="68"/>
       <c r="J85" s="51"/>
-      <c r="K85" s="58"/>
+      <c r="K85" s="57"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
@@ -42922,10 +42950,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J56"/>
+  <dimension ref="A4:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A36" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42944,7 +42972,7 @@
       </c>
       <c r="C4">
         <f>SUM(C5:C91)</f>
-        <v>140832</v>
+        <v>141132</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>455</v>
@@ -42958,7 +42986,7 @@
       </c>
       <c r="J4">
         <f>G4-C4</f>
-        <v>-23832</v>
+        <v>-24132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -43080,10 +43108,10 @@
         <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G11">
         <v>15000</v>
@@ -43103,7 +43131,7 @@
         <v>449</v>
       </c>
       <c r="F12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G12">
         <v>15000</v>
@@ -43120,10 +43148,10 @@
         <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G13">
         <v>15000</v>
@@ -43140,7 +43168,7 @@
         <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -43154,7 +43182,7 @@
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -43168,7 +43196,7 @@
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -43196,7 +43224,7 @@
         <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -43210,7 +43238,7 @@
         <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -43224,7 +43252,7 @@
         <v>2000</v>
       </c>
       <c r="D20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -43238,7 +43266,7 @@
         <v>-500</v>
       </c>
       <c r="D21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -43252,7 +43280,7 @@
         <v>-200</v>
       </c>
       <c r="D22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -43266,7 +43294,7 @@
         <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -43294,7 +43322,7 @@
         <v>2000</v>
       </c>
       <c r="D25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -43308,7 +43336,7 @@
         <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -43322,7 +43350,7 @@
         <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -43336,7 +43364,7 @@
         <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -43350,7 +43378,7 @@
         <v>10000</v>
       </c>
       <c r="D29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -43364,7 +43392,7 @@
         <v>1880</v>
       </c>
       <c r="D30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -43392,7 +43420,7 @@
         <v>2000</v>
       </c>
       <c r="D32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -43406,7 +43434,7 @@
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -43420,7 +43448,7 @@
         <v>500</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -43434,7 +43462,7 @@
         <v>2200</v>
       </c>
       <c r="D35" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -43448,7 +43476,7 @@
         <v>500</v>
       </c>
       <c r="D36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -43462,7 +43490,7 @@
         <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -43490,7 +43518,7 @@
         <v>500</v>
       </c>
       <c r="D39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E39" t="s">
         <v>495</v>
@@ -43507,7 +43535,7 @@
         <v>2500</v>
       </c>
       <c r="D40" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -43521,7 +43549,7 @@
         <v>1000</v>
       </c>
       <c r="D41" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -43535,7 +43563,7 @@
         <v>500</v>
       </c>
       <c r="D42" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -43549,7 +43577,7 @@
         <v>2000</v>
       </c>
       <c r="D43" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -43563,7 +43591,7 @@
         <v>7000</v>
       </c>
       <c r="D44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -43577,7 +43605,7 @@
         <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -43591,12 +43619,12 @@
         <v>2000</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B47" t="s">
         <v>441</v>
@@ -43605,12 +43633,12 @@
         <v>10000</v>
       </c>
       <c r="D47" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B48" t="s">
         <v>441</v>
@@ -43619,12 +43647,12 @@
         <v>1000</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B49" t="s">
         <v>441</v>
@@ -43633,12 +43661,12 @@
         <v>1000</v>
       </c>
       <c r="D49" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B50" t="s">
         <v>441</v>
@@ -43647,7 +43675,7 @@
         <v>500</v>
       </c>
       <c r="D50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E50" t="s">
         <v>495</v>
@@ -43655,7 +43683,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B51" t="s">
         <v>441</v>
@@ -43664,12 +43692,12 @@
         <v>4000</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B52" t="s">
         <v>441</v>
@@ -43683,7 +43711,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B53" t="s">
         <v>441</v>
@@ -43692,12 +43720,12 @@
         <v>500</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C54">
         <v>7000</v>
@@ -43708,24 +43736,35 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C55">
         <v>5000</v>
       </c>
       <c r="D55" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C56">
         <v>2255</v>
       </c>
       <c r="D56" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="61">
+        <v>43611</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="D57" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pjd\Dairy_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF084472-E48C-42D5-9998-A10540F5D12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="603" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="603" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="3" r:id="rId1"/>
@@ -31,12 +32,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Milk - Yield'!$B$1:$B$237</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="589">
   <si>
     <t>UP</t>
   </si>
@@ -1810,12 +1818,16 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>2/10/2018
+24-oct-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
@@ -2053,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,6 +2210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2284,7 +2299,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2522,6 +2537,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F3A-448A-9FD8-5A3DDC54CB4E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2688,7 +2708,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2926,6 +2946,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22EE-4F89-AC4C-137038A8E0E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4194,7 +4219,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4226,7 +4257,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4593,7 +4630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView topLeftCell="A151" workbookViewId="0">
@@ -7025,11 +7062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7305,12 +7342,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="20">
-        <v>43141</v>
+      <c r="B10" s="72" t="s">
+        <v>588</v>
       </c>
       <c r="E10" s="61">
         <v>43472</v>
@@ -7401,7 +7438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7613,7 +7650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7653,7 +7690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -7960,7 +7997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7975,7 +8012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8105,7 +8142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
@@ -8649,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -19693,7 +19730,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="B1:B237"/>
+  <autoFilter ref="B1:B237" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -19704,7 +19741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48791,11 +48828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G18"/>
+    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49115,6 +49152,9 @@
       <c r="F19" t="s">
         <v>452</v>
       </c>
+      <c r="G19">
+        <v>15000</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -49798,7 +49838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -50235,7 +50275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50394,7 +50434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50435,7 +50475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DairyRecordKeeping.xlsx
+++ b/DairyRecordKeeping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pjd\Dairy_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF084472-E48C-42D5-9998-A10540F5D12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03242FF1-2705-4280-BC8B-2A87F5A6F6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="603" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="593">
   <si>
     <t>UP</t>
   </si>
@@ -1822,6 +1823,20 @@
   <si>
     <t>2/10/2018
 24-oct-2019</t>
+  </si>
+  <si>
+    <t>From boopathy</t>
+  </si>
+  <si>
+    <t>15/6/2018
+4/11/2019</t>
+  </si>
+  <si>
+    <t>Female
+Male</t>
+  </si>
+  <si>
+    <t>Sold</t>
   </si>
 </sst>
 </file>
@@ -2195,6 +2210,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2209,9 +2227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4650,24 +4665,24 @@
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -4822,18 +4837,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="I18" s="70" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="I18" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
@@ -7066,7 +7081,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7265,8 +7280,8 @@
       <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>111</v>
+      <c r="B7" s="60" t="s">
+        <v>590</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>499</v>
@@ -7274,8 +7289,8 @@
       <c r="F7" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="G7" t="s">
-        <v>307</v>
+      <c r="G7" s="13" t="s">
+        <v>591</v>
       </c>
       <c r="H7">
         <v>58000</v>
@@ -7287,12 +7302,15 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>228</v>
       </c>
       <c r="B8" s="20">
         <v>43319</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>592</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>547</v>
@@ -7346,7 +7364,7 @@
       <c r="A10" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>588</v>
       </c>
       <c r="E10" s="61">
@@ -7355,8 +7373,8 @@
       <c r="F10" s="61">
         <v>43776</v>
       </c>
-      <c r="G10" t="s">
-        <v>307</v>
+      <c r="G10" s="13" t="s">
+        <v>591</v>
       </c>
       <c r="H10">
         <v>52500</v>
@@ -20631,15 +20649,15 @@
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
-      <c r="M81" s="71">
+      <c r="M81" s="72">
         <f>SUM(M83:R83)</f>
         <v>56.75</v>
       </c>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
     </row>
     <row r="82" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -20720,7 +20738,7 @@
       <c r="A84" s="20">
         <v>43198</v>
       </c>
-      <c r="I84" s="71"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="51"/>
       <c r="K84" s="57"/>
       <c r="L84" s="64"/>
@@ -20741,7 +20759,7 @@
       <c r="H85">
         <v>4.5</v>
       </c>
-      <c r="I85" s="71"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="51"/>
       <c r="K85" s="57"/>
       <c r="L85" s="64"/>
@@ -48829,57 +48847,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A4:J75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1">
+        <f>SUM(C2:C100)</f>
+        <v>252082</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1">
+        <f>SUM(G2:G50)</f>
+        <v>207000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1">
+        <f>G1-C1</f>
+        <v>-45082</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2">
+        <v>410</v>
+      </c>
+      <c r="F2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3">
+        <v>12000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3">
+        <v>12000</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>249</v>
+      <c r="A4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
       </c>
       <c r="C4">
-        <f>SUM(C5:C91)</f>
-        <v>238882</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>455</v>
+        <v>500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>452</v>
       </c>
       <c r="G4">
-        <f>SUM(G5:G18)</f>
-        <v>192000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J4">
-        <f>G4-C4</f>
-        <v>-46882</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C5">
-        <v>410</v>
+        <v>-100</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G5">
         <v>12000</v>
@@ -48887,19 +48960,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>441</v>
       </c>
       <c r="C6">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="D6" t="s">
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G6">
         <v>12000</v>
@@ -48907,7 +48980,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
         <v>442</v>
@@ -48916,7 +48989,7 @@
         <v>500</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="G7">
         <v>12000</v>
@@ -48924,64 +48997,70 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8">
-        <v>-100</v>
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="G8">
-        <v>12000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B9" t="s">
         <v>441</v>
       </c>
       <c r="C9">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="s">
         <v>449</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="G9">
-        <v>12000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>580</v>
       </c>
       <c r="F10" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="G10">
-        <v>12000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -48990,7 +49069,7 @@
         <v>580</v>
       </c>
       <c r="F11" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="G11">
         <v>15000</v>
@@ -48998,19 +49077,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
         <v>441</v>
       </c>
       <c r="C12">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="G12">
         <v>15000</v>
@@ -49018,19 +49097,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C13">
-        <v>187</v>
+        <v>500</v>
       </c>
       <c r="D13" t="s">
         <v>580</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="G13">
         <v>15000</v>
@@ -49038,19 +49117,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
         <v>441</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="D14" t="s">
-        <v>580</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>585</v>
+        <v>450</v>
       </c>
       <c r="G14">
         <v>15000</v>
@@ -49058,7 +49137,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
         <v>441</v>
@@ -49070,7 +49149,7 @@
         <v>580</v>
       </c>
       <c r="F15" t="s">
-        <v>586</v>
+        <v>451</v>
       </c>
       <c r="G15">
         <v>15000</v>
@@ -49078,267 +49157,249 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D16" t="s">
         <v>580</v>
       </c>
       <c r="F16" t="s">
-        <v>587</v>
+        <v>452</v>
       </c>
       <c r="G16">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
         <v>441</v>
       </c>
       <c r="C17">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="D17" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
       <c r="F17" t="s">
-        <v>450</v>
-      </c>
-      <c r="G17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="D18" t="s">
         <v>580</v>
       </c>
       <c r="F18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G18">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C19">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="D19" t="s">
         <v>580</v>
       </c>
-      <c r="F19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G19">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s">
         <v>441</v>
       </c>
       <c r="C20">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>580</v>
       </c>
-      <c r="F20" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C21">
-        <v>-500</v>
+        <v>10000</v>
       </c>
       <c r="D21" t="s">
-        <v>580</v>
-      </c>
-      <c r="F21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22">
-        <v>-200</v>
+        <v>2000</v>
       </c>
       <c r="D22" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B24" t="s">
         <v>441</v>
       </c>
       <c r="C24">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
         <v>441</v>
       </c>
       <c r="C25">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D25" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D26" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>1880</v>
       </c>
       <c r="D27" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
         <v>441</v>
       </c>
       <c r="C28">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D28" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
         <v>441</v>
       </c>
       <c r="C29">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D29" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C30">
-        <v>1880</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>441</v>
       </c>
       <c r="C31">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B32" t="s">
         <v>441</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D32" t="s">
         <v>580</v>
@@ -49346,13 +49407,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B33" t="s">
         <v>441</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D33" t="s">
         <v>580</v>
@@ -49360,7 +49421,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B34" t="s">
         <v>441</v>
@@ -49374,21 +49435,21 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B35" t="s">
         <v>441</v>
       </c>
       <c r="C35">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
         <v>441</v>
@@ -49399,16 +49460,19 @@
       <c r="D36" t="s">
         <v>580</v>
       </c>
+      <c r="E36" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
         <v>441</v>
       </c>
       <c r="C37">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="D37" t="s">
         <v>580</v>
@@ -49416,21 +49480,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="B38" t="s">
         <v>441</v>
       </c>
       <c r="C38">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="D38" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="B39" t="s">
         <v>441</v>
@@ -49441,19 +49505,16 @@
       <c r="D39" t="s">
         <v>580</v>
       </c>
-      <c r="E39" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="B40" t="s">
         <v>441</v>
       </c>
       <c r="C40">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D40" t="s">
         <v>580</v>
@@ -49461,13 +49522,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B41" t="s">
         <v>441</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="D41" t="s">
         <v>580</v>
@@ -49475,13 +49536,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B42" t="s">
         <v>441</v>
       </c>
       <c r="C42">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="s">
         <v>580</v>
@@ -49489,7 +49550,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B43" t="s">
         <v>441</v>
@@ -49503,13 +49564,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B44" t="s">
         <v>441</v>
       </c>
       <c r="C44">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="D44" t="s">
         <v>580</v>
@@ -49517,7 +49578,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B45" t="s">
         <v>441</v>
@@ -49531,13 +49592,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B46" t="s">
         <v>441</v>
       </c>
       <c r="C46">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D46" t="s">
         <v>580</v>
@@ -49545,49 +49606,52 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B47" t="s">
         <v>441</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D47" t="s">
         <v>580</v>
       </c>
+      <c r="E47" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B48" t="s">
         <v>441</v>
       </c>
       <c r="C48">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D48" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B49" t="s">
         <v>441</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="D49" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B50" t="s">
         <v>441</v>
@@ -49598,238 +49662,325 @@
       <c r="D50" t="s">
         <v>580</v>
       </c>
-      <c r="E50" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B51" t="s">
         <v>441</v>
       </c>
       <c r="C51">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="D51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B52" t="s">
         <v>441</v>
       </c>
       <c r="C52">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D52" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B53" t="s">
         <v>441</v>
       </c>
       <c r="C53">
-        <v>500</v>
+        <v>2255</v>
       </c>
       <c r="D53" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>577</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="61">
+        <v>43611</v>
+      </c>
+      <c r="B54" t="s">
+        <v>441</v>
       </c>
       <c r="C54">
-        <v>7000</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>578</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="61">
+        <v>43611</v>
+      </c>
+      <c r="B55" t="s">
+        <v>441</v>
       </c>
       <c r="C55">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="D55" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>579</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="61">
+        <v>43617</v>
+      </c>
+      <c r="B56" t="s">
+        <v>441</v>
       </c>
       <c r="C56">
-        <v>2255</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="61">
-        <v>43611</v>
+        <v>43617</v>
+      </c>
+      <c r="B57" t="s">
+        <v>441</v>
       </c>
       <c r="C57">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D57" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="61">
-        <v>43611</v>
+        <v>43617</v>
+      </c>
+      <c r="B58" t="s">
+        <v>441</v>
       </c>
       <c r="C58">
+        <v>12000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="61">
+        <v>43624</v>
+      </c>
+      <c r="B59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="D59" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="61">
+        <v>43631</v>
+      </c>
+      <c r="B60" t="s">
+        <v>441</v>
+      </c>
+      <c r="C60">
+        <v>1000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="61">
+        <v>43646</v>
+      </c>
+      <c r="B61" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61">
+        <v>3000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="61">
+        <v>43646</v>
+      </c>
+      <c r="B62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="61">
+        <v>43656</v>
+      </c>
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="61">
+        <v>43678</v>
+      </c>
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64">
+        <v>8000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="61">
+        <v>43681</v>
+      </c>
+      <c r="B65" t="s">
+        <v>441</v>
+      </c>
+      <c r="C65">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="61">
+        <v>43694</v>
+      </c>
+      <c r="B66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="61">
+        <v>43701</v>
+      </c>
+      <c r="B67" t="s">
+        <v>441</v>
+      </c>
+      <c r="C67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="61">
+        <v>43711</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68">
+        <v>12000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="61">
+        <v>43722</v>
+      </c>
+      <c r="B69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="61">
+        <v>43729</v>
+      </c>
+      <c r="B70" t="s">
+        <v>441</v>
+      </c>
+      <c r="C70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="61">
+        <v>43737</v>
+      </c>
+      <c r="B71" t="s">
+        <v>441</v>
+      </c>
+      <c r="C71">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="61">
+        <v>43739</v>
+      </c>
+      <c r="B72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72">
+        <v>7000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="61">
+        <v>43758</v>
+      </c>
+      <c r="B73" t="s">
+        <v>441</v>
+      </c>
+      <c r="C73">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="61">
-        <v>43617</v>
-      </c>
-      <c r="C59">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="61">
-        <v>43617</v>
-      </c>
-      <c r="C60">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="61">
-        <v>43617</v>
-      </c>
-      <c r="C61">
+      <c r="D73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="61">
+        <v>43770</v>
+      </c>
+      <c r="C74">
         <v>12000</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="61">
-        <v>43624</v>
-      </c>
-      <c r="C62">
+      <c r="D74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="61">
+        <v>43770</v>
+      </c>
+      <c r="C75">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="61">
-        <v>43631</v>
-      </c>
-      <c r="C63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="61">
-        <v>43646</v>
-      </c>
-      <c r="C64">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="61">
-        <v>43646</v>
-      </c>
-      <c r="C65">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="61">
-        <v>43656</v>
-      </c>
-      <c r="C66">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="61">
-        <v>43678</v>
-      </c>
-      <c r="C67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="61">
-        <v>43681</v>
-      </c>
-      <c r="C68">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="61">
-        <v>43694</v>
-      </c>
-      <c r="C69">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="61">
-        <v>43701</v>
-      </c>
-      <c r="C70">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="61">
-        <v>43711</v>
-      </c>
-      <c r="C71">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="61">
-        <v>43722</v>
-      </c>
-      <c r="C72">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="61">
-        <v>43729</v>
-      </c>
-      <c r="C73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="61">
-        <v>43737</v>
-      </c>
-      <c r="C74">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="61">
-        <v>43739</v>
-      </c>
-      <c r="C75">
-        <v>7000</v>
+      <c r="D75" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
